--- a/Template/Template.xlsx
+++ b/Template/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yudha\Documents\UiPath\PeoplePerformanceV1\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF78149B-99BE-47D8-BE7A-8A8C004F0D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D9317B-065A-452F-9F11-30E83B6F47B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5082,7 +5082,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="535">
+  <cellXfs count="537">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6022,49 +6022,142 @@
     <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="29" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="43" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="43" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="30" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="43" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="31" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="31" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="33" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="32" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="28" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="28" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="31" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="24" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="18" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="25" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="13" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="22" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6073,158 +6166,86 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="26" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="30" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="27" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="31" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="26" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="18" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="24" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="25" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="28" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="22" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6232,70 +6253,34 @@
     <xf numFmtId="167" fontId="6" fillId="21" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="21" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="19" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="19" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="19" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="13" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="33" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="43" fillId="42" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6352,116 +6337,161 @@
     <xf numFmtId="9" fontId="5" fillId="45" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="43" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="21" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="43" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="19" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="19" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="19" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="29" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="25" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="27" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="28" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="31" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="32" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="23" fillId="38" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6469,13 +6499,10 @@
     <xf numFmtId="1" fontId="23" fillId="38" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="38" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6493,10 +6520,13 @@
     <xf numFmtId="2" fontId="23" fillId="38" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6511,13 +6541,49 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6559,51 +6625,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6631,25 +6652,10 @@
     <xf numFmtId="0" fontId="43" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="29" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="30" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="30" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="31" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="31" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="31" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="29" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8844,10 +8850,10 @@
   <dimension ref="A1:ACY4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="ABX5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AAA5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AAU3" activeCellId="2" sqref="AAS1:AAS1048576 AAT1:AAT1048576 AAU1:AAU1048576"/>
+      <selection pane="bottomRight" activeCell="AAK6" sqref="AAK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8871,7 +8877,11 @@
     <col min="40" max="41" width="12.85546875" style="309" customWidth="1"/>
     <col min="42" max="42" width="12.85546875" customWidth="1"/>
     <col min="43" max="44" width="12.85546875" style="309" customWidth="1"/>
-    <col min="45" max="68" width="12.85546875" customWidth="1"/>
+    <col min="45" max="51" width="12.85546875" customWidth="1"/>
+    <col min="52" max="53" width="12.85546875" style="309" customWidth="1"/>
+    <col min="54" max="54" width="12.85546875" customWidth="1"/>
+    <col min="55" max="56" width="12.85546875" style="309" customWidth="1"/>
+    <col min="57" max="68" width="12.85546875" customWidth="1"/>
     <col min="70" max="70" width="9.140625" style="309"/>
     <col min="72" max="72" width="9.140625" style="309"/>
     <col min="74" max="74" width="9.140625" style="309"/>
@@ -8891,6 +8901,14 @@
     <col min="148" max="148" width="9.140625" style="309"/>
     <col min="151" max="151" width="9.140625" style="309"/>
     <col min="154" max="154" width="9.140625" style="309"/>
+    <col min="183" max="184" width="9.140625" style="309"/>
+    <col min="186" max="187" width="9.140625" style="309"/>
+    <col min="189" max="190" width="9.140625" style="309"/>
+    <col min="192" max="193" width="9.140625" style="309"/>
+    <col min="195" max="196" width="9.140625" style="309"/>
+    <col min="198" max="199" width="9.140625" style="309"/>
+    <col min="201" max="202" width="9.140625" style="309"/>
+    <col min="204" max="205" width="9.140625" style="309"/>
     <col min="231" max="232" width="9.140625" style="309"/>
     <col min="234" max="235" width="9.140625" style="309"/>
     <col min="237" max="238" width="9.140625" style="309"/>
@@ -8935,7 +8953,9 @@
     <col min="681" max="681" width="9.140625" style="309"/>
     <col min="685" max="688" width="9.140625" style="309"/>
     <col min="701" max="705" width="10.7109375" style="309" customWidth="1"/>
-    <col min="706" max="717" width="10.7109375" customWidth="1"/>
+    <col min="706" max="711" width="10.7109375" customWidth="1"/>
+    <col min="712" max="714" width="10.7109375" style="309" customWidth="1"/>
+    <col min="715" max="717" width="10.7109375" customWidth="1"/>
     <col min="718" max="723" width="10.7109375" style="309" customWidth="1"/>
     <col min="724" max="733" width="10.7109375" customWidth="1"/>
     <col min="737" max="740" width="9.140625" style="309"/>
@@ -8960,992 +8980,992 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:779" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="453" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="462" t="s">
+      <c r="A1" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="354" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="453" t="s">
+      <c r="C1" s="353" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="463" t="s">
+      <c r="D1" s="355" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="463" t="s">
+      <c r="E1" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="453" t="s">
+      <c r="F1" s="353" t="s">
         <v>322</v>
       </c>
-      <c r="G1" s="453" t="s">
+      <c r="G1" s="353" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="453" t="s">
+      <c r="H1" s="353" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="453" t="s">
+      <c r="I1" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="453" t="s">
+      <c r="J1" s="353" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="453" t="s">
+      <c r="K1" s="353" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="453" t="s">
+      <c r="L1" s="353" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="453" t="s">
+      <c r="M1" s="353" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="453" t="s">
+      <c r="N1" s="353" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="453" t="s">
+      <c r="O1" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="453" t="s">
+      <c r="P1" s="353" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="453" t="s">
+      <c r="Q1" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="453" t="s">
+      <c r="R1" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="453" t="s">
+      <c r="S1" s="353" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="453" t="s">
+      <c r="T1" s="353" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="453" t="s">
+      <c r="U1" s="353" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="446" t="s">
+      <c r="V1" s="356" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="453" t="s">
+      <c r="W1" s="353" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="453" t="s">
+      <c r="X1" s="353" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="453" t="s">
+      <c r="Y1" s="353" t="s">
         <v>23</v>
       </c>
       <c r="Z1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" s="380" t="s">
+      <c r="AA1" s="394" t="s">
         <v>203</v>
       </c>
-      <c r="AB1" s="380"/>
-      <c r="AC1" s="380"/>
-      <c r="AD1" s="380"/>
-      <c r="AE1" s="380"/>
-      <c r="AF1" s="380"/>
-      <c r="AG1" s="456" t="s">
+      <c r="AB1" s="394"/>
+      <c r="AC1" s="394"/>
+      <c r="AD1" s="394"/>
+      <c r="AE1" s="394"/>
+      <c r="AF1" s="394"/>
+      <c r="AG1" s="348" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" s="456"/>
-      <c r="AI1" s="456"/>
-      <c r="AJ1" s="456"/>
-      <c r="AK1" s="456"/>
-      <c r="AL1" s="456"/>
-      <c r="AM1" s="414" t="s">
+      <c r="AH1" s="348"/>
+      <c r="AI1" s="348"/>
+      <c r="AJ1" s="348"/>
+      <c r="AK1" s="348"/>
+      <c r="AL1" s="348"/>
+      <c r="AM1" s="339" t="s">
         <v>256</v>
       </c>
-      <c r="AN1" s="414"/>
-      <c r="AO1" s="414"/>
-      <c r="AP1" s="414"/>
-      <c r="AQ1" s="414"/>
-      <c r="AR1" s="414"/>
-      <c r="AS1" s="371" t="s">
+      <c r="AN1" s="339"/>
+      <c r="AO1" s="339"/>
+      <c r="AP1" s="339"/>
+      <c r="AQ1" s="339"/>
+      <c r="AR1" s="339"/>
+      <c r="AS1" s="345" t="s">
         <v>265</v>
       </c>
-      <c r="AT1" s="371"/>
-      <c r="AU1" s="371"/>
-      <c r="AV1" s="371"/>
-      <c r="AW1" s="371"/>
-      <c r="AX1" s="371"/>
-      <c r="AY1" s="331" t="s">
+      <c r="AT1" s="345"/>
+      <c r="AU1" s="345"/>
+      <c r="AV1" s="345"/>
+      <c r="AW1" s="345"/>
+      <c r="AX1" s="345"/>
+      <c r="AY1" s="470" t="s">
         <v>226</v>
       </c>
-      <c r="AZ1" s="331"/>
-      <c r="BA1" s="331"/>
-      <c r="BB1" s="331"/>
-      <c r="BC1" s="331"/>
-      <c r="BD1" s="331"/>
-      <c r="BE1" s="384" t="s">
+      <c r="AZ1" s="470"/>
+      <c r="BA1" s="470"/>
+      <c r="BB1" s="470"/>
+      <c r="BC1" s="470"/>
+      <c r="BD1" s="470"/>
+      <c r="BE1" s="411" t="s">
         <v>209</v>
       </c>
-      <c r="BF1" s="384"/>
-      <c r="BG1" s="384"/>
-      <c r="BH1" s="384"/>
-      <c r="BI1" s="384"/>
-      <c r="BJ1" s="384"/>
-      <c r="BK1" s="343" t="s">
+      <c r="BF1" s="411"/>
+      <c r="BG1" s="411"/>
+      <c r="BH1" s="411"/>
+      <c r="BI1" s="411"/>
+      <c r="BJ1" s="411"/>
+      <c r="BK1" s="433" t="s">
         <v>1345</v>
       </c>
-      <c r="BL1" s="343"/>
-      <c r="BM1" s="343"/>
-      <c r="BN1" s="343"/>
-      <c r="BO1" s="343"/>
-      <c r="BP1" s="343"/>
-      <c r="BQ1" s="448" t="s">
+      <c r="BL1" s="433"/>
+      <c r="BM1" s="433"/>
+      <c r="BN1" s="433"/>
+      <c r="BO1" s="433"/>
+      <c r="BP1" s="433"/>
+      <c r="BQ1" s="385" t="s">
         <v>122</v>
       </c>
-      <c r="BR1" s="448"/>
-      <c r="BS1" s="448"/>
-      <c r="BT1" s="448"/>
-      <c r="BU1" s="448"/>
-      <c r="BV1" s="448"/>
-      <c r="BW1" s="448"/>
-      <c r="BX1" s="448"/>
-      <c r="BY1" s="448"/>
-      <c r="BZ1" s="448"/>
-      <c r="CA1" s="448"/>
-      <c r="CB1" s="448"/>
-      <c r="CC1" s="448"/>
-      <c r="CD1" s="448"/>
-      <c r="CE1" s="448"/>
-      <c r="CF1" s="448"/>
-      <c r="CG1" s="448"/>
-      <c r="CH1" s="352" t="s">
+      <c r="BR1" s="385"/>
+      <c r="BS1" s="385"/>
+      <c r="BT1" s="385"/>
+      <c r="BU1" s="385"/>
+      <c r="BV1" s="385"/>
+      <c r="BW1" s="385"/>
+      <c r="BX1" s="385"/>
+      <c r="BY1" s="385"/>
+      <c r="BZ1" s="385"/>
+      <c r="CA1" s="385"/>
+      <c r="CB1" s="385"/>
+      <c r="CC1" s="385"/>
+      <c r="CD1" s="385"/>
+      <c r="CE1" s="385"/>
+      <c r="CF1" s="385"/>
+      <c r="CG1" s="385"/>
+      <c r="CH1" s="391" t="s">
         <v>137</v>
       </c>
-      <c r="CI1" s="352"/>
-      <c r="CJ1" s="352"/>
-      <c r="CK1" s="352"/>
-      <c r="CL1" s="352"/>
-      <c r="CM1" s="352"/>
-      <c r="CN1" s="389" t="s">
+      <c r="CI1" s="391"/>
+      <c r="CJ1" s="391"/>
+      <c r="CK1" s="391"/>
+      <c r="CL1" s="391"/>
+      <c r="CM1" s="391"/>
+      <c r="CN1" s="365" t="s">
         <v>179</v>
       </c>
-      <c r="CO1" s="389"/>
-      <c r="CP1" s="389"/>
-      <c r="CQ1" s="389"/>
-      <c r="CR1" s="389"/>
-      <c r="CS1" s="389"/>
-      <c r="CT1" s="340" t="s">
+      <c r="CO1" s="365"/>
+      <c r="CP1" s="365"/>
+      <c r="CQ1" s="365"/>
+      <c r="CR1" s="365"/>
+      <c r="CS1" s="365"/>
+      <c r="CT1" s="371" t="s">
         <v>206</v>
       </c>
-      <c r="CU1" s="340"/>
-      <c r="CV1" s="340"/>
-      <c r="CW1" s="340"/>
-      <c r="CX1" s="340"/>
-      <c r="CY1" s="340"/>
-      <c r="CZ1" s="441" t="s">
+      <c r="CU1" s="371"/>
+      <c r="CV1" s="371"/>
+      <c r="CW1" s="371"/>
+      <c r="CX1" s="371"/>
+      <c r="CY1" s="371"/>
+      <c r="CZ1" s="388" t="s">
         <v>132</v>
       </c>
-      <c r="DA1" s="441"/>
-      <c r="DB1" s="441"/>
-      <c r="DC1" s="441"/>
-      <c r="DD1" s="441"/>
-      <c r="DE1" s="441"/>
-      <c r="DF1" s="441"/>
-      <c r="DG1" s="441"/>
-      <c r="DH1" s="441"/>
-      <c r="DI1" s="441"/>
-      <c r="DJ1" s="441"/>
-      <c r="DK1" s="441"/>
-      <c r="DL1" s="407" t="s">
+      <c r="DA1" s="388"/>
+      <c r="DB1" s="388"/>
+      <c r="DC1" s="388"/>
+      <c r="DD1" s="388"/>
+      <c r="DE1" s="388"/>
+      <c r="DF1" s="388"/>
+      <c r="DG1" s="388"/>
+      <c r="DH1" s="388"/>
+      <c r="DI1" s="388"/>
+      <c r="DJ1" s="388"/>
+      <c r="DK1" s="388"/>
+      <c r="DL1" s="392" t="s">
         <v>139</v>
       </c>
-      <c r="DM1" s="407"/>
-      <c r="DN1" s="407"/>
-      <c r="DO1" s="407"/>
-      <c r="DP1" s="407"/>
-      <c r="DQ1" s="407"/>
-      <c r="DR1" s="407"/>
-      <c r="DS1" s="407"/>
-      <c r="DT1" s="407"/>
-      <c r="DU1" s="396" t="s">
+      <c r="DM1" s="392"/>
+      <c r="DN1" s="392"/>
+      <c r="DO1" s="392"/>
+      <c r="DP1" s="392"/>
+      <c r="DQ1" s="392"/>
+      <c r="DR1" s="392"/>
+      <c r="DS1" s="392"/>
+      <c r="DT1" s="392"/>
+      <c r="DU1" s="368" t="s">
         <v>182</v>
       </c>
-      <c r="DV1" s="396"/>
-      <c r="DW1" s="396"/>
-      <c r="DX1" s="396"/>
-      <c r="DY1" s="396"/>
-      <c r="DZ1" s="396"/>
-      <c r="EA1" s="396"/>
-      <c r="EB1" s="396"/>
-      <c r="EC1" s="396"/>
-      <c r="ED1" s="457" t="s">
+      <c r="DV1" s="368"/>
+      <c r="DW1" s="368"/>
+      <c r="DX1" s="368"/>
+      <c r="DY1" s="368"/>
+      <c r="DZ1" s="368"/>
+      <c r="EA1" s="368"/>
+      <c r="EB1" s="368"/>
+      <c r="EC1" s="368"/>
+      <c r="ED1" s="335" t="s">
         <v>276</v>
       </c>
-      <c r="EE1" s="457"/>
-      <c r="EF1" s="457"/>
-      <c r="EG1" s="457"/>
-      <c r="EH1" s="457"/>
-      <c r="EI1" s="457"/>
-      <c r="EJ1" s="459" t="s">
+      <c r="EE1" s="335"/>
+      <c r="EF1" s="335"/>
+      <c r="EG1" s="335"/>
+      <c r="EH1" s="335"/>
+      <c r="EI1" s="335"/>
+      <c r="EJ1" s="374" t="s">
         <v>123</v>
       </c>
-      <c r="EK1" s="459"/>
-      <c r="EL1" s="459"/>
-      <c r="EM1" s="459"/>
-      <c r="EN1" s="459"/>
-      <c r="EO1" s="459"/>
-      <c r="EP1" s="459"/>
-      <c r="EQ1" s="459"/>
-      <c r="ER1" s="459"/>
-      <c r="ES1" s="459"/>
-      <c r="ET1" s="459"/>
-      <c r="EU1" s="459"/>
-      <c r="EV1" s="459"/>
-      <c r="EW1" s="459"/>
-      <c r="EX1" s="459"/>
-      <c r="EY1" s="395" t="s">
+      <c r="EK1" s="374"/>
+      <c r="EL1" s="374"/>
+      <c r="EM1" s="374"/>
+      <c r="EN1" s="374"/>
+      <c r="EO1" s="374"/>
+      <c r="EP1" s="374"/>
+      <c r="EQ1" s="374"/>
+      <c r="ER1" s="374"/>
+      <c r="ES1" s="374"/>
+      <c r="ET1" s="374"/>
+      <c r="EU1" s="374"/>
+      <c r="EV1" s="374"/>
+      <c r="EW1" s="374"/>
+      <c r="EX1" s="374"/>
+      <c r="EY1" s="399" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="395"/>
-      <c r="FA1" s="395"/>
-      <c r="FB1" s="395"/>
-      <c r="FC1" s="395"/>
-      <c r="FD1" s="395"/>
-      <c r="FE1" s="395"/>
-      <c r="FF1" s="395"/>
-      <c r="FG1" s="395"/>
-      <c r="FH1" s="372" t="s">
+      <c r="EZ1" s="399"/>
+      <c r="FA1" s="399"/>
+      <c r="FB1" s="399"/>
+      <c r="FC1" s="399"/>
+      <c r="FD1" s="399"/>
+      <c r="FE1" s="399"/>
+      <c r="FF1" s="399"/>
+      <c r="FG1" s="399"/>
+      <c r="FH1" s="347" t="s">
         <v>190</v>
       </c>
-      <c r="FI1" s="372"/>
-      <c r="FJ1" s="372"/>
-      <c r="FK1" s="372"/>
-      <c r="FL1" s="372"/>
-      <c r="FM1" s="372"/>
-      <c r="FN1" s="372"/>
-      <c r="FO1" s="372"/>
-      <c r="FP1" s="372"/>
-      <c r="FQ1" s="386" t="s">
+      <c r="FI1" s="347"/>
+      <c r="FJ1" s="347"/>
+      <c r="FK1" s="347"/>
+      <c r="FL1" s="347"/>
+      <c r="FM1" s="347"/>
+      <c r="FN1" s="347"/>
+      <c r="FO1" s="347"/>
+      <c r="FP1" s="347"/>
+      <c r="FQ1" s="331" t="s">
         <v>289</v>
       </c>
-      <c r="FR1" s="386"/>
-      <c r="FS1" s="386"/>
-      <c r="FT1" s="386"/>
-      <c r="FU1" s="386"/>
-      <c r="FV1" s="386"/>
-      <c r="FW1" s="386"/>
-      <c r="FX1" s="386"/>
-      <c r="FY1" s="386"/>
-      <c r="FZ1" s="336" t="s">
+      <c r="FR1" s="331"/>
+      <c r="FS1" s="331"/>
+      <c r="FT1" s="331"/>
+      <c r="FU1" s="331"/>
+      <c r="FV1" s="331"/>
+      <c r="FW1" s="331"/>
+      <c r="FX1" s="331"/>
+      <c r="FY1" s="331"/>
+      <c r="FZ1" s="478" t="s">
         <v>286</v>
       </c>
-      <c r="GA1" s="336"/>
-      <c r="GB1" s="336"/>
-      <c r="GC1" s="336"/>
-      <c r="GD1" s="336"/>
-      <c r="GE1" s="336"/>
-      <c r="GF1" s="336"/>
-      <c r="GG1" s="336"/>
-      <c r="GH1" s="336"/>
-      <c r="GI1" s="336"/>
-      <c r="GJ1" s="336"/>
-      <c r="GK1" s="336"/>
-      <c r="GL1" s="336"/>
-      <c r="GM1" s="336"/>
-      <c r="GN1" s="336"/>
-      <c r="GO1" s="336"/>
-      <c r="GP1" s="336"/>
-      <c r="GQ1" s="336"/>
-      <c r="GR1" s="336"/>
-      <c r="GS1" s="336"/>
-      <c r="GT1" s="336"/>
-      <c r="GU1" s="336"/>
-      <c r="GV1" s="336"/>
-      <c r="GW1" s="336"/>
-      <c r="GX1" s="466" t="s">
+      <c r="GA1" s="478"/>
+      <c r="GB1" s="478"/>
+      <c r="GC1" s="478"/>
+      <c r="GD1" s="478"/>
+      <c r="GE1" s="478"/>
+      <c r="GF1" s="478"/>
+      <c r="GG1" s="478"/>
+      <c r="GH1" s="478"/>
+      <c r="GI1" s="478"/>
+      <c r="GJ1" s="478"/>
+      <c r="GK1" s="478"/>
+      <c r="GL1" s="478"/>
+      <c r="GM1" s="478"/>
+      <c r="GN1" s="478"/>
+      <c r="GO1" s="478"/>
+      <c r="GP1" s="478"/>
+      <c r="GQ1" s="478"/>
+      <c r="GR1" s="478"/>
+      <c r="GS1" s="478"/>
+      <c r="GT1" s="478"/>
+      <c r="GU1" s="478"/>
+      <c r="GV1" s="478"/>
+      <c r="GW1" s="478"/>
+      <c r="GX1" s="351" t="s">
         <v>288</v>
       </c>
-      <c r="GY1" s="466"/>
-      <c r="GZ1" s="466"/>
-      <c r="HA1" s="466"/>
-      <c r="HB1" s="466"/>
-      <c r="HC1" s="466"/>
-      <c r="HD1" s="466"/>
-      <c r="HE1" s="466"/>
-      <c r="HF1" s="466"/>
-      <c r="HG1" s="466"/>
-      <c r="HH1" s="466"/>
-      <c r="HI1" s="466"/>
-      <c r="HJ1" s="466"/>
-      <c r="HK1" s="466"/>
-      <c r="HL1" s="466"/>
-      <c r="HM1" s="466"/>
-      <c r="HN1" s="466"/>
-      <c r="HO1" s="466"/>
-      <c r="HP1" s="466"/>
-      <c r="HQ1" s="466"/>
-      <c r="HR1" s="466"/>
-      <c r="HS1" s="466"/>
-      <c r="HT1" s="466"/>
-      <c r="HU1" s="466"/>
-      <c r="HV1" s="466" t="s">
+      <c r="GY1" s="351"/>
+      <c r="GZ1" s="351"/>
+      <c r="HA1" s="351"/>
+      <c r="HB1" s="351"/>
+      <c r="HC1" s="351"/>
+      <c r="HD1" s="351"/>
+      <c r="HE1" s="351"/>
+      <c r="HF1" s="351"/>
+      <c r="HG1" s="351"/>
+      <c r="HH1" s="351"/>
+      <c r="HI1" s="351"/>
+      <c r="HJ1" s="351"/>
+      <c r="HK1" s="351"/>
+      <c r="HL1" s="351"/>
+      <c r="HM1" s="351"/>
+      <c r="HN1" s="351"/>
+      <c r="HO1" s="351"/>
+      <c r="HP1" s="351"/>
+      <c r="HQ1" s="351"/>
+      <c r="HR1" s="351"/>
+      <c r="HS1" s="351"/>
+      <c r="HT1" s="351"/>
+      <c r="HU1" s="351"/>
+      <c r="HV1" s="351" t="s">
         <v>287</v>
       </c>
-      <c r="HW1" s="466"/>
-      <c r="HX1" s="466"/>
-      <c r="HY1" s="466"/>
-      <c r="HZ1" s="466"/>
-      <c r="IA1" s="466"/>
-      <c r="IB1" s="466"/>
-      <c r="IC1" s="466"/>
-      <c r="ID1" s="466"/>
-      <c r="IE1" s="466"/>
-      <c r="IF1" s="466"/>
-      <c r="IG1" s="466"/>
-      <c r="IH1" s="466"/>
-      <c r="II1" s="466"/>
-      <c r="IJ1" s="466"/>
-      <c r="IK1" s="466"/>
-      <c r="IL1" s="466"/>
-      <c r="IM1" s="466"/>
-      <c r="IN1" s="372" t="s">
+      <c r="HW1" s="351"/>
+      <c r="HX1" s="351"/>
+      <c r="HY1" s="351"/>
+      <c r="HZ1" s="351"/>
+      <c r="IA1" s="351"/>
+      <c r="IB1" s="351"/>
+      <c r="IC1" s="351"/>
+      <c r="ID1" s="351"/>
+      <c r="IE1" s="351"/>
+      <c r="IF1" s="351"/>
+      <c r="IG1" s="351"/>
+      <c r="IH1" s="351"/>
+      <c r="II1" s="351"/>
+      <c r="IJ1" s="351"/>
+      <c r="IK1" s="351"/>
+      <c r="IL1" s="351"/>
+      <c r="IM1" s="351"/>
+      <c r="IN1" s="347" t="s">
         <v>266</v>
       </c>
-      <c r="IO1" s="372"/>
-      <c r="IP1" s="372"/>
-      <c r="IQ1" s="372"/>
-      <c r="IR1" s="372"/>
-      <c r="IS1" s="372"/>
-      <c r="IT1" s="372"/>
-      <c r="IU1" s="372"/>
-      <c r="IV1" s="372"/>
-      <c r="IW1" s="372"/>
-      <c r="IX1" s="372"/>
-      <c r="IY1" s="372"/>
-      <c r="IZ1" s="372"/>
-      <c r="JA1" s="372"/>
-      <c r="JB1" s="372"/>
-      <c r="JC1" s="372"/>
-      <c r="JD1" s="372"/>
-      <c r="JE1" s="372"/>
-      <c r="JF1" s="372"/>
-      <c r="JG1" s="372"/>
-      <c r="JH1" s="372"/>
-      <c r="JI1" s="372"/>
-      <c r="JJ1" s="372"/>
-      <c r="JK1" s="372"/>
-      <c r="JL1" s="469" t="s">
+      <c r="IO1" s="347"/>
+      <c r="IP1" s="347"/>
+      <c r="IQ1" s="347"/>
+      <c r="IR1" s="347"/>
+      <c r="IS1" s="347"/>
+      <c r="IT1" s="347"/>
+      <c r="IU1" s="347"/>
+      <c r="IV1" s="347"/>
+      <c r="IW1" s="347"/>
+      <c r="IX1" s="347"/>
+      <c r="IY1" s="347"/>
+      <c r="IZ1" s="347"/>
+      <c r="JA1" s="347"/>
+      <c r="JB1" s="347"/>
+      <c r="JC1" s="347"/>
+      <c r="JD1" s="347"/>
+      <c r="JE1" s="347"/>
+      <c r="JF1" s="347"/>
+      <c r="JG1" s="347"/>
+      <c r="JH1" s="347"/>
+      <c r="JI1" s="347"/>
+      <c r="JJ1" s="347"/>
+      <c r="JK1" s="347"/>
+      <c r="JL1" s="342" t="s">
         <v>257</v>
       </c>
-      <c r="JM1" s="469"/>
-      <c r="JN1" s="469"/>
-      <c r="JO1" s="469"/>
-      <c r="JP1" s="469"/>
-      <c r="JQ1" s="469"/>
-      <c r="JR1" s="469"/>
-      <c r="JS1" s="469"/>
-      <c r="JT1" s="469"/>
-      <c r="JU1" s="469"/>
-      <c r="JV1" s="469"/>
-      <c r="JW1" s="469"/>
-      <c r="JX1" s="469"/>
-      <c r="JY1" s="469"/>
-      <c r="JZ1" s="469"/>
-      <c r="KA1" s="469"/>
-      <c r="KB1" s="469"/>
-      <c r="KC1" s="469"/>
-      <c r="KD1" s="337" t="s">
+      <c r="JM1" s="342"/>
+      <c r="JN1" s="342"/>
+      <c r="JO1" s="342"/>
+      <c r="JP1" s="342"/>
+      <c r="JQ1" s="342"/>
+      <c r="JR1" s="342"/>
+      <c r="JS1" s="342"/>
+      <c r="JT1" s="342"/>
+      <c r="JU1" s="342"/>
+      <c r="JV1" s="342"/>
+      <c r="JW1" s="342"/>
+      <c r="JX1" s="342"/>
+      <c r="JY1" s="342"/>
+      <c r="JZ1" s="342"/>
+      <c r="KA1" s="342"/>
+      <c r="KB1" s="342"/>
+      <c r="KC1" s="342"/>
+      <c r="KD1" s="457" t="s">
         <v>201</v>
       </c>
-      <c r="KE1" s="337"/>
-      <c r="KF1" s="337"/>
-      <c r="KG1" s="337"/>
-      <c r="KH1" s="337"/>
-      <c r="KI1" s="337"/>
-      <c r="KJ1" s="337"/>
-      <c r="KK1" s="337"/>
-      <c r="KL1" s="337"/>
-      <c r="KM1" s="337"/>
-      <c r="KN1" s="337"/>
-      <c r="KO1" s="337"/>
-      <c r="KP1" s="337" t="s">
+      <c r="KE1" s="457"/>
+      <c r="KF1" s="457"/>
+      <c r="KG1" s="457"/>
+      <c r="KH1" s="457"/>
+      <c r="KI1" s="457"/>
+      <c r="KJ1" s="457"/>
+      <c r="KK1" s="457"/>
+      <c r="KL1" s="457"/>
+      <c r="KM1" s="457"/>
+      <c r="KN1" s="457"/>
+      <c r="KO1" s="457"/>
+      <c r="KP1" s="457" t="s">
         <v>202</v>
       </c>
-      <c r="KQ1" s="337"/>
-      <c r="KR1" s="337"/>
-      <c r="KS1" s="337"/>
-      <c r="KT1" s="337"/>
-      <c r="KU1" s="337"/>
-      <c r="KV1" s="337"/>
-      <c r="KW1" s="337"/>
-      <c r="KX1" s="337"/>
-      <c r="KY1" s="337"/>
-      <c r="KZ1" s="337"/>
-      <c r="LA1" s="337"/>
-      <c r="LB1" s="337"/>
-      <c r="LC1" s="337"/>
-      <c r="LD1" s="337"/>
-      <c r="LE1" s="350" t="s">
+      <c r="KQ1" s="457"/>
+      <c r="KR1" s="457"/>
+      <c r="KS1" s="457"/>
+      <c r="KT1" s="457"/>
+      <c r="KU1" s="457"/>
+      <c r="KV1" s="457"/>
+      <c r="KW1" s="457"/>
+      <c r="KX1" s="457"/>
+      <c r="KY1" s="457"/>
+      <c r="KZ1" s="457"/>
+      <c r="LA1" s="457"/>
+      <c r="LB1" s="457"/>
+      <c r="LC1" s="457"/>
+      <c r="LD1" s="457"/>
+      <c r="LE1" s="473" t="s">
         <v>1343</v>
       </c>
-      <c r="LF1" s="350"/>
-      <c r="LG1" s="350"/>
-      <c r="LH1" s="350"/>
-      <c r="LI1" s="350"/>
-      <c r="LJ1" s="350"/>
-      <c r="LK1" s="350"/>
-      <c r="LL1" s="350"/>
-      <c r="LM1" s="350"/>
-      <c r="LN1" s="350"/>
-      <c r="LO1" s="350"/>
-      <c r="LP1" s="350"/>
-      <c r="LQ1" s="350"/>
-      <c r="LR1" s="350"/>
-      <c r="LS1" s="350"/>
-      <c r="LT1" s="350"/>
-      <c r="LU1" s="350"/>
-      <c r="LV1" s="350"/>
-      <c r="LW1" s="344" t="s">
+      <c r="LF1" s="473"/>
+      <c r="LG1" s="473"/>
+      <c r="LH1" s="473"/>
+      <c r="LI1" s="473"/>
+      <c r="LJ1" s="473"/>
+      <c r="LK1" s="473"/>
+      <c r="LL1" s="473"/>
+      <c r="LM1" s="473"/>
+      <c r="LN1" s="473"/>
+      <c r="LO1" s="473"/>
+      <c r="LP1" s="473"/>
+      <c r="LQ1" s="473"/>
+      <c r="LR1" s="473"/>
+      <c r="LS1" s="473"/>
+      <c r="LT1" s="473"/>
+      <c r="LU1" s="473"/>
+      <c r="LV1" s="473"/>
+      <c r="LW1" s="474" t="s">
         <v>1344</v>
       </c>
-      <c r="LX1" s="344"/>
-      <c r="LY1" s="344"/>
-      <c r="LZ1" s="344"/>
-      <c r="MA1" s="344"/>
-      <c r="MB1" s="344"/>
-      <c r="MC1" s="344"/>
-      <c r="MD1" s="344"/>
-      <c r="ME1" s="344"/>
-      <c r="MF1" s="344"/>
-      <c r="MG1" s="344"/>
-      <c r="MH1" s="344"/>
-      <c r="MI1" s="344"/>
-      <c r="MJ1" s="344"/>
-      <c r="MK1" s="344"/>
-      <c r="ML1" s="344"/>
-      <c r="MM1" s="344"/>
-      <c r="MN1" s="344"/>
-      <c r="MO1" s="344"/>
-      <c r="MP1" s="344"/>
-      <c r="MQ1" s="344"/>
-      <c r="MR1" s="344"/>
-      <c r="MS1" s="344"/>
-      <c r="MT1" s="344"/>
-      <c r="MU1" s="344"/>
-      <c r="MV1" s="344"/>
-      <c r="MW1" s="344"/>
-      <c r="MX1" s="443" t="s">
+      <c r="LX1" s="474"/>
+      <c r="LY1" s="474"/>
+      <c r="LZ1" s="474"/>
+      <c r="MA1" s="474"/>
+      <c r="MB1" s="474"/>
+      <c r="MC1" s="474"/>
+      <c r="MD1" s="474"/>
+      <c r="ME1" s="474"/>
+      <c r="MF1" s="474"/>
+      <c r="MG1" s="474"/>
+      <c r="MH1" s="474"/>
+      <c r="MI1" s="474"/>
+      <c r="MJ1" s="474"/>
+      <c r="MK1" s="474"/>
+      <c r="ML1" s="474"/>
+      <c r="MM1" s="474"/>
+      <c r="MN1" s="474"/>
+      <c r="MO1" s="474"/>
+      <c r="MP1" s="474"/>
+      <c r="MQ1" s="474"/>
+      <c r="MR1" s="474"/>
+      <c r="MS1" s="474"/>
+      <c r="MT1" s="474"/>
+      <c r="MU1" s="474"/>
+      <c r="MV1" s="474"/>
+      <c r="MW1" s="474"/>
+      <c r="MX1" s="380" t="s">
         <v>126</v>
       </c>
-      <c r="MY1" s="443"/>
-      <c r="MZ1" s="443"/>
-      <c r="NA1" s="443"/>
-      <c r="NB1" s="443"/>
-      <c r="NC1" s="443"/>
-      <c r="ND1" s="443"/>
-      <c r="NE1" s="443"/>
-      <c r="NF1" s="443"/>
-      <c r="NG1" s="443"/>
-      <c r="NH1" s="443"/>
-      <c r="NI1" s="443"/>
-      <c r="NJ1" s="443"/>
-      <c r="NK1" s="443"/>
-      <c r="NL1" s="443"/>
-      <c r="NM1" s="443"/>
-      <c r="NN1" s="443"/>
-      <c r="NO1" s="443"/>
-      <c r="NP1" s="443"/>
-      <c r="NQ1" s="443"/>
-      <c r="NR1" s="443"/>
-      <c r="NS1" s="352" t="s">
+      <c r="MY1" s="380"/>
+      <c r="MZ1" s="380"/>
+      <c r="NA1" s="380"/>
+      <c r="NB1" s="380"/>
+      <c r="NC1" s="380"/>
+      <c r="ND1" s="380"/>
+      <c r="NE1" s="380"/>
+      <c r="NF1" s="380"/>
+      <c r="NG1" s="380"/>
+      <c r="NH1" s="380"/>
+      <c r="NI1" s="380"/>
+      <c r="NJ1" s="380"/>
+      <c r="NK1" s="380"/>
+      <c r="NL1" s="380"/>
+      <c r="NM1" s="380"/>
+      <c r="NN1" s="380"/>
+      <c r="NO1" s="380"/>
+      <c r="NP1" s="380"/>
+      <c r="NQ1" s="380"/>
+      <c r="NR1" s="380"/>
+      <c r="NS1" s="391" t="s">
         <v>138</v>
       </c>
-      <c r="NT1" s="352"/>
-      <c r="NU1" s="352"/>
-      <c r="NV1" s="352"/>
-      <c r="NW1" s="352"/>
-      <c r="NX1" s="352"/>
-      <c r="NY1" s="352"/>
-      <c r="NZ1" s="352"/>
-      <c r="OA1" s="352"/>
-      <c r="OB1" s="352"/>
-      <c r="OC1" s="352"/>
-      <c r="OD1" s="352"/>
-      <c r="OE1" s="352"/>
-      <c r="OF1" s="352"/>
-      <c r="OG1" s="352"/>
-      <c r="OH1" s="352"/>
-      <c r="OI1" s="352"/>
-      <c r="OJ1" s="352"/>
-      <c r="OK1" s="352"/>
-      <c r="OL1" s="352"/>
-      <c r="OM1" s="352"/>
-      <c r="ON1" s="352"/>
-      <c r="OO1" s="352"/>
-      <c r="OP1" s="389" t="s">
+      <c r="NT1" s="391"/>
+      <c r="NU1" s="391"/>
+      <c r="NV1" s="391"/>
+      <c r="NW1" s="391"/>
+      <c r="NX1" s="391"/>
+      <c r="NY1" s="391"/>
+      <c r="NZ1" s="391"/>
+      <c r="OA1" s="391"/>
+      <c r="OB1" s="391"/>
+      <c r="OC1" s="391"/>
+      <c r="OD1" s="391"/>
+      <c r="OE1" s="391"/>
+      <c r="OF1" s="391"/>
+      <c r="OG1" s="391"/>
+      <c r="OH1" s="391"/>
+      <c r="OI1" s="391"/>
+      <c r="OJ1" s="391"/>
+      <c r="OK1" s="391"/>
+      <c r="OL1" s="391"/>
+      <c r="OM1" s="391"/>
+      <c r="ON1" s="391"/>
+      <c r="OO1" s="391"/>
+      <c r="OP1" s="365" t="s">
         <v>166</v>
       </c>
-      <c r="OQ1" s="389"/>
-      <c r="OR1" s="389"/>
-      <c r="OS1" s="389"/>
-      <c r="OT1" s="389"/>
-      <c r="OU1" s="389"/>
-      <c r="OV1" s="389"/>
-      <c r="OW1" s="389"/>
-      <c r="OX1" s="389"/>
-      <c r="OY1" s="389"/>
-      <c r="OZ1" s="389"/>
-      <c r="PA1" s="389"/>
-      <c r="PB1" s="389"/>
-      <c r="PC1" s="389"/>
-      <c r="PD1" s="389"/>
-      <c r="PE1" s="389"/>
-      <c r="PF1" s="389"/>
-      <c r="PG1" s="389"/>
-      <c r="PH1" s="389"/>
-      <c r="PI1" s="389"/>
-      <c r="PJ1" s="389"/>
-      <c r="PK1" s="340" t="s">
+      <c r="OQ1" s="365"/>
+      <c r="OR1" s="365"/>
+      <c r="OS1" s="365"/>
+      <c r="OT1" s="365"/>
+      <c r="OU1" s="365"/>
+      <c r="OV1" s="365"/>
+      <c r="OW1" s="365"/>
+      <c r="OX1" s="365"/>
+      <c r="OY1" s="365"/>
+      <c r="OZ1" s="365"/>
+      <c r="PA1" s="365"/>
+      <c r="PB1" s="365"/>
+      <c r="PC1" s="365"/>
+      <c r="PD1" s="365"/>
+      <c r="PE1" s="365"/>
+      <c r="PF1" s="365"/>
+      <c r="PG1" s="365"/>
+      <c r="PH1" s="365"/>
+      <c r="PI1" s="365"/>
+      <c r="PJ1" s="365"/>
+      <c r="PK1" s="371" t="s">
         <v>207</v>
       </c>
-      <c r="PL1" s="340"/>
-      <c r="PM1" s="340"/>
-      <c r="PN1" s="340"/>
-      <c r="PO1" s="340"/>
-      <c r="PP1" s="340"/>
-      <c r="PQ1" s="340"/>
-      <c r="PR1" s="340"/>
-      <c r="PS1" s="340"/>
-      <c r="PT1" s="340"/>
-      <c r="PU1" s="340"/>
-      <c r="PV1" s="340"/>
-      <c r="PW1" s="340"/>
-      <c r="PX1" s="340"/>
-      <c r="PY1" s="340"/>
-      <c r="PZ1" s="340"/>
-      <c r="QA1" s="340"/>
-      <c r="QB1" s="340"/>
-      <c r="QC1" s="340"/>
-      <c r="QD1" s="340"/>
-      <c r="QE1" s="340"/>
-      <c r="QF1" s="340"/>
-      <c r="QG1" s="340"/>
-      <c r="QH1" s="340"/>
-      <c r="QI1" s="441" t="s">
+      <c r="PL1" s="371"/>
+      <c r="PM1" s="371"/>
+      <c r="PN1" s="371"/>
+      <c r="PO1" s="371"/>
+      <c r="PP1" s="371"/>
+      <c r="PQ1" s="371"/>
+      <c r="PR1" s="371"/>
+      <c r="PS1" s="371"/>
+      <c r="PT1" s="371"/>
+      <c r="PU1" s="371"/>
+      <c r="PV1" s="371"/>
+      <c r="PW1" s="371"/>
+      <c r="PX1" s="371"/>
+      <c r="PY1" s="371"/>
+      <c r="PZ1" s="371"/>
+      <c r="QA1" s="371"/>
+      <c r="QB1" s="371"/>
+      <c r="QC1" s="371"/>
+      <c r="QD1" s="371"/>
+      <c r="QE1" s="371"/>
+      <c r="QF1" s="371"/>
+      <c r="QG1" s="371"/>
+      <c r="QH1" s="371"/>
+      <c r="QI1" s="388" t="s">
         <v>134</v>
       </c>
-      <c r="QJ1" s="441"/>
-      <c r="QK1" s="441"/>
-      <c r="QL1" s="441"/>
-      <c r="QM1" s="441"/>
-      <c r="QN1" s="441"/>
-      <c r="QO1" s="441"/>
-      <c r="QP1" s="441"/>
-      <c r="QQ1" s="441"/>
-      <c r="QR1" s="441"/>
-      <c r="QS1" s="441"/>
-      <c r="QT1" s="441"/>
-      <c r="QU1" s="441"/>
-      <c r="QV1" s="441"/>
-      <c r="QW1" s="441"/>
-      <c r="QX1" s="441"/>
-      <c r="QY1" s="441"/>
-      <c r="QZ1" s="441"/>
-      <c r="RA1" s="441"/>
-      <c r="RB1" s="407" t="s">
+      <c r="QJ1" s="388"/>
+      <c r="QK1" s="388"/>
+      <c r="QL1" s="388"/>
+      <c r="QM1" s="388"/>
+      <c r="QN1" s="388"/>
+      <c r="QO1" s="388"/>
+      <c r="QP1" s="388"/>
+      <c r="QQ1" s="388"/>
+      <c r="QR1" s="388"/>
+      <c r="QS1" s="388"/>
+      <c r="QT1" s="388"/>
+      <c r="QU1" s="388"/>
+      <c r="QV1" s="388"/>
+      <c r="QW1" s="388"/>
+      <c r="QX1" s="388"/>
+      <c r="QY1" s="388"/>
+      <c r="QZ1" s="388"/>
+      <c r="RA1" s="388"/>
+      <c r="RB1" s="392" t="s">
         <v>142</v>
       </c>
-      <c r="RC1" s="407"/>
-      <c r="RD1" s="407"/>
-      <c r="RE1" s="407"/>
-      <c r="RF1" s="407"/>
-      <c r="RG1" s="407"/>
-      <c r="RH1" s="407"/>
-      <c r="RI1" s="407"/>
-      <c r="RJ1" s="407"/>
-      <c r="RK1" s="407"/>
-      <c r="RL1" s="407"/>
-      <c r="RM1" s="407"/>
-      <c r="RN1" s="407"/>
-      <c r="RO1" s="407"/>
-      <c r="RP1" s="407"/>
-      <c r="RQ1" s="407"/>
-      <c r="RR1" s="407"/>
-      <c r="RS1" s="407"/>
-      <c r="RT1" s="407"/>
-      <c r="RU1" s="407"/>
-      <c r="RV1" s="407"/>
-      <c r="RW1" s="396" t="s">
+      <c r="RC1" s="392"/>
+      <c r="RD1" s="392"/>
+      <c r="RE1" s="392"/>
+      <c r="RF1" s="392"/>
+      <c r="RG1" s="392"/>
+      <c r="RH1" s="392"/>
+      <c r="RI1" s="392"/>
+      <c r="RJ1" s="392"/>
+      <c r="RK1" s="392"/>
+      <c r="RL1" s="392"/>
+      <c r="RM1" s="392"/>
+      <c r="RN1" s="392"/>
+      <c r="RO1" s="392"/>
+      <c r="RP1" s="392"/>
+      <c r="RQ1" s="392"/>
+      <c r="RR1" s="392"/>
+      <c r="RS1" s="392"/>
+      <c r="RT1" s="392"/>
+      <c r="RU1" s="392"/>
+      <c r="RV1" s="392"/>
+      <c r="RW1" s="368" t="s">
         <v>169</v>
       </c>
-      <c r="RX1" s="396"/>
-      <c r="RY1" s="396"/>
-      <c r="RZ1" s="396"/>
-      <c r="SA1" s="396"/>
-      <c r="SB1" s="396"/>
-      <c r="SC1" s="396"/>
-      <c r="SD1" s="396"/>
-      <c r="SE1" s="396"/>
-      <c r="SF1" s="396"/>
-      <c r="SG1" s="396"/>
-      <c r="SH1" s="396"/>
-      <c r="SI1" s="396"/>
-      <c r="SJ1" s="396"/>
-      <c r="SK1" s="396"/>
-      <c r="SL1" s="396"/>
-      <c r="SM1" s="396"/>
-      <c r="SN1" s="396"/>
-      <c r="SO1" s="396"/>
-      <c r="SP1" s="396"/>
-      <c r="SQ1" s="396"/>
-      <c r="SR1" s="396"/>
-      <c r="SS1" s="396"/>
-      <c r="ST1" s="396"/>
-      <c r="SU1" s="396"/>
-      <c r="SV1" s="396"/>
-      <c r="SW1" s="396"/>
-      <c r="SX1" s="457" t="s">
+      <c r="RX1" s="368"/>
+      <c r="RY1" s="368"/>
+      <c r="RZ1" s="368"/>
+      <c r="SA1" s="368"/>
+      <c r="SB1" s="368"/>
+      <c r="SC1" s="368"/>
+      <c r="SD1" s="368"/>
+      <c r="SE1" s="368"/>
+      <c r="SF1" s="368"/>
+      <c r="SG1" s="368"/>
+      <c r="SH1" s="368"/>
+      <c r="SI1" s="368"/>
+      <c r="SJ1" s="368"/>
+      <c r="SK1" s="368"/>
+      <c r="SL1" s="368"/>
+      <c r="SM1" s="368"/>
+      <c r="SN1" s="368"/>
+      <c r="SO1" s="368"/>
+      <c r="SP1" s="368"/>
+      <c r="SQ1" s="368"/>
+      <c r="SR1" s="368"/>
+      <c r="SS1" s="368"/>
+      <c r="ST1" s="368"/>
+      <c r="SU1" s="368"/>
+      <c r="SV1" s="368"/>
+      <c r="SW1" s="368"/>
+      <c r="SX1" s="335" t="s">
         <v>277</v>
       </c>
-      <c r="SY1" s="457"/>
-      <c r="SZ1" s="457"/>
-      <c r="TA1" s="457"/>
-      <c r="TB1" s="457"/>
-      <c r="TC1" s="457"/>
-      <c r="TD1" s="457"/>
-      <c r="TE1" s="457"/>
-      <c r="TF1" s="457"/>
-      <c r="TG1" s="457"/>
-      <c r="TH1" s="457"/>
-      <c r="TI1" s="457"/>
-      <c r="TJ1" s="457"/>
-      <c r="TK1" s="457"/>
-      <c r="TL1" s="457"/>
-      <c r="TM1" s="457"/>
-      <c r="TN1" s="457"/>
-      <c r="TO1" s="457"/>
-      <c r="TP1" s="457"/>
-      <c r="TQ1" s="457"/>
-      <c r="TR1" s="457"/>
-      <c r="TS1" s="360" t="s">
+      <c r="SY1" s="335"/>
+      <c r="SZ1" s="335"/>
+      <c r="TA1" s="335"/>
+      <c r="TB1" s="335"/>
+      <c r="TC1" s="335"/>
+      <c r="TD1" s="335"/>
+      <c r="TE1" s="335"/>
+      <c r="TF1" s="335"/>
+      <c r="TG1" s="335"/>
+      <c r="TH1" s="335"/>
+      <c r="TI1" s="335"/>
+      <c r="TJ1" s="335"/>
+      <c r="TK1" s="335"/>
+      <c r="TL1" s="335"/>
+      <c r="TM1" s="335"/>
+      <c r="TN1" s="335"/>
+      <c r="TO1" s="335"/>
+      <c r="TP1" s="335"/>
+      <c r="TQ1" s="335"/>
+      <c r="TR1" s="335"/>
+      <c r="TS1" s="434" t="s">
         <v>125</v>
       </c>
-      <c r="TT1" s="361"/>
-      <c r="TU1" s="361"/>
-      <c r="TV1" s="361"/>
-      <c r="TW1" s="361"/>
-      <c r="TX1" s="361"/>
-      <c r="TY1" s="361"/>
-      <c r="TZ1" s="361"/>
-      <c r="UA1" s="361"/>
-      <c r="UB1" s="361"/>
-      <c r="UC1" s="361"/>
-      <c r="UD1" s="361"/>
-      <c r="UE1" s="361"/>
-      <c r="UF1" s="361"/>
-      <c r="UG1" s="361"/>
-      <c r="UH1" s="361"/>
-      <c r="UI1" s="361"/>
-      <c r="UJ1" s="361"/>
-      <c r="UK1" s="361"/>
-      <c r="UL1" s="361"/>
-      <c r="UM1" s="361"/>
-      <c r="UN1" s="362"/>
-      <c r="UO1" s="395" t="s">
+      <c r="TT1" s="435"/>
+      <c r="TU1" s="435"/>
+      <c r="TV1" s="435"/>
+      <c r="TW1" s="435"/>
+      <c r="TX1" s="435"/>
+      <c r="TY1" s="435"/>
+      <c r="TZ1" s="435"/>
+      <c r="UA1" s="435"/>
+      <c r="UB1" s="435"/>
+      <c r="UC1" s="435"/>
+      <c r="UD1" s="435"/>
+      <c r="UE1" s="435"/>
+      <c r="UF1" s="435"/>
+      <c r="UG1" s="435"/>
+      <c r="UH1" s="435"/>
+      <c r="UI1" s="435"/>
+      <c r="UJ1" s="435"/>
+      <c r="UK1" s="435"/>
+      <c r="UL1" s="435"/>
+      <c r="UM1" s="435"/>
+      <c r="UN1" s="436"/>
+      <c r="UO1" s="399" t="s">
         <v>157</v>
       </c>
-      <c r="UP1" s="395"/>
-      <c r="UQ1" s="395"/>
-      <c r="UR1" s="395"/>
-      <c r="US1" s="395"/>
-      <c r="UT1" s="395"/>
-      <c r="UU1" s="395"/>
-      <c r="UV1" s="395"/>
-      <c r="UW1" s="395"/>
-      <c r="UX1" s="395"/>
-      <c r="UY1" s="395"/>
-      <c r="UZ1" s="395"/>
-      <c r="VA1" s="395"/>
-      <c r="VB1" s="395"/>
-      <c r="VC1" s="395"/>
-      <c r="VD1" s="395"/>
-      <c r="VE1" s="395"/>
-      <c r="VF1" s="395"/>
-      <c r="VG1" s="395"/>
-      <c r="VH1" s="395"/>
-      <c r="VI1" s="395"/>
-      <c r="VJ1" s="395"/>
-      <c r="VK1" s="395"/>
-      <c r="VL1" s="395"/>
-      <c r="VM1" s="395"/>
-      <c r="VN1" s="395"/>
-      <c r="VO1" s="395"/>
-      <c r="VP1" s="372" t="s">
+      <c r="UP1" s="399"/>
+      <c r="UQ1" s="399"/>
+      <c r="UR1" s="399"/>
+      <c r="US1" s="399"/>
+      <c r="UT1" s="399"/>
+      <c r="UU1" s="399"/>
+      <c r="UV1" s="399"/>
+      <c r="UW1" s="399"/>
+      <c r="UX1" s="399"/>
+      <c r="UY1" s="399"/>
+      <c r="UZ1" s="399"/>
+      <c r="VA1" s="399"/>
+      <c r="VB1" s="399"/>
+      <c r="VC1" s="399"/>
+      <c r="VD1" s="399"/>
+      <c r="VE1" s="399"/>
+      <c r="VF1" s="399"/>
+      <c r="VG1" s="399"/>
+      <c r="VH1" s="399"/>
+      <c r="VI1" s="399"/>
+      <c r="VJ1" s="399"/>
+      <c r="VK1" s="399"/>
+      <c r="VL1" s="399"/>
+      <c r="VM1" s="399"/>
+      <c r="VN1" s="399"/>
+      <c r="VO1" s="399"/>
+      <c r="VP1" s="347" t="s">
         <v>191</v>
       </c>
-      <c r="VQ1" s="372"/>
-      <c r="VR1" s="372"/>
-      <c r="VS1" s="372"/>
-      <c r="VT1" s="372"/>
-      <c r="VU1" s="372"/>
-      <c r="VV1" s="372"/>
-      <c r="VW1" s="372"/>
-      <c r="VX1" s="372"/>
-      <c r="VY1" s="372"/>
-      <c r="VZ1" s="372"/>
-      <c r="WA1" s="372"/>
-      <c r="WB1" s="372"/>
-      <c r="WC1" s="372"/>
-      <c r="WD1" s="372"/>
-      <c r="WE1" s="372"/>
-      <c r="WF1" s="372"/>
-      <c r="WG1" s="372"/>
-      <c r="WH1" s="372"/>
-      <c r="WI1" s="372"/>
-      <c r="WJ1" s="372"/>
-      <c r="WK1" s="372"/>
-      <c r="WL1" s="372"/>
-      <c r="WM1" s="372"/>
-      <c r="WN1" s="372"/>
-      <c r="WO1" s="372"/>
-      <c r="WP1" s="372"/>
-      <c r="WQ1" s="347" t="s">
+      <c r="VQ1" s="347"/>
+      <c r="VR1" s="347"/>
+      <c r="VS1" s="347"/>
+      <c r="VT1" s="347"/>
+      <c r="VU1" s="347"/>
+      <c r="VV1" s="347"/>
+      <c r="VW1" s="347"/>
+      <c r="VX1" s="347"/>
+      <c r="VY1" s="347"/>
+      <c r="VZ1" s="347"/>
+      <c r="WA1" s="347"/>
+      <c r="WB1" s="347"/>
+      <c r="WC1" s="347"/>
+      <c r="WD1" s="347"/>
+      <c r="WE1" s="347"/>
+      <c r="WF1" s="347"/>
+      <c r="WG1" s="347"/>
+      <c r="WH1" s="347"/>
+      <c r="WI1" s="347"/>
+      <c r="WJ1" s="347"/>
+      <c r="WK1" s="347"/>
+      <c r="WL1" s="347"/>
+      <c r="WM1" s="347"/>
+      <c r="WN1" s="347"/>
+      <c r="WO1" s="347"/>
+      <c r="WP1" s="347"/>
+      <c r="WQ1" s="472" t="s">
         <v>204</v>
       </c>
-      <c r="WR1" s="347"/>
-      <c r="WS1" s="347"/>
-      <c r="WT1" s="347"/>
-      <c r="WU1" s="347"/>
-      <c r="WV1" s="347"/>
-      <c r="WW1" s="347"/>
-      <c r="WX1" s="347"/>
-      <c r="WY1" s="347"/>
-      <c r="WZ1" s="347"/>
-      <c r="XA1" s="347"/>
-      <c r="XB1" s="347"/>
-      <c r="XC1" s="347"/>
-      <c r="XD1" s="347"/>
-      <c r="XE1" s="347"/>
-      <c r="XF1" s="347"/>
-      <c r="XG1" s="347"/>
-      <c r="XH1" s="347"/>
-      <c r="XI1" s="347"/>
-      <c r="XJ1" s="347"/>
-      <c r="XK1" s="347"/>
-      <c r="XL1" s="347"/>
-      <c r="XM1" s="347"/>
-      <c r="XN1" s="347"/>
-      <c r="XO1" s="386" t="s">
+      <c r="WR1" s="472"/>
+      <c r="WS1" s="472"/>
+      <c r="WT1" s="472"/>
+      <c r="WU1" s="472"/>
+      <c r="WV1" s="472"/>
+      <c r="WW1" s="472"/>
+      <c r="WX1" s="472"/>
+      <c r="WY1" s="472"/>
+      <c r="WZ1" s="472"/>
+      <c r="XA1" s="472"/>
+      <c r="XB1" s="472"/>
+      <c r="XC1" s="472"/>
+      <c r="XD1" s="472"/>
+      <c r="XE1" s="472"/>
+      <c r="XF1" s="472"/>
+      <c r="XG1" s="472"/>
+      <c r="XH1" s="472"/>
+      <c r="XI1" s="472"/>
+      <c r="XJ1" s="472"/>
+      <c r="XK1" s="472"/>
+      <c r="XL1" s="472"/>
+      <c r="XM1" s="472"/>
+      <c r="XN1" s="472"/>
+      <c r="XO1" s="331" t="s">
         <v>292</v>
       </c>
-      <c r="XP1" s="386"/>
-      <c r="XQ1" s="386"/>
-      <c r="XR1" s="386"/>
-      <c r="XS1" s="386"/>
-      <c r="XT1" s="386"/>
-      <c r="XU1" s="386"/>
-      <c r="XV1" s="386"/>
-      <c r="XW1" s="386"/>
-      <c r="XX1" s="386"/>
-      <c r="XY1" s="386"/>
-      <c r="XZ1" s="386"/>
-      <c r="YA1" s="386"/>
-      <c r="YB1" s="386"/>
-      <c r="YC1" s="386"/>
-      <c r="YD1" s="386"/>
-      <c r="YE1" s="386"/>
-      <c r="YF1" s="386"/>
-      <c r="YG1" s="386"/>
-      <c r="YH1" s="386"/>
-      <c r="YI1" s="386"/>
-      <c r="YJ1" s="386"/>
-      <c r="YK1" s="386"/>
-      <c r="YL1" s="386"/>
-      <c r="YM1" s="386"/>
-      <c r="YN1" s="386"/>
-      <c r="YO1" s="386"/>
-      <c r="YP1" s="389" t="s">
+      <c r="XP1" s="331"/>
+      <c r="XQ1" s="331"/>
+      <c r="XR1" s="331"/>
+      <c r="XS1" s="331"/>
+      <c r="XT1" s="331"/>
+      <c r="XU1" s="331"/>
+      <c r="XV1" s="331"/>
+      <c r="XW1" s="331"/>
+      <c r="XX1" s="331"/>
+      <c r="XY1" s="331"/>
+      <c r="XZ1" s="331"/>
+      <c r="YA1" s="331"/>
+      <c r="YB1" s="331"/>
+      <c r="YC1" s="331"/>
+      <c r="YD1" s="331"/>
+      <c r="YE1" s="331"/>
+      <c r="YF1" s="331"/>
+      <c r="YG1" s="331"/>
+      <c r="YH1" s="331"/>
+      <c r="YI1" s="331"/>
+      <c r="YJ1" s="331"/>
+      <c r="YK1" s="331"/>
+      <c r="YL1" s="331"/>
+      <c r="YM1" s="331"/>
+      <c r="YN1" s="331"/>
+      <c r="YO1" s="331"/>
+      <c r="YP1" s="365" t="s">
         <v>180</v>
       </c>
-      <c r="YQ1" s="389"/>
-      <c r="YR1" s="389"/>
-      <c r="YS1" s="389"/>
-      <c r="YT1" s="389"/>
-      <c r="YU1" s="389"/>
-      <c r="YV1" s="455" t="s">
+      <c r="YQ1" s="365"/>
+      <c r="YR1" s="365"/>
+      <c r="YS1" s="365"/>
+      <c r="YT1" s="365"/>
+      <c r="YU1" s="365"/>
+      <c r="YV1" s="381" t="s">
         <v>135</v>
       </c>
-      <c r="YW1" s="455"/>
-      <c r="YX1" s="455"/>
-      <c r="YY1" s="455"/>
-      <c r="YZ1" s="455"/>
-      <c r="ZA1" s="455"/>
-      <c r="ZB1" s="455"/>
-      <c r="ZC1" s="360" t="s">
+      <c r="YW1" s="381"/>
+      <c r="YX1" s="381"/>
+      <c r="YY1" s="381"/>
+      <c r="YZ1" s="381"/>
+      <c r="ZA1" s="381"/>
+      <c r="ZB1" s="381"/>
+      <c r="ZC1" s="434" t="s">
         <v>1341</v>
       </c>
-      <c r="ZD1" s="361"/>
-      <c r="ZE1" s="362"/>
-      <c r="ZF1" s="359" t="s">
+      <c r="ZD1" s="435"/>
+      <c r="ZE1" s="436"/>
+      <c r="ZF1" s="441" t="s">
         <v>300</v>
       </c>
-      <c r="ZG1" s="359"/>
-      <c r="ZH1" s="359"/>
-      <c r="ZI1" s="358" t="s">
+      <c r="ZG1" s="441"/>
+      <c r="ZH1" s="441"/>
+      <c r="ZI1" s="440" t="s">
         <v>131</v>
       </c>
-      <c r="ZJ1" s="358"/>
-      <c r="ZK1" s="358"/>
-      <c r="ZL1" s="358"/>
-      <c r="ZM1" s="368" t="s">
+      <c r="ZJ1" s="440"/>
+      <c r="ZK1" s="440"/>
+      <c r="ZL1" s="440"/>
+      <c r="ZM1" s="437" t="s">
         <v>156</v>
       </c>
-      <c r="ZN1" s="368"/>
-      <c r="ZO1" s="368"/>
-      <c r="ZP1" s="371" t="s">
+      <c r="ZN1" s="437"/>
+      <c r="ZO1" s="437"/>
+      <c r="ZP1" s="345" t="s">
         <v>200</v>
       </c>
-      <c r="ZQ1" s="371"/>
-      <c r="ZR1" s="371"/>
-      <c r="ZS1" s="406" t="s">
+      <c r="ZQ1" s="345"/>
+      <c r="ZR1" s="345"/>
+      <c r="ZS1" s="384" t="s">
         <v>285</v>
       </c>
-      <c r="ZT1" s="406"/>
-      <c r="ZU1" s="406"/>
-      <c r="ZV1" s="356" t="s">
+      <c r="ZT1" s="384"/>
+      <c r="ZU1" s="384"/>
+      <c r="ZV1" s="465" t="s">
         <v>208</v>
       </c>
-      <c r="ZW1" s="356"/>
-      <c r="ZX1" s="356"/>
-      <c r="ZY1" s="364" t="s">
+      <c r="ZW1" s="465"/>
+      <c r="ZX1" s="465"/>
+      <c r="ZY1" s="466" t="s">
         <v>133</v>
       </c>
-      <c r="ZZ1" s="365"/>
-      <c r="AAA1" s="365"/>
-      <c r="AAB1" s="365"/>
-      <c r="AAC1" s="365"/>
-      <c r="AAD1" s="354" t="s">
+      <c r="ZZ1" s="467"/>
+      <c r="AAA1" s="467"/>
+      <c r="AAB1" s="467"/>
+      <c r="AAC1" s="467"/>
+      <c r="AAD1" s="471" t="s">
         <v>178</v>
       </c>
-      <c r="AAE1" s="354"/>
-      <c r="AAF1" s="354"/>
-      <c r="AAG1" s="413" t="s">
+      <c r="AAE1" s="471"/>
+      <c r="AAF1" s="471"/>
+      <c r="AAG1" s="438" t="s">
         <v>151</v>
       </c>
-      <c r="AAH1" s="413"/>
-      <c r="AAI1" s="413"/>
-      <c r="AAJ1" s="331" t="s">
+      <c r="AAH1" s="438"/>
+      <c r="AAI1" s="438"/>
+      <c r="AAJ1" s="470" t="s">
         <v>235</v>
       </c>
-      <c r="AAK1" s="331"/>
-      <c r="AAL1" s="331"/>
-      <c r="AAM1" s="371" t="s">
+      <c r="AAK1" s="470"/>
+      <c r="AAL1" s="470"/>
+      <c r="AAM1" s="345" t="s">
         <v>275</v>
       </c>
-      <c r="AAN1" s="371"/>
-      <c r="AAO1" s="371"/>
-      <c r="AAP1" s="456" t="s">
+      <c r="AAN1" s="345"/>
+      <c r="AAO1" s="345"/>
+      <c r="AAP1" s="348" t="s">
         <v>250</v>
       </c>
-      <c r="AAQ1" s="456"/>
-      <c r="AAR1" s="456"/>
-      <c r="AAS1" s="414" t="s">
+      <c r="AAQ1" s="348"/>
+      <c r="AAR1" s="348"/>
+      <c r="AAS1" s="339" t="s">
         <v>251</v>
       </c>
-      <c r="AAT1" s="414"/>
-      <c r="AAU1" s="414"/>
-      <c r="AAV1" s="343" t="s">
+      <c r="AAT1" s="339"/>
+      <c r="AAU1" s="339"/>
+      <c r="AAV1" s="433" t="s">
         <v>225</v>
       </c>
-      <c r="AAW1" s="343"/>
-      <c r="AAX1" s="343"/>
-      <c r="AAY1" s="384" t="s">
+      <c r="AAW1" s="433"/>
+      <c r="AAX1" s="433"/>
+      <c r="AAY1" s="411" t="s">
         <v>216</v>
       </c>
-      <c r="AAZ1" s="384"/>
-      <c r="ABA1" s="384"/>
-      <c r="ABB1" s="388" t="s">
+      <c r="AAZ1" s="411"/>
+      <c r="ABA1" s="411"/>
+      <c r="ABB1" s="396" t="s">
         <v>181</v>
       </c>
-      <c r="ABC1" s="388"/>
-      <c r="ABD1" s="388"/>
-      <c r="ABE1" s="388"/>
-      <c r="ABF1" s="416" t="s">
+      <c r="ABC1" s="396"/>
+      <c r="ABD1" s="396"/>
+      <c r="ABE1" s="396"/>
+      <c r="ABF1" s="405" t="s">
         <v>121</v>
       </c>
-      <c r="ABG1" s="416"/>
-      <c r="ABH1" s="416"/>
-      <c r="ABI1" s="412" t="s">
+      <c r="ABG1" s="405"/>
+      <c r="ABH1" s="405"/>
+      <c r="ABI1" s="395" t="s">
         <v>124</v>
       </c>
-      <c r="ABJ1" s="412"/>
-      <c r="ABK1" s="412"/>
-      <c r="ABL1" s="412"/>
-      <c r="ABM1" s="380" t="s">
+      <c r="ABJ1" s="395"/>
+      <c r="ABK1" s="395"/>
+      <c r="ABL1" s="395"/>
+      <c r="ABM1" s="394" t="s">
         <v>205</v>
       </c>
-      <c r="ABN1" s="380"/>
-      <c r="ABO1" s="380"/>
-      <c r="ABP1" s="446" t="s">
+      <c r="ABN1" s="394"/>
+      <c r="ABO1" s="394"/>
+      <c r="ABP1" s="356" t="s">
         <v>47</v>
       </c>
-      <c r="ABQ1" s="446" t="s">
+      <c r="ABQ1" s="356" t="s">
         <v>48</v>
       </c>
-      <c r="ABR1" s="446" t="s">
+      <c r="ABR1" s="356" t="s">
         <v>49</v>
       </c>
-      <c r="ABS1" s="453" t="s">
+      <c r="ABS1" s="353" t="s">
         <v>50</v>
       </c>
-      <c r="ABT1" s="452" t="s">
+      <c r="ABT1" s="377" t="s">
         <v>51</v>
       </c>
-      <c r="ABU1" s="452" t="s">
+      <c r="ABU1" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="ABV1" s="442" t="s">
+      <c r="ABV1" s="376" t="s">
         <v>78</v>
       </c>
-      <c r="ABW1" s="442" t="s">
+      <c r="ABW1" s="376" t="s">
         <v>79</v>
       </c>
-      <c r="ABX1" s="442" t="s">
+      <c r="ABX1" s="376" t="s">
         <v>80</v>
       </c>
-      <c r="ABY1" s="415" t="s">
+      <c r="ABY1" s="409" t="s">
         <v>61</v>
       </c>
-      <c r="ABZ1" s="415" t="s">
+      <c r="ABZ1" s="409" t="s">
         <v>62</v>
       </c>
-      <c r="ACA1" s="415" t="s">
+      <c r="ACA1" s="409" t="s">
         <v>54</v>
       </c>
-      <c r="ACB1" s="419" t="s">
+      <c r="ACB1" s="414" t="s">
         <v>1384</v>
       </c>
-      <c r="ACC1" s="420"/>
-      <c r="ACD1" s="326" t="s">
+      <c r="ACC1" s="415"/>
+      <c r="ACD1" s="430" t="s">
         <v>1377</v>
       </c>
-      <c r="ACE1" s="326" t="s">
+      <c r="ACE1" s="430" t="s">
         <v>1385</v>
       </c>
-      <c r="ACF1" s="432" t="s">
+      <c r="ACF1" s="427" t="s">
         <v>27</v>
       </c>
-      <c r="ACG1" s="429" t="s">
+      <c r="ACG1" s="424" t="s">
         <v>1386</v>
       </c>
-      <c r="ACH1" s="429" t="s">
+      <c r="ACH1" s="424" t="s">
         <v>1387</v>
       </c>
-      <c r="ACI1" s="426" t="s">
+      <c r="ACI1" s="421" t="s">
         <v>1388</v>
       </c>
-      <c r="ACJ1" s="426" t="s">
+      <c r="ACJ1" s="421" t="s">
         <v>1389</v>
       </c>
-      <c r="ACK1" s="426" t="s">
+      <c r="ACK1" s="421" t="s">
         <v>1390</v>
       </c>
-      <c r="ACL1" s="423" t="s">
+      <c r="ACL1" s="418" t="s">
         <v>80</v>
       </c>
       <c r="ACM1" s="410" t="s">
@@ -9957,1225 +9977,1225 @@
       <c r="ACO1" s="410" t="s">
         <v>55</v>
       </c>
-      <c r="ACP1" s="451" t="s">
+      <c r="ACP1" s="375" t="s">
         <v>89</v>
       </c>
-      <c r="ACQ1" s="411" t="s">
+      <c r="ACQ1" s="439" t="s">
         <v>56</v>
       </c>
-      <c r="ACR1" s="437" t="s">
+      <c r="ACR1" s="404" t="s">
         <v>136</v>
       </c>
       <c r="ACT1" s="300"/>
       <c r="ACU1" s="300"/>
       <c r="ACV1" s="300"/>
-      <c r="ACW1" s="329" t="s">
+      <c r="ACW1" s="475" t="s">
         <v>1384</v>
       </c>
-      <c r="ACX1" s="330"/>
+      <c r="ACX1" s="476"/>
       <c r="ACY1" s="300"/>
     </row>
     <row r="2" spans="1:779" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="453"/>
-      <c r="B2" s="462"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="463"/>
-      <c r="E2" s="463"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
-      <c r="J2" s="453"/>
-      <c r="K2" s="453"/>
-      <c r="L2" s="453"/>
-      <c r="M2" s="453"/>
-      <c r="N2" s="453"/>
-      <c r="O2" s="453"/>
-      <c r="P2" s="453"/>
-      <c r="Q2" s="453"/>
-      <c r="R2" s="453"/>
-      <c r="S2" s="453"/>
-      <c r="T2" s="453"/>
-      <c r="U2" s="453"/>
-      <c r="V2" s="446"/>
-      <c r="W2" s="453"/>
-      <c r="X2" s="453"/>
-      <c r="Y2" s="453"/>
+      <c r="A2" s="353"/>
+      <c r="B2" s="354"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="353"/>
+      <c r="N2" s="353"/>
+      <c r="O2" s="353"/>
+      <c r="P2" s="353"/>
+      <c r="Q2" s="353"/>
+      <c r="R2" s="353"/>
+      <c r="S2" s="353"/>
+      <c r="T2" s="353"/>
+      <c r="U2" s="353"/>
+      <c r="V2" s="356"/>
+      <c r="W2" s="353"/>
+      <c r="X2" s="353"/>
+      <c r="Y2" s="353"/>
       <c r="Z2" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="AA2" s="381" t="s">
+      <c r="AA2" s="454" t="s">
         <v>100</v>
       </c>
-      <c r="AB2" s="381"/>
-      <c r="AC2" s="381"/>
-      <c r="AD2" s="381" t="s">
+      <c r="AB2" s="454"/>
+      <c r="AC2" s="454"/>
+      <c r="AD2" s="454" t="s">
         <v>101</v>
       </c>
-      <c r="AE2" s="381"/>
-      <c r="AF2" s="381"/>
-      <c r="AG2" s="464" t="s">
+      <c r="AE2" s="454"/>
+      <c r="AF2" s="454"/>
+      <c r="AG2" s="349" t="s">
         <v>101</v>
       </c>
-      <c r="AH2" s="464"/>
-      <c r="AI2" s="464"/>
-      <c r="AJ2" s="464" t="s">
+      <c r="AH2" s="349"/>
+      <c r="AI2" s="349"/>
+      <c r="AJ2" s="349" t="s">
         <v>100</v>
       </c>
-      <c r="AK2" s="464"/>
-      <c r="AL2" s="464"/>
-      <c r="AM2" s="467" t="s">
+      <c r="AK2" s="349"/>
+      <c r="AL2" s="349"/>
+      <c r="AM2" s="340" t="s">
         <v>101</v>
       </c>
-      <c r="AN2" s="467"/>
-      <c r="AO2" s="467"/>
-      <c r="AP2" s="467" t="s">
+      <c r="AN2" s="340"/>
+      <c r="AO2" s="340"/>
+      <c r="AP2" s="340" t="s">
         <v>100</v>
       </c>
-      <c r="AQ2" s="467"/>
-      <c r="AR2" s="467"/>
-      <c r="AS2" s="385" t="s">
+      <c r="AQ2" s="340"/>
+      <c r="AR2" s="340"/>
+      <c r="AS2" s="343" t="s">
         <v>264</v>
       </c>
-      <c r="AT2" s="385"/>
-      <c r="AU2" s="385"/>
-      <c r="AV2" s="370" t="s">
+      <c r="AT2" s="343"/>
+      <c r="AU2" s="343"/>
+      <c r="AV2" s="344" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="370"/>
-      <c r="AX2" s="370"/>
-      <c r="AY2" s="332" t="s">
+      <c r="AW2" s="344"/>
+      <c r="AX2" s="344"/>
+      <c r="AY2" s="453" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="332"/>
-      <c r="BA2" s="332"/>
-      <c r="BB2" s="332" t="s">
+      <c r="AZ2" s="453"/>
+      <c r="BA2" s="453"/>
+      <c r="BB2" s="453" t="s">
         <v>100</v>
       </c>
-      <c r="BC2" s="332"/>
-      <c r="BD2" s="332"/>
-      <c r="BE2" s="345" t="s">
+      <c r="BC2" s="453"/>
+      <c r="BD2" s="453"/>
+      <c r="BE2" s="458" t="s">
         <v>101</v>
       </c>
-      <c r="BF2" s="345"/>
-      <c r="BG2" s="345"/>
-      <c r="BH2" s="345" t="s">
+      <c r="BF2" s="458"/>
+      <c r="BG2" s="458"/>
+      <c r="BH2" s="458" t="s">
         <v>100</v>
       </c>
-      <c r="BI2" s="345"/>
-      <c r="BJ2" s="345"/>
-      <c r="BK2" s="334" t="s">
+      <c r="BI2" s="458"/>
+      <c r="BJ2" s="458"/>
+      <c r="BK2" s="451" t="s">
         <v>101</v>
       </c>
-      <c r="BL2" s="334"/>
-      <c r="BM2" s="334"/>
-      <c r="BN2" s="334" t="s">
+      <c r="BL2" s="451"/>
+      <c r="BM2" s="451"/>
+      <c r="BN2" s="451" t="s">
         <v>100</v>
       </c>
-      <c r="BO2" s="334"/>
-      <c r="BP2" s="334"/>
-      <c r="BQ2" s="448" t="s">
+      <c r="BO2" s="451"/>
+      <c r="BP2" s="451"/>
+      <c r="BQ2" s="385" t="s">
         <v>28</v>
       </c>
-      <c r="BR2" s="448"/>
-      <c r="BS2" s="448"/>
-      <c r="BT2" s="448"/>
-      <c r="BU2" s="448" t="s">
+      <c r="BR2" s="385"/>
+      <c r="BS2" s="385"/>
+      <c r="BT2" s="385"/>
+      <c r="BU2" s="385" t="s">
         <v>29</v>
       </c>
-      <c r="BV2" s="448"/>
-      <c r="BW2" s="448"/>
-      <c r="BX2" s="448"/>
-      <c r="BY2" s="448" t="s">
+      <c r="BV2" s="385"/>
+      <c r="BW2" s="385"/>
+      <c r="BX2" s="385"/>
+      <c r="BY2" s="385" t="s">
         <v>30</v>
       </c>
-      <c r="BZ2" s="448"/>
-      <c r="CA2" s="448"/>
-      <c r="CB2" s="448"/>
-      <c r="CC2" s="448"/>
-      <c r="CD2" s="449" t="s">
+      <c r="BZ2" s="385"/>
+      <c r="CA2" s="385"/>
+      <c r="CB2" s="385"/>
+      <c r="CC2" s="385"/>
+      <c r="CD2" s="386" t="s">
         <v>31</v>
       </c>
-      <c r="CE2" s="449"/>
-      <c r="CF2" s="449"/>
-      <c r="CG2" s="449"/>
-      <c r="CH2" s="342" t="s">
+      <c r="CE2" s="386"/>
+      <c r="CF2" s="386"/>
+      <c r="CG2" s="386"/>
+      <c r="CH2" s="390" t="s">
         <v>114</v>
       </c>
-      <c r="CI2" s="342"/>
-      <c r="CJ2" s="342"/>
-      <c r="CK2" s="342" t="s">
+      <c r="CI2" s="390"/>
+      <c r="CJ2" s="390"/>
+      <c r="CK2" s="390" t="s">
         <v>100</v>
       </c>
-      <c r="CL2" s="342"/>
-      <c r="CM2" s="342"/>
-      <c r="CN2" s="391" t="s">
+      <c r="CL2" s="390"/>
+      <c r="CM2" s="390"/>
+      <c r="CN2" s="366" t="s">
         <v>114</v>
       </c>
-      <c r="CO2" s="391"/>
-      <c r="CP2" s="391"/>
-      <c r="CQ2" s="391" t="s">
+      <c r="CO2" s="366"/>
+      <c r="CP2" s="366"/>
+      <c r="CQ2" s="366" t="s">
         <v>100</v>
       </c>
-      <c r="CR2" s="391"/>
-      <c r="CS2" s="391"/>
-      <c r="CT2" s="341" t="s">
+      <c r="CR2" s="366"/>
+      <c r="CS2" s="366"/>
+      <c r="CT2" s="372" t="s">
         <v>114</v>
       </c>
-      <c r="CU2" s="341"/>
-      <c r="CV2" s="341"/>
-      <c r="CW2" s="341" t="s">
+      <c r="CU2" s="372"/>
+      <c r="CV2" s="372"/>
+      <c r="CW2" s="372" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" s="341"/>
-      <c r="CY2" s="341"/>
-      <c r="CZ2" s="349" t="s">
+      <c r="CX2" s="372"/>
+      <c r="CY2" s="372"/>
+      <c r="CZ2" s="389" t="s">
         <v>63</v>
       </c>
-      <c r="DA2" s="349"/>
-      <c r="DB2" s="349"/>
-      <c r="DC2" s="349" t="s">
+      <c r="DA2" s="389"/>
+      <c r="DB2" s="389"/>
+      <c r="DC2" s="389" t="s">
         <v>64</v>
       </c>
-      <c r="DD2" s="349"/>
-      <c r="DE2" s="349"/>
-      <c r="DF2" s="349" t="s">
+      <c r="DD2" s="389"/>
+      <c r="DE2" s="389"/>
+      <c r="DF2" s="389" t="s">
         <v>65</v>
       </c>
-      <c r="DG2" s="349"/>
-      <c r="DH2" s="349"/>
-      <c r="DI2" s="349" t="s">
+      <c r="DG2" s="389"/>
+      <c r="DH2" s="389"/>
+      <c r="DI2" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="DJ2" s="349"/>
-      <c r="DK2" s="349"/>
-      <c r="DL2" s="398" t="s">
+      <c r="DJ2" s="389"/>
+      <c r="DK2" s="389"/>
+      <c r="DL2" s="393" t="s">
         <v>140</v>
       </c>
-      <c r="DM2" s="398"/>
-      <c r="DN2" s="398"/>
-      <c r="DO2" s="398" t="s">
+      <c r="DM2" s="393"/>
+      <c r="DN2" s="393"/>
+      <c r="DO2" s="393" t="s">
         <v>141</v>
       </c>
-      <c r="DP2" s="398"/>
-      <c r="DQ2" s="398"/>
-      <c r="DR2" s="398" t="s">
+      <c r="DP2" s="393"/>
+      <c r="DQ2" s="393"/>
+      <c r="DR2" s="393" t="s">
         <v>66</v>
       </c>
-      <c r="DS2" s="398"/>
-      <c r="DT2" s="398"/>
-      <c r="DU2" s="375" t="s">
+      <c r="DS2" s="393"/>
+      <c r="DT2" s="393"/>
+      <c r="DU2" s="369" t="s">
         <v>63</v>
       </c>
-      <c r="DV2" s="375"/>
-      <c r="DW2" s="375"/>
-      <c r="DX2" s="375" t="s">
+      <c r="DV2" s="369"/>
+      <c r="DW2" s="369"/>
+      <c r="DX2" s="369" t="s">
         <v>141</v>
       </c>
-      <c r="DY2" s="375"/>
-      <c r="DZ2" s="375"/>
-      <c r="EA2" s="375" t="s">
+      <c r="DY2" s="369"/>
+      <c r="DZ2" s="369"/>
+      <c r="EA2" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="EB2" s="375"/>
-      <c r="EC2" s="375"/>
-      <c r="ED2" s="458" t="s">
+      <c r="EB2" s="369"/>
+      <c r="EC2" s="369"/>
+      <c r="ED2" s="333" t="s">
         <v>101</v>
       </c>
-      <c r="EE2" s="458"/>
-      <c r="EF2" s="458"/>
-      <c r="EG2" s="458" t="s">
+      <c r="EE2" s="333"/>
+      <c r="EF2" s="333"/>
+      <c r="EG2" s="333" t="s">
         <v>100</v>
       </c>
-      <c r="EH2" s="458"/>
-      <c r="EI2" s="458"/>
-      <c r="EJ2" s="377" t="s">
+      <c r="EH2" s="333"/>
+      <c r="EI2" s="333"/>
+      <c r="EJ2" s="337" t="s">
         <v>81</v>
       </c>
-      <c r="EK2" s="377"/>
-      <c r="EL2" s="377"/>
-      <c r="EM2" s="377" t="s">
+      <c r="EK2" s="337"/>
+      <c r="EL2" s="337"/>
+      <c r="EM2" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="EN2" s="377"/>
-      <c r="EO2" s="377"/>
-      <c r="EP2" s="377" t="s">
+      <c r="EN2" s="337"/>
+      <c r="EO2" s="337"/>
+      <c r="EP2" s="337" t="s">
         <v>83</v>
       </c>
-      <c r="EQ2" s="377"/>
-      <c r="ER2" s="377"/>
-      <c r="ES2" s="377" t="s">
+      <c r="EQ2" s="337"/>
+      <c r="ER2" s="337"/>
+      <c r="ES2" s="337" t="s">
         <v>84</v>
       </c>
-      <c r="ET2" s="377"/>
-      <c r="EU2" s="377"/>
-      <c r="EV2" s="377" t="s">
+      <c r="ET2" s="337"/>
+      <c r="EU2" s="337"/>
+      <c r="EV2" s="337" t="s">
         <v>66</v>
       </c>
-      <c r="EW2" s="377"/>
-      <c r="EX2" s="377"/>
-      <c r="EY2" s="393" t="s">
+      <c r="EW2" s="337"/>
+      <c r="EX2" s="337"/>
+      <c r="EY2" s="400" t="s">
         <v>154</v>
       </c>
-      <c r="EZ2" s="393"/>
-      <c r="FA2" s="393"/>
-      <c r="FB2" s="393" t="s">
+      <c r="EZ2" s="400"/>
+      <c r="FA2" s="400"/>
+      <c r="FB2" s="400" t="s">
         <v>82</v>
       </c>
-      <c r="FC2" s="393"/>
-      <c r="FD2" s="393"/>
-      <c r="FE2" s="435" t="s">
+      <c r="FC2" s="400"/>
+      <c r="FD2" s="400"/>
+      <c r="FE2" s="402" t="s">
         <v>155</v>
       </c>
-      <c r="FF2" s="435"/>
-      <c r="FG2" s="435"/>
-      <c r="FH2" s="370" t="s">
+      <c r="FF2" s="402"/>
+      <c r="FG2" s="402"/>
+      <c r="FH2" s="344" t="s">
         <v>154</v>
       </c>
-      <c r="FI2" s="370"/>
-      <c r="FJ2" s="370"/>
-      <c r="FK2" s="370" t="s">
+      <c r="FI2" s="344"/>
+      <c r="FJ2" s="344"/>
+      <c r="FK2" s="344" t="s">
         <v>82</v>
       </c>
-      <c r="FL2" s="370"/>
-      <c r="FM2" s="370"/>
-      <c r="FN2" s="370" t="s">
+      <c r="FL2" s="344"/>
+      <c r="FM2" s="344"/>
+      <c r="FN2" s="344" t="s">
         <v>66</v>
       </c>
-      <c r="FO2" s="370"/>
-      <c r="FP2" s="370"/>
-      <c r="FQ2" s="387" t="s">
+      <c r="FO2" s="344"/>
+      <c r="FP2" s="344"/>
+      <c r="FQ2" s="332" t="s">
         <v>290</v>
       </c>
-      <c r="FR2" s="387"/>
-      <c r="FS2" s="387"/>
-      <c r="FT2" s="387" t="s">
+      <c r="FR2" s="332"/>
+      <c r="FS2" s="332"/>
+      <c r="FT2" s="332" t="s">
         <v>291</v>
       </c>
-      <c r="FU2" s="387"/>
-      <c r="FV2" s="387"/>
-      <c r="FW2" s="387" t="s">
+      <c r="FU2" s="332"/>
+      <c r="FV2" s="332"/>
+      <c r="FW2" s="332" t="s">
         <v>66</v>
       </c>
-      <c r="FX2" s="387"/>
-      <c r="FY2" s="387"/>
-      <c r="FZ2" s="332" t="s">
+      <c r="FX2" s="332"/>
+      <c r="FY2" s="332"/>
+      <c r="FZ2" s="453" t="s">
         <v>227</v>
       </c>
-      <c r="GA2" s="332"/>
-      <c r="GB2" s="332"/>
-      <c r="GC2" s="332" t="s">
+      <c r="GA2" s="453"/>
+      <c r="GB2" s="453"/>
+      <c r="GC2" s="453" t="s">
         <v>228</v>
       </c>
-      <c r="GD2" s="332"/>
-      <c r="GE2" s="332"/>
-      <c r="GF2" s="332" t="s">
+      <c r="GD2" s="453"/>
+      <c r="GE2" s="453"/>
+      <c r="GF2" s="453" t="s">
         <v>229</v>
       </c>
-      <c r="GG2" s="332"/>
-      <c r="GH2" s="332"/>
-      <c r="GI2" s="332" t="s">
+      <c r="GG2" s="453"/>
+      <c r="GH2" s="453"/>
+      <c r="GI2" s="453" t="s">
         <v>230</v>
       </c>
-      <c r="GJ2" s="332"/>
-      <c r="GK2" s="332"/>
-      <c r="GL2" s="332" t="s">
+      <c r="GJ2" s="453"/>
+      <c r="GK2" s="453"/>
+      <c r="GL2" s="453" t="s">
         <v>231</v>
       </c>
-      <c r="GM2" s="332"/>
-      <c r="GN2" s="332"/>
-      <c r="GO2" s="332" t="s">
+      <c r="GM2" s="453"/>
+      <c r="GN2" s="453"/>
+      <c r="GO2" s="453" t="s">
         <v>232</v>
       </c>
-      <c r="GP2" s="332"/>
-      <c r="GQ2" s="332"/>
-      <c r="GR2" s="332" t="s">
+      <c r="GP2" s="453"/>
+      <c r="GQ2" s="453"/>
+      <c r="GR2" s="453" t="s">
         <v>233</v>
       </c>
-      <c r="GS2" s="332"/>
-      <c r="GT2" s="332"/>
-      <c r="GU2" s="332" t="s">
+      <c r="GS2" s="453"/>
+      <c r="GT2" s="453"/>
+      <c r="GU2" s="453" t="s">
         <v>234</v>
       </c>
-      <c r="GV2" s="332"/>
-      <c r="GW2" s="332"/>
-      <c r="GX2" s="464" t="s">
+      <c r="GV2" s="453"/>
+      <c r="GW2" s="453"/>
+      <c r="GX2" s="349" t="s">
         <v>237</v>
       </c>
-      <c r="GY2" s="464"/>
-      <c r="GZ2" s="464"/>
-      <c r="HA2" s="464" t="s">
+      <c r="GY2" s="349"/>
+      <c r="GZ2" s="349"/>
+      <c r="HA2" s="349" t="s">
         <v>238</v>
       </c>
-      <c r="HB2" s="464"/>
-      <c r="HC2" s="464"/>
-      <c r="HD2" s="464" t="s">
+      <c r="HB2" s="349"/>
+      <c r="HC2" s="349"/>
+      <c r="HD2" s="349" t="s">
         <v>239</v>
       </c>
-      <c r="HE2" s="464"/>
-      <c r="HF2" s="464"/>
-      <c r="HG2" s="464" t="s">
+      <c r="HE2" s="349"/>
+      <c r="HF2" s="349"/>
+      <c r="HG2" s="349" t="s">
         <v>240</v>
       </c>
-      <c r="HH2" s="464"/>
-      <c r="HI2" s="464"/>
-      <c r="HJ2" s="464" t="s">
+      <c r="HH2" s="349"/>
+      <c r="HI2" s="349"/>
+      <c r="HJ2" s="349" t="s">
         <v>241</v>
       </c>
-      <c r="HK2" s="464"/>
-      <c r="HL2" s="464"/>
-      <c r="HM2" s="464" t="s">
+      <c r="HK2" s="349"/>
+      <c r="HL2" s="349"/>
+      <c r="HM2" s="349" t="s">
         <v>242</v>
       </c>
-      <c r="HN2" s="464"/>
-      <c r="HO2" s="464"/>
-      <c r="HP2" s="464" t="s">
+      <c r="HN2" s="349"/>
+      <c r="HO2" s="349"/>
+      <c r="HP2" s="349" t="s">
         <v>243</v>
       </c>
-      <c r="HQ2" s="464"/>
-      <c r="HR2" s="464"/>
-      <c r="HS2" s="464" t="s">
+      <c r="HQ2" s="349"/>
+      <c r="HR2" s="349"/>
+      <c r="HS2" s="349" t="s">
         <v>244</v>
       </c>
-      <c r="HT2" s="464"/>
-      <c r="HU2" s="464"/>
-      <c r="HV2" s="444" t="s">
+      <c r="HT2" s="349"/>
+      <c r="HU2" s="349"/>
+      <c r="HV2" s="352" t="s">
         <v>237</v>
       </c>
-      <c r="HW2" s="444"/>
-      <c r="HX2" s="444"/>
-      <c r="HY2" s="444" t="s">
+      <c r="HW2" s="352"/>
+      <c r="HX2" s="352"/>
+      <c r="HY2" s="352" t="s">
         <v>245</v>
       </c>
-      <c r="HZ2" s="444"/>
-      <c r="IA2" s="444"/>
-      <c r="IB2" s="444" t="s">
+      <c r="HZ2" s="352"/>
+      <c r="IA2" s="352"/>
+      <c r="IB2" s="352" t="s">
         <v>246</v>
       </c>
-      <c r="IC2" s="444"/>
-      <c r="ID2" s="444"/>
-      <c r="IE2" s="444" t="s">
+      <c r="IC2" s="352"/>
+      <c r="ID2" s="352"/>
+      <c r="IE2" s="352" t="s">
         <v>247</v>
       </c>
-      <c r="IF2" s="444"/>
-      <c r="IG2" s="444"/>
-      <c r="IH2" s="444" t="s">
+      <c r="IF2" s="352"/>
+      <c r="IG2" s="352"/>
+      <c r="IH2" s="352" t="s">
         <v>248</v>
       </c>
-      <c r="II2" s="444"/>
-      <c r="IJ2" s="444"/>
-      <c r="IK2" s="444" t="s">
+      <c r="II2" s="352"/>
+      <c r="IJ2" s="352"/>
+      <c r="IK2" s="352" t="s">
         <v>249</v>
       </c>
-      <c r="IL2" s="444"/>
-      <c r="IM2" s="444"/>
-      <c r="IN2" s="385" t="s">
+      <c r="IL2" s="352"/>
+      <c r="IM2" s="352"/>
+      <c r="IN2" s="343" t="s">
         <v>267</v>
       </c>
-      <c r="IO2" s="385"/>
-      <c r="IP2" s="385"/>
-      <c r="IQ2" s="385" t="s">
+      <c r="IO2" s="343"/>
+      <c r="IP2" s="343"/>
+      <c r="IQ2" s="343" t="s">
         <v>268</v>
       </c>
-      <c r="IR2" s="385"/>
-      <c r="IS2" s="385"/>
-      <c r="IT2" s="385" t="s">
+      <c r="IR2" s="343"/>
+      <c r="IS2" s="343"/>
+      <c r="IT2" s="343" t="s">
         <v>269</v>
       </c>
-      <c r="IU2" s="385"/>
-      <c r="IV2" s="385"/>
-      <c r="IW2" s="385" t="s">
+      <c r="IU2" s="343"/>
+      <c r="IV2" s="343"/>
+      <c r="IW2" s="343" t="s">
         <v>270</v>
       </c>
-      <c r="IX2" s="385"/>
-      <c r="IY2" s="385"/>
-      <c r="IZ2" s="385" t="s">
+      <c r="IX2" s="343"/>
+      <c r="IY2" s="343"/>
+      <c r="IZ2" s="343" t="s">
         <v>271</v>
       </c>
-      <c r="JA2" s="385"/>
-      <c r="JB2" s="385"/>
-      <c r="JC2" s="385" t="s">
+      <c r="JA2" s="343"/>
+      <c r="JB2" s="343"/>
+      <c r="JC2" s="343" t="s">
         <v>272</v>
       </c>
-      <c r="JD2" s="385"/>
-      <c r="JE2" s="385"/>
-      <c r="JF2" s="385" t="s">
+      <c r="JD2" s="343"/>
+      <c r="JE2" s="343"/>
+      <c r="JF2" s="343" t="s">
         <v>273</v>
       </c>
-      <c r="JG2" s="385"/>
-      <c r="JH2" s="385"/>
-      <c r="JI2" s="385" t="s">
+      <c r="JG2" s="343"/>
+      <c r="JH2" s="343"/>
+      <c r="JI2" s="343" t="s">
         <v>274</v>
       </c>
-      <c r="JJ2" s="385"/>
-      <c r="JK2" s="385"/>
-      <c r="JL2" s="467" t="s">
+      <c r="JJ2" s="343"/>
+      <c r="JK2" s="343"/>
+      <c r="JL2" s="340" t="s">
         <v>258</v>
       </c>
-      <c r="JM2" s="467"/>
-      <c r="JN2" s="467"/>
-      <c r="JO2" s="467" t="s">
+      <c r="JM2" s="340"/>
+      <c r="JN2" s="340"/>
+      <c r="JO2" s="340" t="s">
         <v>259</v>
       </c>
-      <c r="JP2" s="467"/>
-      <c r="JQ2" s="467"/>
-      <c r="JR2" s="467" t="s">
+      <c r="JP2" s="340"/>
+      <c r="JQ2" s="340"/>
+      <c r="JR2" s="340" t="s">
         <v>260</v>
       </c>
-      <c r="JS2" s="467"/>
-      <c r="JT2" s="467"/>
-      <c r="JU2" s="467" t="s">
+      <c r="JS2" s="340"/>
+      <c r="JT2" s="340"/>
+      <c r="JU2" s="340" t="s">
         <v>261</v>
       </c>
-      <c r="JV2" s="467"/>
-      <c r="JW2" s="467"/>
-      <c r="JX2" s="467" t="s">
+      <c r="JV2" s="340"/>
+      <c r="JW2" s="340"/>
+      <c r="JX2" s="340" t="s">
         <v>262</v>
       </c>
-      <c r="JY2" s="467"/>
-      <c r="JZ2" s="467"/>
-      <c r="KA2" s="467" t="s">
+      <c r="JY2" s="340"/>
+      <c r="JZ2" s="340"/>
+      <c r="KA2" s="340" t="s">
         <v>263</v>
       </c>
-      <c r="KB2" s="467"/>
-      <c r="KC2" s="467"/>
-      <c r="KD2" s="383" t="s">
+      <c r="KB2" s="340"/>
+      <c r="KC2" s="340"/>
+      <c r="KD2" s="456" t="s">
         <v>102</v>
       </c>
-      <c r="KE2" s="383"/>
-      <c r="KF2" s="383"/>
-      <c r="KG2" s="383" t="s">
+      <c r="KE2" s="456"/>
+      <c r="KF2" s="456"/>
+      <c r="KG2" s="456" t="s">
         <v>103</v>
       </c>
-      <c r="KH2" s="383"/>
-      <c r="KI2" s="383"/>
-      <c r="KJ2" s="338" t="s">
+      <c r="KH2" s="456"/>
+      <c r="KI2" s="456"/>
+      <c r="KJ2" s="398" t="s">
         <v>92</v>
       </c>
-      <c r="KK2" s="338"/>
-      <c r="KL2" s="338"/>
-      <c r="KM2" s="338" t="s">
+      <c r="KK2" s="398"/>
+      <c r="KL2" s="398"/>
+      <c r="KM2" s="398" t="s">
         <v>104</v>
       </c>
-      <c r="KN2" s="338"/>
-      <c r="KO2" s="338"/>
-      <c r="KP2" s="338" t="s">
+      <c r="KN2" s="398"/>
+      <c r="KO2" s="398"/>
+      <c r="KP2" s="398" t="s">
         <v>90</v>
       </c>
-      <c r="KQ2" s="338"/>
-      <c r="KR2" s="338"/>
-      <c r="KS2" s="338" t="s">
+      <c r="KQ2" s="398"/>
+      <c r="KR2" s="398"/>
+      <c r="KS2" s="398" t="s">
         <v>105</v>
       </c>
-      <c r="KT2" s="338"/>
-      <c r="KU2" s="338"/>
-      <c r="KV2" s="338" t="s">
+      <c r="KT2" s="398"/>
+      <c r="KU2" s="398"/>
+      <c r="KV2" s="398" t="s">
         <v>106</v>
       </c>
-      <c r="KW2" s="338"/>
-      <c r="KX2" s="338"/>
-      <c r="KY2" s="338" t="s">
+      <c r="KW2" s="398"/>
+      <c r="KX2" s="398"/>
+      <c r="KY2" s="398" t="s">
         <v>104</v>
       </c>
-      <c r="KZ2" s="338"/>
-      <c r="LA2" s="338"/>
-      <c r="LB2" s="338" t="s">
+      <c r="KZ2" s="398"/>
+      <c r="LA2" s="398"/>
+      <c r="LB2" s="398" t="s">
         <v>73</v>
       </c>
-      <c r="LC2" s="338"/>
-      <c r="LD2" s="338"/>
-      <c r="LE2" s="345" t="s">
+      <c r="LC2" s="398"/>
+      <c r="LD2" s="398"/>
+      <c r="LE2" s="458" t="s">
         <v>210</v>
       </c>
-      <c r="LF2" s="345"/>
-      <c r="LG2" s="345"/>
-      <c r="LH2" s="345" t="s">
+      <c r="LF2" s="458"/>
+      <c r="LG2" s="458"/>
+      <c r="LH2" s="458" t="s">
         <v>211</v>
       </c>
-      <c r="LI2" s="345"/>
-      <c r="LJ2" s="345"/>
-      <c r="LK2" s="345" t="s">
+      <c r="LI2" s="458"/>
+      <c r="LJ2" s="458"/>
+      <c r="LK2" s="458" t="s">
         <v>212</v>
       </c>
-      <c r="LL2" s="345"/>
-      <c r="LM2" s="345"/>
-      <c r="LN2" s="345" t="s">
+      <c r="LL2" s="458"/>
+      <c r="LM2" s="458"/>
+      <c r="LN2" s="458" t="s">
         <v>213</v>
       </c>
-      <c r="LO2" s="345"/>
-      <c r="LP2" s="345"/>
-      <c r="LQ2" s="345" t="s">
+      <c r="LO2" s="458"/>
+      <c r="LP2" s="458"/>
+      <c r="LQ2" s="458" t="s">
         <v>214</v>
       </c>
-      <c r="LR2" s="345"/>
-      <c r="LS2" s="345"/>
-      <c r="LT2" s="345" t="s">
+      <c r="LR2" s="458"/>
+      <c r="LS2" s="458"/>
+      <c r="LT2" s="458" t="s">
         <v>215</v>
       </c>
-      <c r="LU2" s="345"/>
-      <c r="LV2" s="345"/>
-      <c r="LW2" s="334" t="s">
+      <c r="LU2" s="458"/>
+      <c r="LV2" s="458"/>
+      <c r="LW2" s="451" t="s">
         <v>217</v>
       </c>
-      <c r="LX2" s="334"/>
-      <c r="LY2" s="334"/>
-      <c r="LZ2" s="335" t="s">
+      <c r="LX2" s="451"/>
+      <c r="LY2" s="451"/>
+      <c r="LZ2" s="477" t="s">
         <v>218</v>
       </c>
-      <c r="MA2" s="335"/>
-      <c r="MB2" s="335"/>
-      <c r="MC2" s="334" t="s">
+      <c r="MA2" s="477"/>
+      <c r="MB2" s="477"/>
+      <c r="MC2" s="451" t="s">
         <v>219</v>
       </c>
-      <c r="MD2" s="334"/>
-      <c r="ME2" s="334"/>
-      <c r="MF2" s="334" t="s">
+      <c r="MD2" s="451"/>
+      <c r="ME2" s="451"/>
+      <c r="MF2" s="451" t="s">
         <v>220</v>
       </c>
-      <c r="MG2" s="334"/>
-      <c r="MH2" s="334"/>
-      <c r="MI2" s="334" t="s">
+      <c r="MG2" s="451"/>
+      <c r="MH2" s="451"/>
+      <c r="MI2" s="451" t="s">
         <v>221</v>
       </c>
-      <c r="MJ2" s="334"/>
-      <c r="MK2" s="334"/>
-      <c r="ML2" s="334" t="s">
+      <c r="MJ2" s="451"/>
+      <c r="MK2" s="451"/>
+      <c r="ML2" s="451" t="s">
         <v>184</v>
       </c>
-      <c r="MM2" s="334"/>
-      <c r="MN2" s="334"/>
-      <c r="MO2" s="334" t="s">
+      <c r="MM2" s="451"/>
+      <c r="MN2" s="451"/>
+      <c r="MO2" s="451" t="s">
         <v>222</v>
       </c>
-      <c r="MP2" s="334"/>
-      <c r="MQ2" s="334"/>
-      <c r="MR2" s="334" t="s">
+      <c r="MP2" s="451"/>
+      <c r="MQ2" s="451"/>
+      <c r="MR2" s="451" t="s">
         <v>223</v>
       </c>
-      <c r="MS2" s="334"/>
-      <c r="MT2" s="334"/>
-      <c r="MU2" s="334" t="s">
+      <c r="MS2" s="451"/>
+      <c r="MT2" s="451"/>
+      <c r="MU2" s="451" t="s">
         <v>224</v>
       </c>
-      <c r="MV2" s="334"/>
-      <c r="MW2" s="334"/>
-      <c r="MX2" s="443" t="s">
+      <c r="MV2" s="451"/>
+      <c r="MW2" s="451"/>
+      <c r="MX2" s="380" t="s">
         <v>32</v>
       </c>
-      <c r="MY2" s="443"/>
-      <c r="MZ2" s="443"/>
-      <c r="NA2" s="443"/>
-      <c r="NB2" s="450" t="s">
+      <c r="MY2" s="380"/>
+      <c r="MZ2" s="380"/>
+      <c r="NA2" s="380"/>
+      <c r="NB2" s="387" t="s">
         <v>33</v>
       </c>
-      <c r="NC2" s="450"/>
-      <c r="ND2" s="450"/>
-      <c r="NE2" s="450"/>
-      <c r="NF2" s="443" t="s">
+      <c r="NC2" s="387"/>
+      <c r="ND2" s="387"/>
+      <c r="NE2" s="387"/>
+      <c r="NF2" s="380" t="s">
         <v>34</v>
       </c>
-      <c r="NG2" s="443"/>
-      <c r="NH2" s="443"/>
-      <c r="NI2" s="443"/>
-      <c r="NJ2" s="443" t="s">
+      <c r="NG2" s="380"/>
+      <c r="NH2" s="380"/>
+      <c r="NI2" s="380"/>
+      <c r="NJ2" s="380" t="s">
         <v>35</v>
       </c>
-      <c r="NK2" s="443"/>
-      <c r="NL2" s="443"/>
-      <c r="NM2" s="443"/>
-      <c r="NN2" s="443"/>
-      <c r="NO2" s="443" t="s">
+      <c r="NK2" s="380"/>
+      <c r="NL2" s="380"/>
+      <c r="NM2" s="380"/>
+      <c r="NN2" s="380"/>
+      <c r="NO2" s="380" t="s">
         <v>36</v>
       </c>
-      <c r="NP2" s="443"/>
-      <c r="NQ2" s="443"/>
-      <c r="NR2" s="443"/>
-      <c r="NS2" s="342" t="s">
+      <c r="NP2" s="380"/>
+      <c r="NQ2" s="380"/>
+      <c r="NR2" s="380"/>
+      <c r="NS2" s="390" t="s">
         <v>33</v>
       </c>
-      <c r="NT2" s="342"/>
-      <c r="NU2" s="342"/>
-      <c r="NV2" s="342"/>
-      <c r="NW2" s="342" t="s">
+      <c r="NT2" s="390"/>
+      <c r="NU2" s="390"/>
+      <c r="NV2" s="390"/>
+      <c r="NW2" s="390" t="s">
         <v>115</v>
       </c>
-      <c r="NX2" s="342"/>
-      <c r="NY2" s="342"/>
-      <c r="NZ2" s="342" t="s">
+      <c r="NX2" s="390"/>
+      <c r="NY2" s="390"/>
+      <c r="NZ2" s="390" t="s">
         <v>116</v>
       </c>
-      <c r="OA2" s="342"/>
-      <c r="OB2" s="342"/>
-      <c r="OC2" s="342" t="s">
+      <c r="OA2" s="390"/>
+      <c r="OB2" s="390"/>
+      <c r="OC2" s="390" t="s">
         <v>117</v>
       </c>
-      <c r="OD2" s="342"/>
-      <c r="OE2" s="342"/>
-      <c r="OF2" s="342" t="s">
+      <c r="OD2" s="390"/>
+      <c r="OE2" s="390"/>
+      <c r="OF2" s="390" t="s">
         <v>118</v>
       </c>
-      <c r="OG2" s="342"/>
-      <c r="OH2" s="342"/>
-      <c r="OI2" s="342" t="s">
+      <c r="OG2" s="390"/>
+      <c r="OH2" s="390"/>
+      <c r="OI2" s="390" t="s">
         <v>119</v>
       </c>
-      <c r="OJ2" s="342"/>
-      <c r="OK2" s="342"/>
-      <c r="OL2" s="342"/>
-      <c r="OM2" s="342" t="s">
+      <c r="OJ2" s="390"/>
+      <c r="OK2" s="390"/>
+      <c r="OL2" s="390"/>
+      <c r="OM2" s="390" t="s">
         <v>120</v>
       </c>
-      <c r="ON2" s="342"/>
-      <c r="OO2" s="342"/>
-      <c r="OP2" s="391" t="s">
+      <c r="ON2" s="390"/>
+      <c r="OO2" s="390"/>
+      <c r="OP2" s="366" t="s">
         <v>167</v>
       </c>
-      <c r="OQ2" s="391"/>
-      <c r="OR2" s="391"/>
-      <c r="OS2" s="391" t="s">
+      <c r="OQ2" s="366"/>
+      <c r="OR2" s="366"/>
+      <c r="OS2" s="366" t="s">
         <v>168</v>
       </c>
-      <c r="OT2" s="391"/>
-      <c r="OU2" s="391"/>
-      <c r="OV2" s="391" t="s">
+      <c r="OT2" s="366"/>
+      <c r="OU2" s="366"/>
+      <c r="OV2" s="366" t="s">
         <v>170</v>
       </c>
-      <c r="OW2" s="391"/>
-      <c r="OX2" s="391"/>
-      <c r="OY2" s="391" t="s">
+      <c r="OW2" s="366"/>
+      <c r="OX2" s="366"/>
+      <c r="OY2" s="366" t="s">
         <v>171</v>
       </c>
-      <c r="OZ2" s="391"/>
-      <c r="PA2" s="391"/>
-      <c r="PB2" s="391" t="s">
+      <c r="OZ2" s="366"/>
+      <c r="PA2" s="366"/>
+      <c r="PB2" s="366" t="s">
         <v>172</v>
       </c>
-      <c r="PC2" s="391"/>
-      <c r="PD2" s="391"/>
-      <c r="PE2" s="391" t="s">
+      <c r="PC2" s="366"/>
+      <c r="PD2" s="366"/>
+      <c r="PE2" s="366" t="s">
         <v>173</v>
       </c>
-      <c r="PF2" s="391"/>
-      <c r="PG2" s="391"/>
-      <c r="PH2" s="391" t="s">
+      <c r="PF2" s="366"/>
+      <c r="PG2" s="366"/>
+      <c r="PH2" s="366" t="s">
         <v>174</v>
       </c>
-      <c r="PI2" s="391"/>
-      <c r="PJ2" s="391"/>
-      <c r="PK2" s="341" t="s">
+      <c r="PI2" s="366"/>
+      <c r="PJ2" s="366"/>
+      <c r="PK2" s="372" t="s">
         <v>107</v>
       </c>
-      <c r="PL2" s="341"/>
-      <c r="PM2" s="341"/>
-      <c r="PN2" s="341" t="s">
+      <c r="PL2" s="372"/>
+      <c r="PM2" s="372"/>
+      <c r="PN2" s="372" t="s">
         <v>108</v>
       </c>
-      <c r="PO2" s="341"/>
-      <c r="PP2" s="341"/>
-      <c r="PQ2" s="341" t="s">
+      <c r="PO2" s="372"/>
+      <c r="PP2" s="372"/>
+      <c r="PQ2" s="372" t="s">
         <v>109</v>
       </c>
-      <c r="PR2" s="341"/>
-      <c r="PS2" s="341"/>
-      <c r="PT2" s="341" t="s">
+      <c r="PR2" s="372"/>
+      <c r="PS2" s="372"/>
+      <c r="PT2" s="372" t="s">
         <v>110</v>
       </c>
-      <c r="PU2" s="341"/>
-      <c r="PV2" s="341"/>
-      <c r="PW2" s="341" t="s">
+      <c r="PU2" s="372"/>
+      <c r="PV2" s="372"/>
+      <c r="PW2" s="372" t="s">
         <v>111</v>
       </c>
-      <c r="PX2" s="341"/>
-      <c r="PY2" s="341"/>
-      <c r="PZ2" s="341" t="s">
+      <c r="PX2" s="372"/>
+      <c r="PY2" s="372"/>
+      <c r="PZ2" s="372" t="s">
         <v>112</v>
       </c>
-      <c r="QA2" s="341"/>
-      <c r="QB2" s="341"/>
-      <c r="QC2" s="341" t="s">
+      <c r="QA2" s="372"/>
+      <c r="QB2" s="372"/>
+      <c r="QC2" s="372" t="s">
         <v>113</v>
       </c>
-      <c r="QD2" s="341"/>
-      <c r="QE2" s="341"/>
-      <c r="QF2" s="341" t="s">
+      <c r="QD2" s="372"/>
+      <c r="QE2" s="372"/>
+      <c r="QF2" s="372" t="s">
         <v>38</v>
       </c>
-      <c r="QG2" s="341"/>
-      <c r="QH2" s="341"/>
-      <c r="QI2" s="349" t="s">
+      <c r="QG2" s="372"/>
+      <c r="QH2" s="372"/>
+      <c r="QI2" s="389" t="s">
         <v>67</v>
       </c>
-      <c r="QJ2" s="349"/>
-      <c r="QK2" s="349"/>
-      <c r="QL2" s="349" t="s">
+      <c r="QJ2" s="389"/>
+      <c r="QK2" s="389"/>
+      <c r="QL2" s="389" t="s">
         <v>68</v>
       </c>
-      <c r="QM2" s="349"/>
-      <c r="QN2" s="349"/>
-      <c r="QO2" s="349" t="s">
+      <c r="QM2" s="389"/>
+      <c r="QN2" s="389"/>
+      <c r="QO2" s="389" t="s">
         <v>69</v>
       </c>
-      <c r="QP2" s="349"/>
-      <c r="QQ2" s="349"/>
-      <c r="QR2" s="439" t="s">
+      <c r="QP2" s="389"/>
+      <c r="QQ2" s="389"/>
+      <c r="QR2" s="406" t="s">
         <v>70</v>
       </c>
-      <c r="QS2" s="439"/>
-      <c r="QT2" s="439"/>
-      <c r="QU2" s="399" t="s">
+      <c r="QS2" s="406"/>
+      <c r="QT2" s="406"/>
+      <c r="QU2" s="443" t="s">
         <v>71</v>
       </c>
-      <c r="QV2" s="400"/>
-      <c r="QW2" s="400"/>
-      <c r="QX2" s="401"/>
-      <c r="QY2" s="439" t="s">
+      <c r="QV2" s="444"/>
+      <c r="QW2" s="444"/>
+      <c r="QX2" s="445"/>
+      <c r="QY2" s="406" t="s">
         <v>72</v>
       </c>
-      <c r="QZ2" s="439"/>
-      <c r="RA2" s="439"/>
-      <c r="RB2" s="398" t="s">
+      <c r="QZ2" s="406"/>
+      <c r="RA2" s="406"/>
+      <c r="RB2" s="393" t="s">
         <v>143</v>
       </c>
-      <c r="RC2" s="398"/>
-      <c r="RD2" s="398"/>
-      <c r="RE2" s="398" t="s">
+      <c r="RC2" s="393"/>
+      <c r="RD2" s="393"/>
+      <c r="RE2" s="393" t="s">
         <v>144</v>
       </c>
-      <c r="RF2" s="398"/>
-      <c r="RG2" s="398"/>
-      <c r="RH2" s="398" t="s">
+      <c r="RF2" s="393"/>
+      <c r="RG2" s="393"/>
+      <c r="RH2" s="393" t="s">
         <v>145</v>
       </c>
-      <c r="RI2" s="398"/>
-      <c r="RJ2" s="398"/>
-      <c r="RK2" s="398" t="s">
+      <c r="RI2" s="393"/>
+      <c r="RJ2" s="393"/>
+      <c r="RK2" s="393" t="s">
         <v>146</v>
       </c>
-      <c r="RL2" s="398"/>
-      <c r="RM2" s="398"/>
-      <c r="RN2" s="398" t="s">
+      <c r="RL2" s="393"/>
+      <c r="RM2" s="393"/>
+      <c r="RN2" s="393" t="s">
         <v>147</v>
       </c>
-      <c r="RO2" s="398"/>
-      <c r="RP2" s="398"/>
-      <c r="RQ2" s="398" t="s">
+      <c r="RO2" s="393"/>
+      <c r="RP2" s="393"/>
+      <c r="RQ2" s="393" t="s">
         <v>148</v>
       </c>
-      <c r="RR2" s="398"/>
-      <c r="RS2" s="398"/>
-      <c r="RT2" s="398" t="s">
+      <c r="RR2" s="393"/>
+      <c r="RS2" s="393"/>
+      <c r="RT2" s="393" t="s">
         <v>149</v>
       </c>
-      <c r="RU2" s="398"/>
-      <c r="RV2" s="398"/>
-      <c r="RW2" s="397" t="s">
+      <c r="RU2" s="393"/>
+      <c r="RV2" s="393"/>
+      <c r="RW2" s="442" t="s">
         <v>183</v>
       </c>
-      <c r="RX2" s="397"/>
-      <c r="RY2" s="397"/>
-      <c r="RZ2" s="378" t="s">
+      <c r="RX2" s="442"/>
+      <c r="RY2" s="442"/>
+      <c r="RZ2" s="461" t="s">
         <v>171</v>
       </c>
-      <c r="SA2" s="378"/>
-      <c r="SB2" s="378"/>
-      <c r="SC2" s="378" t="s">
+      <c r="SA2" s="461"/>
+      <c r="SB2" s="461"/>
+      <c r="SC2" s="461" t="s">
         <v>184</v>
       </c>
-      <c r="SD2" s="378"/>
-      <c r="SE2" s="378"/>
-      <c r="SF2" s="375" t="s">
+      <c r="SD2" s="461"/>
+      <c r="SE2" s="461"/>
+      <c r="SF2" s="369" t="s">
         <v>185</v>
       </c>
-      <c r="SG2" s="375"/>
-      <c r="SH2" s="375"/>
-      <c r="SI2" s="375" t="s">
+      <c r="SG2" s="369"/>
+      <c r="SH2" s="369"/>
+      <c r="SI2" s="369" t="s">
         <v>186</v>
       </c>
-      <c r="SJ2" s="375"/>
-      <c r="SK2" s="375"/>
-      <c r="SL2" s="375" t="s">
+      <c r="SJ2" s="369"/>
+      <c r="SK2" s="369"/>
+      <c r="SL2" s="369" t="s">
         <v>187</v>
       </c>
-      <c r="SM2" s="375"/>
-      <c r="SN2" s="375"/>
-      <c r="SO2" s="375" t="s">
+      <c r="SM2" s="369"/>
+      <c r="SN2" s="369"/>
+      <c r="SO2" s="369" t="s">
         <v>188</v>
       </c>
-      <c r="SP2" s="375"/>
-      <c r="SQ2" s="375"/>
-      <c r="SR2" s="375" t="s">
+      <c r="SP2" s="369"/>
+      <c r="SQ2" s="369"/>
+      <c r="SR2" s="369" t="s">
         <v>189</v>
       </c>
-      <c r="SS2" s="375"/>
-      <c r="ST2" s="375"/>
-      <c r="SU2" s="375" t="s">
+      <c r="SS2" s="369"/>
+      <c r="ST2" s="369"/>
+      <c r="SU2" s="369" t="s">
         <v>83</v>
       </c>
-      <c r="SV2" s="375"/>
-      <c r="SW2" s="375"/>
-      <c r="SX2" s="458" t="s">
+      <c r="SV2" s="369"/>
+      <c r="SW2" s="369"/>
+      <c r="SX2" s="333" t="s">
         <v>278</v>
       </c>
-      <c r="SY2" s="458"/>
-      <c r="SZ2" s="458"/>
-      <c r="TA2" s="458" t="s">
+      <c r="SY2" s="333"/>
+      <c r="SZ2" s="333"/>
+      <c r="TA2" s="333" t="s">
         <v>279</v>
       </c>
-      <c r="TB2" s="458"/>
-      <c r="TC2" s="458"/>
-      <c r="TD2" s="458" t="s">
+      <c r="TB2" s="333"/>
+      <c r="TC2" s="333"/>
+      <c r="TD2" s="333" t="s">
         <v>280</v>
       </c>
-      <c r="TE2" s="458"/>
-      <c r="TF2" s="458"/>
-      <c r="TG2" s="458" t="s">
+      <c r="TE2" s="333"/>
+      <c r="TF2" s="333"/>
+      <c r="TG2" s="333" t="s">
         <v>281</v>
       </c>
-      <c r="TH2" s="458"/>
-      <c r="TI2" s="458"/>
-      <c r="TJ2" s="458" t="s">
+      <c r="TH2" s="333"/>
+      <c r="TI2" s="333"/>
+      <c r="TJ2" s="333" t="s">
         <v>282</v>
       </c>
-      <c r="TK2" s="458"/>
-      <c r="TL2" s="458"/>
-      <c r="TM2" s="458" t="s">
+      <c r="TK2" s="333"/>
+      <c r="TL2" s="333"/>
+      <c r="TM2" s="333" t="s">
         <v>283</v>
       </c>
-      <c r="TN2" s="458"/>
-      <c r="TO2" s="458"/>
-      <c r="TP2" s="458" t="s">
+      <c r="TN2" s="333"/>
+      <c r="TO2" s="333"/>
+      <c r="TP2" s="333" t="s">
         <v>284</v>
       </c>
-      <c r="TQ2" s="458"/>
-      <c r="TR2" s="458"/>
-      <c r="TS2" s="377" t="s">
+      <c r="TQ2" s="333"/>
+      <c r="TR2" s="333"/>
+      <c r="TS2" s="337" t="s">
         <v>67</v>
       </c>
-      <c r="TT2" s="377"/>
-      <c r="TU2" s="377"/>
-      <c r="TV2" s="377"/>
-      <c r="TW2" s="377" t="s">
+      <c r="TT2" s="337"/>
+      <c r="TU2" s="337"/>
+      <c r="TV2" s="337"/>
+      <c r="TW2" s="337" t="s">
         <v>68</v>
       </c>
-      <c r="TX2" s="377"/>
-      <c r="TY2" s="377"/>
-      <c r="TZ2" s="377" t="s">
+      <c r="TX2" s="337"/>
+      <c r="TY2" s="337"/>
+      <c r="TZ2" s="337" t="s">
         <v>69</v>
       </c>
-      <c r="UA2" s="377"/>
-      <c r="UB2" s="377"/>
-      <c r="UC2" s="377" t="s">
+      <c r="UA2" s="337"/>
+      <c r="UB2" s="337"/>
+      <c r="UC2" s="337" t="s">
         <v>70</v>
       </c>
-      <c r="UD2" s="377"/>
-      <c r="UE2" s="377"/>
-      <c r="UF2" s="377" t="s">
+      <c r="UD2" s="337"/>
+      <c r="UE2" s="337"/>
+      <c r="UF2" s="337" t="s">
         <v>85</v>
       </c>
-      <c r="UG2" s="377"/>
-      <c r="UH2" s="377"/>
-      <c r="UI2" s="377" t="s">
+      <c r="UG2" s="337"/>
+      <c r="UH2" s="337"/>
+      <c r="UI2" s="337" t="s">
         <v>86</v>
       </c>
-      <c r="UJ2" s="377"/>
-      <c r="UK2" s="377"/>
-      <c r="UL2" s="377" t="s">
+      <c r="UJ2" s="337"/>
+      <c r="UK2" s="337"/>
+      <c r="UL2" s="337" t="s">
         <v>87</v>
       </c>
-      <c r="UM2" s="377"/>
-      <c r="UN2" s="377"/>
-      <c r="UO2" s="393" t="s">
+      <c r="UM2" s="337"/>
+      <c r="UN2" s="337"/>
+      <c r="UO2" s="400" t="s">
         <v>158</v>
       </c>
-      <c r="UP2" s="393"/>
-      <c r="UQ2" s="393"/>
-      <c r="UR2" s="393" t="s">
+      <c r="UP2" s="400"/>
+      <c r="UQ2" s="400"/>
+      <c r="UR2" s="400" t="s">
         <v>159</v>
       </c>
-      <c r="US2" s="393"/>
-      <c r="UT2" s="393"/>
-      <c r="UU2" s="393" t="s">
+      <c r="US2" s="400"/>
+      <c r="UT2" s="400"/>
+      <c r="UU2" s="400" t="s">
         <v>160</v>
       </c>
-      <c r="UV2" s="393"/>
-      <c r="UW2" s="393"/>
-      <c r="UX2" s="393" t="s">
+      <c r="UV2" s="400"/>
+      <c r="UW2" s="400"/>
+      <c r="UX2" s="400" t="s">
         <v>161</v>
       </c>
-      <c r="UY2" s="393"/>
-      <c r="UZ2" s="393"/>
-      <c r="VA2" s="393" t="s">
+      <c r="UY2" s="400"/>
+      <c r="UZ2" s="400"/>
+      <c r="VA2" s="400" t="s">
         <v>162</v>
       </c>
-      <c r="VB2" s="393"/>
-      <c r="VC2" s="393"/>
-      <c r="VD2" s="393" t="s">
+      <c r="VB2" s="400"/>
+      <c r="VC2" s="400"/>
+      <c r="VD2" s="400" t="s">
         <v>163</v>
       </c>
-      <c r="VE2" s="393"/>
-      <c r="VF2" s="393"/>
-      <c r="VG2" s="393" t="s">
+      <c r="VE2" s="400"/>
+      <c r="VF2" s="400"/>
+      <c r="VG2" s="400" t="s">
         <v>164</v>
       </c>
-      <c r="VH2" s="393"/>
-      <c r="VI2" s="393"/>
-      <c r="VJ2" s="393" t="s">
+      <c r="VH2" s="400"/>
+      <c r="VI2" s="400"/>
+      <c r="VJ2" s="400" t="s">
         <v>165</v>
       </c>
-      <c r="VK2" s="393"/>
-      <c r="VL2" s="393"/>
-      <c r="VM2" s="393" t="s">
+      <c r="VK2" s="400"/>
+      <c r="VL2" s="400"/>
+      <c r="VM2" s="400" t="s">
         <v>149</v>
       </c>
-      <c r="VN2" s="393"/>
-      <c r="VO2" s="393"/>
-      <c r="VP2" s="370" t="s">
+      <c r="VN2" s="400"/>
+      <c r="VO2" s="400"/>
+      <c r="VP2" s="344" t="s">
         <v>192</v>
       </c>
-      <c r="VQ2" s="370"/>
-      <c r="VR2" s="370"/>
-      <c r="VS2" s="370" t="s">
+      <c r="VQ2" s="344"/>
+      <c r="VR2" s="344"/>
+      <c r="VS2" s="344" t="s">
         <v>193</v>
       </c>
-      <c r="VT2" s="370"/>
-      <c r="VU2" s="370"/>
-      <c r="VV2" s="370" t="s">
+      <c r="VT2" s="344"/>
+      <c r="VU2" s="344"/>
+      <c r="VV2" s="344" t="s">
         <v>194</v>
       </c>
-      <c r="VW2" s="370"/>
-      <c r="VX2" s="370"/>
-      <c r="VY2" s="370" t="s">
+      <c r="VW2" s="344"/>
+      <c r="VX2" s="344"/>
+      <c r="VY2" s="344" t="s">
         <v>83</v>
       </c>
-      <c r="VZ2" s="370"/>
-      <c r="WA2" s="370"/>
-      <c r="WB2" s="370" t="s">
+      <c r="VZ2" s="344"/>
+      <c r="WA2" s="344"/>
+      <c r="WB2" s="344" t="s">
         <v>195</v>
       </c>
-      <c r="WC2" s="370"/>
-      <c r="WD2" s="370"/>
-      <c r="WE2" s="370" t="s">
+      <c r="WC2" s="344"/>
+      <c r="WD2" s="344"/>
+      <c r="WE2" s="344" t="s">
         <v>196</v>
       </c>
-      <c r="WF2" s="370"/>
-      <c r="WG2" s="370"/>
-      <c r="WH2" s="370" t="s">
+      <c r="WF2" s="344"/>
+      <c r="WG2" s="344"/>
+      <c r="WH2" s="344" t="s">
         <v>197</v>
       </c>
-      <c r="WI2" s="370"/>
-      <c r="WJ2" s="370"/>
-      <c r="WK2" s="370" t="s">
+      <c r="WI2" s="344"/>
+      <c r="WJ2" s="344"/>
+      <c r="WK2" s="344" t="s">
         <v>198</v>
       </c>
-      <c r="WL2" s="370"/>
-      <c r="WM2" s="370"/>
-      <c r="WN2" s="370" t="s">
+      <c r="WL2" s="344"/>
+      <c r="WM2" s="344"/>
+      <c r="WN2" s="344" t="s">
         <v>199</v>
       </c>
-      <c r="WO2" s="370"/>
-      <c r="WP2" s="370"/>
-      <c r="WQ2" s="348" t="s">
+      <c r="WO2" s="344"/>
+      <c r="WP2" s="344"/>
+      <c r="WQ2" s="462" t="s">
         <v>90</v>
       </c>
-      <c r="WR2" s="348"/>
-      <c r="WS2" s="348"/>
-      <c r="WT2" s="348" t="s">
+      <c r="WR2" s="462"/>
+      <c r="WS2" s="462"/>
+      <c r="WT2" s="462" t="s">
         <v>91</v>
       </c>
-      <c r="WU2" s="348"/>
-      <c r="WV2" s="348"/>
-      <c r="WW2" s="348" t="s">
+      <c r="WU2" s="462"/>
+      <c r="WV2" s="462"/>
+      <c r="WW2" s="462" t="s">
         <v>92</v>
       </c>
-      <c r="WX2" s="348"/>
-      <c r="WY2" s="348"/>
-      <c r="WZ2" s="348" t="s">
+      <c r="WX2" s="462"/>
+      <c r="WY2" s="462"/>
+      <c r="WZ2" s="462" t="s">
         <v>73</v>
       </c>
-      <c r="XA2" s="348"/>
-      <c r="XB2" s="348"/>
-      <c r="XC2" s="348" t="s">
+      <c r="XA2" s="462"/>
+      <c r="XB2" s="462"/>
+      <c r="XC2" s="462" t="s">
         <v>93</v>
       </c>
-      <c r="XD2" s="348"/>
-      <c r="XE2" s="348"/>
-      <c r="XF2" s="348" t="s">
+      <c r="XD2" s="462"/>
+      <c r="XE2" s="462"/>
+      <c r="XF2" s="462" t="s">
         <v>94</v>
       </c>
-      <c r="XG2" s="348"/>
-      <c r="XH2" s="348"/>
-      <c r="XI2" s="348" t="s">
+      <c r="XG2" s="462"/>
+      <c r="XH2" s="462"/>
+      <c r="XI2" s="462" t="s">
         <v>95</v>
       </c>
-      <c r="XJ2" s="348"/>
-      <c r="XK2" s="348"/>
-      <c r="XL2" s="373" t="s">
+      <c r="XJ2" s="462"/>
+      <c r="XK2" s="462"/>
+      <c r="XL2" s="463" t="s">
         <v>96</v>
       </c>
-      <c r="XM2" s="373"/>
-      <c r="XN2" s="373"/>
-      <c r="XO2" s="387" t="s">
+      <c r="XM2" s="463"/>
+      <c r="XN2" s="463"/>
+      <c r="XO2" s="332" t="s">
         <v>83</v>
       </c>
-      <c r="XP2" s="387"/>
-      <c r="XQ2" s="387"/>
-      <c r="XR2" s="387" t="s">
+      <c r="XP2" s="332"/>
+      <c r="XQ2" s="332"/>
+      <c r="XR2" s="332" t="s">
         <v>293</v>
       </c>
-      <c r="XS2" s="387"/>
-      <c r="XT2" s="387"/>
-      <c r="XU2" s="387" t="s">
+      <c r="XS2" s="332"/>
+      <c r="XT2" s="332"/>
+      <c r="XU2" s="332" t="s">
         <v>294</v>
       </c>
-      <c r="XV2" s="387"/>
-      <c r="XW2" s="387"/>
-      <c r="XX2" s="387" t="s">
+      <c r="XV2" s="332"/>
+      <c r="XW2" s="332"/>
+      <c r="XX2" s="332" t="s">
         <v>170</v>
       </c>
-      <c r="XY2" s="387"/>
-      <c r="XZ2" s="387"/>
-      <c r="YA2" s="387" t="s">
+      <c r="XY2" s="332"/>
+      <c r="XZ2" s="332"/>
+      <c r="YA2" s="332" t="s">
         <v>295</v>
       </c>
-      <c r="YB2" s="387"/>
-      <c r="YC2" s="387"/>
-      <c r="YD2" s="387" t="s">
+      <c r="YB2" s="332"/>
+      <c r="YC2" s="332"/>
+      <c r="YD2" s="332" t="s">
         <v>296</v>
       </c>
-      <c r="YE2" s="387"/>
-      <c r="YF2" s="387"/>
-      <c r="YG2" s="387" t="s">
+      <c r="YE2" s="332"/>
+      <c r="YF2" s="332"/>
+      <c r="YG2" s="332" t="s">
         <v>297</v>
       </c>
-      <c r="YH2" s="387"/>
-      <c r="YI2" s="387"/>
-      <c r="YJ2" s="387" t="s">
+      <c r="YH2" s="332"/>
+      <c r="YI2" s="332"/>
+      <c r="YJ2" s="332" t="s">
         <v>298</v>
       </c>
-      <c r="YK2" s="387"/>
-      <c r="YL2" s="387"/>
-      <c r="YM2" s="387" t="s">
+      <c r="YK2" s="332"/>
+      <c r="YL2" s="332"/>
+      <c r="YM2" s="332" t="s">
         <v>299</v>
       </c>
-      <c r="YN2" s="387"/>
-      <c r="YO2" s="387"/>
-      <c r="YP2" s="355" t="s">
+      <c r="YN2" s="332"/>
+      <c r="YO2" s="332"/>
+      <c r="YP2" s="450" t="s">
         <v>38</v>
       </c>
-      <c r="YQ2" s="355"/>
-      <c r="YR2" s="355"/>
-      <c r="YS2" s="355" t="s">
+      <c r="YQ2" s="450"/>
+      <c r="YR2" s="450"/>
+      <c r="YS2" s="450" t="s">
         <v>73</v>
       </c>
-      <c r="YT2" s="355"/>
-      <c r="YU2" s="355"/>
-      <c r="YV2" s="455" t="s">
+      <c r="YT2" s="450"/>
+      <c r="YU2" s="450"/>
+      <c r="YV2" s="381" t="s">
         <v>37</v>
       </c>
-      <c r="YW2" s="455"/>
-      <c r="YX2" s="455"/>
-      <c r="YY2" s="455"/>
-      <c r="YZ2" s="455" t="s">
+      <c r="YW2" s="381"/>
+      <c r="YX2" s="381"/>
+      <c r="YY2" s="381"/>
+      <c r="YZ2" s="381" t="s">
         <v>38</v>
       </c>
-      <c r="ZA2" s="455"/>
-      <c r="ZB2" s="455"/>
-      <c r="ZC2" s="360" t="s">
+      <c r="ZA2" s="381"/>
+      <c r="ZB2" s="381"/>
+      <c r="ZC2" s="434" t="s">
         <v>1342</v>
       </c>
-      <c r="ZD2" s="361"/>
-      <c r="ZE2" s="362"/>
-      <c r="ZF2" s="359"/>
-      <c r="ZG2" s="359"/>
-      <c r="ZH2" s="359"/>
-      <c r="ZI2" s="358"/>
-      <c r="ZJ2" s="358"/>
-      <c r="ZK2" s="358"/>
-      <c r="ZL2" s="358"/>
-      <c r="ZM2" s="368"/>
-      <c r="ZN2" s="368"/>
-      <c r="ZO2" s="368"/>
-      <c r="ZP2" s="371"/>
-      <c r="ZQ2" s="371"/>
-      <c r="ZR2" s="371"/>
-      <c r="ZS2" s="406"/>
-      <c r="ZT2" s="406"/>
-      <c r="ZU2" s="406"/>
-      <c r="ZV2" s="356"/>
-      <c r="ZW2" s="356"/>
-      <c r="ZX2" s="356"/>
-      <c r="ZY2" s="366"/>
-      <c r="ZZ2" s="367"/>
-      <c r="AAA2" s="367"/>
-      <c r="AAB2" s="367"/>
-      <c r="AAC2" s="367"/>
-      <c r="AAD2" s="354"/>
-      <c r="AAE2" s="354"/>
-      <c r="AAF2" s="354"/>
-      <c r="AAG2" s="413"/>
-      <c r="AAH2" s="413"/>
-      <c r="AAI2" s="413"/>
-      <c r="AAJ2" s="331"/>
-      <c r="AAK2" s="331"/>
-      <c r="AAL2" s="331"/>
-      <c r="AAM2" s="371"/>
-      <c r="AAN2" s="371"/>
-      <c r="AAO2" s="371"/>
-      <c r="AAP2" s="456"/>
-      <c r="AAQ2" s="456"/>
-      <c r="AAR2" s="456"/>
-      <c r="AAS2" s="414"/>
-      <c r="AAT2" s="414"/>
-      <c r="AAU2" s="414"/>
-      <c r="AAV2" s="343"/>
-      <c r="AAW2" s="343"/>
-      <c r="AAX2" s="343"/>
-      <c r="AAY2" s="384"/>
-      <c r="AAZ2" s="384"/>
-      <c r="ABA2" s="384"/>
-      <c r="ABB2" s="388"/>
-      <c r="ABC2" s="388"/>
-      <c r="ABD2" s="388"/>
-      <c r="ABE2" s="388"/>
-      <c r="ABF2" s="416"/>
-      <c r="ABG2" s="416"/>
-      <c r="ABH2" s="416"/>
-      <c r="ABI2" s="412"/>
-      <c r="ABJ2" s="412"/>
-      <c r="ABK2" s="412"/>
-      <c r="ABL2" s="412"/>
-      <c r="ABM2" s="380"/>
-      <c r="ABN2" s="380"/>
-      <c r="ABO2" s="380"/>
-      <c r="ABP2" s="446"/>
-      <c r="ABQ2" s="446"/>
-      <c r="ABR2" s="446"/>
-      <c r="ABS2" s="453"/>
-      <c r="ABT2" s="452"/>
-      <c r="ABU2" s="452"/>
-      <c r="ABV2" s="442"/>
-      <c r="ABW2" s="442"/>
-      <c r="ABX2" s="442"/>
-      <c r="ABY2" s="415"/>
-      <c r="ABZ2" s="415"/>
-      <c r="ACA2" s="415"/>
-      <c r="ACB2" s="421"/>
-      <c r="ACC2" s="422"/>
-      <c r="ACD2" s="327"/>
-      <c r="ACE2" s="327"/>
-      <c r="ACF2" s="433"/>
-      <c r="ACG2" s="430"/>
-      <c r="ACH2" s="430"/>
-      <c r="ACI2" s="427"/>
-      <c r="ACJ2" s="427"/>
-      <c r="ACK2" s="427"/>
-      <c r="ACL2" s="424"/>
+      <c r="ZD2" s="435"/>
+      <c r="ZE2" s="436"/>
+      <c r="ZF2" s="441"/>
+      <c r="ZG2" s="441"/>
+      <c r="ZH2" s="441"/>
+      <c r="ZI2" s="440"/>
+      <c r="ZJ2" s="440"/>
+      <c r="ZK2" s="440"/>
+      <c r="ZL2" s="440"/>
+      <c r="ZM2" s="437"/>
+      <c r="ZN2" s="437"/>
+      <c r="ZO2" s="437"/>
+      <c r="ZP2" s="345"/>
+      <c r="ZQ2" s="345"/>
+      <c r="ZR2" s="345"/>
+      <c r="ZS2" s="384"/>
+      <c r="ZT2" s="384"/>
+      <c r="ZU2" s="384"/>
+      <c r="ZV2" s="465"/>
+      <c r="ZW2" s="465"/>
+      <c r="ZX2" s="465"/>
+      <c r="ZY2" s="468"/>
+      <c r="ZZ2" s="469"/>
+      <c r="AAA2" s="469"/>
+      <c r="AAB2" s="469"/>
+      <c r="AAC2" s="469"/>
+      <c r="AAD2" s="471"/>
+      <c r="AAE2" s="471"/>
+      <c r="AAF2" s="471"/>
+      <c r="AAG2" s="438"/>
+      <c r="AAH2" s="438"/>
+      <c r="AAI2" s="438"/>
+      <c r="AAJ2" s="470"/>
+      <c r="AAK2" s="470"/>
+      <c r="AAL2" s="470"/>
+      <c r="AAM2" s="345"/>
+      <c r="AAN2" s="345"/>
+      <c r="AAO2" s="345"/>
+      <c r="AAP2" s="348"/>
+      <c r="AAQ2" s="348"/>
+      <c r="AAR2" s="348"/>
+      <c r="AAS2" s="339"/>
+      <c r="AAT2" s="339"/>
+      <c r="AAU2" s="339"/>
+      <c r="AAV2" s="433"/>
+      <c r="AAW2" s="433"/>
+      <c r="AAX2" s="433"/>
+      <c r="AAY2" s="411"/>
+      <c r="AAZ2" s="411"/>
+      <c r="ABA2" s="411"/>
+      <c r="ABB2" s="396"/>
+      <c r="ABC2" s="396"/>
+      <c r="ABD2" s="396"/>
+      <c r="ABE2" s="396"/>
+      <c r="ABF2" s="405"/>
+      <c r="ABG2" s="405"/>
+      <c r="ABH2" s="405"/>
+      <c r="ABI2" s="395"/>
+      <c r="ABJ2" s="395"/>
+      <c r="ABK2" s="395"/>
+      <c r="ABL2" s="395"/>
+      <c r="ABM2" s="394"/>
+      <c r="ABN2" s="394"/>
+      <c r="ABO2" s="394"/>
+      <c r="ABP2" s="356"/>
+      <c r="ABQ2" s="356"/>
+      <c r="ABR2" s="356"/>
+      <c r="ABS2" s="353"/>
+      <c r="ABT2" s="377"/>
+      <c r="ABU2" s="377"/>
+      <c r="ABV2" s="376"/>
+      <c r="ABW2" s="376"/>
+      <c r="ABX2" s="376"/>
+      <c r="ABY2" s="409"/>
+      <c r="ABZ2" s="409"/>
+      <c r="ACA2" s="409"/>
+      <c r="ACB2" s="416"/>
+      <c r="ACC2" s="417"/>
+      <c r="ACD2" s="431"/>
+      <c r="ACE2" s="431"/>
+      <c r="ACF2" s="428"/>
+      <c r="ACG2" s="425"/>
+      <c r="ACH2" s="425"/>
+      <c r="ACI2" s="422"/>
+      <c r="ACJ2" s="422"/>
+      <c r="ACK2" s="422"/>
+      <c r="ACL2" s="419"/>
       <c r="ACM2" s="410"/>
       <c r="ACN2" s="410"/>
       <c r="ACO2" s="410"/>
-      <c r="ACP2" s="451"/>
-      <c r="ACQ2" s="411"/>
-      <c r="ACR2" s="437"/>
+      <c r="ACP2" s="375"/>
+      <c r="ACQ2" s="439"/>
+      <c r="ACR2" s="404"/>
       <c r="ACT2" s="294"/>
       <c r="ACU2" s="295"/>
       <c r="ACV2" s="170" t="s">
@@ -11190,1334 +11210,1334 @@
       <c r="ACY2" s="300"/>
     </row>
     <row r="3" spans="1:779" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="453"/>
-      <c r="B3" s="462"/>
-      <c r="C3" s="453"/>
-      <c r="D3" s="463"/>
-      <c r="E3" s="463"/>
-      <c r="F3" s="453"/>
-      <c r="G3" s="453"/>
-      <c r="H3" s="453"/>
-      <c r="I3" s="453"/>
-      <c r="J3" s="453"/>
-      <c r="K3" s="453"/>
-      <c r="L3" s="453"/>
-      <c r="M3" s="453"/>
-      <c r="N3" s="453"/>
-      <c r="O3" s="453"/>
-      <c r="P3" s="453"/>
-      <c r="Q3" s="453"/>
-      <c r="R3" s="453"/>
-      <c r="S3" s="453"/>
-      <c r="T3" s="453"/>
-      <c r="U3" s="453"/>
-      <c r="V3" s="446"/>
-      <c r="W3" s="453"/>
-      <c r="X3" s="453"/>
-      <c r="Y3" s="453"/>
+      <c r="A3" s="353"/>
+      <c r="B3" s="354"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="353"/>
+      <c r="R3" s="353"/>
+      <c r="S3" s="353"/>
+      <c r="T3" s="353"/>
+      <c r="U3" s="353"/>
+      <c r="V3" s="356"/>
+      <c r="W3" s="353"/>
+      <c r="X3" s="353"/>
+      <c r="Y3" s="353"/>
       <c r="Z3" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="AA3" s="382">
+      <c r="AA3" s="455">
         <v>0.15</v>
       </c>
-      <c r="AB3" s="382"/>
-      <c r="AC3" s="382"/>
-      <c r="AD3" s="382">
+      <c r="AB3" s="455"/>
+      <c r="AC3" s="455"/>
+      <c r="AD3" s="455">
         <v>0.15</v>
       </c>
-      <c r="AE3" s="382"/>
-      <c r="AF3" s="382"/>
-      <c r="AG3" s="465">
+      <c r="AE3" s="455"/>
+      <c r="AF3" s="455"/>
+      <c r="AG3" s="350">
         <v>0.15</v>
       </c>
-      <c r="AH3" s="465"/>
-      <c r="AI3" s="465"/>
-      <c r="AJ3" s="465">
+      <c r="AH3" s="350"/>
+      <c r="AI3" s="350"/>
+      <c r="AJ3" s="350">
         <v>0.15</v>
       </c>
-      <c r="AK3" s="465"/>
-      <c r="AL3" s="465"/>
-      <c r="AM3" s="468">
+      <c r="AK3" s="350"/>
+      <c r="AL3" s="350"/>
+      <c r="AM3" s="341">
         <v>0.1</v>
       </c>
-      <c r="AN3" s="468"/>
-      <c r="AO3" s="468"/>
-      <c r="AP3" s="468">
+      <c r="AN3" s="341"/>
+      <c r="AO3" s="341"/>
+      <c r="AP3" s="341">
         <v>0.1</v>
       </c>
-      <c r="AQ3" s="468"/>
-      <c r="AR3" s="468"/>
-      <c r="AS3" s="369">
+      <c r="AQ3" s="341"/>
+      <c r="AR3" s="341"/>
+      <c r="AS3" s="346">
         <v>0.15</v>
       </c>
-      <c r="AT3" s="369"/>
-      <c r="AU3" s="369"/>
-      <c r="AV3" s="369">
+      <c r="AT3" s="346"/>
+      <c r="AU3" s="346"/>
+      <c r="AV3" s="346">
         <v>0.15</v>
       </c>
-      <c r="AW3" s="369"/>
-      <c r="AX3" s="369"/>
-      <c r="AY3" s="325">
+      <c r="AW3" s="346"/>
+      <c r="AX3" s="346"/>
+      <c r="AY3" s="452">
         <v>0.15</v>
       </c>
-      <c r="AZ3" s="325"/>
-      <c r="BA3" s="325"/>
-      <c r="BB3" s="325">
+      <c r="AZ3" s="452"/>
+      <c r="BA3" s="452"/>
+      <c r="BB3" s="452">
         <v>0.15</v>
       </c>
-      <c r="BC3" s="325"/>
-      <c r="BD3" s="325"/>
-      <c r="BE3" s="346">
+      <c r="BC3" s="452"/>
+      <c r="BD3" s="452"/>
+      <c r="BE3" s="459">
         <v>0.1</v>
       </c>
-      <c r="BF3" s="346"/>
-      <c r="BG3" s="346"/>
-      <c r="BH3" s="346">
+      <c r="BF3" s="459"/>
+      <c r="BG3" s="459"/>
+      <c r="BH3" s="459">
         <v>0.15</v>
       </c>
-      <c r="BI3" s="346"/>
-      <c r="BJ3" s="346"/>
-      <c r="BK3" s="333">
+      <c r="BI3" s="459"/>
+      <c r="BJ3" s="459"/>
+      <c r="BK3" s="397">
         <v>0.1</v>
       </c>
-      <c r="BL3" s="333"/>
-      <c r="BM3" s="333"/>
-      <c r="BN3" s="333">
+      <c r="BL3" s="397"/>
+      <c r="BM3" s="397"/>
+      <c r="BN3" s="397">
         <v>0.1</v>
       </c>
-      <c r="BO3" s="333"/>
-      <c r="BP3" s="333"/>
-      <c r="BQ3" s="447">
+      <c r="BO3" s="397"/>
+      <c r="BP3" s="397"/>
+      <c r="BQ3" s="364">
         <v>0.1</v>
       </c>
-      <c r="BR3" s="447"/>
-      <c r="BS3" s="447"/>
-      <c r="BT3" s="447"/>
-      <c r="BU3" s="447">
+      <c r="BR3" s="364"/>
+      <c r="BS3" s="364"/>
+      <c r="BT3" s="364"/>
+      <c r="BU3" s="364">
         <v>0.15</v>
       </c>
-      <c r="BV3" s="447"/>
-      <c r="BW3" s="447"/>
-      <c r="BX3" s="447"/>
-      <c r="BY3" s="447">
+      <c r="BV3" s="364"/>
+      <c r="BW3" s="364"/>
+      <c r="BX3" s="364"/>
+      <c r="BY3" s="364">
         <v>0.1</v>
       </c>
-      <c r="BZ3" s="447"/>
-      <c r="CA3" s="447"/>
-      <c r="CB3" s="447"/>
-      <c r="CC3" s="447"/>
-      <c r="CD3" s="447">
+      <c r="BZ3" s="364"/>
+      <c r="CA3" s="364"/>
+      <c r="CB3" s="364"/>
+      <c r="CC3" s="364"/>
+      <c r="CD3" s="364">
         <v>0.15</v>
       </c>
-      <c r="CE3" s="447"/>
-      <c r="CF3" s="447"/>
-      <c r="CG3" s="447"/>
-      <c r="CH3" s="353">
+      <c r="CE3" s="364"/>
+      <c r="CF3" s="364"/>
+      <c r="CG3" s="364"/>
+      <c r="CH3" s="357">
         <v>0.2</v>
       </c>
-      <c r="CI3" s="353"/>
-      <c r="CJ3" s="353"/>
-      <c r="CK3" s="353">
+      <c r="CI3" s="357"/>
+      <c r="CJ3" s="357"/>
+      <c r="CK3" s="357">
         <v>0.2</v>
       </c>
-      <c r="CL3" s="353"/>
-      <c r="CM3" s="353"/>
-      <c r="CN3" s="392">
+      <c r="CL3" s="357"/>
+      <c r="CM3" s="357"/>
+      <c r="CN3" s="367">
         <v>0.2</v>
       </c>
-      <c r="CO3" s="392"/>
-      <c r="CP3" s="392"/>
-      <c r="CQ3" s="392">
+      <c r="CO3" s="367"/>
+      <c r="CP3" s="367"/>
+      <c r="CQ3" s="367">
         <v>0.2</v>
       </c>
-      <c r="CR3" s="392"/>
-      <c r="CS3" s="392"/>
-      <c r="CT3" s="351">
+      <c r="CR3" s="367"/>
+      <c r="CS3" s="367"/>
+      <c r="CT3" s="373">
         <v>0.1</v>
       </c>
-      <c r="CU3" s="351"/>
-      <c r="CV3" s="351"/>
-      <c r="CW3" s="351">
+      <c r="CU3" s="373"/>
+      <c r="CV3" s="373"/>
+      <c r="CW3" s="373">
         <v>0.1</v>
       </c>
-      <c r="CX3" s="351"/>
-      <c r="CY3" s="351"/>
-      <c r="CZ3" s="438">
+      <c r="CX3" s="373"/>
+      <c r="CY3" s="373"/>
+      <c r="CZ3" s="360">
         <v>0.11</v>
       </c>
-      <c r="DA3" s="438"/>
-      <c r="DB3" s="438"/>
-      <c r="DC3" s="438">
+      <c r="DA3" s="360"/>
+      <c r="DB3" s="360"/>
+      <c r="DC3" s="360">
         <v>0.08</v>
       </c>
-      <c r="DD3" s="438"/>
-      <c r="DE3" s="438"/>
-      <c r="DF3" s="438">
+      <c r="DD3" s="360"/>
+      <c r="DE3" s="360"/>
+      <c r="DF3" s="360">
         <v>0.11</v>
       </c>
-      <c r="DG3" s="438"/>
-      <c r="DH3" s="438"/>
-      <c r="DI3" s="460">
+      <c r="DG3" s="360"/>
+      <c r="DH3" s="360"/>
+      <c r="DI3" s="361">
         <v>0.1</v>
       </c>
-      <c r="DJ3" s="460"/>
-      <c r="DK3" s="460"/>
-      <c r="DL3" s="405">
+      <c r="DJ3" s="361"/>
+      <c r="DK3" s="361"/>
+      <c r="DL3" s="362">
         <v>0.1</v>
       </c>
-      <c r="DM3" s="405"/>
-      <c r="DN3" s="405"/>
-      <c r="DO3" s="405">
+      <c r="DM3" s="362"/>
+      <c r="DN3" s="362"/>
+      <c r="DO3" s="362">
         <v>0.1</v>
       </c>
-      <c r="DP3" s="405"/>
-      <c r="DQ3" s="405"/>
-      <c r="DR3" s="405">
+      <c r="DP3" s="362"/>
+      <c r="DQ3" s="362"/>
+      <c r="DR3" s="362">
         <v>0.1</v>
       </c>
-      <c r="DS3" s="405"/>
-      <c r="DT3" s="405"/>
-      <c r="DU3" s="376">
+      <c r="DS3" s="362"/>
+      <c r="DT3" s="362"/>
+      <c r="DU3" s="370">
         <v>0.1</v>
       </c>
-      <c r="DV3" s="376"/>
-      <c r="DW3" s="376"/>
-      <c r="DX3" s="376">
+      <c r="DV3" s="370"/>
+      <c r="DW3" s="370"/>
+      <c r="DX3" s="370">
         <v>0.1</v>
       </c>
-      <c r="DY3" s="376"/>
-      <c r="DZ3" s="376"/>
-      <c r="EA3" s="376">
+      <c r="DY3" s="370"/>
+      <c r="DZ3" s="370"/>
+      <c r="EA3" s="370">
         <v>0.1</v>
       </c>
-      <c r="EB3" s="376"/>
-      <c r="EC3" s="376"/>
-      <c r="ED3" s="470">
+      <c r="EB3" s="370"/>
+      <c r="EC3" s="370"/>
+      <c r="ED3" s="334">
         <v>0.1</v>
       </c>
-      <c r="EE3" s="470"/>
-      <c r="EF3" s="470"/>
-      <c r="EG3" s="470">
+      <c r="EE3" s="334"/>
+      <c r="EF3" s="334"/>
+      <c r="EG3" s="334">
         <v>0.15</v>
       </c>
-      <c r="EH3" s="470"/>
-      <c r="EI3" s="470"/>
-      <c r="EJ3" s="379">
+      <c r="EH3" s="334"/>
+      <c r="EI3" s="334"/>
+      <c r="EJ3" s="336">
         <v>0.1</v>
       </c>
-      <c r="EK3" s="379"/>
-      <c r="EL3" s="379"/>
-      <c r="EM3" s="379">
+      <c r="EK3" s="336"/>
+      <c r="EL3" s="336"/>
+      <c r="EM3" s="336">
         <v>0.1</v>
       </c>
-      <c r="EN3" s="379"/>
-      <c r="EO3" s="379"/>
-      <c r="EP3" s="379">
+      <c r="EN3" s="336"/>
+      <c r="EO3" s="336"/>
+      <c r="EP3" s="336">
         <v>0.1</v>
       </c>
-      <c r="EQ3" s="379"/>
-      <c r="ER3" s="379"/>
-      <c r="ES3" s="471">
+      <c r="EQ3" s="336"/>
+      <c r="ER3" s="336"/>
+      <c r="ES3" s="338">
         <v>0.1</v>
       </c>
-      <c r="ET3" s="471"/>
-      <c r="EU3" s="471"/>
-      <c r="EV3" s="471">
+      <c r="ET3" s="338"/>
+      <c r="EU3" s="338"/>
+      <c r="EV3" s="338">
         <v>0.1</v>
       </c>
-      <c r="EW3" s="471"/>
-      <c r="EX3" s="471"/>
-      <c r="EY3" s="394">
+      <c r="EW3" s="338"/>
+      <c r="EX3" s="338"/>
+      <c r="EY3" s="401">
         <v>0.1</v>
       </c>
-      <c r="EZ3" s="394"/>
-      <c r="FA3" s="394"/>
-      <c r="FB3" s="394">
+      <c r="EZ3" s="401"/>
+      <c r="FA3" s="401"/>
+      <c r="FB3" s="401">
         <v>0.1</v>
       </c>
-      <c r="FC3" s="394"/>
-      <c r="FD3" s="394"/>
-      <c r="FE3" s="436">
+      <c r="FC3" s="401"/>
+      <c r="FD3" s="401"/>
+      <c r="FE3" s="403">
         <v>0.1</v>
       </c>
-      <c r="FF3" s="436"/>
-      <c r="FG3" s="436"/>
-      <c r="FH3" s="369">
+      <c r="FF3" s="403"/>
+      <c r="FG3" s="403"/>
+      <c r="FH3" s="346">
         <v>0.1</v>
       </c>
-      <c r="FI3" s="369"/>
-      <c r="FJ3" s="369"/>
-      <c r="FK3" s="369">
+      <c r="FI3" s="346"/>
+      <c r="FJ3" s="346"/>
+      <c r="FK3" s="346">
         <v>0.1</v>
       </c>
-      <c r="FL3" s="369"/>
-      <c r="FM3" s="369"/>
-      <c r="FN3" s="369">
+      <c r="FL3" s="346"/>
+      <c r="FM3" s="346"/>
+      <c r="FN3" s="346">
         <v>0.1</v>
       </c>
-      <c r="FO3" s="369"/>
-      <c r="FP3" s="369"/>
-      <c r="FQ3" s="408">
+      <c r="FO3" s="346"/>
+      <c r="FP3" s="346"/>
+      <c r="FQ3" s="330">
         <v>0.1</v>
       </c>
-      <c r="FR3" s="408"/>
-      <c r="FS3" s="408"/>
-      <c r="FT3" s="408">
+      <c r="FR3" s="330"/>
+      <c r="FS3" s="330"/>
+      <c r="FT3" s="330">
         <v>0.1</v>
       </c>
-      <c r="FU3" s="408"/>
-      <c r="FV3" s="408"/>
-      <c r="FW3" s="408">
+      <c r="FU3" s="330"/>
+      <c r="FV3" s="330"/>
+      <c r="FW3" s="330">
         <v>0.1</v>
       </c>
-      <c r="FX3" s="408"/>
-      <c r="FY3" s="408"/>
-      <c r="FZ3" s="325">
+      <c r="FX3" s="330"/>
+      <c r="FY3" s="330"/>
+      <c r="FZ3" s="452">
         <v>0.1</v>
       </c>
-      <c r="GA3" s="325"/>
-      <c r="GB3" s="325"/>
-      <c r="GC3" s="325">
+      <c r="GA3" s="452"/>
+      <c r="GB3" s="452"/>
+      <c r="GC3" s="452">
         <v>0.1</v>
       </c>
-      <c r="GD3" s="325"/>
-      <c r="GE3" s="325"/>
-      <c r="GF3" s="325">
+      <c r="GD3" s="452"/>
+      <c r="GE3" s="452"/>
+      <c r="GF3" s="452">
         <v>0.1</v>
       </c>
-      <c r="GG3" s="325"/>
-      <c r="GH3" s="325"/>
-      <c r="GI3" s="325">
+      <c r="GG3" s="452"/>
+      <c r="GH3" s="452"/>
+      <c r="GI3" s="452">
         <v>0.1</v>
       </c>
-      <c r="GJ3" s="325"/>
-      <c r="GK3" s="325"/>
-      <c r="GL3" s="325">
+      <c r="GJ3" s="452"/>
+      <c r="GK3" s="452"/>
+      <c r="GL3" s="452">
         <v>0.1</v>
       </c>
-      <c r="GM3" s="325"/>
-      <c r="GN3" s="325"/>
-      <c r="GO3" s="325">
+      <c r="GM3" s="452"/>
+      <c r="GN3" s="452"/>
+      <c r="GO3" s="452">
         <v>0.1</v>
       </c>
-      <c r="GP3" s="325"/>
-      <c r="GQ3" s="325"/>
-      <c r="GR3" s="325">
+      <c r="GP3" s="452"/>
+      <c r="GQ3" s="452"/>
+      <c r="GR3" s="452">
         <v>0.05</v>
       </c>
-      <c r="GS3" s="325"/>
-      <c r="GT3" s="325"/>
-      <c r="GU3" s="325">
+      <c r="GS3" s="452"/>
+      <c r="GT3" s="452"/>
+      <c r="GU3" s="452">
         <v>0.05</v>
       </c>
-      <c r="GV3" s="325"/>
-      <c r="GW3" s="325"/>
-      <c r="GX3" s="465">
+      <c r="GV3" s="452"/>
+      <c r="GW3" s="452"/>
+      <c r="GX3" s="350">
         <v>0.1</v>
       </c>
-      <c r="GY3" s="465"/>
-      <c r="GZ3" s="465"/>
-      <c r="HA3" s="465">
+      <c r="GY3" s="350"/>
+      <c r="GZ3" s="350"/>
+      <c r="HA3" s="350">
         <v>0.1</v>
       </c>
-      <c r="HB3" s="465"/>
-      <c r="HC3" s="465"/>
-      <c r="HD3" s="465">
+      <c r="HB3" s="350"/>
+      <c r="HC3" s="350"/>
+      <c r="HD3" s="350">
         <v>0.05</v>
       </c>
-      <c r="HE3" s="465"/>
-      <c r="HF3" s="465"/>
-      <c r="HG3" s="465">
+      <c r="HE3" s="350"/>
+      <c r="HF3" s="350"/>
+      <c r="HG3" s="350">
         <v>0.1</v>
       </c>
-      <c r="HH3" s="465"/>
-      <c r="HI3" s="465"/>
-      <c r="HJ3" s="465">
+      <c r="HH3" s="350"/>
+      <c r="HI3" s="350"/>
+      <c r="HJ3" s="350">
         <v>0.1</v>
       </c>
-      <c r="HK3" s="465"/>
-      <c r="HL3" s="465"/>
-      <c r="HM3" s="465">
+      <c r="HK3" s="350"/>
+      <c r="HL3" s="350"/>
+      <c r="HM3" s="350">
         <v>0.1</v>
       </c>
-      <c r="HN3" s="465"/>
-      <c r="HO3" s="465"/>
-      <c r="HP3" s="465">
+      <c r="HN3" s="350"/>
+      <c r="HO3" s="350"/>
+      <c r="HP3" s="350">
         <v>0.05</v>
       </c>
-      <c r="HQ3" s="465"/>
-      <c r="HR3" s="465"/>
-      <c r="HS3" s="465">
+      <c r="HQ3" s="350"/>
+      <c r="HR3" s="350"/>
+      <c r="HS3" s="350">
         <v>0.1</v>
       </c>
-      <c r="HT3" s="465"/>
-      <c r="HU3" s="465"/>
-      <c r="HV3" s="445">
+      <c r="HT3" s="350"/>
+      <c r="HU3" s="350"/>
+      <c r="HV3" s="359">
         <v>0.1</v>
       </c>
-      <c r="HW3" s="445"/>
-      <c r="HX3" s="445"/>
-      <c r="HY3" s="445">
+      <c r="HW3" s="359"/>
+      <c r="HX3" s="359"/>
+      <c r="HY3" s="359">
         <v>0.1</v>
       </c>
-      <c r="HZ3" s="445"/>
-      <c r="IA3" s="445"/>
-      <c r="IB3" s="445">
+      <c r="HZ3" s="359"/>
+      <c r="IA3" s="359"/>
+      <c r="IB3" s="359">
         <v>0.15</v>
       </c>
-      <c r="IC3" s="445"/>
-      <c r="ID3" s="445"/>
-      <c r="IE3" s="445">
+      <c r="IC3" s="359"/>
+      <c r="ID3" s="359"/>
+      <c r="IE3" s="359">
         <v>0.15</v>
       </c>
-      <c r="IF3" s="445"/>
-      <c r="IG3" s="445"/>
-      <c r="IH3" s="445">
+      <c r="IF3" s="359"/>
+      <c r="IG3" s="359"/>
+      <c r="IH3" s="359">
         <v>0.15</v>
       </c>
-      <c r="II3" s="445"/>
-      <c r="IJ3" s="445"/>
-      <c r="IK3" s="445">
+      <c r="II3" s="359"/>
+      <c r="IJ3" s="359"/>
+      <c r="IK3" s="359">
         <v>0.05</v>
       </c>
-      <c r="IL3" s="445"/>
-      <c r="IM3" s="445"/>
-      <c r="IN3" s="461">
+      <c r="IL3" s="359"/>
+      <c r="IM3" s="359"/>
+      <c r="IN3" s="363">
         <v>0.1</v>
       </c>
-      <c r="IO3" s="461"/>
-      <c r="IP3" s="461"/>
-      <c r="IQ3" s="461">
+      <c r="IO3" s="363"/>
+      <c r="IP3" s="363"/>
+      <c r="IQ3" s="363">
         <v>0.1</v>
       </c>
-      <c r="IR3" s="461"/>
-      <c r="IS3" s="461"/>
-      <c r="IT3" s="461">
+      <c r="IR3" s="363"/>
+      <c r="IS3" s="363"/>
+      <c r="IT3" s="363">
         <v>0.1</v>
       </c>
-      <c r="IU3" s="461"/>
-      <c r="IV3" s="461"/>
-      <c r="IW3" s="461">
+      <c r="IU3" s="363"/>
+      <c r="IV3" s="363"/>
+      <c r="IW3" s="363">
         <v>0.1</v>
       </c>
-      <c r="IX3" s="461"/>
-      <c r="IY3" s="461"/>
-      <c r="IZ3" s="461">
+      <c r="IX3" s="363"/>
+      <c r="IY3" s="363"/>
+      <c r="IZ3" s="363">
         <v>0.05</v>
       </c>
-      <c r="JA3" s="461"/>
-      <c r="JB3" s="461"/>
-      <c r="JC3" s="461">
+      <c r="JA3" s="363"/>
+      <c r="JB3" s="363"/>
+      <c r="JC3" s="363">
         <v>0.05</v>
       </c>
-      <c r="JD3" s="461"/>
-      <c r="JE3" s="461"/>
-      <c r="JF3" s="461">
+      <c r="JD3" s="363"/>
+      <c r="JE3" s="363"/>
+      <c r="JF3" s="363">
         <v>0.1</v>
       </c>
-      <c r="JG3" s="461"/>
-      <c r="JH3" s="461"/>
-      <c r="JI3" s="461">
+      <c r="JG3" s="363"/>
+      <c r="JH3" s="363"/>
+      <c r="JI3" s="363">
         <v>0.1</v>
       </c>
-      <c r="JJ3" s="461"/>
-      <c r="JK3" s="461"/>
-      <c r="JL3" s="468">
+      <c r="JJ3" s="363"/>
+      <c r="JK3" s="363"/>
+      <c r="JL3" s="341">
         <v>0.15</v>
       </c>
-      <c r="JM3" s="468"/>
-      <c r="JN3" s="468"/>
-      <c r="JO3" s="468">
+      <c r="JM3" s="341"/>
+      <c r="JN3" s="341"/>
+      <c r="JO3" s="341">
         <v>0.2</v>
       </c>
-      <c r="JP3" s="468"/>
-      <c r="JQ3" s="468"/>
-      <c r="JR3" s="468">
+      <c r="JP3" s="341"/>
+      <c r="JQ3" s="341"/>
+      <c r="JR3" s="341">
         <v>0.1</v>
       </c>
-      <c r="JS3" s="468"/>
-      <c r="JT3" s="468"/>
-      <c r="JU3" s="468">
+      <c r="JS3" s="341"/>
+      <c r="JT3" s="341"/>
+      <c r="JU3" s="341">
         <v>0.05</v>
       </c>
-      <c r="JV3" s="468"/>
-      <c r="JW3" s="468"/>
-      <c r="JX3" s="468">
+      <c r="JV3" s="341"/>
+      <c r="JW3" s="341"/>
+      <c r="JX3" s="341">
         <v>0.15</v>
       </c>
-      <c r="JY3" s="468"/>
-      <c r="JZ3" s="468"/>
-      <c r="KA3" s="468">
+      <c r="JY3" s="341"/>
+      <c r="JZ3" s="341"/>
+      <c r="KA3" s="341">
         <v>0.15</v>
       </c>
-      <c r="KB3" s="468"/>
-      <c r="KC3" s="468"/>
-      <c r="KD3" s="339">
+      <c r="KB3" s="341"/>
+      <c r="KC3" s="341"/>
+      <c r="KD3" s="358">
         <v>0.2</v>
       </c>
-      <c r="KE3" s="339"/>
-      <c r="KF3" s="339"/>
-      <c r="KG3" s="339">
+      <c r="KE3" s="358"/>
+      <c r="KF3" s="358"/>
+      <c r="KG3" s="358">
         <v>0.2</v>
       </c>
-      <c r="KH3" s="339"/>
-      <c r="KI3" s="339"/>
-      <c r="KJ3" s="339">
+      <c r="KH3" s="358"/>
+      <c r="KI3" s="358"/>
+      <c r="KJ3" s="358">
         <v>0.15</v>
       </c>
-      <c r="KK3" s="339"/>
-      <c r="KL3" s="339"/>
-      <c r="KM3" s="339">
+      <c r="KK3" s="358"/>
+      <c r="KL3" s="358"/>
+      <c r="KM3" s="358">
         <v>0.15</v>
       </c>
-      <c r="KN3" s="339"/>
-      <c r="KO3" s="339"/>
-      <c r="KP3" s="339">
+      <c r="KN3" s="358"/>
+      <c r="KO3" s="358"/>
+      <c r="KP3" s="358">
         <v>0.2</v>
       </c>
-      <c r="KQ3" s="339"/>
-      <c r="KR3" s="339"/>
-      <c r="KS3" s="339">
+      <c r="KQ3" s="358"/>
+      <c r="KR3" s="358"/>
+      <c r="KS3" s="358">
         <v>0.2</v>
       </c>
-      <c r="KT3" s="339"/>
-      <c r="KU3" s="339"/>
-      <c r="KV3" s="339">
+      <c r="KT3" s="358"/>
+      <c r="KU3" s="358"/>
+      <c r="KV3" s="358">
         <v>0.1</v>
       </c>
-      <c r="KW3" s="339"/>
-      <c r="KX3" s="339"/>
-      <c r="KY3" s="339">
+      <c r="KW3" s="358"/>
+      <c r="KX3" s="358"/>
+      <c r="KY3" s="358">
         <v>0.1</v>
       </c>
-      <c r="KZ3" s="339"/>
-      <c r="LA3" s="339"/>
-      <c r="LB3" s="339">
+      <c r="KZ3" s="358"/>
+      <c r="LA3" s="358"/>
+      <c r="LB3" s="358">
         <v>0.1</v>
       </c>
-      <c r="LC3" s="339"/>
-      <c r="LD3" s="339"/>
-      <c r="LE3" s="346">
+      <c r="LC3" s="358"/>
+      <c r="LD3" s="358"/>
+      <c r="LE3" s="459">
         <v>0.15</v>
       </c>
-      <c r="LF3" s="346"/>
-      <c r="LG3" s="346"/>
-      <c r="LH3" s="346">
+      <c r="LF3" s="459"/>
+      <c r="LG3" s="459"/>
+      <c r="LH3" s="459">
         <v>0.15</v>
       </c>
-      <c r="LI3" s="346"/>
-      <c r="LJ3" s="346"/>
-      <c r="LK3" s="346">
+      <c r="LI3" s="459"/>
+      <c r="LJ3" s="459"/>
+      <c r="LK3" s="459">
         <v>0.15</v>
       </c>
-      <c r="LL3" s="346"/>
-      <c r="LM3" s="346"/>
-      <c r="LN3" s="346">
+      <c r="LL3" s="459"/>
+      <c r="LM3" s="459"/>
+      <c r="LN3" s="459">
         <v>0.15</v>
       </c>
-      <c r="LO3" s="346"/>
-      <c r="LP3" s="346"/>
-      <c r="LQ3" s="346">
+      <c r="LO3" s="459"/>
+      <c r="LP3" s="459"/>
+      <c r="LQ3" s="459">
         <v>0.1</v>
       </c>
-      <c r="LR3" s="346"/>
-      <c r="LS3" s="346"/>
-      <c r="LT3" s="346">
+      <c r="LR3" s="459"/>
+      <c r="LS3" s="459"/>
+      <c r="LT3" s="459">
         <v>0.05</v>
       </c>
-      <c r="LU3" s="346"/>
-      <c r="LV3" s="346"/>
-      <c r="LW3" s="333">
+      <c r="LU3" s="459"/>
+      <c r="LV3" s="459"/>
+      <c r="LW3" s="397">
         <v>0.1</v>
       </c>
-      <c r="LX3" s="333"/>
-      <c r="LY3" s="333"/>
-      <c r="LZ3" s="333">
+      <c r="LX3" s="397"/>
+      <c r="LY3" s="397"/>
+      <c r="LZ3" s="397">
         <v>0.05</v>
       </c>
-      <c r="MA3" s="333"/>
-      <c r="MB3" s="333"/>
-      <c r="MC3" s="333">
+      <c r="MA3" s="397"/>
+      <c r="MB3" s="397"/>
+      <c r="MC3" s="397">
         <v>0.05</v>
       </c>
-      <c r="MD3" s="333"/>
-      <c r="ME3" s="333"/>
-      <c r="MF3" s="333">
+      <c r="MD3" s="397"/>
+      <c r="ME3" s="397"/>
+      <c r="MF3" s="397">
         <v>0.1</v>
       </c>
-      <c r="MG3" s="333"/>
-      <c r="MH3" s="333"/>
-      <c r="MI3" s="333">
+      <c r="MG3" s="397"/>
+      <c r="MH3" s="397"/>
+      <c r="MI3" s="397">
         <v>0.05</v>
       </c>
-      <c r="MJ3" s="333"/>
-      <c r="MK3" s="333"/>
-      <c r="ML3" s="333">
+      <c r="MJ3" s="397"/>
+      <c r="MK3" s="397"/>
+      <c r="ML3" s="397">
         <v>0.1</v>
       </c>
-      <c r="MM3" s="333"/>
-      <c r="MN3" s="333"/>
-      <c r="MO3" s="333">
+      <c r="MM3" s="397"/>
+      <c r="MN3" s="397"/>
+      <c r="MO3" s="397">
         <v>0.15</v>
       </c>
-      <c r="MP3" s="333"/>
-      <c r="MQ3" s="333"/>
-      <c r="MR3" s="333">
+      <c r="MP3" s="397"/>
+      <c r="MQ3" s="397"/>
+      <c r="MR3" s="397">
         <v>0.1</v>
       </c>
-      <c r="MS3" s="333"/>
-      <c r="MT3" s="333"/>
-      <c r="MU3" s="333">
+      <c r="MS3" s="397"/>
+      <c r="MT3" s="397"/>
+      <c r="MU3" s="397">
         <v>0.1</v>
       </c>
-      <c r="MV3" s="333"/>
-      <c r="MW3" s="333"/>
-      <c r="MX3" s="409">
+      <c r="MV3" s="397"/>
+      <c r="MW3" s="397"/>
+      <c r="MX3" s="378">
         <v>0.1</v>
       </c>
-      <c r="MY3" s="409"/>
-      <c r="MZ3" s="409"/>
-      <c r="NA3" s="409"/>
-      <c r="NB3" s="409">
+      <c r="MY3" s="378"/>
+      <c r="MZ3" s="378"/>
+      <c r="NA3" s="378"/>
+      <c r="NB3" s="378">
         <v>0.1</v>
       </c>
-      <c r="NC3" s="409"/>
-      <c r="ND3" s="409"/>
-      <c r="NE3" s="409"/>
-      <c r="NF3" s="409">
+      <c r="NC3" s="378"/>
+      <c r="ND3" s="378"/>
+      <c r="NE3" s="378"/>
+      <c r="NF3" s="378">
         <v>0.08</v>
       </c>
-      <c r="NG3" s="409"/>
-      <c r="NH3" s="409"/>
-      <c r="NI3" s="409"/>
-      <c r="NJ3" s="409">
+      <c r="NG3" s="378"/>
+      <c r="NH3" s="378"/>
+      <c r="NI3" s="378"/>
+      <c r="NJ3" s="378">
         <v>0.06</v>
       </c>
-      <c r="NK3" s="409"/>
-      <c r="NL3" s="409"/>
-      <c r="NM3" s="409"/>
-      <c r="NN3" s="409"/>
-      <c r="NO3" s="409">
+      <c r="NK3" s="378"/>
+      <c r="NL3" s="378"/>
+      <c r="NM3" s="378"/>
+      <c r="NN3" s="378"/>
+      <c r="NO3" s="378">
         <v>0.06</v>
       </c>
-      <c r="NP3" s="409"/>
-      <c r="NQ3" s="409"/>
-      <c r="NR3" s="409"/>
-      <c r="NS3" s="353">
+      <c r="NP3" s="378"/>
+      <c r="NQ3" s="378"/>
+      <c r="NR3" s="378"/>
+      <c r="NS3" s="357">
         <v>0.15</v>
       </c>
-      <c r="NT3" s="353"/>
-      <c r="NU3" s="353"/>
-      <c r="NV3" s="353"/>
-      <c r="NW3" s="353">
+      <c r="NT3" s="357"/>
+      <c r="NU3" s="357"/>
+      <c r="NV3" s="357"/>
+      <c r="NW3" s="357">
         <v>0.05</v>
       </c>
-      <c r="NX3" s="353"/>
-      <c r="NY3" s="353"/>
-      <c r="NZ3" s="353">
+      <c r="NX3" s="357"/>
+      <c r="NY3" s="357"/>
+      <c r="NZ3" s="357">
         <v>0.1</v>
       </c>
-      <c r="OA3" s="353"/>
-      <c r="OB3" s="353"/>
-      <c r="OC3" s="353">
+      <c r="OA3" s="357"/>
+      <c r="OB3" s="357"/>
+      <c r="OC3" s="357">
         <v>0.1</v>
       </c>
-      <c r="OD3" s="353"/>
-      <c r="OE3" s="353"/>
-      <c r="OF3" s="353">
+      <c r="OD3" s="357"/>
+      <c r="OE3" s="357"/>
+      <c r="OF3" s="357">
         <v>0.1</v>
       </c>
-      <c r="OG3" s="353"/>
-      <c r="OH3" s="353"/>
-      <c r="OI3" s="353">
+      <c r="OG3" s="357"/>
+      <c r="OH3" s="357"/>
+      <c r="OI3" s="357">
         <v>0.05</v>
       </c>
-      <c r="OJ3" s="353"/>
-      <c r="OK3" s="353"/>
-      <c r="OL3" s="353"/>
-      <c r="OM3" s="353">
+      <c r="OJ3" s="357"/>
+      <c r="OK3" s="357"/>
+      <c r="OL3" s="357"/>
+      <c r="OM3" s="357">
         <v>0.05</v>
       </c>
-      <c r="ON3" s="353"/>
-      <c r="OO3" s="353"/>
-      <c r="OP3" s="392">
+      <c r="ON3" s="357"/>
+      <c r="OO3" s="357"/>
+      <c r="OP3" s="367">
         <v>0.05</v>
       </c>
-      <c r="OQ3" s="392"/>
-      <c r="OR3" s="392"/>
-      <c r="OS3" s="392">
+      <c r="OQ3" s="367"/>
+      <c r="OR3" s="367"/>
+      <c r="OS3" s="367">
         <v>0.08</v>
       </c>
-      <c r="OT3" s="392"/>
-      <c r="OU3" s="392"/>
-      <c r="OV3" s="392">
+      <c r="OT3" s="367"/>
+      <c r="OU3" s="367"/>
+      <c r="OV3" s="367">
         <v>0.1</v>
       </c>
-      <c r="OW3" s="392"/>
-      <c r="OX3" s="392"/>
-      <c r="OY3" s="392">
+      <c r="OW3" s="367"/>
+      <c r="OX3" s="367"/>
+      <c r="OY3" s="367">
         <v>0.1</v>
       </c>
-      <c r="OZ3" s="392"/>
-      <c r="PA3" s="392"/>
-      <c r="PB3" s="392">
+      <c r="OZ3" s="367"/>
+      <c r="PA3" s="367"/>
+      <c r="PB3" s="367">
         <v>0.05</v>
       </c>
-      <c r="PC3" s="392"/>
-      <c r="PD3" s="392"/>
-      <c r="PE3" s="392">
+      <c r="PC3" s="367"/>
+      <c r="PD3" s="367"/>
+      <c r="PE3" s="367">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="PF3" s="392"/>
-      <c r="PG3" s="392"/>
-      <c r="PH3" s="392">
+      <c r="PF3" s="367"/>
+      <c r="PG3" s="367"/>
+      <c r="PH3" s="367">
         <v>0.05</v>
       </c>
-      <c r="PI3" s="392"/>
-      <c r="PJ3" s="392"/>
-      <c r="PK3" s="351">
+      <c r="PI3" s="367"/>
+      <c r="PJ3" s="367"/>
+      <c r="PK3" s="373">
         <v>0.1</v>
       </c>
-      <c r="PL3" s="351"/>
-      <c r="PM3" s="351"/>
-      <c r="PN3" s="351">
+      <c r="PL3" s="373"/>
+      <c r="PM3" s="373"/>
+      <c r="PN3" s="373">
         <v>0.1</v>
       </c>
-      <c r="PO3" s="351"/>
-      <c r="PP3" s="351"/>
-      <c r="PQ3" s="351">
+      <c r="PO3" s="373"/>
+      <c r="PP3" s="373"/>
+      <c r="PQ3" s="373">
         <v>0.1</v>
       </c>
-      <c r="PR3" s="351"/>
-      <c r="PS3" s="351"/>
-      <c r="PT3" s="351">
+      <c r="PR3" s="373"/>
+      <c r="PS3" s="373"/>
+      <c r="PT3" s="373">
         <v>0.1</v>
       </c>
-      <c r="PU3" s="351"/>
-      <c r="PV3" s="351"/>
-      <c r="PW3" s="351">
+      <c r="PU3" s="373"/>
+      <c r="PV3" s="373"/>
+      <c r="PW3" s="373">
         <v>0.1</v>
       </c>
-      <c r="PX3" s="351"/>
-      <c r="PY3" s="351"/>
-      <c r="PZ3" s="351">
+      <c r="PX3" s="373"/>
+      <c r="PY3" s="373"/>
+      <c r="PZ3" s="373">
         <v>0.1</v>
       </c>
-      <c r="QA3" s="351"/>
-      <c r="QB3" s="351"/>
-      <c r="QC3" s="351">
+      <c r="QA3" s="373"/>
+      <c r="QB3" s="373"/>
+      <c r="QC3" s="373">
         <v>0.1</v>
       </c>
-      <c r="QD3" s="351"/>
-      <c r="QE3" s="351"/>
-      <c r="QF3" s="351">
+      <c r="QD3" s="373"/>
+      <c r="QE3" s="373"/>
+      <c r="QF3" s="373">
         <v>0.1</v>
       </c>
-      <c r="QG3" s="351"/>
-      <c r="QH3" s="351"/>
-      <c r="QI3" s="438">
+      <c r="QG3" s="373"/>
+      <c r="QH3" s="373"/>
+      <c r="QI3" s="360">
         <v>0.05</v>
       </c>
-      <c r="QJ3" s="438"/>
-      <c r="QK3" s="438"/>
-      <c r="QL3" s="438">
+      <c r="QJ3" s="360"/>
+      <c r="QK3" s="360"/>
+      <c r="QL3" s="360">
         <v>0.1</v>
       </c>
-      <c r="QM3" s="438"/>
-      <c r="QN3" s="438"/>
-      <c r="QO3" s="438">
+      <c r="QM3" s="360"/>
+      <c r="QN3" s="360"/>
+      <c r="QO3" s="360">
         <v>0.09</v>
       </c>
-      <c r="QP3" s="438"/>
-      <c r="QQ3" s="438"/>
-      <c r="QR3" s="440">
+      <c r="QP3" s="360"/>
+      <c r="QQ3" s="360"/>
+      <c r="QR3" s="407">
         <v>0.1</v>
       </c>
-      <c r="QS3" s="440"/>
-      <c r="QT3" s="440"/>
-      <c r="QU3" s="402">
+      <c r="QS3" s="407"/>
+      <c r="QT3" s="407"/>
+      <c r="QU3" s="446">
         <v>0.08</v>
       </c>
-      <c r="QV3" s="403"/>
-      <c r="QW3" s="403"/>
-      <c r="QX3" s="404"/>
-      <c r="QY3" s="440">
+      <c r="QV3" s="447"/>
+      <c r="QW3" s="447"/>
+      <c r="QX3" s="448"/>
+      <c r="QY3" s="407">
         <v>0.08</v>
       </c>
-      <c r="QZ3" s="440"/>
-      <c r="RA3" s="440"/>
-      <c r="RB3" s="405">
+      <c r="QZ3" s="407"/>
+      <c r="RA3" s="407"/>
+      <c r="RB3" s="362">
         <v>0.1</v>
       </c>
-      <c r="RC3" s="405"/>
-      <c r="RD3" s="405"/>
-      <c r="RE3" s="405">
+      <c r="RC3" s="362"/>
+      <c r="RD3" s="362"/>
+      <c r="RE3" s="362">
         <v>0.15</v>
       </c>
-      <c r="RF3" s="405"/>
-      <c r="RG3" s="405"/>
-      <c r="RH3" s="405">
+      <c r="RF3" s="362"/>
+      <c r="RG3" s="362"/>
+      <c r="RH3" s="362">
         <v>0.15</v>
       </c>
-      <c r="RI3" s="405"/>
-      <c r="RJ3" s="405"/>
-      <c r="RK3" s="405">
+      <c r="RI3" s="362"/>
+      <c r="RJ3" s="362"/>
+      <c r="RK3" s="362">
         <v>0.05</v>
       </c>
-      <c r="RL3" s="405"/>
-      <c r="RM3" s="405"/>
-      <c r="RN3" s="405">
+      <c r="RL3" s="362"/>
+      <c r="RM3" s="362"/>
+      <c r="RN3" s="362">
         <v>0.1</v>
       </c>
-      <c r="RO3" s="405"/>
-      <c r="RP3" s="405"/>
-      <c r="RQ3" s="405">
+      <c r="RO3" s="362"/>
+      <c r="RP3" s="362"/>
+      <c r="RQ3" s="362">
         <v>0.1</v>
       </c>
-      <c r="RR3" s="405"/>
-      <c r="RS3" s="405"/>
-      <c r="RT3" s="405">
+      <c r="RR3" s="362"/>
+      <c r="RS3" s="362"/>
+      <c r="RT3" s="362">
         <v>0.05</v>
       </c>
-      <c r="RU3" s="405"/>
-      <c r="RV3" s="405"/>
-      <c r="RW3" s="374">
+      <c r="RU3" s="362"/>
+      <c r="RV3" s="362"/>
+      <c r="RW3" s="460">
         <v>0.1</v>
       </c>
-      <c r="RX3" s="374"/>
-      <c r="RY3" s="374"/>
-      <c r="RZ3" s="374">
+      <c r="RX3" s="460"/>
+      <c r="RY3" s="460"/>
+      <c r="RZ3" s="460">
         <v>0.1</v>
       </c>
-      <c r="SA3" s="374"/>
-      <c r="SB3" s="374"/>
-      <c r="SC3" s="374">
+      <c r="SA3" s="460"/>
+      <c r="SB3" s="460"/>
+      <c r="SC3" s="460">
         <v>0.1</v>
       </c>
-      <c r="SD3" s="374"/>
-      <c r="SE3" s="374"/>
-      <c r="SF3" s="376">
+      <c r="SD3" s="460"/>
+      <c r="SE3" s="460"/>
+      <c r="SF3" s="370">
         <v>0.05</v>
       </c>
-      <c r="SG3" s="376"/>
-      <c r="SH3" s="376"/>
-      <c r="SI3" s="376">
+      <c r="SG3" s="370"/>
+      <c r="SH3" s="370"/>
+      <c r="SI3" s="370">
         <v>0.05</v>
       </c>
-      <c r="SJ3" s="376"/>
-      <c r="SK3" s="376"/>
-      <c r="SL3" s="376">
+      <c r="SJ3" s="370"/>
+      <c r="SK3" s="370"/>
+      <c r="SL3" s="370">
         <v>0.1</v>
       </c>
-      <c r="SM3" s="376"/>
-      <c r="SN3" s="376"/>
-      <c r="SO3" s="376">
+      <c r="SM3" s="370"/>
+      <c r="SN3" s="370"/>
+      <c r="SO3" s="370">
         <v>0.1</v>
       </c>
-      <c r="SP3" s="376"/>
-      <c r="SQ3" s="376"/>
-      <c r="SR3" s="376">
+      <c r="SP3" s="370"/>
+      <c r="SQ3" s="370"/>
+      <c r="SR3" s="370">
         <v>0.05</v>
       </c>
-      <c r="SS3" s="376"/>
-      <c r="ST3" s="376"/>
-      <c r="SU3" s="376">
+      <c r="SS3" s="370"/>
+      <c r="ST3" s="370"/>
+      <c r="SU3" s="370">
         <v>0.05</v>
       </c>
-      <c r="SV3" s="376"/>
-      <c r="SW3" s="376"/>
-      <c r="SX3" s="470">
+      <c r="SV3" s="370"/>
+      <c r="SW3" s="370"/>
+      <c r="SX3" s="334">
         <v>0.1</v>
       </c>
-      <c r="SY3" s="470"/>
-      <c r="SZ3" s="470"/>
-      <c r="TA3" s="470">
+      <c r="SY3" s="334"/>
+      <c r="SZ3" s="334"/>
+      <c r="TA3" s="334">
         <v>0.2</v>
       </c>
-      <c r="TB3" s="470"/>
-      <c r="TC3" s="470"/>
-      <c r="TD3" s="470">
+      <c r="TB3" s="334"/>
+      <c r="TC3" s="334"/>
+      <c r="TD3" s="334">
         <v>0.1</v>
       </c>
-      <c r="TE3" s="470"/>
-      <c r="TF3" s="470"/>
-      <c r="TG3" s="470">
+      <c r="TE3" s="334"/>
+      <c r="TF3" s="334"/>
+      <c r="TG3" s="334">
         <v>0.15</v>
       </c>
-      <c r="TH3" s="470"/>
-      <c r="TI3" s="470"/>
-      <c r="TJ3" s="470">
+      <c r="TH3" s="334"/>
+      <c r="TI3" s="334"/>
+      <c r="TJ3" s="334">
         <v>0.05</v>
       </c>
-      <c r="TK3" s="470"/>
-      <c r="TL3" s="470"/>
-      <c r="TM3" s="470">
+      <c r="TK3" s="334"/>
+      <c r="TL3" s="334"/>
+      <c r="TM3" s="334">
         <v>0.1</v>
       </c>
-      <c r="TN3" s="470"/>
-      <c r="TO3" s="470"/>
-      <c r="TP3" s="470">
+      <c r="TN3" s="334"/>
+      <c r="TO3" s="334"/>
+      <c r="TP3" s="334">
         <v>0.05</v>
       </c>
-      <c r="TQ3" s="470"/>
-      <c r="TR3" s="470"/>
-      <c r="TS3" s="379">
+      <c r="TQ3" s="334"/>
+      <c r="TR3" s="334"/>
+      <c r="TS3" s="336">
         <v>0.08</v>
       </c>
-      <c r="TT3" s="379"/>
-      <c r="TU3" s="379"/>
-      <c r="TV3" s="379"/>
-      <c r="TW3" s="379">
+      <c r="TT3" s="336"/>
+      <c r="TU3" s="336"/>
+      <c r="TV3" s="336"/>
+      <c r="TW3" s="336">
         <v>0.08</v>
       </c>
-      <c r="TX3" s="379"/>
-      <c r="TY3" s="379"/>
-      <c r="TZ3" s="379">
+      <c r="TX3" s="336"/>
+      <c r="TY3" s="336"/>
+      <c r="TZ3" s="336">
         <v>0.06</v>
       </c>
-      <c r="UA3" s="379"/>
-      <c r="UB3" s="379"/>
-      <c r="UC3" s="379">
+      <c r="UA3" s="336"/>
+      <c r="UB3" s="336"/>
+      <c r="UC3" s="336">
         <v>0.08</v>
       </c>
-      <c r="UD3" s="379"/>
-      <c r="UE3" s="379"/>
-      <c r="UF3" s="379">
+      <c r="UD3" s="336"/>
+      <c r="UE3" s="336"/>
+      <c r="UF3" s="336">
         <v>0.05</v>
       </c>
-      <c r="UG3" s="379"/>
-      <c r="UH3" s="379"/>
-      <c r="UI3" s="379">
+      <c r="UG3" s="336"/>
+      <c r="UH3" s="336"/>
+      <c r="UI3" s="336">
         <v>0.05</v>
       </c>
-      <c r="UJ3" s="379"/>
-      <c r="UK3" s="379"/>
-      <c r="UL3" s="379">
+      <c r="UJ3" s="336"/>
+      <c r="UK3" s="336"/>
+      <c r="UL3" s="336">
         <v>0.05</v>
       </c>
-      <c r="UM3" s="379"/>
-      <c r="UN3" s="379"/>
-      <c r="UO3" s="394">
+      <c r="UM3" s="336"/>
+      <c r="UN3" s="336"/>
+      <c r="UO3" s="401">
         <v>0.1</v>
       </c>
-      <c r="UP3" s="394"/>
-      <c r="UQ3" s="394"/>
-      <c r="UR3" s="394">
+      <c r="UP3" s="401"/>
+      <c r="UQ3" s="401"/>
+      <c r="UR3" s="401">
         <v>0.1</v>
       </c>
-      <c r="US3" s="394"/>
-      <c r="UT3" s="394"/>
-      <c r="UU3" s="394">
+      <c r="US3" s="401"/>
+      <c r="UT3" s="401"/>
+      <c r="UU3" s="401">
         <v>0.05</v>
       </c>
-      <c r="UV3" s="394"/>
-      <c r="UW3" s="394"/>
-      <c r="UX3" s="394">
+      <c r="UV3" s="401"/>
+      <c r="UW3" s="401"/>
+      <c r="UX3" s="401">
         <v>0.05</v>
       </c>
-      <c r="UY3" s="394"/>
-      <c r="UZ3" s="394"/>
-      <c r="VA3" s="394">
+      <c r="UY3" s="401"/>
+      <c r="UZ3" s="401"/>
+      <c r="VA3" s="401">
         <v>0.05</v>
       </c>
-      <c r="VB3" s="394"/>
-      <c r="VC3" s="394"/>
-      <c r="VD3" s="394">
+      <c r="VB3" s="401"/>
+      <c r="VC3" s="401"/>
+      <c r="VD3" s="401">
         <v>0.1</v>
       </c>
-      <c r="VE3" s="394"/>
-      <c r="VF3" s="394"/>
-      <c r="VG3" s="394">
+      <c r="VE3" s="401"/>
+      <c r="VF3" s="401"/>
+      <c r="VG3" s="401">
         <v>0.1</v>
       </c>
-      <c r="VH3" s="394"/>
-      <c r="VI3" s="394"/>
-      <c r="VJ3" s="394">
+      <c r="VH3" s="401"/>
+      <c r="VI3" s="401"/>
+      <c r="VJ3" s="401">
         <v>0.1</v>
       </c>
-      <c r="VK3" s="394"/>
-      <c r="VL3" s="394"/>
-      <c r="VM3" s="394">
+      <c r="VK3" s="401"/>
+      <c r="VL3" s="401"/>
+      <c r="VM3" s="401">
         <v>0.05</v>
       </c>
-      <c r="VN3" s="394"/>
-      <c r="VO3" s="394"/>
-      <c r="VP3" s="369">
+      <c r="VN3" s="401"/>
+      <c r="VO3" s="401"/>
+      <c r="VP3" s="346">
         <v>0.1</v>
       </c>
-      <c r="VQ3" s="369"/>
-      <c r="VR3" s="369"/>
-      <c r="VS3" s="369">
+      <c r="VQ3" s="346"/>
+      <c r="VR3" s="346"/>
+      <c r="VS3" s="346">
         <v>0.1</v>
       </c>
-      <c r="VT3" s="369"/>
-      <c r="VU3" s="369"/>
-      <c r="VV3" s="369">
+      <c r="VT3" s="346"/>
+      <c r="VU3" s="346"/>
+      <c r="VV3" s="346">
         <v>0.05</v>
       </c>
-      <c r="VW3" s="369"/>
-      <c r="VX3" s="369"/>
-      <c r="VY3" s="369">
+      <c r="VW3" s="346"/>
+      <c r="VX3" s="346"/>
+      <c r="VY3" s="346">
         <v>0.05</v>
       </c>
-      <c r="VZ3" s="369"/>
-      <c r="WA3" s="369"/>
-      <c r="WB3" s="369">
+      <c r="VZ3" s="346"/>
+      <c r="WA3" s="346"/>
+      <c r="WB3" s="346">
         <v>0.1</v>
       </c>
-      <c r="WC3" s="369"/>
-      <c r="WD3" s="369"/>
-      <c r="WE3" s="369">
+      <c r="WC3" s="346"/>
+      <c r="WD3" s="346"/>
+      <c r="WE3" s="346">
         <v>0.05</v>
       </c>
-      <c r="WF3" s="369"/>
-      <c r="WG3" s="369"/>
-      <c r="WH3" s="369">
+      <c r="WF3" s="346"/>
+      <c r="WG3" s="346"/>
+      <c r="WH3" s="346">
         <v>0.1</v>
       </c>
-      <c r="WI3" s="369"/>
-      <c r="WJ3" s="369"/>
-      <c r="WK3" s="369">
+      <c r="WI3" s="346"/>
+      <c r="WJ3" s="346"/>
+      <c r="WK3" s="346">
         <v>0.1</v>
       </c>
-      <c r="WL3" s="369"/>
-      <c r="WM3" s="369"/>
-      <c r="WN3" s="369">
+      <c r="WL3" s="346"/>
+      <c r="WM3" s="346"/>
+      <c r="WN3" s="346">
         <v>0.05</v>
       </c>
-      <c r="WO3" s="369"/>
-      <c r="WP3" s="369"/>
-      <c r="WQ3" s="348">
+      <c r="WO3" s="346"/>
+      <c r="WP3" s="346"/>
+      <c r="WQ3" s="462">
         <v>0.1</v>
       </c>
-      <c r="WR3" s="348"/>
-      <c r="WS3" s="348"/>
-      <c r="WT3" s="348">
+      <c r="WR3" s="462"/>
+      <c r="WS3" s="462"/>
+      <c r="WT3" s="462">
         <v>0.1</v>
       </c>
-      <c r="WU3" s="348"/>
-      <c r="WV3" s="348"/>
-      <c r="WW3" s="348">
+      <c r="WU3" s="462"/>
+      <c r="WV3" s="462"/>
+      <c r="WW3" s="462">
         <v>0.05</v>
       </c>
-      <c r="WX3" s="348"/>
-      <c r="WY3" s="348"/>
-      <c r="WZ3" s="348">
+      <c r="WX3" s="462"/>
+      <c r="WY3" s="462"/>
+      <c r="WZ3" s="462">
         <v>0.05</v>
       </c>
-      <c r="XA3" s="348"/>
-      <c r="XB3" s="348"/>
-      <c r="XC3" s="348">
+      <c r="XA3" s="462"/>
+      <c r="XB3" s="462"/>
+      <c r="XC3" s="462">
         <v>0.1</v>
       </c>
-      <c r="XD3" s="348"/>
-      <c r="XE3" s="348"/>
-      <c r="XF3" s="348">
+      <c r="XD3" s="462"/>
+      <c r="XE3" s="462"/>
+      <c r="XF3" s="462">
         <v>0.1</v>
       </c>
-      <c r="XG3" s="348"/>
-      <c r="XH3" s="348"/>
-      <c r="XI3" s="348">
+      <c r="XG3" s="462"/>
+      <c r="XH3" s="462"/>
+      <c r="XI3" s="462">
         <v>0.1</v>
       </c>
-      <c r="XJ3" s="348"/>
-      <c r="XK3" s="348"/>
-      <c r="XL3" s="348">
+      <c r="XJ3" s="462"/>
+      <c r="XK3" s="462"/>
+      <c r="XL3" s="462">
         <v>0.1</v>
       </c>
-      <c r="XM3" s="348"/>
-      <c r="XN3" s="348"/>
-      <c r="XO3" s="408">
+      <c r="XM3" s="462"/>
+      <c r="XN3" s="462"/>
+      <c r="XO3" s="330">
         <v>0.1</v>
       </c>
-      <c r="XP3" s="408"/>
-      <c r="XQ3" s="408"/>
-      <c r="XR3" s="408">
+      <c r="XP3" s="330"/>
+      <c r="XQ3" s="330"/>
+      <c r="XR3" s="330">
         <v>0.1</v>
       </c>
-      <c r="XS3" s="408"/>
-      <c r="XT3" s="408"/>
-      <c r="XU3" s="408">
+      <c r="XS3" s="330"/>
+      <c r="XT3" s="330"/>
+      <c r="XU3" s="330">
         <v>0.1</v>
       </c>
-      <c r="XV3" s="408"/>
-      <c r="XW3" s="408"/>
-      <c r="XX3" s="408">
+      <c r="XV3" s="330"/>
+      <c r="XW3" s="330"/>
+      <c r="XX3" s="330">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="XY3" s="408"/>
-      <c r="XZ3" s="408"/>
-      <c r="YA3" s="408">
+      <c r="XY3" s="330"/>
+      <c r="XZ3" s="330"/>
+      <c r="YA3" s="330">
         <v>0.05</v>
       </c>
-      <c r="YB3" s="408"/>
-      <c r="YC3" s="408"/>
-      <c r="YD3" s="408">
+      <c r="YB3" s="330"/>
+      <c r="YC3" s="330"/>
+      <c r="YD3" s="330">
         <v>0.09</v>
       </c>
-      <c r="YE3" s="408"/>
-      <c r="YF3" s="408"/>
-      <c r="YG3" s="408">
+      <c r="YE3" s="330"/>
+      <c r="YF3" s="330"/>
+      <c r="YG3" s="330">
         <v>0.09</v>
       </c>
-      <c r="YH3" s="408"/>
-      <c r="YI3" s="408"/>
-      <c r="YJ3" s="408">
+      <c r="YH3" s="330"/>
+      <c r="YI3" s="330"/>
+      <c r="YJ3" s="330">
         <v>0.05</v>
       </c>
-      <c r="YK3" s="408"/>
-      <c r="YL3" s="408"/>
-      <c r="YM3" s="408">
+      <c r="YK3" s="330"/>
+      <c r="YL3" s="330"/>
+      <c r="YM3" s="330">
         <v>0.05</v>
       </c>
-      <c r="YN3" s="408"/>
-      <c r="YO3" s="408"/>
-      <c r="YP3" s="390">
+      <c r="YN3" s="330"/>
+      <c r="YO3" s="330"/>
+      <c r="YP3" s="449">
         <v>0.05</v>
       </c>
-      <c r="YQ3" s="390"/>
-      <c r="YR3" s="390"/>
-      <c r="YS3" s="390">
+      <c r="YQ3" s="449"/>
+      <c r="YR3" s="449"/>
+      <c r="YS3" s="449">
         <v>0.05</v>
       </c>
-      <c r="YT3" s="390"/>
-      <c r="YU3" s="390"/>
-      <c r="YV3" s="454">
+      <c r="YT3" s="449"/>
+      <c r="YU3" s="449"/>
+      <c r="YV3" s="379">
         <v>0.05</v>
       </c>
-      <c r="YW3" s="454"/>
-      <c r="YX3" s="454"/>
-      <c r="YY3" s="454"/>
-      <c r="YZ3" s="454">
+      <c r="YW3" s="379"/>
+      <c r="YX3" s="379"/>
+      <c r="YY3" s="379"/>
+      <c r="YZ3" s="379">
         <v>0.05</v>
       </c>
-      <c r="ZA3" s="454"/>
-      <c r="ZB3" s="454"/>
-      <c r="ZC3" s="363">
+      <c r="ZA3" s="379"/>
+      <c r="ZB3" s="379"/>
+      <c r="ZC3" s="464">
         <v>0.05</v>
       </c>
-      <c r="ZD3" s="363"/>
-      <c r="ZE3" s="363"/>
-      <c r="ZF3" s="359" t="s">
+      <c r="ZD3" s="464"/>
+      <c r="ZE3" s="464"/>
+      <c r="ZF3" s="441" t="s">
         <v>150</v>
       </c>
-      <c r="ZG3" s="359" t="s">
+      <c r="ZG3" s="441" t="s">
         <v>152</v>
       </c>
-      <c r="ZH3" s="359" t="s">
+      <c r="ZH3" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="ZI3" s="358" t="s">
+      <c r="ZI3" s="440" t="s">
         <v>75</v>
       </c>
-      <c r="ZJ3" s="358" t="s">
+      <c r="ZJ3" s="440" t="s">
         <v>76</v>
       </c>
-      <c r="ZK3" s="358" t="s">
+      <c r="ZK3" s="440" t="s">
         <v>77</v>
       </c>
-      <c r="ZL3" s="358" t="s">
+      <c r="ZL3" s="440" t="s">
         <v>60</v>
       </c>
-      <c r="ZM3" s="368" t="s">
+      <c r="ZM3" s="437" t="s">
         <v>150</v>
       </c>
-      <c r="ZN3" s="368" t="s">
+      <c r="ZN3" s="437" t="s">
         <v>152</v>
       </c>
-      <c r="ZO3" s="368" t="s">
+      <c r="ZO3" s="437" t="s">
         <v>60</v>
       </c>
-      <c r="ZP3" s="371" t="s">
+      <c r="ZP3" s="345" t="s">
         <v>150</v>
       </c>
-      <c r="ZQ3" s="371" t="s">
+      <c r="ZQ3" s="345" t="s">
         <v>152</v>
       </c>
-      <c r="ZR3" s="371" t="s">
+      <c r="ZR3" s="345" t="s">
         <v>60</v>
       </c>
-      <c r="ZS3" s="406" t="s">
+      <c r="ZS3" s="384" t="s">
         <v>254</v>
       </c>
-      <c r="ZT3" s="406" t="s">
+      <c r="ZT3" s="384" t="s">
         <v>255</v>
       </c>
-      <c r="ZU3" s="406" t="s">
+      <c r="ZU3" s="384" t="s">
         <v>60</v>
       </c>
-      <c r="ZV3" s="356" t="s">
+      <c r="ZV3" s="465" t="s">
         <v>252</v>
       </c>
-      <c r="ZW3" s="356" t="s">
+      <c r="ZW3" s="465" t="s">
         <v>253</v>
       </c>
-      <c r="ZX3" s="356" t="s">
+      <c r="ZX3" s="465" t="s">
         <v>27</v>
       </c>
-      <c r="ZY3" s="357" t="s">
+      <c r="ZY3" s="408" t="s">
         <v>57</v>
       </c>
-      <c r="ZZ3" s="357" t="s">
+      <c r="ZZ3" s="408" t="s">
         <v>58</v>
       </c>
-      <c r="AAA3" s="357" t="s">
+      <c r="AAA3" s="408" t="s">
         <v>59</v>
       </c>
-      <c r="AAB3" s="357" t="s">
+      <c r="AAB3" s="408" t="s">
         <v>1346</v>
       </c>
-      <c r="AAC3" s="357" t="s">
+      <c r="AAC3" s="408" t="s">
         <v>1347</v>
       </c>
-      <c r="AAD3" s="354" t="s">
+      <c r="AAD3" s="471" t="s">
         <v>150</v>
       </c>
-      <c r="AAE3" s="354" t="s">
+      <c r="AAE3" s="471" t="s">
         <v>152</v>
       </c>
-      <c r="AAF3" s="354" t="s">
+      <c r="AAF3" s="471" t="s">
         <v>60</v>
       </c>
-      <c r="AAG3" s="413" t="s">
+      <c r="AAG3" s="438" t="s">
         <v>150</v>
       </c>
-      <c r="AAH3" s="413" t="s">
+      <c r="AAH3" s="438" t="s">
         <v>152</v>
       </c>
-      <c r="AAI3" s="413" t="s">
+      <c r="AAI3" s="438" t="s">
         <v>60</v>
       </c>
-      <c r="AAJ3" s="331" t="s">
+      <c r="AAJ3" s="536" t="s">
         <v>150</v>
       </c>
-      <c r="AAK3" s="331" t="s">
+      <c r="AAK3" s="536" t="s">
         <v>152</v>
       </c>
-      <c r="AAL3" s="331" t="s">
+      <c r="AAL3" s="536" t="s">
         <v>27</v>
       </c>
-      <c r="AAM3" s="371" t="s">
+      <c r="AAM3" s="345" t="s">
         <v>150</v>
       </c>
-      <c r="AAN3" s="371" t="s">
+      <c r="AAN3" s="345" t="s">
         <v>152</v>
       </c>
-      <c r="AAO3" s="371" t="s">
+      <c r="AAO3" s="345" t="s">
         <v>27</v>
       </c>
-      <c r="AAP3" s="531" t="s">
+      <c r="AAP3" s="382" t="s">
         <v>150</v>
       </c>
-      <c r="AAQ3" s="531" t="s">
+      <c r="AAQ3" s="382" t="s">
         <v>152</v>
       </c>
-      <c r="AAR3" s="531" t="s">
+      <c r="AAR3" s="382" t="s">
         <v>27</v>
       </c>
-      <c r="AAS3" s="534" t="s">
+      <c r="AAS3" s="383" t="s">
         <v>252</v>
       </c>
-      <c r="AAT3" s="534" t="s">
+      <c r="AAT3" s="383" t="s">
         <v>253</v>
       </c>
-      <c r="AAU3" s="534" t="s">
+      <c r="AAU3" s="383" t="s">
         <v>27</v>
       </c>
-      <c r="AAV3" s="343" t="s">
+      <c r="AAV3" s="433" t="s">
         <v>252</v>
       </c>
-      <c r="AAW3" s="343" t="s">
+      <c r="AAW3" s="433" t="s">
         <v>253</v>
       </c>
-      <c r="AAX3" s="343" t="s">
+      <c r="AAX3" s="433" t="s">
         <v>27</v>
       </c>
-      <c r="AAY3" s="384" t="s">
+      <c r="AAY3" s="411" t="s">
         <v>254</v>
       </c>
-      <c r="AAZ3" s="384" t="s">
+      <c r="AAZ3" s="411" t="s">
         <v>255</v>
       </c>
-      <c r="ABA3" s="384" t="s">
+      <c r="ABA3" s="411" t="s">
         <v>27</v>
       </c>
-      <c r="ABB3" s="388" t="s">
+      <c r="ABB3" s="396" t="s">
         <v>175</v>
       </c>
-      <c r="ABC3" s="388" t="s">
+      <c r="ABC3" s="396" t="s">
         <v>176</v>
       </c>
-      <c r="ABD3" s="388" t="s">
+      <c r="ABD3" s="396" t="s">
         <v>177</v>
       </c>
-      <c r="ABE3" s="388" t="s">
+      <c r="ABE3" s="396" t="s">
         <v>27</v>
       </c>
-      <c r="ABF3" s="416" t="s">
+      <c r="ABF3" s="405" t="s">
         <v>175</v>
       </c>
-      <c r="ABG3" s="416" t="s">
+      <c r="ABG3" s="405" t="s">
         <v>301</v>
       </c>
-      <c r="ABH3" s="416" t="s">
+      <c r="ABH3" s="405" t="s">
         <v>60</v>
       </c>
-      <c r="ABI3" s="412" t="s">
+      <c r="ABI3" s="395" t="s">
         <v>24</v>
       </c>
-      <c r="ABJ3" s="412" t="s">
+      <c r="ABJ3" s="395" t="s">
         <v>25</v>
       </c>
-      <c r="ABK3" s="412" t="s">
+      <c r="ABK3" s="395" t="s">
         <v>26</v>
       </c>
-      <c r="ABL3" s="412" t="s">
+      <c r="ABL3" s="395" t="s">
         <v>27</v>
       </c>
-      <c r="ABM3" s="380" t="s">
+      <c r="ABM3" s="394" t="s">
         <v>150</v>
       </c>
-      <c r="ABN3" s="380" t="s">
+      <c r="ABN3" s="394" t="s">
         <v>152</v>
       </c>
-      <c r="ABO3" s="380" t="s">
+      <c r="ABO3" s="394" t="s">
         <v>27</v>
       </c>
-      <c r="ABP3" s="446"/>
-      <c r="ABQ3" s="446"/>
-      <c r="ABR3" s="446"/>
-      <c r="ABS3" s="453"/>
-      <c r="ABT3" s="452"/>
-      <c r="ABU3" s="452"/>
-      <c r="ABV3" s="442"/>
-      <c r="ABW3" s="442"/>
-      <c r="ABX3" s="442"/>
-      <c r="ABY3" s="415"/>
-      <c r="ABZ3" s="415"/>
-      <c r="ACA3" s="415"/>
-      <c r="ACB3" s="417" t="s">
+      <c r="ABP3" s="356"/>
+      <c r="ABQ3" s="356"/>
+      <c r="ABR3" s="356"/>
+      <c r="ABS3" s="353"/>
+      <c r="ABT3" s="377"/>
+      <c r="ABU3" s="377"/>
+      <c r="ABV3" s="376"/>
+      <c r="ABW3" s="376"/>
+      <c r="ABX3" s="376"/>
+      <c r="ABY3" s="409"/>
+      <c r="ABZ3" s="409"/>
+      <c r="ACA3" s="409"/>
+      <c r="ACB3" s="412" t="s">
         <v>1382</v>
       </c>
-      <c r="ACC3" s="417" t="s">
+      <c r="ACC3" s="412" t="s">
         <v>1375</v>
       </c>
-      <c r="ACD3" s="327"/>
-      <c r="ACE3" s="327"/>
-      <c r="ACF3" s="433"/>
-      <c r="ACG3" s="430"/>
-      <c r="ACH3" s="430"/>
-      <c r="ACI3" s="427"/>
-      <c r="ACJ3" s="427"/>
-      <c r="ACK3" s="427"/>
-      <c r="ACL3" s="424"/>
+      <c r="ACD3" s="431"/>
+      <c r="ACE3" s="431"/>
+      <c r="ACF3" s="428"/>
+      <c r="ACG3" s="425"/>
+      <c r="ACH3" s="425"/>
+      <c r="ACI3" s="422"/>
+      <c r="ACJ3" s="422"/>
+      <c r="ACK3" s="422"/>
+      <c r="ACL3" s="419"/>
       <c r="ACM3" s="410"/>
       <c r="ACN3" s="410"/>
       <c r="ACO3" s="410"/>
-      <c r="ACP3" s="451"/>
-      <c r="ACQ3" s="411"/>
-      <c r="ACR3" s="437"/>
+      <c r="ACP3" s="375"/>
+      <c r="ACQ3" s="439"/>
+      <c r="ACR3" s="404"/>
       <c r="ACT3" s="296" t="s">
         <v>1383</v>
       </c>
@@ -12542,31 +12562,31 @@
       </c>
     </row>
     <row r="4" spans="1:779" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="453"/>
-      <c r="B4" s="462"/>
-      <c r="C4" s="453"/>
-      <c r="D4" s="463"/>
-      <c r="E4" s="463"/>
-      <c r="F4" s="453"/>
-      <c r="G4" s="453"/>
-      <c r="H4" s="453"/>
-      <c r="I4" s="453"/>
-      <c r="J4" s="453"/>
-      <c r="K4" s="453"/>
-      <c r="L4" s="453"/>
-      <c r="M4" s="453"/>
-      <c r="N4" s="453"/>
-      <c r="O4" s="453"/>
-      <c r="P4" s="453"/>
-      <c r="Q4" s="453"/>
-      <c r="R4" s="453"/>
-      <c r="S4" s="453"/>
-      <c r="T4" s="453"/>
-      <c r="U4" s="453"/>
-      <c r="V4" s="446"/>
-      <c r="W4" s="453"/>
-      <c r="X4" s="453"/>
-      <c r="Y4" s="453"/>
+      <c r="A4" s="353"/>
+      <c r="B4" s="354"/>
+      <c r="C4" s="353"/>
+      <c r="D4" s="355"/>
+      <c r="E4" s="355"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="353"/>
+      <c r="I4" s="353"/>
+      <c r="J4" s="353"/>
+      <c r="K4" s="353"/>
+      <c r="L4" s="353"/>
+      <c r="M4" s="353"/>
+      <c r="N4" s="353"/>
+      <c r="O4" s="353"/>
+      <c r="P4" s="353"/>
+      <c r="Q4" s="353"/>
+      <c r="R4" s="353"/>
+      <c r="S4" s="353"/>
+      <c r="T4" s="353"/>
+      <c r="U4" s="353"/>
+      <c r="V4" s="356"/>
+      <c r="W4" s="353"/>
+      <c r="X4" s="353"/>
+      <c r="Y4" s="353"/>
       <c r="Z4" s="15" t="s">
         <v>130</v>
       </c>
@@ -12591,37 +12611,37 @@
       <c r="AG4" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="AH4" s="528" t="s">
+      <c r="AH4" s="325" t="s">
         <v>98</v>
       </c>
-      <c r="AI4" s="528" t="s">
+      <c r="AI4" s="325" t="s">
         <v>99</v>
       </c>
       <c r="AJ4" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="AK4" s="528" t="s">
+      <c r="AK4" s="325" t="s">
         <v>98</v>
       </c>
-      <c r="AL4" s="528" t="s">
+      <c r="AL4" s="325" t="s">
         <v>99</v>
       </c>
       <c r="AM4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="AN4" s="532" t="s">
+      <c r="AN4" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="AO4" s="532" t="s">
+      <c r="AO4" s="328" t="s">
         <v>98</v>
       </c>
       <c r="AP4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="532" t="s">
+      <c r="AQ4" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="AR4" s="533" t="s">
+      <c r="AR4" s="329" t="s">
         <v>99</v>
       </c>
       <c r="AS4" s="39" t="s">
@@ -12645,19 +12665,19 @@
       <c r="AY4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="AZ4" s="34" t="s">
+      <c r="AZ4" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="BA4" s="34" t="s">
+      <c r="BA4" s="535" t="s">
         <v>99</v>
       </c>
       <c r="BB4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="BC4" s="34" t="s">
+      <c r="BC4" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="BD4" s="34" t="s">
+      <c r="BD4" s="535" t="s">
         <v>99</v>
       </c>
       <c r="BE4" s="31" t="s">
@@ -13038,73 +13058,73 @@
       <c r="FZ4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="GA4" s="34" t="s">
+      <c r="GA4" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="GB4" s="34" t="s">
+      <c r="GB4" s="535" t="s">
         <v>99</v>
       </c>
       <c r="GC4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="GD4" s="34" t="s">
+      <c r="GD4" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="GE4" s="34" t="s">
+      <c r="GE4" s="535" t="s">
         <v>99</v>
       </c>
       <c r="GF4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="GG4" s="34" t="s">
+      <c r="GG4" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="GH4" s="34" t="s">
+      <c r="GH4" s="535" t="s">
         <v>99</v>
       </c>
       <c r="GI4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="GJ4" s="34" t="s">
+      <c r="GJ4" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="GK4" s="34" t="s">
+      <c r="GK4" s="535" t="s">
         <v>99</v>
       </c>
       <c r="GL4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="GM4" s="34" t="s">
+      <c r="GM4" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="GN4" s="34" t="s">
+      <c r="GN4" s="535" t="s">
         <v>99</v>
       </c>
       <c r="GO4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="GP4" s="34" t="s">
+      <c r="GP4" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="GQ4" s="34" t="s">
+      <c r="GQ4" s="535" t="s">
         <v>99</v>
       </c>
       <c r="GR4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="GS4" s="34" t="s">
+      <c r="GS4" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="GT4" s="34" t="s">
+      <c r="GT4" s="535" t="s">
         <v>99</v>
       </c>
       <c r="GU4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="GV4" s="34" t="s">
+      <c r="GV4" s="535" t="s">
         <v>98</v>
       </c>
-      <c r="GW4" s="34" t="s">
+      <c r="GW4" s="535" t="s">
         <v>99</v>
       </c>
       <c r="GX4" s="35" t="s">
@@ -13182,55 +13202,55 @@
       <c r="HV4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="HW4" s="529" t="s">
+      <c r="HW4" s="326" t="s">
         <v>98</v>
       </c>
-      <c r="HX4" s="530" t="s">
+      <c r="HX4" s="327" t="s">
         <v>99</v>
       </c>
       <c r="HY4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="HZ4" s="529" t="s">
+      <c r="HZ4" s="326" t="s">
         <v>98</v>
       </c>
-      <c r="IA4" s="530" t="s">
+      <c r="IA4" s="327" t="s">
         <v>99</v>
       </c>
       <c r="IB4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="IC4" s="529" t="s">
+      <c r="IC4" s="326" t="s">
         <v>98</v>
       </c>
-      <c r="ID4" s="530" t="s">
+      <c r="ID4" s="327" t="s">
         <v>99</v>
       </c>
       <c r="IE4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="IF4" s="529" t="s">
+      <c r="IF4" s="326" t="s">
         <v>98</v>
       </c>
-      <c r="IG4" s="530" t="s">
+      <c r="IG4" s="327" t="s">
         <v>99</v>
       </c>
       <c r="IH4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="II4" s="529" t="s">
+      <c r="II4" s="326" t="s">
         <v>98</v>
       </c>
-      <c r="IJ4" s="530" t="s">
+      <c r="IJ4" s="327" t="s">
         <v>99</v>
       </c>
       <c r="IK4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="IL4" s="529" t="s">
+      <c r="IL4" s="326" t="s">
         <v>98</v>
       </c>
-      <c r="IM4" s="530" t="s">
+      <c r="IM4" s="327" t="s">
         <v>99</v>
       </c>
       <c r="IN4" s="39" t="s">
@@ -13308,55 +13328,55 @@
       <c r="JL4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="JM4" s="532" t="s">
+      <c r="JM4" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="JN4" s="533" t="s">
+      <c r="JN4" s="329" t="s">
         <v>99</v>
       </c>
       <c r="JO4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="JP4" s="532" t="s">
+      <c r="JP4" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="JQ4" s="533" t="s">
+      <c r="JQ4" s="329" t="s">
         <v>99</v>
       </c>
       <c r="JR4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="JS4" s="532" t="s">
+      <c r="JS4" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="JT4" s="533" t="s">
+      <c r="JT4" s="329" t="s">
         <v>99</v>
       </c>
       <c r="JU4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="JV4" s="532" t="s">
+      <c r="JV4" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="JW4" s="533" t="s">
+      <c r="JW4" s="329" t="s">
         <v>99</v>
       </c>
       <c r="JX4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="JY4" s="532" t="s">
+      <c r="JY4" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="JZ4" s="533" t="s">
+      <c r="JZ4" s="329" t="s">
         <v>99</v>
       </c>
       <c r="KA4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="KB4" s="532" t="s">
+      <c r="KB4" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="KC4" s="533" t="s">
+      <c r="KC4" s="329" t="s">
         <v>99</v>
       </c>
       <c r="KD4" s="27" t="s">
@@ -14535,97 +14555,97 @@
       <c r="ZE4" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="ZF4" s="359"/>
-      <c r="ZG4" s="359"/>
-      <c r="ZH4" s="359"/>
-      <c r="ZI4" s="358"/>
-      <c r="ZJ4" s="358"/>
-      <c r="ZK4" s="358"/>
-      <c r="ZL4" s="358"/>
-      <c r="ZM4" s="368"/>
-      <c r="ZN4" s="368"/>
-      <c r="ZO4" s="368"/>
-      <c r="ZP4" s="371"/>
-      <c r="ZQ4" s="371"/>
-      <c r="ZR4" s="371"/>
-      <c r="ZS4" s="406"/>
-      <c r="ZT4" s="406"/>
-      <c r="ZU4" s="406"/>
-      <c r="ZV4" s="356"/>
-      <c r="ZW4" s="356"/>
-      <c r="ZX4" s="356"/>
-      <c r="ZY4" s="357"/>
-      <c r="ZZ4" s="357"/>
-      <c r="AAA4" s="357"/>
-      <c r="AAB4" s="357"/>
-      <c r="AAC4" s="357"/>
-      <c r="AAD4" s="354"/>
-      <c r="AAE4" s="354"/>
-      <c r="AAF4" s="354"/>
-      <c r="AAG4" s="413"/>
-      <c r="AAH4" s="413"/>
-      <c r="AAI4" s="413"/>
-      <c r="AAJ4" s="331"/>
-      <c r="AAK4" s="331"/>
-      <c r="AAL4" s="331"/>
-      <c r="AAM4" s="371"/>
-      <c r="AAN4" s="371"/>
-      <c r="AAO4" s="371"/>
-      <c r="AAP4" s="531"/>
-      <c r="AAQ4" s="531"/>
-      <c r="AAR4" s="531"/>
-      <c r="AAS4" s="534"/>
-      <c r="AAT4" s="534"/>
-      <c r="AAU4" s="534"/>
-      <c r="AAV4" s="343"/>
-      <c r="AAW4" s="343"/>
-      <c r="AAX4" s="343"/>
-      <c r="AAY4" s="384"/>
-      <c r="AAZ4" s="384"/>
-      <c r="ABA4" s="384"/>
-      <c r="ABB4" s="388"/>
-      <c r="ABC4" s="388"/>
-      <c r="ABD4" s="388"/>
-      <c r="ABE4" s="388"/>
-      <c r="ABF4" s="416"/>
-      <c r="ABG4" s="416"/>
-      <c r="ABH4" s="416"/>
-      <c r="ABI4" s="412"/>
-      <c r="ABJ4" s="412"/>
-      <c r="ABK4" s="412"/>
-      <c r="ABL4" s="412"/>
-      <c r="ABM4" s="380"/>
-      <c r="ABN4" s="380"/>
-      <c r="ABO4" s="380"/>
-      <c r="ABP4" s="446"/>
-      <c r="ABQ4" s="446"/>
-      <c r="ABR4" s="446"/>
-      <c r="ABS4" s="453"/>
-      <c r="ABT4" s="452"/>
-      <c r="ABU4" s="452"/>
-      <c r="ABV4" s="442"/>
-      <c r="ABW4" s="442"/>
-      <c r="ABX4" s="442"/>
-      <c r="ABY4" s="415"/>
-      <c r="ABZ4" s="415"/>
-      <c r="ACA4" s="415"/>
-      <c r="ACB4" s="418"/>
-      <c r="ACC4" s="418"/>
-      <c r="ACD4" s="328"/>
-      <c r="ACE4" s="328"/>
-      <c r="ACF4" s="434"/>
-      <c r="ACG4" s="431"/>
-      <c r="ACH4" s="431"/>
-      <c r="ACI4" s="428"/>
-      <c r="ACJ4" s="428"/>
-      <c r="ACK4" s="428"/>
-      <c r="ACL4" s="425"/>
+      <c r="ZF4" s="441"/>
+      <c r="ZG4" s="441"/>
+      <c r="ZH4" s="441"/>
+      <c r="ZI4" s="440"/>
+      <c r="ZJ4" s="440"/>
+      <c r="ZK4" s="440"/>
+      <c r="ZL4" s="440"/>
+      <c r="ZM4" s="437"/>
+      <c r="ZN4" s="437"/>
+      <c r="ZO4" s="437"/>
+      <c r="ZP4" s="345"/>
+      <c r="ZQ4" s="345"/>
+      <c r="ZR4" s="345"/>
+      <c r="ZS4" s="384"/>
+      <c r="ZT4" s="384"/>
+      <c r="ZU4" s="384"/>
+      <c r="ZV4" s="465"/>
+      <c r="ZW4" s="465"/>
+      <c r="ZX4" s="465"/>
+      <c r="ZY4" s="408"/>
+      <c r="ZZ4" s="408"/>
+      <c r="AAA4" s="408"/>
+      <c r="AAB4" s="408"/>
+      <c r="AAC4" s="408"/>
+      <c r="AAD4" s="471"/>
+      <c r="AAE4" s="471"/>
+      <c r="AAF4" s="471"/>
+      <c r="AAG4" s="438"/>
+      <c r="AAH4" s="438"/>
+      <c r="AAI4" s="438"/>
+      <c r="AAJ4" s="536"/>
+      <c r="AAK4" s="536"/>
+      <c r="AAL4" s="536"/>
+      <c r="AAM4" s="345"/>
+      <c r="AAN4" s="345"/>
+      <c r="AAO4" s="345"/>
+      <c r="AAP4" s="382"/>
+      <c r="AAQ4" s="382"/>
+      <c r="AAR4" s="382"/>
+      <c r="AAS4" s="383"/>
+      <c r="AAT4" s="383"/>
+      <c r="AAU4" s="383"/>
+      <c r="AAV4" s="433"/>
+      <c r="AAW4" s="433"/>
+      <c r="AAX4" s="433"/>
+      <c r="AAY4" s="411"/>
+      <c r="AAZ4" s="411"/>
+      <c r="ABA4" s="411"/>
+      <c r="ABB4" s="396"/>
+      <c r="ABC4" s="396"/>
+      <c r="ABD4" s="396"/>
+      <c r="ABE4" s="396"/>
+      <c r="ABF4" s="405"/>
+      <c r="ABG4" s="405"/>
+      <c r="ABH4" s="405"/>
+      <c r="ABI4" s="395"/>
+      <c r="ABJ4" s="395"/>
+      <c r="ABK4" s="395"/>
+      <c r="ABL4" s="395"/>
+      <c r="ABM4" s="394"/>
+      <c r="ABN4" s="394"/>
+      <c r="ABO4" s="394"/>
+      <c r="ABP4" s="356"/>
+      <c r="ABQ4" s="356"/>
+      <c r="ABR4" s="356"/>
+      <c r="ABS4" s="353"/>
+      <c r="ABT4" s="377"/>
+      <c r="ABU4" s="377"/>
+      <c r="ABV4" s="376"/>
+      <c r="ABW4" s="376"/>
+      <c r="ABX4" s="376"/>
+      <c r="ABY4" s="409"/>
+      <c r="ABZ4" s="409"/>
+      <c r="ACA4" s="409"/>
+      <c r="ACB4" s="413"/>
+      <c r="ACC4" s="413"/>
+      <c r="ACD4" s="432"/>
+      <c r="ACE4" s="432"/>
+      <c r="ACF4" s="429"/>
+      <c r="ACG4" s="426"/>
+      <c r="ACH4" s="426"/>
+      <c r="ACI4" s="423"/>
+      <c r="ACJ4" s="423"/>
+      <c r="ACK4" s="423"/>
+      <c r="ACL4" s="420"/>
       <c r="ACM4" s="410"/>
       <c r="ACN4" s="410"/>
       <c r="ACO4" s="410"/>
-      <c r="ACP4" s="451"/>
-      <c r="ACQ4" s="411"/>
-      <c r="ACR4" s="437"/>
+      <c r="ACP4" s="375"/>
+      <c r="ACQ4" s="439"/>
+      <c r="ACR4" s="404"/>
       <c r="ACU4" s="302"/>
       <c r="ACV4" s="303"/>
       <c r="ACW4" s="303"/>
@@ -14635,23 +14655,572 @@
   </sheetData>
   <autoFilter ref="A4:ACR4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="607">
-    <mergeCell ref="XO3:XQ3"/>
-    <mergeCell ref="XR3:XT3"/>
-    <mergeCell ref="XU3:XW3"/>
-    <mergeCell ref="XX3:XZ3"/>
-    <mergeCell ref="YA3:YC3"/>
-    <mergeCell ref="YD3:YF3"/>
-    <mergeCell ref="XO1:YO1"/>
-    <mergeCell ref="XO2:XQ2"/>
-    <mergeCell ref="XR2:XT2"/>
-    <mergeCell ref="XU2:XW2"/>
-    <mergeCell ref="XX2:XZ2"/>
-    <mergeCell ref="YA2:YC2"/>
-    <mergeCell ref="YD2:YF2"/>
-    <mergeCell ref="YG2:YI2"/>
-    <mergeCell ref="YJ2:YL2"/>
-    <mergeCell ref="YM2:YO2"/>
-    <mergeCell ref="YG3:YI3"/>
+    <mergeCell ref="GC3:GE3"/>
+    <mergeCell ref="GF3:GH3"/>
+    <mergeCell ref="GI3:GK3"/>
+    <mergeCell ref="ACD1:ACD4"/>
+    <mergeCell ref="ACW1:ACX1"/>
+    <mergeCell ref="AY1:BD1"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="FZ2:GB2"/>
+    <mergeCell ref="MF3:MH3"/>
+    <mergeCell ref="MI3:MK3"/>
+    <mergeCell ref="ML3:MN3"/>
+    <mergeCell ref="MF2:MH2"/>
+    <mergeCell ref="MI2:MK2"/>
+    <mergeCell ref="ML2:MN2"/>
+    <mergeCell ref="LW2:LY2"/>
+    <mergeCell ref="LZ2:MB2"/>
+    <mergeCell ref="FZ1:GW1"/>
+    <mergeCell ref="KP1:LD1"/>
+    <mergeCell ref="KP2:KR2"/>
+    <mergeCell ref="KY3:LA3"/>
+    <mergeCell ref="KV3:KX3"/>
+    <mergeCell ref="PK1:QH1"/>
+    <mergeCell ref="PK2:PM2"/>
+    <mergeCell ref="OF2:OH2"/>
+    <mergeCell ref="OI2:OL2"/>
+    <mergeCell ref="GU2:GW2"/>
+    <mergeCell ref="FZ3:GB3"/>
+    <mergeCell ref="BK1:BP1"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="LW1:MW1"/>
+    <mergeCell ref="LN2:LP2"/>
+    <mergeCell ref="LQ2:LS2"/>
+    <mergeCell ref="LT2:LV2"/>
+    <mergeCell ref="LN3:LP3"/>
+    <mergeCell ref="LQ3:LS3"/>
+    <mergeCell ref="LT3:LV3"/>
+    <mergeCell ref="LE2:LG2"/>
+    <mergeCell ref="LH2:LJ2"/>
+    <mergeCell ref="LK2:LM2"/>
+    <mergeCell ref="LE3:LG3"/>
+    <mergeCell ref="LH3:LJ3"/>
+    <mergeCell ref="LK3:LM3"/>
+    <mergeCell ref="WQ1:XN1"/>
+    <mergeCell ref="WQ3:WS3"/>
+    <mergeCell ref="WT3:WV3"/>
+    <mergeCell ref="WW3:WY3"/>
+    <mergeCell ref="GL3:GN3"/>
+    <mergeCell ref="QI2:QK2"/>
+    <mergeCell ref="QL2:QN2"/>
+    <mergeCell ref="QO2:QQ2"/>
+    <mergeCell ref="LE1:LV1"/>
+    <mergeCell ref="QF2:QH2"/>
+    <mergeCell ref="PK3:PM3"/>
+    <mergeCell ref="PN3:PP3"/>
+    <mergeCell ref="PQ3:PS3"/>
+    <mergeCell ref="PT3:PV3"/>
+    <mergeCell ref="PW3:PY3"/>
+    <mergeCell ref="PZ3:QB3"/>
+    <mergeCell ref="NS2:NV2"/>
+    <mergeCell ref="NW2:NY2"/>
+    <mergeCell ref="MU3:MW3"/>
+    <mergeCell ref="MU2:MW2"/>
+    <mergeCell ref="NS1:OO1"/>
+    <mergeCell ref="OC2:OE2"/>
+    <mergeCell ref="NZ3:OB3"/>
+    <mergeCell ref="OC3:OE3"/>
+    <mergeCell ref="AAJ1:AAL2"/>
+    <mergeCell ref="AAL3:AAL4"/>
+    <mergeCell ref="AAK3:AAK4"/>
+    <mergeCell ref="AAJ3:AAJ4"/>
+    <mergeCell ref="AAF3:AAF4"/>
+    <mergeCell ref="AAE3:AAE4"/>
+    <mergeCell ref="AAD3:AAD4"/>
+    <mergeCell ref="AAD1:AAF2"/>
+    <mergeCell ref="YS2:YU2"/>
+    <mergeCell ref="ZW3:ZW4"/>
+    <mergeCell ref="ZV3:ZV4"/>
+    <mergeCell ref="ZX3:ZX4"/>
+    <mergeCell ref="ZZ3:ZZ4"/>
+    <mergeCell ref="AAA3:AAA4"/>
+    <mergeCell ref="ZJ3:ZJ4"/>
+    <mergeCell ref="ZK3:ZK4"/>
+    <mergeCell ref="ZH3:ZH4"/>
+    <mergeCell ref="NS3:NV3"/>
+    <mergeCell ref="NW3:NY3"/>
+    <mergeCell ref="NZ2:OB2"/>
+    <mergeCell ref="ZC1:ZE1"/>
+    <mergeCell ref="ZC2:ZE2"/>
+    <mergeCell ref="ZC3:ZE3"/>
+    <mergeCell ref="ZV1:ZX2"/>
+    <mergeCell ref="AAC3:AAC4"/>
+    <mergeCell ref="ZY1:AAC2"/>
+    <mergeCell ref="ZG3:ZG4"/>
+    <mergeCell ref="ZO3:ZO4"/>
+    <mergeCell ref="VS3:VU3"/>
+    <mergeCell ref="VV3:VX3"/>
+    <mergeCell ref="VY2:WA2"/>
+    <mergeCell ref="WB2:WD2"/>
+    <mergeCell ref="WE2:WG2"/>
+    <mergeCell ref="WH2:WJ2"/>
+    <mergeCell ref="ZP1:ZR2"/>
+    <mergeCell ref="ZR3:ZR4"/>
+    <mergeCell ref="ZQ3:ZQ4"/>
+    <mergeCell ref="ZP3:ZP4"/>
+    <mergeCell ref="VP1:WP1"/>
+    <mergeCell ref="VP2:VR2"/>
+    <mergeCell ref="XF3:XH3"/>
+    <mergeCell ref="XI3:XK3"/>
+    <mergeCell ref="XL3:XN3"/>
+    <mergeCell ref="WT2:WV2"/>
+    <mergeCell ref="WW2:WY2"/>
+    <mergeCell ref="WZ2:XB2"/>
+    <mergeCell ref="XC2:XE2"/>
+    <mergeCell ref="XF2:XH2"/>
+    <mergeCell ref="XI2:XK2"/>
+    <mergeCell ref="XC3:XE3"/>
+    <mergeCell ref="XL2:XN2"/>
+    <mergeCell ref="WK2:WM2"/>
+    <mergeCell ref="WN2:WP2"/>
+    <mergeCell ref="VY3:WA3"/>
+    <mergeCell ref="WB3:WD3"/>
+    <mergeCell ref="WE3:WG3"/>
+    <mergeCell ref="WH3:WJ3"/>
+    <mergeCell ref="WK3:WM3"/>
+    <mergeCell ref="WN3:WP3"/>
+    <mergeCell ref="WZ3:XB3"/>
+    <mergeCell ref="WQ2:WS2"/>
+    <mergeCell ref="VP3:VR3"/>
+    <mergeCell ref="RW3:RY3"/>
+    <mergeCell ref="RZ3:SB3"/>
+    <mergeCell ref="SC3:SE3"/>
+    <mergeCell ref="SF2:SH2"/>
+    <mergeCell ref="SF3:SH3"/>
+    <mergeCell ref="SR2:ST2"/>
+    <mergeCell ref="UL2:UN2"/>
+    <mergeCell ref="RZ2:SB2"/>
+    <mergeCell ref="SC2:SE2"/>
+    <mergeCell ref="SU2:SW2"/>
+    <mergeCell ref="SO3:SQ3"/>
+    <mergeCell ref="SR3:ST3"/>
+    <mergeCell ref="SU3:SW3"/>
+    <mergeCell ref="SI2:SK2"/>
+    <mergeCell ref="SL2:SN2"/>
+    <mergeCell ref="SI3:SK3"/>
+    <mergeCell ref="SL3:SN3"/>
+    <mergeCell ref="SO2:SQ2"/>
+    <mergeCell ref="UF3:UH3"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="KG2:KI2"/>
+    <mergeCell ref="KJ2:KL2"/>
+    <mergeCell ref="KM2:KO2"/>
+    <mergeCell ref="KM3:KO3"/>
+    <mergeCell ref="KJ3:KL3"/>
+    <mergeCell ref="KG3:KI3"/>
+    <mergeCell ref="KD1:KO1"/>
+    <mergeCell ref="KD2:KF2"/>
+    <mergeCell ref="BE1:BJ1"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="FH1:FP1"/>
+    <mergeCell ref="FH2:FJ2"/>
+    <mergeCell ref="FK2:FM2"/>
+    <mergeCell ref="FN2:FP2"/>
+    <mergeCell ref="FH3:FJ3"/>
+    <mergeCell ref="FK3:FM3"/>
+    <mergeCell ref="FN3:FP3"/>
+    <mergeCell ref="MO3:MQ3"/>
+    <mergeCell ref="MR3:MT3"/>
+    <mergeCell ref="MO2:MQ2"/>
+    <mergeCell ref="MR2:MT2"/>
+    <mergeCell ref="IZ2:JB2"/>
+    <mergeCell ref="JC2:JE2"/>
+    <mergeCell ref="JF2:JH2"/>
+    <mergeCell ref="JI2:JK2"/>
+    <mergeCell ref="LB2:LD2"/>
+    <mergeCell ref="LB3:LD3"/>
+    <mergeCell ref="GR3:GT3"/>
+    <mergeCell ref="GU3:GW3"/>
+    <mergeCell ref="GC2:GE2"/>
+    <mergeCell ref="GF2:GH2"/>
+    <mergeCell ref="GI2:GK2"/>
+    <mergeCell ref="GL2:GN2"/>
+    <mergeCell ref="GO2:GQ2"/>
+    <mergeCell ref="GR2:GT2"/>
+    <mergeCell ref="GO3:GQ3"/>
+    <mergeCell ref="KV2:KX2"/>
+    <mergeCell ref="KY2:LA2"/>
+    <mergeCell ref="MC2:ME2"/>
+    <mergeCell ref="LW3:LY3"/>
+    <mergeCell ref="FQ1:FY1"/>
+    <mergeCell ref="FQ2:FS2"/>
+    <mergeCell ref="FT2:FV2"/>
+    <mergeCell ref="FW2:FY2"/>
+    <mergeCell ref="ABD3:ABD4"/>
+    <mergeCell ref="ABE3:ABE4"/>
+    <mergeCell ref="YP1:YU1"/>
+    <mergeCell ref="YP3:YR3"/>
+    <mergeCell ref="YS3:YU3"/>
+    <mergeCell ref="YP2:YR2"/>
+    <mergeCell ref="PE2:PG2"/>
+    <mergeCell ref="PH2:PJ2"/>
+    <mergeCell ref="OV3:OX3"/>
+    <mergeCell ref="OY3:PA3"/>
+    <mergeCell ref="PB3:PD3"/>
+    <mergeCell ref="PE3:PG3"/>
+    <mergeCell ref="PH3:PJ3"/>
+    <mergeCell ref="OV2:OX2"/>
+    <mergeCell ref="OY2:PA2"/>
+    <mergeCell ref="PB2:PD2"/>
+    <mergeCell ref="VM2:VO2"/>
+    <mergeCell ref="VJ3:VL3"/>
+    <mergeCell ref="VM3:VO3"/>
+    <mergeCell ref="VG2:VI2"/>
+    <mergeCell ref="OP1:PJ1"/>
+    <mergeCell ref="OP2:OR2"/>
+    <mergeCell ref="VA3:VC3"/>
+    <mergeCell ref="VD2:VF2"/>
+    <mergeCell ref="VD3:VF3"/>
+    <mergeCell ref="UO1:VO1"/>
+    <mergeCell ref="UO2:UQ2"/>
+    <mergeCell ref="UR2:UT2"/>
+    <mergeCell ref="UU2:UW2"/>
+    <mergeCell ref="UO3:UQ3"/>
+    <mergeCell ref="UR3:UT3"/>
+    <mergeCell ref="UU3:UW3"/>
+    <mergeCell ref="UX2:UZ2"/>
+    <mergeCell ref="VA2:VC2"/>
+    <mergeCell ref="UX3:UZ3"/>
+    <mergeCell ref="RW1:SW1"/>
+    <mergeCell ref="RW2:RY2"/>
+    <mergeCell ref="OS2:OU2"/>
+    <mergeCell ref="OP3:OR3"/>
+    <mergeCell ref="OS3:OU3"/>
+    <mergeCell ref="RQ2:RS2"/>
+    <mergeCell ref="RT2:RV2"/>
+    <mergeCell ref="QU2:QX2"/>
+    <mergeCell ref="QU3:QX3"/>
+    <mergeCell ref="RH2:RJ2"/>
+    <mergeCell ref="RK2:RM2"/>
+    <mergeCell ref="RN2:RP2"/>
+    <mergeCell ref="RH3:RJ3"/>
+    <mergeCell ref="RK3:RM3"/>
+    <mergeCell ref="RN3:RP3"/>
+    <mergeCell ref="AAB3:AAB4"/>
+    <mergeCell ref="ZI3:ZI4"/>
+    <mergeCell ref="ZL3:ZL4"/>
+    <mergeCell ref="ZI1:ZL2"/>
+    <mergeCell ref="ZS3:ZS4"/>
+    <mergeCell ref="ZT3:ZT4"/>
+    <mergeCell ref="ZU3:ZU4"/>
+    <mergeCell ref="RB1:RV1"/>
+    <mergeCell ref="RB2:RD2"/>
+    <mergeCell ref="TZ2:UB2"/>
+    <mergeCell ref="UC3:UE3"/>
+    <mergeCell ref="UC2:UE2"/>
+    <mergeCell ref="YJ3:YL3"/>
+    <mergeCell ref="YM3:YO3"/>
+    <mergeCell ref="ZF1:ZH2"/>
+    <mergeCell ref="ZF3:ZF4"/>
+    <mergeCell ref="VG3:VI3"/>
+    <mergeCell ref="VJ2:VL2"/>
+    <mergeCell ref="RQ3:RS3"/>
+    <mergeCell ref="RT3:RV3"/>
+    <mergeCell ref="NJ3:NN3"/>
+    <mergeCell ref="ACO1:ACO4"/>
+    <mergeCell ref="ACQ1:ACQ4"/>
+    <mergeCell ref="ABL3:ABL4"/>
+    <mergeCell ref="OM2:OO2"/>
+    <mergeCell ref="OF3:OH3"/>
+    <mergeCell ref="OI3:OL3"/>
+    <mergeCell ref="OM3:OO3"/>
+    <mergeCell ref="RE2:RG2"/>
+    <mergeCell ref="RB3:RD3"/>
+    <mergeCell ref="RE3:RG3"/>
+    <mergeCell ref="QC3:QE3"/>
+    <mergeCell ref="QF3:QH3"/>
+    <mergeCell ref="PN2:PP2"/>
+    <mergeCell ref="PQ2:PS2"/>
+    <mergeCell ref="PT2:PV2"/>
+    <mergeCell ref="PW2:PY2"/>
+    <mergeCell ref="PZ2:QB2"/>
+    <mergeCell ref="QC2:QE2"/>
+    <mergeCell ref="AAG3:AAG4"/>
+    <mergeCell ref="AAH3:AAH4"/>
+    <mergeCell ref="ZM1:ZO2"/>
+    <mergeCell ref="AAV1:AAX2"/>
+    <mergeCell ref="AAX3:AAX4"/>
+    <mergeCell ref="AAW3:AAW4"/>
+    <mergeCell ref="AAV3:AAV4"/>
+    <mergeCell ref="UI2:UK2"/>
+    <mergeCell ref="UF2:UH2"/>
+    <mergeCell ref="UL3:UN3"/>
+    <mergeCell ref="UI3:UK3"/>
+    <mergeCell ref="TS2:TV2"/>
+    <mergeCell ref="TS3:TV3"/>
+    <mergeCell ref="TW2:TY2"/>
+    <mergeCell ref="TW3:TY3"/>
+    <mergeCell ref="TZ3:UB3"/>
+    <mergeCell ref="TS1:UN1"/>
+    <mergeCell ref="AAM3:AAM4"/>
+    <mergeCell ref="AAN3:AAN4"/>
+    <mergeCell ref="AAO3:AAO4"/>
+    <mergeCell ref="ZM3:ZM4"/>
+    <mergeCell ref="ZN3:ZN4"/>
+    <mergeCell ref="AAS3:AAS4"/>
+    <mergeCell ref="AAI3:AAI4"/>
+    <mergeCell ref="AAG1:AAI2"/>
+    <mergeCell ref="VS2:VU2"/>
+    <mergeCell ref="VV2:VX2"/>
+    <mergeCell ref="ACA1:ACA4"/>
+    <mergeCell ref="ACM1:ACM4"/>
+    <mergeCell ref="ACN1:ACN4"/>
+    <mergeCell ref="ABG3:ABG4"/>
+    <mergeCell ref="ABM1:ABO2"/>
+    <mergeCell ref="ABM3:ABM4"/>
+    <mergeCell ref="ABN3:ABN4"/>
+    <mergeCell ref="AAM1:AAO2"/>
+    <mergeCell ref="ABB1:ABE2"/>
+    <mergeCell ref="AAY1:ABA2"/>
+    <mergeCell ref="ABA3:ABA4"/>
+    <mergeCell ref="AAZ3:AAZ4"/>
+    <mergeCell ref="AAY3:AAY4"/>
+    <mergeCell ref="ACC3:ACC4"/>
+    <mergeCell ref="ACB3:ACB4"/>
+    <mergeCell ref="ACB1:ACC2"/>
+    <mergeCell ref="ACL1:ACL4"/>
+    <mergeCell ref="ACK1:ACK4"/>
+    <mergeCell ref="ACJ1:ACJ4"/>
+    <mergeCell ref="ACI1:ACI4"/>
+    <mergeCell ref="ACH1:ACH4"/>
+    <mergeCell ref="ACG1:ACG4"/>
+    <mergeCell ref="ACF1:ACF4"/>
+    <mergeCell ref="ACE1:ACE4"/>
+    <mergeCell ref="EY1:FG1"/>
+    <mergeCell ref="EY2:FA2"/>
+    <mergeCell ref="FB2:FD2"/>
+    <mergeCell ref="EY3:FA3"/>
+    <mergeCell ref="FB3:FD3"/>
+    <mergeCell ref="FE2:FG2"/>
+    <mergeCell ref="FE3:FG3"/>
+    <mergeCell ref="ACR1:ACR4"/>
+    <mergeCell ref="ABF1:ABH2"/>
+    <mergeCell ref="ABF3:ABF4"/>
+    <mergeCell ref="ABH3:ABH4"/>
+    <mergeCell ref="QI3:QK3"/>
+    <mergeCell ref="QL3:QN3"/>
+    <mergeCell ref="QO3:QQ3"/>
+    <mergeCell ref="QR2:QT2"/>
+    <mergeCell ref="QY2:RA2"/>
+    <mergeCell ref="QR3:QT3"/>
+    <mergeCell ref="QY3:RA3"/>
+    <mergeCell ref="ZY3:ZY4"/>
+    <mergeCell ref="QI1:RA1"/>
+    <mergeCell ref="ABW1:ABW4"/>
+    <mergeCell ref="ABX1:ABX4"/>
+    <mergeCell ref="ABY1:ABY4"/>
+    <mergeCell ref="ABZ1:ABZ4"/>
+    <mergeCell ref="NJ2:NN2"/>
+    <mergeCell ref="HY2:IA2"/>
+    <mergeCell ref="IB2:ID2"/>
+    <mergeCell ref="IE2:IG2"/>
+    <mergeCell ref="IH2:IJ2"/>
+    <mergeCell ref="IK2:IM2"/>
+    <mergeCell ref="HV3:HX3"/>
+    <mergeCell ref="HY3:IA3"/>
+    <mergeCell ref="IB3:ID3"/>
+    <mergeCell ref="IE3:IG3"/>
+    <mergeCell ref="LZ3:MB3"/>
+    <mergeCell ref="IN2:IP2"/>
+    <mergeCell ref="IQ2:IS2"/>
+    <mergeCell ref="IT2:IV2"/>
+    <mergeCell ref="IW2:IY2"/>
+    <mergeCell ref="MC3:ME3"/>
+    <mergeCell ref="KS3:KU3"/>
+    <mergeCell ref="KP3:KR3"/>
+    <mergeCell ref="KS2:KU2"/>
+    <mergeCell ref="ABO3:ABO4"/>
+    <mergeCell ref="ABQ1:ABQ4"/>
+    <mergeCell ref="ABR1:ABR4"/>
+    <mergeCell ref="ABK3:ABK4"/>
+    <mergeCell ref="ABJ3:ABJ4"/>
+    <mergeCell ref="ABI3:ABI4"/>
+    <mergeCell ref="ABI1:ABL2"/>
+    <mergeCell ref="ABB3:ABB4"/>
+    <mergeCell ref="ABC3:ABC4"/>
+    <mergeCell ref="BQ3:BT3"/>
+    <mergeCell ref="BU3:BX3"/>
+    <mergeCell ref="ABP1:ABP4"/>
+    <mergeCell ref="BQ2:BT2"/>
+    <mergeCell ref="BU2:BX2"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="CD2:CG2"/>
+    <mergeCell ref="MX2:NA2"/>
+    <mergeCell ref="NB2:NE2"/>
+    <mergeCell ref="NF2:NI2"/>
+    <mergeCell ref="BQ1:CG1"/>
+    <mergeCell ref="CZ1:DK1"/>
+    <mergeCell ref="CZ2:DB2"/>
+    <mergeCell ref="DC2:DE2"/>
+    <mergeCell ref="CH2:CJ2"/>
+    <mergeCell ref="CK2:CM2"/>
+    <mergeCell ref="CH1:CM1"/>
+    <mergeCell ref="DF2:DH2"/>
+    <mergeCell ref="DI2:DK2"/>
+    <mergeCell ref="DL1:DT1"/>
+    <mergeCell ref="DL2:DN2"/>
+    <mergeCell ref="DO2:DQ2"/>
+    <mergeCell ref="DR2:DT2"/>
+    <mergeCell ref="EJ2:EL2"/>
+    <mergeCell ref="ACP1:ACP4"/>
+    <mergeCell ref="ABV1:ABV4"/>
+    <mergeCell ref="ABU1:ABU4"/>
+    <mergeCell ref="ABS1:ABS4"/>
+    <mergeCell ref="ABT1:ABT4"/>
+    <mergeCell ref="NO3:NR3"/>
+    <mergeCell ref="YV3:YY3"/>
+    <mergeCell ref="YZ3:ZB3"/>
+    <mergeCell ref="NO2:NR2"/>
+    <mergeCell ref="YV1:ZB1"/>
+    <mergeCell ref="YV2:YY2"/>
+    <mergeCell ref="YZ2:ZB2"/>
+    <mergeCell ref="AAP1:AAR2"/>
+    <mergeCell ref="AAR3:AAR4"/>
+    <mergeCell ref="AAQ3:AAQ4"/>
+    <mergeCell ref="AAP3:AAP4"/>
+    <mergeCell ref="AAS1:AAU2"/>
+    <mergeCell ref="AAU3:AAU4"/>
+    <mergeCell ref="AAT3:AAT4"/>
+    <mergeCell ref="MX1:NR1"/>
+    <mergeCell ref="MX3:NA3"/>
+    <mergeCell ref="NB3:NE3"/>
+    <mergeCell ref="NF3:NI3"/>
+    <mergeCell ref="ZS1:ZU2"/>
+    <mergeCell ref="BY3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="EM3:EO3"/>
+    <mergeCell ref="CN1:CS1"/>
+    <mergeCell ref="CN2:CP2"/>
+    <mergeCell ref="CQ2:CS2"/>
+    <mergeCell ref="CN3:CP3"/>
+    <mergeCell ref="CQ3:CS3"/>
+    <mergeCell ref="DU1:EC1"/>
+    <mergeCell ref="DU2:DW2"/>
+    <mergeCell ref="DX2:DZ2"/>
+    <mergeCell ref="EA2:EC2"/>
+    <mergeCell ref="DU3:DW3"/>
+    <mergeCell ref="DX3:DZ3"/>
+    <mergeCell ref="EA3:EC3"/>
+    <mergeCell ref="CT1:CY1"/>
+    <mergeCell ref="CT2:CV2"/>
+    <mergeCell ref="CW2:CY2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CY3"/>
+    <mergeCell ref="ED1:EI1"/>
+    <mergeCell ref="ED2:EF2"/>
+    <mergeCell ref="EJ1:EX1"/>
+    <mergeCell ref="ES2:EU2"/>
+    <mergeCell ref="CK3:CM3"/>
+    <mergeCell ref="KD3:KF3"/>
+    <mergeCell ref="IH3:IJ3"/>
+    <mergeCell ref="IK3:IM3"/>
+    <mergeCell ref="CZ3:DB3"/>
+    <mergeCell ref="DC3:DE3"/>
+    <mergeCell ref="CH3:CJ3"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="DI3:DK3"/>
+    <mergeCell ref="DL3:DN3"/>
+    <mergeCell ref="DO3:DQ3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="IN3:IP3"/>
+    <mergeCell ref="IQ3:IS3"/>
+    <mergeCell ref="IT3:IV3"/>
+    <mergeCell ref="IW3:IY3"/>
+    <mergeCell ref="IZ3:JB3"/>
+    <mergeCell ref="JC3:JE3"/>
+    <mergeCell ref="JF3:JH3"/>
+    <mergeCell ref="JI3:JK3"/>
+    <mergeCell ref="FQ3:FS3"/>
+    <mergeCell ref="FT3:FV3"/>
+    <mergeCell ref="FW3:FY3"/>
+    <mergeCell ref="EJ3:EL3"/>
+    <mergeCell ref="T1:T4"/>
+    <mergeCell ref="U1:U4"/>
+    <mergeCell ref="V1:V4"/>
+    <mergeCell ref="W1:W4"/>
+    <mergeCell ref="X1:X4"/>
+    <mergeCell ref="Y1:Y4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="S1:S4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="HV1:IM1"/>
+    <mergeCell ref="GX1:HU1"/>
+    <mergeCell ref="GX2:GZ2"/>
+    <mergeCell ref="HA2:HC2"/>
+    <mergeCell ref="HD2:HF2"/>
+    <mergeCell ref="HG2:HI2"/>
+    <mergeCell ref="HJ2:HL2"/>
+    <mergeCell ref="HM2:HO2"/>
+    <mergeCell ref="HP2:HR2"/>
+    <mergeCell ref="HS2:HU2"/>
+    <mergeCell ref="GX3:GZ3"/>
+    <mergeCell ref="HA3:HC3"/>
+    <mergeCell ref="HD3:HF3"/>
+    <mergeCell ref="HG3:HI3"/>
+    <mergeCell ref="HJ3:HL3"/>
+    <mergeCell ref="HM3:HO3"/>
+    <mergeCell ref="HP3:HR3"/>
+    <mergeCell ref="HS3:HU3"/>
+    <mergeCell ref="HV2:HX2"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="JL1:KC1"/>
+    <mergeCell ref="JL2:JN2"/>
+    <mergeCell ref="JO2:JQ2"/>
+    <mergeCell ref="JR2:JT2"/>
+    <mergeCell ref="JU2:JW2"/>
+    <mergeCell ref="JX2:JZ2"/>
+    <mergeCell ref="KA2:KC2"/>
+    <mergeCell ref="JL3:JN3"/>
+    <mergeCell ref="JO3:JQ3"/>
+    <mergeCell ref="JR3:JT3"/>
+    <mergeCell ref="JU3:JW3"/>
+    <mergeCell ref="JX3:JZ3"/>
+    <mergeCell ref="KA3:KC3"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="IN1:JK1"/>
     <mergeCell ref="EG2:EI2"/>
     <mergeCell ref="ED3:EF3"/>
     <mergeCell ref="EG3:EI3"/>
@@ -14676,572 +15245,23 @@
     <mergeCell ref="ES3:EU3"/>
     <mergeCell ref="EV2:EX2"/>
     <mergeCell ref="EV3:EX3"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="JL1:KC1"/>
-    <mergeCell ref="JL2:JN2"/>
-    <mergeCell ref="JO2:JQ2"/>
-    <mergeCell ref="JR2:JT2"/>
-    <mergeCell ref="JU2:JW2"/>
-    <mergeCell ref="JX2:JZ2"/>
-    <mergeCell ref="KA2:KC2"/>
-    <mergeCell ref="JL3:JN3"/>
-    <mergeCell ref="JO3:JQ3"/>
-    <mergeCell ref="JR3:JT3"/>
-    <mergeCell ref="JU3:JW3"/>
-    <mergeCell ref="JX3:JZ3"/>
-    <mergeCell ref="KA3:KC3"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="AS1:AX1"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="IN1:JK1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="HV1:IM1"/>
-    <mergeCell ref="GX1:HU1"/>
-    <mergeCell ref="GX2:GZ2"/>
-    <mergeCell ref="HA2:HC2"/>
-    <mergeCell ref="HD2:HF2"/>
-    <mergeCell ref="HG2:HI2"/>
-    <mergeCell ref="HJ2:HL2"/>
-    <mergeCell ref="HM2:HO2"/>
-    <mergeCell ref="HP2:HR2"/>
-    <mergeCell ref="HS2:HU2"/>
-    <mergeCell ref="GX3:GZ3"/>
-    <mergeCell ref="HA3:HC3"/>
-    <mergeCell ref="HD3:HF3"/>
-    <mergeCell ref="HG3:HI3"/>
-    <mergeCell ref="HJ3:HL3"/>
-    <mergeCell ref="HM3:HO3"/>
-    <mergeCell ref="HP3:HR3"/>
-    <mergeCell ref="HS3:HU3"/>
-    <mergeCell ref="HV2:HX2"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="T1:T4"/>
-    <mergeCell ref="U1:U4"/>
-    <mergeCell ref="V1:V4"/>
-    <mergeCell ref="W1:W4"/>
-    <mergeCell ref="X1:X4"/>
-    <mergeCell ref="Y1:Y4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="S1:S4"/>
-    <mergeCell ref="CK3:CM3"/>
-    <mergeCell ref="KD3:KF3"/>
-    <mergeCell ref="IH3:IJ3"/>
-    <mergeCell ref="IK3:IM3"/>
-    <mergeCell ref="CZ3:DB3"/>
-    <mergeCell ref="DC3:DE3"/>
-    <mergeCell ref="CH3:CJ3"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="DI3:DK3"/>
-    <mergeCell ref="DL3:DN3"/>
-    <mergeCell ref="DO3:DQ3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="IN3:IP3"/>
-    <mergeCell ref="IQ3:IS3"/>
-    <mergeCell ref="IT3:IV3"/>
-    <mergeCell ref="IW3:IY3"/>
-    <mergeCell ref="IZ3:JB3"/>
-    <mergeCell ref="JC3:JE3"/>
-    <mergeCell ref="JF3:JH3"/>
-    <mergeCell ref="JI3:JK3"/>
-    <mergeCell ref="FQ3:FS3"/>
-    <mergeCell ref="FT3:FV3"/>
-    <mergeCell ref="FW3:FY3"/>
-    <mergeCell ref="EJ3:EL3"/>
-    <mergeCell ref="BY3:CC3"/>
-    <mergeCell ref="CD3:CG3"/>
-    <mergeCell ref="EM3:EO3"/>
-    <mergeCell ref="CN1:CS1"/>
-    <mergeCell ref="CN2:CP2"/>
-    <mergeCell ref="CQ2:CS2"/>
-    <mergeCell ref="CN3:CP3"/>
-    <mergeCell ref="CQ3:CS3"/>
-    <mergeCell ref="DU1:EC1"/>
-    <mergeCell ref="DU2:DW2"/>
-    <mergeCell ref="DX2:DZ2"/>
-    <mergeCell ref="EA2:EC2"/>
-    <mergeCell ref="DU3:DW3"/>
-    <mergeCell ref="DX3:DZ3"/>
-    <mergeCell ref="EA3:EC3"/>
-    <mergeCell ref="CT1:CY1"/>
-    <mergeCell ref="CT2:CV2"/>
-    <mergeCell ref="CW2:CY2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CY3"/>
-    <mergeCell ref="ED1:EI1"/>
-    <mergeCell ref="ED2:EF2"/>
-    <mergeCell ref="EJ1:EX1"/>
-    <mergeCell ref="ES2:EU2"/>
-    <mergeCell ref="ACP1:ACP4"/>
-    <mergeCell ref="ABV1:ABV4"/>
-    <mergeCell ref="ABU1:ABU4"/>
-    <mergeCell ref="ABS1:ABS4"/>
-    <mergeCell ref="ABT1:ABT4"/>
-    <mergeCell ref="NO3:NR3"/>
-    <mergeCell ref="YV3:YY3"/>
-    <mergeCell ref="YZ3:ZB3"/>
-    <mergeCell ref="NO2:NR2"/>
-    <mergeCell ref="YV1:ZB1"/>
-    <mergeCell ref="YV2:YY2"/>
-    <mergeCell ref="YZ2:ZB2"/>
-    <mergeCell ref="AAP1:AAR2"/>
-    <mergeCell ref="AAR3:AAR4"/>
-    <mergeCell ref="AAQ3:AAQ4"/>
-    <mergeCell ref="AAP3:AAP4"/>
-    <mergeCell ref="AAS1:AAU2"/>
-    <mergeCell ref="AAU3:AAU4"/>
-    <mergeCell ref="AAT3:AAT4"/>
-    <mergeCell ref="MX1:NR1"/>
-    <mergeCell ref="MX3:NA3"/>
-    <mergeCell ref="NB3:NE3"/>
-    <mergeCell ref="NF3:NI3"/>
-    <mergeCell ref="ZS1:ZU2"/>
-    <mergeCell ref="BQ3:BT3"/>
-    <mergeCell ref="BU3:BX3"/>
-    <mergeCell ref="ABP1:ABP4"/>
-    <mergeCell ref="BQ2:BT2"/>
-    <mergeCell ref="BU2:BX2"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="CD2:CG2"/>
-    <mergeCell ref="MX2:NA2"/>
-    <mergeCell ref="NB2:NE2"/>
-    <mergeCell ref="NF2:NI2"/>
-    <mergeCell ref="BQ1:CG1"/>
-    <mergeCell ref="CZ1:DK1"/>
-    <mergeCell ref="CZ2:DB2"/>
-    <mergeCell ref="DC2:DE2"/>
-    <mergeCell ref="CH2:CJ2"/>
-    <mergeCell ref="CK2:CM2"/>
-    <mergeCell ref="CH1:CM1"/>
-    <mergeCell ref="DF2:DH2"/>
-    <mergeCell ref="DI2:DK2"/>
-    <mergeCell ref="DL1:DT1"/>
-    <mergeCell ref="DL2:DN2"/>
-    <mergeCell ref="DO2:DQ2"/>
-    <mergeCell ref="DR2:DT2"/>
-    <mergeCell ref="EJ2:EL2"/>
-    <mergeCell ref="ABO3:ABO4"/>
-    <mergeCell ref="ABQ1:ABQ4"/>
-    <mergeCell ref="ABR1:ABR4"/>
-    <mergeCell ref="ABK3:ABK4"/>
-    <mergeCell ref="ABJ3:ABJ4"/>
-    <mergeCell ref="ABI3:ABI4"/>
-    <mergeCell ref="ABI1:ABL2"/>
-    <mergeCell ref="ABB3:ABB4"/>
-    <mergeCell ref="ABC3:ABC4"/>
-    <mergeCell ref="NJ2:NN2"/>
-    <mergeCell ref="HY2:IA2"/>
-    <mergeCell ref="IB2:ID2"/>
-    <mergeCell ref="IE2:IG2"/>
-    <mergeCell ref="IH2:IJ2"/>
-    <mergeCell ref="IK2:IM2"/>
-    <mergeCell ref="HV3:HX3"/>
-    <mergeCell ref="HY3:IA3"/>
-    <mergeCell ref="IB3:ID3"/>
-    <mergeCell ref="IE3:IG3"/>
-    <mergeCell ref="LZ3:MB3"/>
-    <mergeCell ref="IN2:IP2"/>
-    <mergeCell ref="IQ2:IS2"/>
-    <mergeCell ref="IT2:IV2"/>
-    <mergeCell ref="IW2:IY2"/>
-    <mergeCell ref="MC3:ME3"/>
-    <mergeCell ref="KS3:KU3"/>
-    <mergeCell ref="KP3:KR3"/>
-    <mergeCell ref="KS2:KU2"/>
-    <mergeCell ref="EY1:FG1"/>
-    <mergeCell ref="EY2:FA2"/>
-    <mergeCell ref="FB2:FD2"/>
-    <mergeCell ref="EY3:FA3"/>
-    <mergeCell ref="FB3:FD3"/>
-    <mergeCell ref="FE2:FG2"/>
-    <mergeCell ref="FE3:FG3"/>
-    <mergeCell ref="ACR1:ACR4"/>
-    <mergeCell ref="ABF1:ABH2"/>
-    <mergeCell ref="ABF3:ABF4"/>
-    <mergeCell ref="ABH3:ABH4"/>
-    <mergeCell ref="QI3:QK3"/>
-    <mergeCell ref="QL3:QN3"/>
-    <mergeCell ref="QO3:QQ3"/>
-    <mergeCell ref="QR2:QT2"/>
-    <mergeCell ref="QY2:RA2"/>
-    <mergeCell ref="QR3:QT3"/>
-    <mergeCell ref="QY3:RA3"/>
-    <mergeCell ref="ZY3:ZY4"/>
-    <mergeCell ref="QI1:RA1"/>
-    <mergeCell ref="ABW1:ABW4"/>
-    <mergeCell ref="ABX1:ABX4"/>
-    <mergeCell ref="ABY1:ABY4"/>
-    <mergeCell ref="ABZ1:ABZ4"/>
-    <mergeCell ref="ACA1:ACA4"/>
-    <mergeCell ref="ACM1:ACM4"/>
-    <mergeCell ref="ACN1:ACN4"/>
-    <mergeCell ref="ABG3:ABG4"/>
-    <mergeCell ref="ABM1:ABO2"/>
-    <mergeCell ref="ABM3:ABM4"/>
-    <mergeCell ref="ABN3:ABN4"/>
-    <mergeCell ref="AAM1:AAO2"/>
-    <mergeCell ref="ABB1:ABE2"/>
-    <mergeCell ref="AAY1:ABA2"/>
-    <mergeCell ref="ABA3:ABA4"/>
-    <mergeCell ref="AAZ3:AAZ4"/>
-    <mergeCell ref="AAY3:AAY4"/>
-    <mergeCell ref="ACC3:ACC4"/>
-    <mergeCell ref="ACB3:ACB4"/>
-    <mergeCell ref="ACB1:ACC2"/>
-    <mergeCell ref="ACL1:ACL4"/>
-    <mergeCell ref="ACK1:ACK4"/>
-    <mergeCell ref="ACJ1:ACJ4"/>
-    <mergeCell ref="ACI1:ACI4"/>
-    <mergeCell ref="ACH1:ACH4"/>
-    <mergeCell ref="ACG1:ACG4"/>
-    <mergeCell ref="ACF1:ACF4"/>
-    <mergeCell ref="ACE1:ACE4"/>
-    <mergeCell ref="AAV1:AAX2"/>
-    <mergeCell ref="AAX3:AAX4"/>
-    <mergeCell ref="AAW3:AAW4"/>
-    <mergeCell ref="AAV3:AAV4"/>
-    <mergeCell ref="UI2:UK2"/>
-    <mergeCell ref="UF2:UH2"/>
-    <mergeCell ref="UL3:UN3"/>
-    <mergeCell ref="UI3:UK3"/>
-    <mergeCell ref="TS2:TV2"/>
-    <mergeCell ref="TS3:TV3"/>
-    <mergeCell ref="TW2:TY2"/>
-    <mergeCell ref="TW3:TY3"/>
-    <mergeCell ref="TZ3:UB3"/>
-    <mergeCell ref="TS1:UN1"/>
-    <mergeCell ref="AAM3:AAM4"/>
-    <mergeCell ref="AAN3:AAN4"/>
-    <mergeCell ref="AAO3:AAO4"/>
-    <mergeCell ref="ZM3:ZM4"/>
-    <mergeCell ref="ZN3:ZN4"/>
-    <mergeCell ref="AAS3:AAS4"/>
-    <mergeCell ref="AAI3:AAI4"/>
-    <mergeCell ref="AAG1:AAI2"/>
-    <mergeCell ref="VS2:VU2"/>
-    <mergeCell ref="VV2:VX2"/>
-    <mergeCell ref="RQ3:RS3"/>
-    <mergeCell ref="RT3:RV3"/>
-    <mergeCell ref="NJ3:NN3"/>
-    <mergeCell ref="ACO1:ACO4"/>
-    <mergeCell ref="ACQ1:ACQ4"/>
-    <mergeCell ref="ABL3:ABL4"/>
-    <mergeCell ref="OM2:OO2"/>
-    <mergeCell ref="OF3:OH3"/>
-    <mergeCell ref="OI3:OL3"/>
-    <mergeCell ref="OM3:OO3"/>
-    <mergeCell ref="RE2:RG2"/>
-    <mergeCell ref="RB3:RD3"/>
-    <mergeCell ref="RE3:RG3"/>
-    <mergeCell ref="QC3:QE3"/>
-    <mergeCell ref="QF3:QH3"/>
-    <mergeCell ref="PN2:PP2"/>
-    <mergeCell ref="PQ2:PS2"/>
-    <mergeCell ref="PT2:PV2"/>
-    <mergeCell ref="PW2:PY2"/>
-    <mergeCell ref="PZ2:QB2"/>
-    <mergeCell ref="QC2:QE2"/>
-    <mergeCell ref="AAG3:AAG4"/>
-    <mergeCell ref="AAH3:AAH4"/>
-    <mergeCell ref="ZM1:ZO2"/>
-    <mergeCell ref="RH2:RJ2"/>
-    <mergeCell ref="RK2:RM2"/>
-    <mergeCell ref="RN2:RP2"/>
-    <mergeCell ref="RH3:RJ3"/>
-    <mergeCell ref="RK3:RM3"/>
-    <mergeCell ref="RN3:RP3"/>
-    <mergeCell ref="AAB3:AAB4"/>
-    <mergeCell ref="ZI3:ZI4"/>
-    <mergeCell ref="ZL3:ZL4"/>
-    <mergeCell ref="ZI1:ZL2"/>
-    <mergeCell ref="ZS3:ZS4"/>
-    <mergeCell ref="ZT3:ZT4"/>
-    <mergeCell ref="ZU3:ZU4"/>
-    <mergeCell ref="RB1:RV1"/>
-    <mergeCell ref="RB2:RD2"/>
-    <mergeCell ref="TZ2:UB2"/>
-    <mergeCell ref="UC3:UE3"/>
-    <mergeCell ref="UC2:UE2"/>
-    <mergeCell ref="YJ3:YL3"/>
-    <mergeCell ref="YM3:YO3"/>
-    <mergeCell ref="ZF1:ZH2"/>
-    <mergeCell ref="ZF3:ZF4"/>
-    <mergeCell ref="VG3:VI3"/>
-    <mergeCell ref="VJ2:VL2"/>
-    <mergeCell ref="OP1:PJ1"/>
-    <mergeCell ref="OP2:OR2"/>
-    <mergeCell ref="VA3:VC3"/>
-    <mergeCell ref="VD2:VF2"/>
-    <mergeCell ref="VD3:VF3"/>
-    <mergeCell ref="UO1:VO1"/>
-    <mergeCell ref="UO2:UQ2"/>
-    <mergeCell ref="UR2:UT2"/>
-    <mergeCell ref="UU2:UW2"/>
-    <mergeCell ref="UO3:UQ3"/>
-    <mergeCell ref="UR3:UT3"/>
-    <mergeCell ref="UU3:UW3"/>
-    <mergeCell ref="UX2:UZ2"/>
-    <mergeCell ref="VA2:VC2"/>
-    <mergeCell ref="UX3:UZ3"/>
-    <mergeCell ref="RW1:SW1"/>
-    <mergeCell ref="RW2:RY2"/>
-    <mergeCell ref="OS2:OU2"/>
-    <mergeCell ref="OP3:OR3"/>
-    <mergeCell ref="OS3:OU3"/>
-    <mergeCell ref="RQ2:RS2"/>
-    <mergeCell ref="RT2:RV2"/>
-    <mergeCell ref="QU2:QX2"/>
-    <mergeCell ref="QU3:QX3"/>
-    <mergeCell ref="FQ1:FY1"/>
-    <mergeCell ref="FQ2:FS2"/>
-    <mergeCell ref="FT2:FV2"/>
-    <mergeCell ref="FW2:FY2"/>
-    <mergeCell ref="ABD3:ABD4"/>
-    <mergeCell ref="ABE3:ABE4"/>
-    <mergeCell ref="YP1:YU1"/>
-    <mergeCell ref="YP3:YR3"/>
-    <mergeCell ref="YS3:YU3"/>
-    <mergeCell ref="YP2:YR2"/>
-    <mergeCell ref="PE2:PG2"/>
-    <mergeCell ref="PH2:PJ2"/>
-    <mergeCell ref="OV3:OX3"/>
-    <mergeCell ref="OY3:PA3"/>
-    <mergeCell ref="PB3:PD3"/>
-    <mergeCell ref="PE3:PG3"/>
-    <mergeCell ref="PH3:PJ3"/>
-    <mergeCell ref="OV2:OX2"/>
-    <mergeCell ref="OY2:PA2"/>
-    <mergeCell ref="PB2:PD2"/>
-    <mergeCell ref="VM2:VO2"/>
-    <mergeCell ref="VJ3:VL3"/>
-    <mergeCell ref="VM3:VO3"/>
-    <mergeCell ref="VG2:VI2"/>
-    <mergeCell ref="FN3:FP3"/>
-    <mergeCell ref="MO3:MQ3"/>
-    <mergeCell ref="MR3:MT3"/>
-    <mergeCell ref="MO2:MQ2"/>
-    <mergeCell ref="MR2:MT2"/>
-    <mergeCell ref="IZ2:JB2"/>
-    <mergeCell ref="JC2:JE2"/>
-    <mergeCell ref="JF2:JH2"/>
-    <mergeCell ref="JI2:JK2"/>
-    <mergeCell ref="LB2:LD2"/>
-    <mergeCell ref="LB3:LD3"/>
-    <mergeCell ref="GR3:GT3"/>
-    <mergeCell ref="GU3:GW3"/>
-    <mergeCell ref="GC2:GE2"/>
-    <mergeCell ref="GF2:GH2"/>
-    <mergeCell ref="GI2:GK2"/>
-    <mergeCell ref="GL2:GN2"/>
-    <mergeCell ref="GO2:GQ2"/>
-    <mergeCell ref="GR2:GT2"/>
-    <mergeCell ref="GO3:GQ3"/>
-    <mergeCell ref="KV2:KX2"/>
-    <mergeCell ref="KY2:LA2"/>
-    <mergeCell ref="MC2:ME2"/>
-    <mergeCell ref="LW3:LY3"/>
-    <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="KG2:KI2"/>
-    <mergeCell ref="KJ2:KL2"/>
-    <mergeCell ref="KM2:KO2"/>
-    <mergeCell ref="KM3:KO3"/>
-    <mergeCell ref="KJ3:KL3"/>
-    <mergeCell ref="KG3:KI3"/>
-    <mergeCell ref="KD1:KO1"/>
-    <mergeCell ref="KD2:KF2"/>
-    <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="FH1:FP1"/>
-    <mergeCell ref="FH2:FJ2"/>
-    <mergeCell ref="FK2:FM2"/>
-    <mergeCell ref="FN2:FP2"/>
-    <mergeCell ref="FH3:FJ3"/>
-    <mergeCell ref="FK3:FM3"/>
-    <mergeCell ref="VP3:VR3"/>
-    <mergeCell ref="RW3:RY3"/>
-    <mergeCell ref="RZ3:SB3"/>
-    <mergeCell ref="SC3:SE3"/>
-    <mergeCell ref="SF2:SH2"/>
-    <mergeCell ref="SF3:SH3"/>
-    <mergeCell ref="SR2:ST2"/>
-    <mergeCell ref="UL2:UN2"/>
-    <mergeCell ref="RZ2:SB2"/>
-    <mergeCell ref="SC2:SE2"/>
-    <mergeCell ref="SU2:SW2"/>
-    <mergeCell ref="SO3:SQ3"/>
-    <mergeCell ref="SR3:ST3"/>
-    <mergeCell ref="SU3:SW3"/>
-    <mergeCell ref="SI2:SK2"/>
-    <mergeCell ref="SL2:SN2"/>
-    <mergeCell ref="SI3:SK3"/>
-    <mergeCell ref="SL3:SN3"/>
-    <mergeCell ref="SO2:SQ2"/>
-    <mergeCell ref="UF3:UH3"/>
-    <mergeCell ref="WK2:WM2"/>
-    <mergeCell ref="WN2:WP2"/>
-    <mergeCell ref="VY3:WA3"/>
-    <mergeCell ref="WB3:WD3"/>
-    <mergeCell ref="WE3:WG3"/>
-    <mergeCell ref="WH3:WJ3"/>
-    <mergeCell ref="WK3:WM3"/>
-    <mergeCell ref="WN3:WP3"/>
-    <mergeCell ref="WZ3:XB3"/>
-    <mergeCell ref="WQ2:WS2"/>
-    <mergeCell ref="XI3:XK3"/>
-    <mergeCell ref="XL3:XN3"/>
-    <mergeCell ref="WT2:WV2"/>
-    <mergeCell ref="WW2:WY2"/>
-    <mergeCell ref="WZ2:XB2"/>
-    <mergeCell ref="XC2:XE2"/>
-    <mergeCell ref="XF2:XH2"/>
-    <mergeCell ref="XI2:XK2"/>
-    <mergeCell ref="XC3:XE3"/>
-    <mergeCell ref="XL2:XN2"/>
-    <mergeCell ref="NS3:NV3"/>
-    <mergeCell ref="NW3:NY3"/>
-    <mergeCell ref="NZ2:OB2"/>
-    <mergeCell ref="ZC1:ZE1"/>
-    <mergeCell ref="ZC2:ZE2"/>
-    <mergeCell ref="ZC3:ZE3"/>
-    <mergeCell ref="ZV1:ZX2"/>
-    <mergeCell ref="AAC3:AAC4"/>
-    <mergeCell ref="ZY1:AAC2"/>
-    <mergeCell ref="ZG3:ZG4"/>
-    <mergeCell ref="ZO3:ZO4"/>
-    <mergeCell ref="VS3:VU3"/>
-    <mergeCell ref="VV3:VX3"/>
-    <mergeCell ref="VY2:WA2"/>
-    <mergeCell ref="WB2:WD2"/>
-    <mergeCell ref="WE2:WG2"/>
-    <mergeCell ref="WH2:WJ2"/>
-    <mergeCell ref="ZP1:ZR2"/>
-    <mergeCell ref="ZR3:ZR4"/>
-    <mergeCell ref="ZQ3:ZQ4"/>
-    <mergeCell ref="ZP3:ZP4"/>
-    <mergeCell ref="VP1:WP1"/>
-    <mergeCell ref="VP2:VR2"/>
-    <mergeCell ref="XF3:XH3"/>
-    <mergeCell ref="AAJ1:AAL2"/>
-    <mergeCell ref="AAL3:AAL4"/>
-    <mergeCell ref="AAK3:AAK4"/>
-    <mergeCell ref="AAJ3:AAJ4"/>
-    <mergeCell ref="AAF3:AAF4"/>
-    <mergeCell ref="AAE3:AAE4"/>
-    <mergeCell ref="AAD3:AAD4"/>
-    <mergeCell ref="AAD1:AAF2"/>
-    <mergeCell ref="YS2:YU2"/>
-    <mergeCell ref="ZW3:ZW4"/>
-    <mergeCell ref="ZV3:ZV4"/>
-    <mergeCell ref="ZX3:ZX4"/>
-    <mergeCell ref="ZZ3:ZZ4"/>
-    <mergeCell ref="AAA3:AAA4"/>
-    <mergeCell ref="ZJ3:ZJ4"/>
-    <mergeCell ref="ZK3:ZK4"/>
-    <mergeCell ref="ZH3:ZH4"/>
-    <mergeCell ref="WQ1:XN1"/>
-    <mergeCell ref="WQ3:WS3"/>
-    <mergeCell ref="WT3:WV3"/>
-    <mergeCell ref="WW3:WY3"/>
-    <mergeCell ref="GL3:GN3"/>
-    <mergeCell ref="QI2:QK2"/>
-    <mergeCell ref="QL2:QN2"/>
-    <mergeCell ref="QO2:QQ2"/>
-    <mergeCell ref="LE1:LV1"/>
-    <mergeCell ref="QF2:QH2"/>
-    <mergeCell ref="PK3:PM3"/>
-    <mergeCell ref="PN3:PP3"/>
-    <mergeCell ref="PQ3:PS3"/>
-    <mergeCell ref="PT3:PV3"/>
-    <mergeCell ref="PW3:PY3"/>
-    <mergeCell ref="PZ3:QB3"/>
-    <mergeCell ref="NS2:NV2"/>
-    <mergeCell ref="NW2:NY2"/>
-    <mergeCell ref="MU3:MW3"/>
-    <mergeCell ref="MU2:MW2"/>
-    <mergeCell ref="NS1:OO1"/>
-    <mergeCell ref="OC2:OE2"/>
-    <mergeCell ref="NZ3:OB3"/>
-    <mergeCell ref="OC3:OE3"/>
-    <mergeCell ref="PK1:QH1"/>
-    <mergeCell ref="PK2:PM2"/>
-    <mergeCell ref="OF2:OH2"/>
-    <mergeCell ref="OI2:OL2"/>
-    <mergeCell ref="GU2:GW2"/>
-    <mergeCell ref="FZ3:GB3"/>
-    <mergeCell ref="BK1:BP1"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="BN2:BP2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="LW1:MW1"/>
-    <mergeCell ref="LN2:LP2"/>
-    <mergeCell ref="LQ2:LS2"/>
-    <mergeCell ref="LT2:LV2"/>
-    <mergeCell ref="LN3:LP3"/>
-    <mergeCell ref="LQ3:LS3"/>
-    <mergeCell ref="LT3:LV3"/>
-    <mergeCell ref="LE2:LG2"/>
-    <mergeCell ref="LH2:LJ2"/>
-    <mergeCell ref="LK2:LM2"/>
-    <mergeCell ref="LE3:LG3"/>
-    <mergeCell ref="LH3:LJ3"/>
-    <mergeCell ref="LK3:LM3"/>
-    <mergeCell ref="GC3:GE3"/>
-    <mergeCell ref="GF3:GH3"/>
-    <mergeCell ref="GI3:GK3"/>
-    <mergeCell ref="ACD1:ACD4"/>
-    <mergeCell ref="ACW1:ACX1"/>
-    <mergeCell ref="AY1:BD1"/>
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="BB2:BD2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="FZ2:GB2"/>
-    <mergeCell ref="MF3:MH3"/>
-    <mergeCell ref="MI3:MK3"/>
-    <mergeCell ref="ML3:MN3"/>
-    <mergeCell ref="MF2:MH2"/>
-    <mergeCell ref="MI2:MK2"/>
-    <mergeCell ref="ML2:MN2"/>
-    <mergeCell ref="LW2:LY2"/>
-    <mergeCell ref="LZ2:MB2"/>
-    <mergeCell ref="FZ1:GW1"/>
-    <mergeCell ref="KP1:LD1"/>
-    <mergeCell ref="KP2:KR2"/>
-    <mergeCell ref="KY3:LA3"/>
-    <mergeCell ref="KV3:KX3"/>
+    <mergeCell ref="XO3:XQ3"/>
+    <mergeCell ref="XR3:XT3"/>
+    <mergeCell ref="XU3:XW3"/>
+    <mergeCell ref="XX3:XZ3"/>
+    <mergeCell ref="YA3:YC3"/>
+    <mergeCell ref="YD3:YF3"/>
+    <mergeCell ref="XO1:YO1"/>
+    <mergeCell ref="XO2:XQ2"/>
+    <mergeCell ref="XR2:XT2"/>
+    <mergeCell ref="XU2:XW2"/>
+    <mergeCell ref="XX2:XZ2"/>
+    <mergeCell ref="YA2:YC2"/>
+    <mergeCell ref="YD2:YF2"/>
+    <mergeCell ref="YG2:YI2"/>
+    <mergeCell ref="YJ2:YL2"/>
+    <mergeCell ref="YM2:YO2"/>
+    <mergeCell ref="YG3:YI3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C4">
     <cfRule type="duplicateValues" dxfId="219" priority="30"/>
@@ -15410,122 +15430,122 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="475" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="475" t="s">
+      <c r="A2" s="479" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="479" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="475" t="s">
+      <c r="C2" s="479" t="s">
         <v>305</v>
       </c>
-      <c r="D2" s="474" t="s">
+      <c r="D2" s="481" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="475" t="s">
+      <c r="E2" s="479" t="s">
         <v>307</v>
       </c>
-      <c r="F2" s="472" t="s">
+      <c r="F2" s="482" t="s">
         <v>308</v>
       </c>
-      <c r="G2" s="474" t="s">
+      <c r="G2" s="481" t="s">
         <v>309</v>
       </c>
-      <c r="H2" s="475" t="s">
+      <c r="H2" s="479" t="s">
         <v>310</v>
       </c>
-      <c r="I2" s="472" t="s">
+      <c r="I2" s="482" t="s">
         <v>311</v>
       </c>
-      <c r="J2" s="482" t="s">
+      <c r="J2" s="484" t="s">
         <v>312</v>
       </c>
-      <c r="K2" s="483"/>
-      <c r="L2" s="475" t="s">
+      <c r="K2" s="485"/>
+      <c r="L2" s="479" t="s">
         <v>313</v>
       </c>
-      <c r="M2" s="475" t="s">
+      <c r="M2" s="479" t="s">
         <v>314</v>
       </c>
-      <c r="N2" s="475" t="s">
+      <c r="N2" s="479" t="s">
         <v>315</v>
       </c>
-      <c r="O2" s="475" t="s">
+      <c r="O2" s="479" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="475" t="s">
+      <c r="P2" s="479" t="s">
         <v>316</v>
       </c>
-      <c r="Q2" s="475" t="s">
+      <c r="Q2" s="479" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="474" t="s">
+      <c r="R2" s="481" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="474" t="s">
+      <c r="S2" s="481" t="s">
         <v>317</v>
       </c>
-      <c r="T2" s="475" t="s">
+      <c r="T2" s="479" t="s">
         <v>318</v>
       </c>
-      <c r="U2" s="477" t="s">
+      <c r="U2" s="486" t="s">
         <v>319</v>
       </c>
-      <c r="V2" s="479" t="s">
+      <c r="V2" s="488" t="s">
         <v>320</v>
       </c>
-      <c r="W2" s="475" t="s">
+      <c r="W2" s="479" t="s">
         <v>321</v>
       </c>
-      <c r="X2" s="480" t="s">
+      <c r="X2" s="489" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="475" t="s">
+      <c r="Y2" s="479" t="s">
         <v>322</v>
       </c>
-      <c r="Z2" s="472" t="s">
+      <c r="Z2" s="482" t="s">
         <v>323</v>
       </c>
-      <c r="AA2" s="474" t="s">
+      <c r="AA2" s="481" t="s">
         <v>324</v>
       </c>
-      <c r="AB2" s="475" t="s">
+      <c r="AB2" s="479" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="476"/>
-      <c r="B3" s="476"/>
-      <c r="C3" s="476"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="476"/>
-      <c r="F3" s="473"/>
-      <c r="G3" s="474"/>
-      <c r="H3" s="476"/>
-      <c r="I3" s="473"/>
+      <c r="A3" s="480"/>
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="481"/>
+      <c r="E3" s="480"/>
+      <c r="F3" s="483"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="480"/>
+      <c r="I3" s="483"/>
       <c r="J3" s="176" t="s">
         <v>325</v>
       </c>
       <c r="K3" s="176" t="s">
         <v>326</v>
       </c>
-      <c r="L3" s="476"/>
-      <c r="M3" s="476"/>
-      <c r="N3" s="476"/>
-      <c r="O3" s="476"/>
-      <c r="P3" s="476"/>
-      <c r="Q3" s="476"/>
-      <c r="R3" s="474"/>
-      <c r="S3" s="474"/>
-      <c r="T3" s="476"/>
-      <c r="U3" s="478"/>
-      <c r="V3" s="478"/>
-      <c r="W3" s="476"/>
-      <c r="X3" s="481"/>
-      <c r="Y3" s="476"/>
-      <c r="Z3" s="473"/>
-      <c r="AA3" s="474"/>
-      <c r="AB3" s="476"/>
+      <c r="L3" s="480"/>
+      <c r="M3" s="480"/>
+      <c r="N3" s="480"/>
+      <c r="O3" s="480"/>
+      <c r="P3" s="480"/>
+      <c r="Q3" s="480"/>
+      <c r="R3" s="481"/>
+      <c r="S3" s="481"/>
+      <c r="T3" s="480"/>
+      <c r="U3" s="487"/>
+      <c r="V3" s="487"/>
+      <c r="W3" s="480"/>
+      <c r="X3" s="490"/>
+      <c r="Y3" s="480"/>
+      <c r="Z3" s="483"/>
+      <c r="AA3" s="481"/>
+      <c r="AB3" s="480"/>
     </row>
     <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
@@ -47412,11 +47432,15 @@
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
   <mergeCells count="27">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="H2:H3"/>
@@ -47430,15 +47454,11 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="F407">
     <cfRule type="duplicateValues" dxfId="203" priority="99"/>
@@ -47795,170 +47815,170 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="453" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="453" t="s">
+      <c r="A2" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="353" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="462" t="s">
+      <c r="C2" s="354" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="453" t="s">
+      <c r="D2" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="453" t="s">
+      <c r="E2" s="353" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="453" t="s">
+      <c r="F2" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="453" t="s">
+      <c r="G2" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="453" t="s">
+      <c r="H2" s="353" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="453" t="s">
+      <c r="I2" s="353" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="453" t="s">
+      <c r="J2" s="353" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="446" t="s">
+      <c r="K2" s="356" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="453" t="s">
+      <c r="L2" s="353" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="453" t="s">
+      <c r="M2" s="353" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="453" t="s">
+      <c r="N2" s="353" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="453" t="s">
+      <c r="O2" s="353" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="455" t="s">
+      <c r="P2" s="381" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="489" t="s">
+      <c r="Q2" s="492" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="488" t="s">
+      <c r="R2" s="491" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="443" t="s">
+      <c r="S2" s="380" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="484" t="s">
+      <c r="T2" s="494" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="450" t="s">
+      <c r="U2" s="387" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="443" t="s">
+      <c r="V2" s="380" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="443"/>
-      <c r="X2" s="486" t="s">
+      <c r="W2" s="380"/>
+      <c r="X2" s="496" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="455" t="s">
+      <c r="Y2" s="381" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="453" t="s">
+      <c r="Z2" s="353" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="453"/>
-      <c r="B3" s="453"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="453"/>
-      <c r="E3" s="453"/>
-      <c r="F3" s="453"/>
-      <c r="G3" s="453"/>
-      <c r="H3" s="453"/>
-      <c r="I3" s="453"/>
-      <c r="J3" s="453"/>
-      <c r="K3" s="446"/>
-      <c r="L3" s="453"/>
-      <c r="M3" s="453"/>
-      <c r="N3" s="453"/>
-      <c r="O3" s="453"/>
-      <c r="P3" s="455"/>
-      <c r="Q3" s="490"/>
-      <c r="R3" s="488"/>
-      <c r="S3" s="443"/>
-      <c r="T3" s="485"/>
-      <c r="U3" s="450"/>
-      <c r="V3" s="443"/>
-      <c r="W3" s="443"/>
-      <c r="X3" s="487"/>
-      <c r="Y3" s="455"/>
-      <c r="Z3" s="453"/>
+      <c r="A3" s="353"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="356"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="381"/>
+      <c r="Q3" s="493"/>
+      <c r="R3" s="491"/>
+      <c r="S3" s="380"/>
+      <c r="T3" s="495"/>
+      <c r="U3" s="387"/>
+      <c r="V3" s="380"/>
+      <c r="W3" s="380"/>
+      <c r="X3" s="497"/>
+      <c r="Y3" s="381"/>
+      <c r="Z3" s="353"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="453"/>
-      <c r="B4" s="453"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="453"/>
-      <c r="E4" s="453"/>
-      <c r="F4" s="453"/>
-      <c r="G4" s="453"/>
-      <c r="H4" s="453"/>
-      <c r="I4" s="453"/>
-      <c r="J4" s="453"/>
-      <c r="K4" s="446"/>
-      <c r="L4" s="453"/>
-      <c r="M4" s="453"/>
-      <c r="N4" s="453"/>
-      <c r="O4" s="453"/>
-      <c r="P4" s="455"/>
-      <c r="Q4" s="490"/>
-      <c r="R4" s="488"/>
-      <c r="S4" s="443"/>
-      <c r="T4" s="485"/>
-      <c r="U4" s="450"/>
-      <c r="V4" s="443"/>
-      <c r="W4" s="443"/>
-      <c r="X4" s="487"/>
-      <c r="Y4" s="455"/>
-      <c r="Z4" s="453"/>
+      <c r="A4" s="353"/>
+      <c r="B4" s="353"/>
+      <c r="C4" s="354"/>
+      <c r="D4" s="353"/>
+      <c r="E4" s="353"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="353"/>
+      <c r="I4" s="353"/>
+      <c r="J4" s="353"/>
+      <c r="K4" s="356"/>
+      <c r="L4" s="353"/>
+      <c r="M4" s="353"/>
+      <c r="N4" s="353"/>
+      <c r="O4" s="353"/>
+      <c r="P4" s="381"/>
+      <c r="Q4" s="493"/>
+      <c r="R4" s="491"/>
+      <c r="S4" s="380"/>
+      <c r="T4" s="495"/>
+      <c r="U4" s="387"/>
+      <c r="V4" s="380"/>
+      <c r="W4" s="380"/>
+      <c r="X4" s="497"/>
+      <c r="Y4" s="381"/>
+      <c r="Z4" s="353"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="453"/>
-      <c r="B5" s="453"/>
-      <c r="C5" s="462"/>
-      <c r="D5" s="453"/>
-      <c r="E5" s="453"/>
-      <c r="F5" s="453"/>
-      <c r="G5" s="453"/>
-      <c r="H5" s="453"/>
-      <c r="I5" s="453"/>
-      <c r="J5" s="453"/>
-      <c r="K5" s="446"/>
-      <c r="L5" s="453"/>
-      <c r="M5" s="453"/>
-      <c r="N5" s="453"/>
-      <c r="O5" s="453"/>
-      <c r="P5" s="455"/>
-      <c r="Q5" s="490"/>
-      <c r="R5" s="488"/>
-      <c r="S5" s="443"/>
-      <c r="T5" s="485"/>
-      <c r="U5" s="450"/>
+      <c r="A5" s="353"/>
+      <c r="B5" s="353"/>
+      <c r="C5" s="354"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="353"/>
+      <c r="F5" s="353"/>
+      <c r="G5" s="353"/>
+      <c r="H5" s="353"/>
+      <c r="I5" s="353"/>
+      <c r="J5" s="353"/>
+      <c r="K5" s="356"/>
+      <c r="L5" s="353"/>
+      <c r="M5" s="353"/>
+      <c r="N5" s="353"/>
+      <c r="O5" s="353"/>
+      <c r="P5" s="381"/>
+      <c r="Q5" s="493"/>
+      <c r="R5" s="491"/>
+      <c r="S5" s="380"/>
+      <c r="T5" s="495"/>
+      <c r="U5" s="387"/>
       <c r="V5" s="211" t="s">
         <v>35</v>
       </c>
       <c r="W5" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="487"/>
-      <c r="Y5" s="455"/>
-      <c r="Z5" s="453"/>
+      <c r="X5" s="497"/>
+      <c r="Y5" s="381"/>
+      <c r="Z5" s="353"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="213">
@@ -66409,12 +66429,13 @@
   </sheetData>
   <autoFilter ref="B2:D5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="25">
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:W4"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="Y2:Y5"/>
     <mergeCell ref="R2:R5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
@@ -66427,13 +66448,12 @@
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="P2:P5"/>
     <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:W4"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B5">
     <cfRule type="duplicateValues" dxfId="109" priority="102"/>
@@ -66869,155 +66889,155 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="510" t="s">
+      <c r="A2" s="501" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="513" t="s">
+      <c r="B2" s="504" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="513" t="s">
+      <c r="C2" s="504" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="513" t="s">
+      <c r="D2" s="504" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="513" t="s">
+      <c r="E2" s="504" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="516" t="s">
+      <c r="F2" s="507" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="516" t="s">
+      <c r="G2" s="507" t="s">
         <v>1373</v>
       </c>
-      <c r="H2" s="516" t="s">
+      <c r="H2" s="507" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="516" t="s">
+      <c r="I2" s="507" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="516" t="s">
+      <c r="J2" s="507" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="507" t="s">
+      <c r="K2" s="498" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="507" t="s">
+      <c r="L2" s="498" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="507" t="s">
+      <c r="M2" s="498" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="507" t="s">
+      <c r="N2" s="498" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="507" t="s">
+      <c r="O2" s="498" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="507" t="s">
+      <c r="P2" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="507" t="s">
+      <c r="Q2" s="498" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="504" t="s">
+      <c r="R2" s="510" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="504" t="s">
+      <c r="S2" s="510" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="494" t="s">
+      <c r="T2" s="516" t="s">
         <v>1374</v>
       </c>
-      <c r="U2" s="495"/>
-      <c r="V2" s="495"/>
-      <c r="W2" s="495"/>
-      <c r="X2" s="498" t="s">
+      <c r="U2" s="517"/>
+      <c r="V2" s="517"/>
+      <c r="W2" s="517"/>
+      <c r="X2" s="520" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="499" t="s">
+      <c r="Y2" s="521" t="s">
         <v>1375</v>
       </c>
-      <c r="Z2" s="499"/>
-      <c r="AA2" s="499"/>
-      <c r="AB2" s="499"/>
-      <c r="AC2" s="499"/>
-      <c r="AD2" s="499"/>
-      <c r="AE2" s="500" t="s">
+      <c r="Z2" s="521"/>
+      <c r="AA2" s="521"/>
+      <c r="AB2" s="521"/>
+      <c r="AC2" s="521"/>
+      <c r="AD2" s="521"/>
+      <c r="AE2" s="522" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="503" t="s">
+      <c r="AF2" s="525" t="s">
         <v>1376</v>
       </c>
-      <c r="AG2" s="503"/>
-      <c r="AH2" s="498" t="s">
+      <c r="AG2" s="525"/>
+      <c r="AH2" s="520" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="498" t="s">
+      <c r="AI2" s="520" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="491" t="s">
+      <c r="AJ2" s="513" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="511"/>
-      <c r="B3" s="514"/>
-      <c r="C3" s="514"/>
-      <c r="D3" s="514"/>
-      <c r="E3" s="514"/>
-      <c r="F3" s="517"/>
-      <c r="G3" s="517"/>
-      <c r="H3" s="517"/>
-      <c r="I3" s="517"/>
-      <c r="J3" s="517"/>
-      <c r="K3" s="508"/>
-      <c r="L3" s="508"/>
-      <c r="M3" s="508"/>
-      <c r="N3" s="508"/>
-      <c r="O3" s="508"/>
-      <c r="P3" s="508"/>
-      <c r="Q3" s="508"/>
-      <c r="R3" s="505"/>
-      <c r="S3" s="505"/>
-      <c r="T3" s="496"/>
-      <c r="U3" s="497"/>
-      <c r="V3" s="497"/>
-      <c r="W3" s="497"/>
-      <c r="X3" s="498"/>
-      <c r="Y3" s="499"/>
-      <c r="Z3" s="499"/>
-      <c r="AA3" s="499"/>
-      <c r="AB3" s="499"/>
-      <c r="AC3" s="499"/>
-      <c r="AD3" s="499"/>
-      <c r="AE3" s="501"/>
-      <c r="AF3" s="503"/>
-      <c r="AG3" s="503"/>
-      <c r="AH3" s="498"/>
-      <c r="AI3" s="498"/>
-      <c r="AJ3" s="491"/>
+      <c r="A3" s="502"/>
+      <c r="B3" s="505"/>
+      <c r="C3" s="505"/>
+      <c r="D3" s="505"/>
+      <c r="E3" s="505"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="508"/>
+      <c r="K3" s="499"/>
+      <c r="L3" s="499"/>
+      <c r="M3" s="499"/>
+      <c r="N3" s="499"/>
+      <c r="O3" s="499"/>
+      <c r="P3" s="499"/>
+      <c r="Q3" s="499"/>
+      <c r="R3" s="511"/>
+      <c r="S3" s="511"/>
+      <c r="T3" s="518"/>
+      <c r="U3" s="519"/>
+      <c r="V3" s="519"/>
+      <c r="W3" s="519"/>
+      <c r="X3" s="520"/>
+      <c r="Y3" s="521"/>
+      <c r="Z3" s="521"/>
+      <c r="AA3" s="521"/>
+      <c r="AB3" s="521"/>
+      <c r="AC3" s="521"/>
+      <c r="AD3" s="521"/>
+      <c r="AE3" s="523"/>
+      <c r="AF3" s="525"/>
+      <c r="AG3" s="525"/>
+      <c r="AH3" s="520"/>
+      <c r="AI3" s="520"/>
+      <c r="AJ3" s="513"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="511"/>
-      <c r="B4" s="514"/>
-      <c r="C4" s="514"/>
-      <c r="D4" s="514"/>
-      <c r="E4" s="514"/>
-      <c r="F4" s="517"/>
-      <c r="G4" s="517"/>
-      <c r="H4" s="517"/>
-      <c r="I4" s="517"/>
-      <c r="J4" s="517"/>
-      <c r="K4" s="508"/>
-      <c r="L4" s="508"/>
-      <c r="M4" s="508"/>
-      <c r="N4" s="508"/>
-      <c r="O4" s="508"/>
-      <c r="P4" s="508"/>
-      <c r="Q4" s="508"/>
-      <c r="R4" s="505"/>
-      <c r="S4" s="505"/>
+      <c r="A4" s="502"/>
+      <c r="B4" s="505"/>
+      <c r="C4" s="505"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="505"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="508"/>
+      <c r="H4" s="508"/>
+      <c r="I4" s="508"/>
+      <c r="J4" s="508"/>
+      <c r="K4" s="499"/>
+      <c r="L4" s="499"/>
+      <c r="M4" s="499"/>
+      <c r="N4" s="499"/>
+      <c r="O4" s="499"/>
+      <c r="P4" s="499"/>
+      <c r="Q4" s="499"/>
+      <c r="R4" s="511"/>
+      <c r="S4" s="511"/>
       <c r="T4" s="281">
         <v>0.11</v>
       </c>
@@ -67030,7 +67050,7 @@
       <c r="W4" s="283">
         <v>0.1</v>
       </c>
-      <c r="X4" s="498"/>
+      <c r="X4" s="520"/>
       <c r="Y4" s="284">
         <v>0.05</v>
       </c>
@@ -67043,41 +67063,41 @@
       <c r="AB4" s="285">
         <v>0.1</v>
       </c>
-      <c r="AC4" s="493"/>
+      <c r="AC4" s="515"/>
       <c r="AD4" s="281">
         <v>0.08</v>
       </c>
-      <c r="AE4" s="501"/>
+      <c r="AE4" s="523"/>
       <c r="AF4" s="286">
         <v>0.05</v>
       </c>
       <c r="AG4" s="286">
         <v>0.05</v>
       </c>
-      <c r="AH4" s="498"/>
-      <c r="AI4" s="498"/>
-      <c r="AJ4" s="491"/>
+      <c r="AH4" s="520"/>
+      <c r="AI4" s="520"/>
+      <c r="AJ4" s="513"/>
     </row>
     <row r="5" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="511"/>
-      <c r="B5" s="514"/>
-      <c r="C5" s="514"/>
-      <c r="D5" s="514"/>
-      <c r="E5" s="514"/>
-      <c r="F5" s="517"/>
-      <c r="G5" s="517"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="517"/>
-      <c r="J5" s="517"/>
-      <c r="K5" s="508"/>
-      <c r="L5" s="508"/>
-      <c r="M5" s="508"/>
-      <c r="N5" s="508"/>
-      <c r="O5" s="508"/>
-      <c r="P5" s="508"/>
-      <c r="Q5" s="508"/>
-      <c r="R5" s="505"/>
-      <c r="S5" s="505"/>
+      <c r="A5" s="502"/>
+      <c r="B5" s="505"/>
+      <c r="C5" s="505"/>
+      <c r="D5" s="505"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="508"/>
+      <c r="J5" s="508"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="499"/>
+      <c r="M5" s="499"/>
+      <c r="N5" s="499"/>
+      <c r="O5" s="499"/>
+      <c r="P5" s="499"/>
+      <c r="Q5" s="499"/>
+      <c r="R5" s="511"/>
+      <c r="S5" s="511"/>
       <c r="T5" s="256" t="s">
         <v>63</v>
       </c>
@@ -67090,7 +67110,7 @@
       <c r="W5" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="498"/>
+      <c r="X5" s="520"/>
       <c r="Y5" s="288" t="s">
         <v>67</v>
       </c>
@@ -67103,43 +67123,43 @@
       <c r="AB5" s="288" t="s">
         <v>70</v>
       </c>
-      <c r="AC5" s="492" t="s">
+      <c r="AC5" s="514" t="s">
         <v>1380</v>
       </c>
       <c r="AD5" s="256" t="s">
         <v>72</v>
       </c>
-      <c r="AE5" s="501"/>
+      <c r="AE5" s="523"/>
       <c r="AF5" s="289" t="s">
         <v>1378</v>
       </c>
       <c r="AG5" s="289" t="s">
         <v>73</v>
       </c>
-      <c r="AH5" s="498"/>
-      <c r="AI5" s="498"/>
-      <c r="AJ5" s="491"/>
+      <c r="AH5" s="520"/>
+      <c r="AI5" s="520"/>
+      <c r="AJ5" s="513"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="512"/>
-      <c r="B6" s="515"/>
-      <c r="C6" s="515"/>
-      <c r="D6" s="515"/>
-      <c r="E6" s="515"/>
-      <c r="F6" s="518"/>
-      <c r="G6" s="518"/>
-      <c r="H6" s="518"/>
-      <c r="I6" s="518"/>
-      <c r="J6" s="518"/>
-      <c r="K6" s="509"/>
-      <c r="L6" s="509"/>
-      <c r="M6" s="509"/>
-      <c r="N6" s="509"/>
-      <c r="O6" s="509"/>
-      <c r="P6" s="509"/>
-      <c r="Q6" s="509"/>
-      <c r="R6" s="506"/>
-      <c r="S6" s="506"/>
+      <c r="A6" s="503"/>
+      <c r="B6" s="506"/>
+      <c r="C6" s="506"/>
+      <c r="D6" s="506"/>
+      <c r="E6" s="506"/>
+      <c r="F6" s="509"/>
+      <c r="G6" s="509"/>
+      <c r="H6" s="509"/>
+      <c r="I6" s="509"/>
+      <c r="J6" s="509"/>
+      <c r="K6" s="500"/>
+      <c r="L6" s="500"/>
+      <c r="M6" s="500"/>
+      <c r="N6" s="500"/>
+      <c r="O6" s="500"/>
+      <c r="P6" s="500"/>
+      <c r="Q6" s="500"/>
+      <c r="R6" s="512"/>
+      <c r="S6" s="512"/>
       <c r="T6" s="255" t="s">
         <v>39</v>
       </c>
@@ -67152,7 +67172,7 @@
       <c r="W6" s="256" t="s">
         <v>39</v>
       </c>
-      <c r="X6" s="498"/>
+      <c r="X6" s="520"/>
       <c r="Y6" s="257" t="s">
         <v>39</v>
       </c>
@@ -67171,16 +67191,16 @@
       <c r="AD6" s="256" t="s">
         <v>39</v>
       </c>
-      <c r="AE6" s="502"/>
+      <c r="AE6" s="524"/>
       <c r="AF6" s="257" t="s">
         <v>39</v>
       </c>
       <c r="AG6" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="AH6" s="498"/>
-      <c r="AI6" s="498"/>
-      <c r="AJ6" s="491"/>
+      <c r="AH6" s="520"/>
+      <c r="AI6" s="520"/>
+      <c r="AJ6" s="513"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="258" t="s">
@@ -69305,6 +69325,23 @@
   </sheetData>
   <autoFilter ref="AF6:AG26" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="29">
+    <mergeCell ref="AJ2:AJ6"/>
+    <mergeCell ref="AC5"/>
+    <mergeCell ref="AC4"/>
+    <mergeCell ref="T2:W3"/>
+    <mergeCell ref="X2:X6"/>
+    <mergeCell ref="Y2:AD3"/>
+    <mergeCell ref="AE2:AE6"/>
+    <mergeCell ref="AF2:AG3"/>
+    <mergeCell ref="AH2:AH6"/>
+    <mergeCell ref="AI2:AI6"/>
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="N2:N6"/>
+    <mergeCell ref="O2:O6"/>
+    <mergeCell ref="P2:P6"/>
+    <mergeCell ref="Q2:Q6"/>
+    <mergeCell ref="R2:R6"/>
     <mergeCell ref="L2:L6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
@@ -69317,23 +69354,6 @@
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="K2:K6"/>
-    <mergeCell ref="S2:S6"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="N2:N6"/>
-    <mergeCell ref="O2:O6"/>
-    <mergeCell ref="P2:P6"/>
-    <mergeCell ref="Q2:Q6"/>
-    <mergeCell ref="R2:R6"/>
-    <mergeCell ref="AJ2:AJ6"/>
-    <mergeCell ref="AC5"/>
-    <mergeCell ref="AC4"/>
-    <mergeCell ref="T2:W3"/>
-    <mergeCell ref="X2:X6"/>
-    <mergeCell ref="Y2:AD3"/>
-    <mergeCell ref="AE2:AE6"/>
-    <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="AH2:AH6"/>
-    <mergeCell ref="AI2:AI6"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A6">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
@@ -69400,62 +69420,62 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="520" t="s">
+      <c r="A2" s="527" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="520" t="s">
+      <c r="B2" s="527" t="s">
         <v>1373</v>
       </c>
-      <c r="C2" s="521" t="s">
+      <c r="C2" s="528" t="s">
         <v>1384</v>
       </c>
-      <c r="D2" s="522"/>
-      <c r="E2" s="523" t="s">
+      <c r="D2" s="529"/>
+      <c r="E2" s="530" t="s">
         <v>1377</v>
       </c>
-      <c r="F2" s="523" t="s">
+      <c r="F2" s="530" t="s">
         <v>1385</v>
       </c>
-      <c r="G2" s="525" t="s">
+      <c r="G2" s="532" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="526" t="s">
+      <c r="H2" s="533" t="s">
         <v>1386</v>
       </c>
-      <c r="I2" s="526" t="s">
+      <c r="I2" s="533" t="s">
         <v>1387</v>
       </c>
-      <c r="J2" s="527" t="s">
+      <c r="J2" s="534" t="s">
         <v>1388</v>
       </c>
-      <c r="K2" s="527" t="s">
+      <c r="K2" s="534" t="s">
         <v>1389</v>
       </c>
-      <c r="L2" s="527" t="s">
+      <c r="L2" s="534" t="s">
         <v>1390</v>
       </c>
-      <c r="M2" s="519" t="s">
+      <c r="M2" s="526" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="520"/>
-      <c r="B3" s="520"/>
+      <c r="A3" s="527"/>
+      <c r="B3" s="527"/>
       <c r="C3" s="304" t="s">
         <v>1382</v>
       </c>
       <c r="D3" s="304" t="s">
         <v>1375</v>
       </c>
-      <c r="E3" s="524"/>
-      <c r="F3" s="524"/>
-      <c r="G3" s="525"/>
-      <c r="H3" s="526"/>
-      <c r="I3" s="526"/>
-      <c r="J3" s="527"/>
-      <c r="K3" s="527"/>
-      <c r="L3" s="527"/>
-      <c r="M3" s="519"/>
+      <c r="E3" s="531"/>
+      <c r="F3" s="531"/>
+      <c r="G3" s="532"/>
+      <c r="H3" s="533"/>
+      <c r="I3" s="533"/>
+      <c r="J3" s="534"/>
+      <c r="K3" s="534"/>
+      <c r="L3" s="534"/>
+      <c r="M3" s="526"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="291" t="s">

--- a/Template/Template.xlsx
+++ b/Template/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yudha\Documents\UiPath\PeoplePerformanceV1\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B1B1C2-007C-41F4-80AB-2EC753607765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F64DD-989C-46FD-B7F5-3FCB826B01FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5082,7 +5082,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="540">
+  <cellXfs count="548">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6043,7 +6043,205 @@
     <xf numFmtId="9" fontId="22" fillId="32" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="33" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="24" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="27" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="27" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="29" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="28" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="28" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="25" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="27" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="27" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="27" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="26" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="18" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="29" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="24" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="25" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6052,104 +6250,14 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="32" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="31" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="24" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="18" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="25" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="13" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6157,136 +6265,82 @@
     <xf numFmtId="167" fontId="6" fillId="22" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="26" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="30" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="31" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="32" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="28" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="21" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="21" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="19" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="19" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="19" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="13" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="32" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="19" fillId="33" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="170" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="24" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="31" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="18" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="27" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="43" fillId="42" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6343,164 +6397,122 @@
     <xf numFmtId="9" fontId="5" fillId="45" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="43" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="43" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="21" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="43" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="30" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="19" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="19" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="19" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="19" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="30" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="31" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="29" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="32" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="25" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="27" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="29" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="28" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="23" fillId="38" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6508,10 +6520,13 @@
     <xf numFmtId="1" fontId="23" fillId="38" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="38" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6529,13 +6544,10 @@
     <xf numFmtId="2" fontId="23" fillId="38" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6550,49 +6562,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6634,6 +6610,51 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6661,10 +6682,13 @@
     <xf numFmtId="0" fontId="43" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="24" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="25" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="24" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="25" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="25" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8856,13 +8880,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ACY4"/>
+  <dimension ref="A1:ACY16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="ZY11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AAY5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AAM12" sqref="AAM12"/>
+      <selection pane="bottomRight" activeCell="ABO5" sqref="ABO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8878,7 +8902,11 @@
     <col min="10" max="10" width="25.85546875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="4.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="33" width="12.85546875" customWidth="1"/>
+    <col min="26" max="27" width="12.85546875" customWidth="1"/>
+    <col min="28" max="29" width="12.85546875" style="307" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" customWidth="1"/>
+    <col min="31" max="32" width="12.85546875" style="307" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" customWidth="1"/>
     <col min="34" max="35" width="12.85546875" style="307" customWidth="1"/>
     <col min="36" max="36" width="12.85546875" customWidth="1"/>
     <col min="37" max="38" width="12.85546875" style="307" customWidth="1"/>
@@ -8894,7 +8922,11 @@
     <col min="52" max="53" width="12.85546875" style="307" customWidth="1"/>
     <col min="54" max="54" width="12.85546875" customWidth="1"/>
     <col min="55" max="56" width="12.85546875" style="307" customWidth="1"/>
-    <col min="57" max="68" width="12.85546875" customWidth="1"/>
+    <col min="57" max="57" width="12.85546875" customWidth="1"/>
+    <col min="58" max="59" width="12.85546875" style="307" customWidth="1"/>
+    <col min="60" max="60" width="12.85546875" customWidth="1"/>
+    <col min="61" max="62" width="12.85546875" style="307" customWidth="1"/>
+    <col min="63" max="68" width="12.85546875" customWidth="1"/>
     <col min="70" max="70" width="9.140625" style="307"/>
     <col min="72" max="72" width="9.140625" style="307"/>
     <col min="74" max="74" width="9.140625" style="307"/>
@@ -8954,6 +8986,16 @@
     <col min="282" max="283" width="9.140625" style="307"/>
     <col min="285" max="286" width="9.140625" style="307"/>
     <col min="288" max="289" width="9.140625" style="307"/>
+    <col min="291" max="292" width="9.140625" style="307"/>
+    <col min="294" max="295" width="9.140625" style="307"/>
+    <col min="297" max="298" width="9.140625" style="307"/>
+    <col min="300" max="301" width="9.140625" style="307"/>
+    <col min="318" max="319" width="9.140625" style="307"/>
+    <col min="321" max="322" width="9.140625" style="307"/>
+    <col min="324" max="325" width="9.140625" style="307"/>
+    <col min="327" max="328" width="9.140625" style="307"/>
+    <col min="330" max="331" width="9.140625" style="307"/>
+    <col min="333" max="334" width="9.140625" style="307"/>
     <col min="363" max="363" width="9.140625" style="208"/>
     <col min="365" max="366" width="9.140625" style="307"/>
     <col min="367" max="367" width="9.140625" style="321"/>
@@ -9003,8 +9045,10 @@
     <col min="701" max="705" width="10.7109375" style="307" customWidth="1"/>
     <col min="706" max="711" width="10.7109375" customWidth="1"/>
     <col min="712" max="723" width="10.7109375" style="307" customWidth="1"/>
-    <col min="724" max="733" width="10.7109375" customWidth="1"/>
-    <col min="734" max="740" width="9.140625" style="307"/>
+    <col min="724" max="726" width="10.7109375" customWidth="1"/>
+    <col min="727" max="729" width="10.7109375" style="307" customWidth="1"/>
+    <col min="730" max="733" width="10.7109375" customWidth="1"/>
+    <col min="734" max="743" width="9.140625" style="307"/>
     <col min="748" max="749" width="11.7109375" style="319" customWidth="1"/>
     <col min="750" max="750" width="13.85546875" style="319" customWidth="1"/>
     <col min="751" max="751" width="12.85546875" style="319" customWidth="1"/>
@@ -9026,2222 +9070,2222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:779" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="355" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="356" t="s">
+      <c r="A1" s="468" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="478" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="355" t="s">
+      <c r="C1" s="468" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="357" t="s">
+      <c r="D1" s="479" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="357" t="s">
+      <c r="E1" s="479" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="355" t="s">
+      <c r="F1" s="468" t="s">
         <v>322</v>
       </c>
-      <c r="G1" s="355" t="s">
+      <c r="G1" s="468" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="355" t="s">
+      <c r="H1" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="355" t="s">
+      <c r="I1" s="468" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="355" t="s">
+      <c r="J1" s="468" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="355" t="s">
+      <c r="K1" s="468" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="355" t="s">
+      <c r="L1" s="468" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="355" t="s">
+      <c r="M1" s="468" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="355" t="s">
+      <c r="N1" s="468" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="355" t="s">
+      <c r="O1" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="355" t="s">
+      <c r="P1" s="468" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="355" t="s">
+      <c r="Q1" s="468" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="355" t="s">
+      <c r="R1" s="468" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="355" t="s">
+      <c r="S1" s="468" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="355" t="s">
+      <c r="T1" s="468" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="355" t="s">
+      <c r="U1" s="468" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="358" t="s">
+      <c r="V1" s="461" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="355" t="s">
+      <c r="W1" s="468" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="355" t="s">
+      <c r="X1" s="468" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="355" t="s">
+      <c r="Y1" s="468" t="s">
         <v>23</v>
       </c>
       <c r="Z1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" s="396" t="s">
+      <c r="AA1" s="393" t="s">
         <v>203</v>
       </c>
-      <c r="AB1" s="396"/>
-      <c r="AC1" s="396"/>
-      <c r="AD1" s="396"/>
-      <c r="AE1" s="396"/>
-      <c r="AF1" s="396"/>
-      <c r="AG1" s="350" t="s">
+      <c r="AB1" s="393"/>
+      <c r="AC1" s="393"/>
+      <c r="AD1" s="393"/>
+      <c r="AE1" s="393"/>
+      <c r="AF1" s="393"/>
+      <c r="AG1" s="480" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" s="350"/>
-      <c r="AI1" s="350"/>
-      <c r="AJ1" s="350"/>
-      <c r="AK1" s="350"/>
-      <c r="AL1" s="350"/>
-      <c r="AM1" s="341" t="s">
+      <c r="AH1" s="480"/>
+      <c r="AI1" s="480"/>
+      <c r="AJ1" s="480"/>
+      <c r="AK1" s="480"/>
+      <c r="AL1" s="480"/>
+      <c r="AM1" s="472" t="s">
         <v>256</v>
       </c>
-      <c r="AN1" s="341"/>
-      <c r="AO1" s="341"/>
-      <c r="AP1" s="341"/>
-      <c r="AQ1" s="341"/>
-      <c r="AR1" s="341"/>
-      <c r="AS1" s="347" t="s">
+      <c r="AN1" s="472"/>
+      <c r="AO1" s="472"/>
+      <c r="AP1" s="472"/>
+      <c r="AQ1" s="472"/>
+      <c r="AR1" s="472"/>
+      <c r="AS1" s="384" t="s">
         <v>265</v>
       </c>
-      <c r="AT1" s="347"/>
-      <c r="AU1" s="347"/>
-      <c r="AV1" s="347"/>
-      <c r="AW1" s="347"/>
-      <c r="AX1" s="347"/>
-      <c r="AY1" s="472" t="s">
+      <c r="AT1" s="384"/>
+      <c r="AU1" s="384"/>
+      <c r="AV1" s="384"/>
+      <c r="AW1" s="384"/>
+      <c r="AX1" s="384"/>
+      <c r="AY1" s="341" t="s">
         <v>226</v>
       </c>
-      <c r="AZ1" s="472"/>
-      <c r="BA1" s="472"/>
-      <c r="BB1" s="472"/>
-      <c r="BC1" s="472"/>
-      <c r="BD1" s="472"/>
-      <c r="BE1" s="413" t="s">
+      <c r="AZ1" s="341"/>
+      <c r="BA1" s="341"/>
+      <c r="BB1" s="341"/>
+      <c r="BC1" s="341"/>
+      <c r="BD1" s="341"/>
+      <c r="BE1" s="397" t="s">
         <v>209</v>
       </c>
-      <c r="BF1" s="413"/>
-      <c r="BG1" s="413"/>
-      <c r="BH1" s="413"/>
-      <c r="BI1" s="413"/>
-      <c r="BJ1" s="413"/>
-      <c r="BK1" s="435" t="s">
+      <c r="BF1" s="397"/>
+      <c r="BG1" s="397"/>
+      <c r="BH1" s="397"/>
+      <c r="BI1" s="397"/>
+      <c r="BJ1" s="397"/>
+      <c r="BK1" s="353" t="s">
         <v>1345</v>
       </c>
-      <c r="BL1" s="435"/>
-      <c r="BM1" s="435"/>
-      <c r="BN1" s="435"/>
-      <c r="BO1" s="435"/>
-      <c r="BP1" s="435"/>
-      <c r="BQ1" s="387" t="s">
+      <c r="BL1" s="353"/>
+      <c r="BM1" s="353"/>
+      <c r="BN1" s="353"/>
+      <c r="BO1" s="353"/>
+      <c r="BP1" s="353"/>
+      <c r="BQ1" s="463" t="s">
         <v>122</v>
       </c>
-      <c r="BR1" s="387"/>
-      <c r="BS1" s="387"/>
-      <c r="BT1" s="387"/>
-      <c r="BU1" s="387"/>
-      <c r="BV1" s="387"/>
-      <c r="BW1" s="387"/>
-      <c r="BX1" s="387"/>
-      <c r="BY1" s="387"/>
-      <c r="BZ1" s="387"/>
-      <c r="CA1" s="387"/>
-      <c r="CB1" s="387"/>
-      <c r="CC1" s="387"/>
-      <c r="CD1" s="387"/>
-      <c r="CE1" s="387"/>
-      <c r="CF1" s="387"/>
-      <c r="CG1" s="387"/>
-      <c r="CH1" s="393" t="s">
+      <c r="BR1" s="463"/>
+      <c r="BS1" s="463"/>
+      <c r="BT1" s="463"/>
+      <c r="BU1" s="463"/>
+      <c r="BV1" s="463"/>
+      <c r="BW1" s="463"/>
+      <c r="BX1" s="463"/>
+      <c r="BY1" s="463"/>
+      <c r="BZ1" s="463"/>
+      <c r="CA1" s="463"/>
+      <c r="CB1" s="463"/>
+      <c r="CC1" s="463"/>
+      <c r="CD1" s="463"/>
+      <c r="CE1" s="463"/>
+      <c r="CF1" s="463"/>
+      <c r="CG1" s="463"/>
+      <c r="CH1" s="364" t="s">
         <v>137</v>
       </c>
-      <c r="CI1" s="393"/>
-      <c r="CJ1" s="393"/>
-      <c r="CK1" s="393"/>
-      <c r="CL1" s="393"/>
-      <c r="CM1" s="393"/>
-      <c r="CN1" s="367" t="s">
+      <c r="CI1" s="364"/>
+      <c r="CJ1" s="364"/>
+      <c r="CK1" s="364"/>
+      <c r="CL1" s="364"/>
+      <c r="CM1" s="364"/>
+      <c r="CN1" s="402" t="s">
         <v>179</v>
       </c>
-      <c r="CO1" s="367"/>
-      <c r="CP1" s="367"/>
-      <c r="CQ1" s="367"/>
-      <c r="CR1" s="367"/>
-      <c r="CS1" s="367"/>
-      <c r="CT1" s="373" t="s">
+      <c r="CO1" s="402"/>
+      <c r="CP1" s="402"/>
+      <c r="CQ1" s="402"/>
+      <c r="CR1" s="402"/>
+      <c r="CS1" s="402"/>
+      <c r="CT1" s="350" t="s">
         <v>206</v>
       </c>
-      <c r="CU1" s="373"/>
-      <c r="CV1" s="373"/>
-      <c r="CW1" s="373"/>
-      <c r="CX1" s="373"/>
-      <c r="CY1" s="373"/>
-      <c r="CZ1" s="390" t="s">
+      <c r="CU1" s="350"/>
+      <c r="CV1" s="350"/>
+      <c r="CW1" s="350"/>
+      <c r="CX1" s="350"/>
+      <c r="CY1" s="350"/>
+      <c r="CZ1" s="456" t="s">
         <v>132</v>
       </c>
-      <c r="DA1" s="390"/>
-      <c r="DB1" s="390"/>
-      <c r="DC1" s="390"/>
-      <c r="DD1" s="390"/>
-      <c r="DE1" s="390"/>
-      <c r="DF1" s="390"/>
-      <c r="DG1" s="390"/>
-      <c r="DH1" s="390"/>
-      <c r="DI1" s="390"/>
-      <c r="DJ1" s="390"/>
-      <c r="DK1" s="390"/>
-      <c r="DL1" s="394" t="s">
+      <c r="DA1" s="456"/>
+      <c r="DB1" s="456"/>
+      <c r="DC1" s="456"/>
+      <c r="DD1" s="456"/>
+      <c r="DE1" s="456"/>
+      <c r="DF1" s="456"/>
+      <c r="DG1" s="456"/>
+      <c r="DH1" s="456"/>
+      <c r="DI1" s="456"/>
+      <c r="DJ1" s="456"/>
+      <c r="DK1" s="456"/>
+      <c r="DL1" s="420" t="s">
         <v>139</v>
       </c>
-      <c r="DM1" s="394"/>
-      <c r="DN1" s="394"/>
-      <c r="DO1" s="394"/>
-      <c r="DP1" s="394"/>
-      <c r="DQ1" s="394"/>
-      <c r="DR1" s="394"/>
-      <c r="DS1" s="394"/>
-      <c r="DT1" s="394"/>
-      <c r="DU1" s="370" t="s">
+      <c r="DM1" s="420"/>
+      <c r="DN1" s="420"/>
+      <c r="DO1" s="420"/>
+      <c r="DP1" s="420"/>
+      <c r="DQ1" s="420"/>
+      <c r="DR1" s="420"/>
+      <c r="DS1" s="420"/>
+      <c r="DT1" s="420"/>
+      <c r="DU1" s="409" t="s">
         <v>182</v>
       </c>
-      <c r="DV1" s="370"/>
-      <c r="DW1" s="370"/>
-      <c r="DX1" s="370"/>
-      <c r="DY1" s="370"/>
-      <c r="DZ1" s="370"/>
-      <c r="EA1" s="370"/>
-      <c r="EB1" s="370"/>
-      <c r="EC1" s="370"/>
-      <c r="ED1" s="337" t="s">
+      <c r="DV1" s="409"/>
+      <c r="DW1" s="409"/>
+      <c r="DX1" s="409"/>
+      <c r="DY1" s="409"/>
+      <c r="DZ1" s="409"/>
+      <c r="EA1" s="409"/>
+      <c r="EB1" s="409"/>
+      <c r="EC1" s="409"/>
+      <c r="ED1" s="473" t="s">
         <v>276</v>
       </c>
-      <c r="EE1" s="337"/>
-      <c r="EF1" s="337"/>
-      <c r="EG1" s="337"/>
-      <c r="EH1" s="337"/>
-      <c r="EI1" s="337"/>
-      <c r="EJ1" s="376" t="s">
+      <c r="EE1" s="473"/>
+      <c r="EF1" s="473"/>
+      <c r="EG1" s="473"/>
+      <c r="EH1" s="473"/>
+      <c r="EI1" s="473"/>
+      <c r="EJ1" s="475" t="s">
         <v>123</v>
       </c>
-      <c r="EK1" s="376"/>
-      <c r="EL1" s="376"/>
-      <c r="EM1" s="376"/>
-      <c r="EN1" s="376"/>
-      <c r="EO1" s="376"/>
-      <c r="EP1" s="376"/>
-      <c r="EQ1" s="376"/>
-      <c r="ER1" s="376"/>
-      <c r="ES1" s="376"/>
-      <c r="ET1" s="376"/>
-      <c r="EU1" s="376"/>
-      <c r="EV1" s="376"/>
-      <c r="EW1" s="376"/>
-      <c r="EX1" s="376"/>
-      <c r="EY1" s="401" t="s">
+      <c r="EK1" s="475"/>
+      <c r="EL1" s="475"/>
+      <c r="EM1" s="475"/>
+      <c r="EN1" s="475"/>
+      <c r="EO1" s="475"/>
+      <c r="EP1" s="475"/>
+      <c r="EQ1" s="475"/>
+      <c r="ER1" s="475"/>
+      <c r="ES1" s="475"/>
+      <c r="ET1" s="475"/>
+      <c r="EU1" s="475"/>
+      <c r="EV1" s="475"/>
+      <c r="EW1" s="475"/>
+      <c r="EX1" s="475"/>
+      <c r="EY1" s="408" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="401"/>
-      <c r="FA1" s="401"/>
-      <c r="FB1" s="401"/>
-      <c r="FC1" s="401"/>
-      <c r="FD1" s="401"/>
-      <c r="FE1" s="401"/>
-      <c r="FF1" s="401"/>
-      <c r="FG1" s="401"/>
-      <c r="FH1" s="349" t="s">
+      <c r="EZ1" s="408"/>
+      <c r="FA1" s="408"/>
+      <c r="FB1" s="408"/>
+      <c r="FC1" s="408"/>
+      <c r="FD1" s="408"/>
+      <c r="FE1" s="408"/>
+      <c r="FF1" s="408"/>
+      <c r="FG1" s="408"/>
+      <c r="FH1" s="385" t="s">
         <v>190</v>
       </c>
-      <c r="FI1" s="349"/>
-      <c r="FJ1" s="349"/>
-      <c r="FK1" s="349"/>
-      <c r="FL1" s="349"/>
-      <c r="FM1" s="349"/>
-      <c r="FN1" s="349"/>
-      <c r="FO1" s="349"/>
-      <c r="FP1" s="349"/>
-      <c r="FQ1" s="333" t="s">
+      <c r="FI1" s="385"/>
+      <c r="FJ1" s="385"/>
+      <c r="FK1" s="385"/>
+      <c r="FL1" s="385"/>
+      <c r="FM1" s="385"/>
+      <c r="FN1" s="385"/>
+      <c r="FO1" s="385"/>
+      <c r="FP1" s="385"/>
+      <c r="FQ1" s="399" t="s">
         <v>289</v>
       </c>
-      <c r="FR1" s="333"/>
-      <c r="FS1" s="333"/>
-      <c r="FT1" s="333"/>
-      <c r="FU1" s="333"/>
-      <c r="FV1" s="333"/>
-      <c r="FW1" s="333"/>
-      <c r="FX1" s="333"/>
-      <c r="FY1" s="333"/>
-      <c r="FZ1" s="481" t="s">
+      <c r="FR1" s="399"/>
+      <c r="FS1" s="399"/>
+      <c r="FT1" s="399"/>
+      <c r="FU1" s="399"/>
+      <c r="FV1" s="399"/>
+      <c r="FW1" s="399"/>
+      <c r="FX1" s="399"/>
+      <c r="FY1" s="399"/>
+      <c r="FZ1" s="346" t="s">
         <v>286</v>
       </c>
-      <c r="GA1" s="481"/>
-      <c r="GB1" s="481"/>
-      <c r="GC1" s="481"/>
-      <c r="GD1" s="481"/>
-      <c r="GE1" s="481"/>
-      <c r="GF1" s="481"/>
-      <c r="GG1" s="481"/>
-      <c r="GH1" s="481"/>
-      <c r="GI1" s="481"/>
-      <c r="GJ1" s="481"/>
-      <c r="GK1" s="481"/>
-      <c r="GL1" s="481"/>
-      <c r="GM1" s="481"/>
-      <c r="GN1" s="481"/>
-      <c r="GO1" s="481"/>
-      <c r="GP1" s="481"/>
-      <c r="GQ1" s="481"/>
-      <c r="GR1" s="481"/>
-      <c r="GS1" s="481"/>
-      <c r="GT1" s="481"/>
-      <c r="GU1" s="481"/>
-      <c r="GV1" s="481"/>
-      <c r="GW1" s="481"/>
-      <c r="GX1" s="353" t="s">
+      <c r="GA1" s="346"/>
+      <c r="GB1" s="346"/>
+      <c r="GC1" s="346"/>
+      <c r="GD1" s="346"/>
+      <c r="GE1" s="346"/>
+      <c r="GF1" s="346"/>
+      <c r="GG1" s="346"/>
+      <c r="GH1" s="346"/>
+      <c r="GI1" s="346"/>
+      <c r="GJ1" s="346"/>
+      <c r="GK1" s="346"/>
+      <c r="GL1" s="346"/>
+      <c r="GM1" s="346"/>
+      <c r="GN1" s="346"/>
+      <c r="GO1" s="346"/>
+      <c r="GP1" s="346"/>
+      <c r="GQ1" s="346"/>
+      <c r="GR1" s="346"/>
+      <c r="GS1" s="346"/>
+      <c r="GT1" s="346"/>
+      <c r="GU1" s="346"/>
+      <c r="GV1" s="346"/>
+      <c r="GW1" s="346"/>
+      <c r="GX1" s="483" t="s">
         <v>288</v>
       </c>
-      <c r="GY1" s="353"/>
-      <c r="GZ1" s="353"/>
-      <c r="HA1" s="353"/>
-      <c r="HB1" s="353"/>
-      <c r="HC1" s="353"/>
-      <c r="HD1" s="353"/>
-      <c r="HE1" s="353"/>
-      <c r="HF1" s="353"/>
-      <c r="HG1" s="353"/>
-      <c r="HH1" s="353"/>
-      <c r="HI1" s="353"/>
-      <c r="HJ1" s="353"/>
-      <c r="HK1" s="353"/>
-      <c r="HL1" s="353"/>
-      <c r="HM1" s="353"/>
-      <c r="HN1" s="353"/>
-      <c r="HO1" s="353"/>
-      <c r="HP1" s="353"/>
-      <c r="HQ1" s="353"/>
-      <c r="HR1" s="353"/>
-      <c r="HS1" s="353"/>
-      <c r="HT1" s="353"/>
-      <c r="HU1" s="353"/>
-      <c r="HV1" s="353" t="s">
+      <c r="GY1" s="483"/>
+      <c r="GZ1" s="483"/>
+      <c r="HA1" s="483"/>
+      <c r="HB1" s="483"/>
+      <c r="HC1" s="483"/>
+      <c r="HD1" s="483"/>
+      <c r="HE1" s="483"/>
+      <c r="HF1" s="483"/>
+      <c r="HG1" s="483"/>
+      <c r="HH1" s="483"/>
+      <c r="HI1" s="483"/>
+      <c r="HJ1" s="483"/>
+      <c r="HK1" s="483"/>
+      <c r="HL1" s="483"/>
+      <c r="HM1" s="483"/>
+      <c r="HN1" s="483"/>
+      <c r="HO1" s="483"/>
+      <c r="HP1" s="483"/>
+      <c r="HQ1" s="483"/>
+      <c r="HR1" s="483"/>
+      <c r="HS1" s="483"/>
+      <c r="HT1" s="483"/>
+      <c r="HU1" s="483"/>
+      <c r="HV1" s="483" t="s">
         <v>287</v>
       </c>
-      <c r="HW1" s="353"/>
-      <c r="HX1" s="353"/>
-      <c r="HY1" s="353"/>
-      <c r="HZ1" s="353"/>
-      <c r="IA1" s="353"/>
-      <c r="IB1" s="353"/>
-      <c r="IC1" s="353"/>
-      <c r="ID1" s="353"/>
-      <c r="IE1" s="353"/>
-      <c r="IF1" s="353"/>
-      <c r="IG1" s="353"/>
-      <c r="IH1" s="353"/>
-      <c r="II1" s="353"/>
-      <c r="IJ1" s="353"/>
-      <c r="IK1" s="353"/>
-      <c r="IL1" s="353"/>
-      <c r="IM1" s="353"/>
-      <c r="IN1" s="349" t="s">
+      <c r="HW1" s="483"/>
+      <c r="HX1" s="483"/>
+      <c r="HY1" s="483"/>
+      <c r="HZ1" s="483"/>
+      <c r="IA1" s="483"/>
+      <c r="IB1" s="483"/>
+      <c r="IC1" s="483"/>
+      <c r="ID1" s="483"/>
+      <c r="IE1" s="483"/>
+      <c r="IF1" s="483"/>
+      <c r="IG1" s="483"/>
+      <c r="IH1" s="483"/>
+      <c r="II1" s="483"/>
+      <c r="IJ1" s="483"/>
+      <c r="IK1" s="483"/>
+      <c r="IL1" s="483"/>
+      <c r="IM1" s="483"/>
+      <c r="IN1" s="385" t="s">
         <v>266</v>
       </c>
-      <c r="IO1" s="349"/>
-      <c r="IP1" s="349"/>
-      <c r="IQ1" s="349"/>
-      <c r="IR1" s="349"/>
-      <c r="IS1" s="349"/>
-      <c r="IT1" s="349"/>
-      <c r="IU1" s="349"/>
-      <c r="IV1" s="349"/>
-      <c r="IW1" s="349"/>
-      <c r="IX1" s="349"/>
-      <c r="IY1" s="349"/>
-      <c r="IZ1" s="349"/>
-      <c r="JA1" s="349"/>
-      <c r="JB1" s="349"/>
-      <c r="JC1" s="349"/>
-      <c r="JD1" s="349"/>
-      <c r="JE1" s="349"/>
-      <c r="JF1" s="349"/>
-      <c r="JG1" s="349"/>
-      <c r="JH1" s="349"/>
-      <c r="JI1" s="349"/>
-      <c r="JJ1" s="349"/>
-      <c r="JK1" s="349"/>
-      <c r="JL1" s="344" t="s">
+      <c r="IO1" s="385"/>
+      <c r="IP1" s="385"/>
+      <c r="IQ1" s="385"/>
+      <c r="IR1" s="385"/>
+      <c r="IS1" s="385"/>
+      <c r="IT1" s="385"/>
+      <c r="IU1" s="385"/>
+      <c r="IV1" s="385"/>
+      <c r="IW1" s="385"/>
+      <c r="IX1" s="385"/>
+      <c r="IY1" s="385"/>
+      <c r="IZ1" s="385"/>
+      <c r="JA1" s="385"/>
+      <c r="JB1" s="385"/>
+      <c r="JC1" s="385"/>
+      <c r="JD1" s="385"/>
+      <c r="JE1" s="385"/>
+      <c r="JF1" s="385"/>
+      <c r="JG1" s="385"/>
+      <c r="JH1" s="385"/>
+      <c r="JI1" s="385"/>
+      <c r="JJ1" s="385"/>
+      <c r="JK1" s="385"/>
+      <c r="JL1" s="486" t="s">
         <v>257</v>
       </c>
-      <c r="JM1" s="344"/>
-      <c r="JN1" s="344"/>
-      <c r="JO1" s="344"/>
-      <c r="JP1" s="344"/>
-      <c r="JQ1" s="344"/>
-      <c r="JR1" s="344"/>
-      <c r="JS1" s="344"/>
-      <c r="JT1" s="344"/>
-      <c r="JU1" s="344"/>
-      <c r="JV1" s="344"/>
-      <c r="JW1" s="344"/>
-      <c r="JX1" s="344"/>
-      <c r="JY1" s="344"/>
-      <c r="JZ1" s="344"/>
-      <c r="KA1" s="344"/>
-      <c r="KB1" s="344"/>
-      <c r="KC1" s="344"/>
-      <c r="KD1" s="459" t="s">
+      <c r="JM1" s="486"/>
+      <c r="JN1" s="486"/>
+      <c r="JO1" s="486"/>
+      <c r="JP1" s="486"/>
+      <c r="JQ1" s="486"/>
+      <c r="JR1" s="486"/>
+      <c r="JS1" s="486"/>
+      <c r="JT1" s="486"/>
+      <c r="JU1" s="486"/>
+      <c r="JV1" s="486"/>
+      <c r="JW1" s="486"/>
+      <c r="JX1" s="486"/>
+      <c r="JY1" s="486"/>
+      <c r="JZ1" s="486"/>
+      <c r="KA1" s="486"/>
+      <c r="KB1" s="486"/>
+      <c r="KC1" s="486"/>
+      <c r="KD1" s="347" t="s">
         <v>201</v>
       </c>
-      <c r="KE1" s="459"/>
-      <c r="KF1" s="459"/>
-      <c r="KG1" s="459"/>
-      <c r="KH1" s="459"/>
-      <c r="KI1" s="459"/>
-      <c r="KJ1" s="459"/>
-      <c r="KK1" s="459"/>
-      <c r="KL1" s="459"/>
-      <c r="KM1" s="459"/>
-      <c r="KN1" s="459"/>
-      <c r="KO1" s="459"/>
-      <c r="KP1" s="459" t="s">
+      <c r="KE1" s="347"/>
+      <c r="KF1" s="347"/>
+      <c r="KG1" s="347"/>
+      <c r="KH1" s="347"/>
+      <c r="KI1" s="347"/>
+      <c r="KJ1" s="347"/>
+      <c r="KK1" s="347"/>
+      <c r="KL1" s="347"/>
+      <c r="KM1" s="347"/>
+      <c r="KN1" s="347"/>
+      <c r="KO1" s="347"/>
+      <c r="KP1" s="347" t="s">
         <v>202</v>
       </c>
-      <c r="KQ1" s="459"/>
-      <c r="KR1" s="459"/>
-      <c r="KS1" s="459"/>
-      <c r="KT1" s="459"/>
-      <c r="KU1" s="459"/>
-      <c r="KV1" s="459"/>
-      <c r="KW1" s="459"/>
-      <c r="KX1" s="459"/>
-      <c r="KY1" s="459"/>
-      <c r="KZ1" s="459"/>
-      <c r="LA1" s="459"/>
-      <c r="LB1" s="459"/>
-      <c r="LC1" s="459"/>
-      <c r="LD1" s="459"/>
-      <c r="LE1" s="476" t="s">
+      <c r="KQ1" s="347"/>
+      <c r="KR1" s="347"/>
+      <c r="KS1" s="347"/>
+      <c r="KT1" s="347"/>
+      <c r="KU1" s="347"/>
+      <c r="KV1" s="347"/>
+      <c r="KW1" s="347"/>
+      <c r="KX1" s="347"/>
+      <c r="KY1" s="347"/>
+      <c r="KZ1" s="347"/>
+      <c r="LA1" s="347"/>
+      <c r="LB1" s="347"/>
+      <c r="LC1" s="347"/>
+      <c r="LD1" s="347"/>
+      <c r="LE1" s="361" t="s">
         <v>1343</v>
       </c>
-      <c r="LF1" s="476"/>
-      <c r="LG1" s="476"/>
-      <c r="LH1" s="476"/>
-      <c r="LI1" s="476"/>
-      <c r="LJ1" s="476"/>
-      <c r="LK1" s="476"/>
-      <c r="LL1" s="476"/>
-      <c r="LM1" s="476"/>
-      <c r="LN1" s="476"/>
-      <c r="LO1" s="476"/>
-      <c r="LP1" s="476"/>
-      <c r="LQ1" s="476"/>
-      <c r="LR1" s="476"/>
-      <c r="LS1" s="476"/>
-      <c r="LT1" s="476"/>
-      <c r="LU1" s="476"/>
-      <c r="LV1" s="476"/>
-      <c r="LW1" s="477" t="s">
+      <c r="LF1" s="362"/>
+      <c r="LG1" s="362"/>
+      <c r="LH1" s="361"/>
+      <c r="LI1" s="362"/>
+      <c r="LJ1" s="362"/>
+      <c r="LK1" s="361"/>
+      <c r="LL1" s="362"/>
+      <c r="LM1" s="362"/>
+      <c r="LN1" s="361"/>
+      <c r="LO1" s="362"/>
+      <c r="LP1" s="362"/>
+      <c r="LQ1" s="361"/>
+      <c r="LR1" s="362"/>
+      <c r="LS1" s="362"/>
+      <c r="LT1" s="361"/>
+      <c r="LU1" s="362"/>
+      <c r="LV1" s="362"/>
+      <c r="LW1" s="354" t="s">
         <v>1344</v>
       </c>
-      <c r="LX1" s="477"/>
-      <c r="LY1" s="477"/>
-      <c r="LZ1" s="477"/>
-      <c r="MA1" s="477"/>
-      <c r="MB1" s="477"/>
-      <c r="MC1" s="477"/>
-      <c r="MD1" s="477"/>
-      <c r="ME1" s="477"/>
-      <c r="MF1" s="477"/>
-      <c r="MG1" s="477"/>
-      <c r="MH1" s="477"/>
-      <c r="MI1" s="477"/>
-      <c r="MJ1" s="477"/>
-      <c r="MK1" s="477"/>
-      <c r="ML1" s="477"/>
-      <c r="MM1" s="477"/>
-      <c r="MN1" s="477"/>
-      <c r="MO1" s="477"/>
-      <c r="MP1" s="477"/>
-      <c r="MQ1" s="477"/>
-      <c r="MR1" s="477"/>
-      <c r="MS1" s="477"/>
-      <c r="MT1" s="477"/>
-      <c r="MU1" s="477"/>
-      <c r="MV1" s="477"/>
-      <c r="MW1" s="477"/>
-      <c r="MX1" s="382" t="s">
+      <c r="LX1" s="354"/>
+      <c r="LY1" s="354"/>
+      <c r="LZ1" s="354"/>
+      <c r="MA1" s="354"/>
+      <c r="MB1" s="354"/>
+      <c r="MC1" s="354"/>
+      <c r="MD1" s="354"/>
+      <c r="ME1" s="354"/>
+      <c r="MF1" s="354"/>
+      <c r="MG1" s="354"/>
+      <c r="MH1" s="354"/>
+      <c r="MI1" s="354"/>
+      <c r="MJ1" s="354"/>
+      <c r="MK1" s="354"/>
+      <c r="ML1" s="354"/>
+      <c r="MM1" s="354"/>
+      <c r="MN1" s="354"/>
+      <c r="MO1" s="354"/>
+      <c r="MP1" s="354"/>
+      <c r="MQ1" s="354"/>
+      <c r="MR1" s="354"/>
+      <c r="MS1" s="354"/>
+      <c r="MT1" s="354"/>
+      <c r="MU1" s="354"/>
+      <c r="MV1" s="354"/>
+      <c r="MW1" s="354"/>
+      <c r="MX1" s="458" t="s">
         <v>126</v>
       </c>
-      <c r="MY1" s="382"/>
-      <c r="MZ1" s="382"/>
-      <c r="NA1" s="382"/>
-      <c r="NB1" s="382"/>
-      <c r="NC1" s="382"/>
-      <c r="ND1" s="382"/>
-      <c r="NE1" s="382"/>
-      <c r="NF1" s="382"/>
-      <c r="NG1" s="382"/>
-      <c r="NH1" s="382"/>
-      <c r="NI1" s="382"/>
-      <c r="NJ1" s="382"/>
-      <c r="NK1" s="382"/>
-      <c r="NL1" s="382"/>
-      <c r="NM1" s="382"/>
-      <c r="NN1" s="382"/>
-      <c r="NO1" s="382"/>
-      <c r="NP1" s="382"/>
-      <c r="NQ1" s="382"/>
-      <c r="NR1" s="382"/>
-      <c r="NS1" s="393" t="s">
+      <c r="MY1" s="458"/>
+      <c r="MZ1" s="458"/>
+      <c r="NA1" s="458"/>
+      <c r="NB1" s="458"/>
+      <c r="NC1" s="458"/>
+      <c r="ND1" s="458"/>
+      <c r="NE1" s="458"/>
+      <c r="NF1" s="458"/>
+      <c r="NG1" s="458"/>
+      <c r="NH1" s="458"/>
+      <c r="NI1" s="458"/>
+      <c r="NJ1" s="458"/>
+      <c r="NK1" s="458"/>
+      <c r="NL1" s="458"/>
+      <c r="NM1" s="458"/>
+      <c r="NN1" s="458"/>
+      <c r="NO1" s="458"/>
+      <c r="NP1" s="458"/>
+      <c r="NQ1" s="458"/>
+      <c r="NR1" s="458"/>
+      <c r="NS1" s="364" t="s">
         <v>138</v>
       </c>
-      <c r="NT1" s="393"/>
-      <c r="NU1" s="393"/>
-      <c r="NV1" s="393"/>
-      <c r="NW1" s="393"/>
-      <c r="NX1" s="393"/>
-      <c r="NY1" s="393"/>
-      <c r="NZ1" s="393"/>
-      <c r="OA1" s="393"/>
-      <c r="OB1" s="393"/>
-      <c r="OC1" s="393"/>
-      <c r="OD1" s="393"/>
-      <c r="OE1" s="393"/>
-      <c r="OF1" s="393"/>
-      <c r="OG1" s="393"/>
-      <c r="OH1" s="393"/>
-      <c r="OI1" s="393"/>
-      <c r="OJ1" s="393"/>
-      <c r="OK1" s="393"/>
-      <c r="OL1" s="393"/>
-      <c r="OM1" s="393"/>
-      <c r="ON1" s="393"/>
-      <c r="OO1" s="393"/>
-      <c r="OP1" s="367" t="s">
+      <c r="NT1" s="364"/>
+      <c r="NU1" s="364"/>
+      <c r="NV1" s="364"/>
+      <c r="NW1" s="364"/>
+      <c r="NX1" s="364"/>
+      <c r="NY1" s="364"/>
+      <c r="NZ1" s="364"/>
+      <c r="OA1" s="364"/>
+      <c r="OB1" s="364"/>
+      <c r="OC1" s="364"/>
+      <c r="OD1" s="364"/>
+      <c r="OE1" s="364"/>
+      <c r="OF1" s="364"/>
+      <c r="OG1" s="364"/>
+      <c r="OH1" s="364"/>
+      <c r="OI1" s="364"/>
+      <c r="OJ1" s="364"/>
+      <c r="OK1" s="364"/>
+      <c r="OL1" s="364"/>
+      <c r="OM1" s="364"/>
+      <c r="ON1" s="364"/>
+      <c r="OO1" s="364"/>
+      <c r="OP1" s="402" t="s">
         <v>166</v>
       </c>
-      <c r="OQ1" s="367"/>
-      <c r="OR1" s="367"/>
-      <c r="OS1" s="367"/>
-      <c r="OT1" s="367"/>
-      <c r="OU1" s="367"/>
-      <c r="OV1" s="367"/>
-      <c r="OW1" s="367"/>
-      <c r="OX1" s="367"/>
-      <c r="OY1" s="367"/>
-      <c r="OZ1" s="367"/>
-      <c r="PA1" s="367"/>
-      <c r="PB1" s="367"/>
-      <c r="PC1" s="367"/>
-      <c r="PD1" s="367"/>
-      <c r="PE1" s="367"/>
-      <c r="PF1" s="367"/>
-      <c r="PG1" s="367"/>
-      <c r="PH1" s="367"/>
-      <c r="PI1" s="367"/>
-      <c r="PJ1" s="367"/>
-      <c r="PK1" s="373" t="s">
+      <c r="OQ1" s="402"/>
+      <c r="OR1" s="402"/>
+      <c r="OS1" s="402"/>
+      <c r="OT1" s="402"/>
+      <c r="OU1" s="402"/>
+      <c r="OV1" s="402"/>
+      <c r="OW1" s="402"/>
+      <c r="OX1" s="402"/>
+      <c r="OY1" s="402"/>
+      <c r="OZ1" s="402"/>
+      <c r="PA1" s="402"/>
+      <c r="PB1" s="402"/>
+      <c r="PC1" s="402"/>
+      <c r="PD1" s="402"/>
+      <c r="PE1" s="402"/>
+      <c r="PF1" s="402"/>
+      <c r="PG1" s="402"/>
+      <c r="PH1" s="402"/>
+      <c r="PI1" s="402"/>
+      <c r="PJ1" s="402"/>
+      <c r="PK1" s="350" t="s">
         <v>207</v>
       </c>
-      <c r="PL1" s="373"/>
-      <c r="PM1" s="373"/>
-      <c r="PN1" s="373"/>
-      <c r="PO1" s="373"/>
-      <c r="PP1" s="373"/>
-      <c r="PQ1" s="373"/>
-      <c r="PR1" s="373"/>
-      <c r="PS1" s="373"/>
-      <c r="PT1" s="373"/>
-      <c r="PU1" s="373"/>
-      <c r="PV1" s="373"/>
-      <c r="PW1" s="373"/>
-      <c r="PX1" s="373"/>
-      <c r="PY1" s="373"/>
-      <c r="PZ1" s="373"/>
-      <c r="QA1" s="373"/>
-      <c r="QB1" s="373"/>
-      <c r="QC1" s="373"/>
-      <c r="QD1" s="373"/>
-      <c r="QE1" s="373"/>
-      <c r="QF1" s="373"/>
-      <c r="QG1" s="373"/>
-      <c r="QH1" s="373"/>
-      <c r="QI1" s="390" t="s">
+      <c r="PL1" s="350"/>
+      <c r="PM1" s="350"/>
+      <c r="PN1" s="350"/>
+      <c r="PO1" s="350"/>
+      <c r="PP1" s="350"/>
+      <c r="PQ1" s="350"/>
+      <c r="PR1" s="350"/>
+      <c r="PS1" s="350"/>
+      <c r="PT1" s="350"/>
+      <c r="PU1" s="350"/>
+      <c r="PV1" s="350"/>
+      <c r="PW1" s="350"/>
+      <c r="PX1" s="350"/>
+      <c r="PY1" s="350"/>
+      <c r="PZ1" s="350"/>
+      <c r="QA1" s="350"/>
+      <c r="QB1" s="350"/>
+      <c r="QC1" s="350"/>
+      <c r="QD1" s="350"/>
+      <c r="QE1" s="350"/>
+      <c r="QF1" s="350"/>
+      <c r="QG1" s="350"/>
+      <c r="QH1" s="350"/>
+      <c r="QI1" s="456" t="s">
         <v>134</v>
       </c>
-      <c r="QJ1" s="390"/>
-      <c r="QK1" s="390"/>
-      <c r="QL1" s="390"/>
-      <c r="QM1" s="390"/>
-      <c r="QN1" s="390"/>
-      <c r="QO1" s="390"/>
-      <c r="QP1" s="390"/>
-      <c r="QQ1" s="390"/>
-      <c r="QR1" s="390"/>
-      <c r="QS1" s="390"/>
-      <c r="QT1" s="390"/>
-      <c r="QU1" s="390"/>
-      <c r="QV1" s="390"/>
-      <c r="QW1" s="390"/>
-      <c r="QX1" s="390"/>
-      <c r="QY1" s="390"/>
-      <c r="QZ1" s="390"/>
-      <c r="RA1" s="390"/>
-      <c r="RB1" s="394" t="s">
+      <c r="QJ1" s="456"/>
+      <c r="QK1" s="456"/>
+      <c r="QL1" s="456"/>
+      <c r="QM1" s="456"/>
+      <c r="QN1" s="456"/>
+      <c r="QO1" s="456"/>
+      <c r="QP1" s="456"/>
+      <c r="QQ1" s="456"/>
+      <c r="QR1" s="456"/>
+      <c r="QS1" s="456"/>
+      <c r="QT1" s="456"/>
+      <c r="QU1" s="456"/>
+      <c r="QV1" s="456"/>
+      <c r="QW1" s="456"/>
+      <c r="QX1" s="456"/>
+      <c r="QY1" s="456"/>
+      <c r="QZ1" s="456"/>
+      <c r="RA1" s="456"/>
+      <c r="RB1" s="420" t="s">
         <v>142</v>
       </c>
-      <c r="RC1" s="394"/>
-      <c r="RD1" s="394"/>
-      <c r="RE1" s="394"/>
-      <c r="RF1" s="394"/>
-      <c r="RG1" s="394"/>
-      <c r="RH1" s="394"/>
-      <c r="RI1" s="394"/>
-      <c r="RJ1" s="394"/>
-      <c r="RK1" s="394"/>
-      <c r="RL1" s="394"/>
-      <c r="RM1" s="394"/>
-      <c r="RN1" s="394"/>
-      <c r="RO1" s="394"/>
-      <c r="RP1" s="394"/>
-      <c r="RQ1" s="394"/>
-      <c r="RR1" s="394"/>
-      <c r="RS1" s="394"/>
-      <c r="RT1" s="394"/>
-      <c r="RU1" s="394"/>
-      <c r="RV1" s="394"/>
-      <c r="RW1" s="370" t="s">
+      <c r="RC1" s="420"/>
+      <c r="RD1" s="420"/>
+      <c r="RE1" s="420"/>
+      <c r="RF1" s="420"/>
+      <c r="RG1" s="420"/>
+      <c r="RH1" s="420"/>
+      <c r="RI1" s="420"/>
+      <c r="RJ1" s="420"/>
+      <c r="RK1" s="420"/>
+      <c r="RL1" s="420"/>
+      <c r="RM1" s="420"/>
+      <c r="RN1" s="420"/>
+      <c r="RO1" s="420"/>
+      <c r="RP1" s="420"/>
+      <c r="RQ1" s="420"/>
+      <c r="RR1" s="420"/>
+      <c r="RS1" s="420"/>
+      <c r="RT1" s="420"/>
+      <c r="RU1" s="420"/>
+      <c r="RV1" s="420"/>
+      <c r="RW1" s="409" t="s">
         <v>169</v>
       </c>
-      <c r="RX1" s="370"/>
-      <c r="RY1" s="370"/>
-      <c r="RZ1" s="370"/>
-      <c r="SA1" s="370"/>
-      <c r="SB1" s="370"/>
-      <c r="SC1" s="370"/>
-      <c r="SD1" s="370"/>
-      <c r="SE1" s="370"/>
-      <c r="SF1" s="370"/>
-      <c r="SG1" s="370"/>
-      <c r="SH1" s="370"/>
-      <c r="SI1" s="370"/>
-      <c r="SJ1" s="370"/>
-      <c r="SK1" s="370"/>
-      <c r="SL1" s="370"/>
-      <c r="SM1" s="370"/>
-      <c r="SN1" s="370"/>
-      <c r="SO1" s="370"/>
-      <c r="SP1" s="370"/>
-      <c r="SQ1" s="370"/>
-      <c r="SR1" s="370"/>
-      <c r="SS1" s="370"/>
-      <c r="ST1" s="370"/>
-      <c r="SU1" s="370"/>
-      <c r="SV1" s="370"/>
-      <c r="SW1" s="370"/>
-      <c r="SX1" s="337" t="s">
+      <c r="RX1" s="409"/>
+      <c r="RY1" s="409"/>
+      <c r="RZ1" s="409"/>
+      <c r="SA1" s="409"/>
+      <c r="SB1" s="409"/>
+      <c r="SC1" s="409"/>
+      <c r="SD1" s="409"/>
+      <c r="SE1" s="409"/>
+      <c r="SF1" s="409"/>
+      <c r="SG1" s="409"/>
+      <c r="SH1" s="409"/>
+      <c r="SI1" s="409"/>
+      <c r="SJ1" s="409"/>
+      <c r="SK1" s="409"/>
+      <c r="SL1" s="409"/>
+      <c r="SM1" s="409"/>
+      <c r="SN1" s="409"/>
+      <c r="SO1" s="409"/>
+      <c r="SP1" s="409"/>
+      <c r="SQ1" s="409"/>
+      <c r="SR1" s="409"/>
+      <c r="SS1" s="409"/>
+      <c r="ST1" s="409"/>
+      <c r="SU1" s="409"/>
+      <c r="SV1" s="409"/>
+      <c r="SW1" s="409"/>
+      <c r="SX1" s="473" t="s">
         <v>277</v>
       </c>
-      <c r="SY1" s="337"/>
-      <c r="SZ1" s="337"/>
-      <c r="TA1" s="337"/>
-      <c r="TB1" s="337"/>
-      <c r="TC1" s="337"/>
-      <c r="TD1" s="337"/>
-      <c r="TE1" s="337"/>
-      <c r="TF1" s="337"/>
-      <c r="TG1" s="337"/>
-      <c r="TH1" s="337"/>
-      <c r="TI1" s="337"/>
-      <c r="TJ1" s="337"/>
-      <c r="TK1" s="337"/>
-      <c r="TL1" s="337"/>
-      <c r="TM1" s="337"/>
-      <c r="TN1" s="337"/>
-      <c r="TO1" s="337"/>
-      <c r="TP1" s="337"/>
-      <c r="TQ1" s="337"/>
-      <c r="TR1" s="337"/>
-      <c r="TS1" s="436" t="s">
+      <c r="SY1" s="473"/>
+      <c r="SZ1" s="473"/>
+      <c r="TA1" s="473"/>
+      <c r="TB1" s="473"/>
+      <c r="TC1" s="473"/>
+      <c r="TD1" s="473"/>
+      <c r="TE1" s="473"/>
+      <c r="TF1" s="473"/>
+      <c r="TG1" s="473"/>
+      <c r="TH1" s="473"/>
+      <c r="TI1" s="473"/>
+      <c r="TJ1" s="473"/>
+      <c r="TK1" s="473"/>
+      <c r="TL1" s="473"/>
+      <c r="TM1" s="473"/>
+      <c r="TN1" s="473"/>
+      <c r="TO1" s="473"/>
+      <c r="TP1" s="473"/>
+      <c r="TQ1" s="473"/>
+      <c r="TR1" s="473"/>
+      <c r="TS1" s="373" t="s">
         <v>125</v>
       </c>
-      <c r="TT1" s="437"/>
-      <c r="TU1" s="437"/>
-      <c r="TV1" s="437"/>
-      <c r="TW1" s="437"/>
-      <c r="TX1" s="437"/>
-      <c r="TY1" s="437"/>
-      <c r="TZ1" s="437"/>
-      <c r="UA1" s="437"/>
-      <c r="UB1" s="437"/>
-      <c r="UC1" s="437"/>
-      <c r="UD1" s="437"/>
-      <c r="UE1" s="437"/>
-      <c r="UF1" s="437"/>
-      <c r="UG1" s="437"/>
-      <c r="UH1" s="437"/>
-      <c r="UI1" s="437"/>
-      <c r="UJ1" s="437"/>
-      <c r="UK1" s="437"/>
-      <c r="UL1" s="437"/>
-      <c r="UM1" s="437"/>
-      <c r="UN1" s="438"/>
-      <c r="UO1" s="401" t="s">
+      <c r="TT1" s="374"/>
+      <c r="TU1" s="374"/>
+      <c r="TV1" s="374"/>
+      <c r="TW1" s="374"/>
+      <c r="TX1" s="374"/>
+      <c r="TY1" s="374"/>
+      <c r="TZ1" s="374"/>
+      <c r="UA1" s="374"/>
+      <c r="UB1" s="374"/>
+      <c r="UC1" s="374"/>
+      <c r="UD1" s="374"/>
+      <c r="UE1" s="374"/>
+      <c r="UF1" s="374"/>
+      <c r="UG1" s="374"/>
+      <c r="UH1" s="374"/>
+      <c r="UI1" s="374"/>
+      <c r="UJ1" s="374"/>
+      <c r="UK1" s="374"/>
+      <c r="UL1" s="374"/>
+      <c r="UM1" s="374"/>
+      <c r="UN1" s="375"/>
+      <c r="UO1" s="408" t="s">
         <v>157</v>
       </c>
-      <c r="UP1" s="401"/>
-      <c r="UQ1" s="401"/>
-      <c r="UR1" s="401"/>
-      <c r="US1" s="401"/>
-      <c r="UT1" s="401"/>
-      <c r="UU1" s="401"/>
-      <c r="UV1" s="401"/>
-      <c r="UW1" s="401"/>
-      <c r="UX1" s="401"/>
-      <c r="UY1" s="401"/>
-      <c r="UZ1" s="401"/>
-      <c r="VA1" s="401"/>
-      <c r="VB1" s="401"/>
-      <c r="VC1" s="401"/>
-      <c r="VD1" s="401"/>
-      <c r="VE1" s="401"/>
-      <c r="VF1" s="401"/>
-      <c r="VG1" s="401"/>
-      <c r="VH1" s="401"/>
-      <c r="VI1" s="401"/>
-      <c r="VJ1" s="401"/>
-      <c r="VK1" s="401"/>
-      <c r="VL1" s="401"/>
-      <c r="VM1" s="401"/>
-      <c r="VN1" s="401"/>
-      <c r="VO1" s="401"/>
-      <c r="VP1" s="349" t="s">
+      <c r="UP1" s="408"/>
+      <c r="UQ1" s="408"/>
+      <c r="UR1" s="408"/>
+      <c r="US1" s="408"/>
+      <c r="UT1" s="408"/>
+      <c r="UU1" s="408"/>
+      <c r="UV1" s="408"/>
+      <c r="UW1" s="408"/>
+      <c r="UX1" s="408"/>
+      <c r="UY1" s="408"/>
+      <c r="UZ1" s="408"/>
+      <c r="VA1" s="408"/>
+      <c r="VB1" s="408"/>
+      <c r="VC1" s="408"/>
+      <c r="VD1" s="408"/>
+      <c r="VE1" s="408"/>
+      <c r="VF1" s="408"/>
+      <c r="VG1" s="408"/>
+      <c r="VH1" s="408"/>
+      <c r="VI1" s="408"/>
+      <c r="VJ1" s="408"/>
+      <c r="VK1" s="408"/>
+      <c r="VL1" s="408"/>
+      <c r="VM1" s="408"/>
+      <c r="VN1" s="408"/>
+      <c r="VO1" s="408"/>
+      <c r="VP1" s="385" t="s">
         <v>191</v>
       </c>
-      <c r="VQ1" s="349"/>
-      <c r="VR1" s="349"/>
-      <c r="VS1" s="349"/>
-      <c r="VT1" s="349"/>
-      <c r="VU1" s="349"/>
-      <c r="VV1" s="349"/>
-      <c r="VW1" s="349"/>
-      <c r="VX1" s="349"/>
-      <c r="VY1" s="349"/>
-      <c r="VZ1" s="349"/>
-      <c r="WA1" s="349"/>
-      <c r="WB1" s="349"/>
-      <c r="WC1" s="349"/>
-      <c r="WD1" s="349"/>
-      <c r="WE1" s="349"/>
-      <c r="WF1" s="349"/>
-      <c r="WG1" s="349"/>
-      <c r="WH1" s="349"/>
-      <c r="WI1" s="349"/>
-      <c r="WJ1" s="349"/>
-      <c r="WK1" s="349"/>
-      <c r="WL1" s="349"/>
-      <c r="WM1" s="349"/>
-      <c r="WN1" s="349"/>
-      <c r="WO1" s="349"/>
-      <c r="WP1" s="349"/>
-      <c r="WQ1" s="475" t="s">
+      <c r="VQ1" s="385"/>
+      <c r="VR1" s="385"/>
+      <c r="VS1" s="385"/>
+      <c r="VT1" s="385"/>
+      <c r="VU1" s="385"/>
+      <c r="VV1" s="385"/>
+      <c r="VW1" s="385"/>
+      <c r="VX1" s="385"/>
+      <c r="VY1" s="385"/>
+      <c r="VZ1" s="385"/>
+      <c r="WA1" s="385"/>
+      <c r="WB1" s="385"/>
+      <c r="WC1" s="385"/>
+      <c r="WD1" s="385"/>
+      <c r="WE1" s="385"/>
+      <c r="WF1" s="385"/>
+      <c r="WG1" s="385"/>
+      <c r="WH1" s="385"/>
+      <c r="WI1" s="385"/>
+      <c r="WJ1" s="385"/>
+      <c r="WK1" s="385"/>
+      <c r="WL1" s="385"/>
+      <c r="WM1" s="385"/>
+      <c r="WN1" s="385"/>
+      <c r="WO1" s="385"/>
+      <c r="WP1" s="385"/>
+      <c r="WQ1" s="358" t="s">
         <v>204</v>
       </c>
-      <c r="WR1" s="475"/>
-      <c r="WS1" s="475"/>
-      <c r="WT1" s="475"/>
-      <c r="WU1" s="475"/>
-      <c r="WV1" s="475"/>
-      <c r="WW1" s="475"/>
-      <c r="WX1" s="475"/>
-      <c r="WY1" s="475"/>
-      <c r="WZ1" s="475"/>
-      <c r="XA1" s="475"/>
-      <c r="XB1" s="475"/>
-      <c r="XC1" s="475"/>
-      <c r="XD1" s="475"/>
-      <c r="XE1" s="475"/>
-      <c r="XF1" s="475"/>
-      <c r="XG1" s="475"/>
-      <c r="XH1" s="475"/>
-      <c r="XI1" s="475"/>
-      <c r="XJ1" s="475"/>
-      <c r="XK1" s="475"/>
-      <c r="XL1" s="475"/>
-      <c r="XM1" s="475"/>
-      <c r="XN1" s="475"/>
-      <c r="XO1" s="333" t="s">
+      <c r="WR1" s="358"/>
+      <c r="WS1" s="358"/>
+      <c r="WT1" s="358"/>
+      <c r="WU1" s="358"/>
+      <c r="WV1" s="358"/>
+      <c r="WW1" s="358"/>
+      <c r="WX1" s="358"/>
+      <c r="WY1" s="358"/>
+      <c r="WZ1" s="358"/>
+      <c r="XA1" s="358"/>
+      <c r="XB1" s="358"/>
+      <c r="XC1" s="358"/>
+      <c r="XD1" s="358"/>
+      <c r="XE1" s="358"/>
+      <c r="XF1" s="358"/>
+      <c r="XG1" s="358"/>
+      <c r="XH1" s="358"/>
+      <c r="XI1" s="358"/>
+      <c r="XJ1" s="358"/>
+      <c r="XK1" s="358"/>
+      <c r="XL1" s="358"/>
+      <c r="XM1" s="358"/>
+      <c r="XN1" s="358"/>
+      <c r="XO1" s="399" t="s">
         <v>292</v>
       </c>
-      <c r="XP1" s="333"/>
-      <c r="XQ1" s="333"/>
-      <c r="XR1" s="333"/>
-      <c r="XS1" s="333"/>
-      <c r="XT1" s="333"/>
-      <c r="XU1" s="333"/>
-      <c r="XV1" s="333"/>
-      <c r="XW1" s="333"/>
-      <c r="XX1" s="333"/>
-      <c r="XY1" s="333"/>
-      <c r="XZ1" s="333"/>
-      <c r="YA1" s="333"/>
-      <c r="YB1" s="333"/>
-      <c r="YC1" s="333"/>
-      <c r="YD1" s="333"/>
-      <c r="YE1" s="333"/>
-      <c r="YF1" s="333"/>
-      <c r="YG1" s="333"/>
-      <c r="YH1" s="333"/>
-      <c r="YI1" s="333"/>
-      <c r="YJ1" s="333"/>
-      <c r="YK1" s="333"/>
-      <c r="YL1" s="333"/>
-      <c r="YM1" s="333"/>
-      <c r="YN1" s="333"/>
-      <c r="YO1" s="333"/>
-      <c r="YP1" s="367" t="s">
+      <c r="XP1" s="399"/>
+      <c r="XQ1" s="399"/>
+      <c r="XR1" s="399"/>
+      <c r="XS1" s="399"/>
+      <c r="XT1" s="399"/>
+      <c r="XU1" s="399"/>
+      <c r="XV1" s="399"/>
+      <c r="XW1" s="399"/>
+      <c r="XX1" s="399"/>
+      <c r="XY1" s="399"/>
+      <c r="XZ1" s="399"/>
+      <c r="YA1" s="399"/>
+      <c r="YB1" s="399"/>
+      <c r="YC1" s="399"/>
+      <c r="YD1" s="399"/>
+      <c r="YE1" s="399"/>
+      <c r="YF1" s="399"/>
+      <c r="YG1" s="399"/>
+      <c r="YH1" s="399"/>
+      <c r="YI1" s="399"/>
+      <c r="YJ1" s="399"/>
+      <c r="YK1" s="399"/>
+      <c r="YL1" s="399"/>
+      <c r="YM1" s="399"/>
+      <c r="YN1" s="399"/>
+      <c r="YO1" s="399"/>
+      <c r="YP1" s="402" t="s">
         <v>180</v>
       </c>
-      <c r="YQ1" s="367"/>
-      <c r="YR1" s="367"/>
-      <c r="YS1" s="367"/>
-      <c r="YT1" s="367"/>
-      <c r="YU1" s="367"/>
-      <c r="YV1" s="383" t="s">
+      <c r="YQ1" s="402"/>
+      <c r="YR1" s="402"/>
+      <c r="YS1" s="402"/>
+      <c r="YT1" s="402"/>
+      <c r="YU1" s="402"/>
+      <c r="YV1" s="470" t="s">
         <v>135</v>
       </c>
-      <c r="YW1" s="383"/>
-      <c r="YX1" s="383"/>
-      <c r="YY1" s="383"/>
-      <c r="YZ1" s="383"/>
-      <c r="ZA1" s="383"/>
-      <c r="ZB1" s="383"/>
-      <c r="ZC1" s="436" t="s">
+      <c r="YW1" s="470"/>
+      <c r="YX1" s="470"/>
+      <c r="YY1" s="470"/>
+      <c r="YZ1" s="470"/>
+      <c r="ZA1" s="470"/>
+      <c r="ZB1" s="470"/>
+      <c r="ZC1" s="373" t="s">
         <v>1341</v>
       </c>
-      <c r="ZD1" s="437"/>
-      <c r="ZE1" s="438"/>
-      <c r="ZF1" s="443" t="s">
+      <c r="ZD1" s="374"/>
+      <c r="ZE1" s="375"/>
+      <c r="ZF1" s="372" t="s">
         <v>300</v>
       </c>
-      <c r="ZG1" s="443"/>
-      <c r="ZH1" s="443"/>
-      <c r="ZI1" s="442" t="s">
+      <c r="ZG1" s="372"/>
+      <c r="ZH1" s="372"/>
+      <c r="ZI1" s="371" t="s">
         <v>131</v>
       </c>
-      <c r="ZJ1" s="442"/>
-      <c r="ZK1" s="442"/>
-      <c r="ZL1" s="442"/>
-      <c r="ZM1" s="439" t="s">
+      <c r="ZJ1" s="371"/>
+      <c r="ZK1" s="371"/>
+      <c r="ZL1" s="371"/>
+      <c r="ZM1" s="381" t="s">
         <v>156</v>
       </c>
-      <c r="ZN1" s="439"/>
-      <c r="ZO1" s="439"/>
-      <c r="ZP1" s="347" t="s">
+      <c r="ZN1" s="381"/>
+      <c r="ZO1" s="381"/>
+      <c r="ZP1" s="384" t="s">
         <v>200</v>
       </c>
-      <c r="ZQ1" s="347"/>
-      <c r="ZR1" s="347"/>
-      <c r="ZS1" s="386" t="s">
+      <c r="ZQ1" s="384"/>
+      <c r="ZR1" s="384"/>
+      <c r="ZS1" s="419" t="s">
         <v>285</v>
       </c>
-      <c r="ZT1" s="386"/>
-      <c r="ZU1" s="386"/>
-      <c r="ZV1" s="467" t="s">
+      <c r="ZT1" s="419"/>
+      <c r="ZU1" s="419"/>
+      <c r="ZV1" s="369" t="s">
         <v>208</v>
       </c>
-      <c r="ZW1" s="467"/>
-      <c r="ZX1" s="467"/>
-      <c r="ZY1" s="468" t="s">
+      <c r="ZW1" s="369"/>
+      <c r="ZX1" s="369"/>
+      <c r="ZY1" s="377" t="s">
         <v>133</v>
       </c>
-      <c r="ZZ1" s="469"/>
-      <c r="AAA1" s="469"/>
-      <c r="AAB1" s="469"/>
-      <c r="AAC1" s="469"/>
-      <c r="AAD1" s="474" t="s">
+      <c r="ZZ1" s="378"/>
+      <c r="AAA1" s="378"/>
+      <c r="AAB1" s="378"/>
+      <c r="AAC1" s="378"/>
+      <c r="AAD1" s="367" t="s">
         <v>178</v>
       </c>
-      <c r="AAE1" s="474"/>
-      <c r="AAF1" s="474"/>
-      <c r="AAG1" s="440" t="s">
+      <c r="AAE1" s="367"/>
+      <c r="AAF1" s="367"/>
+      <c r="AAG1" s="426" t="s">
         <v>151</v>
       </c>
-      <c r="AAH1" s="440"/>
-      <c r="AAI1" s="440"/>
-      <c r="AAJ1" s="472" t="s">
+      <c r="AAH1" s="426"/>
+      <c r="AAI1" s="426"/>
+      <c r="AAJ1" s="341" t="s">
         <v>235</v>
       </c>
-      <c r="AAK1" s="472"/>
-      <c r="AAL1" s="472"/>
-      <c r="AAM1" s="539" t="s">
+      <c r="AAK1" s="341"/>
+      <c r="AAL1" s="341"/>
+      <c r="AAM1" s="427" t="s">
         <v>275</v>
       </c>
-      <c r="AAN1" s="539"/>
-      <c r="AAO1" s="539"/>
-      <c r="AAP1" s="384" t="s">
+      <c r="AAN1" s="427"/>
+      <c r="AAO1" s="427"/>
+      <c r="AAP1" s="471" t="s">
         <v>250</v>
       </c>
-      <c r="AAQ1" s="384"/>
-      <c r="AAR1" s="384"/>
-      <c r="AAS1" s="341" t="s">
+      <c r="AAQ1" s="471"/>
+      <c r="AAR1" s="471"/>
+      <c r="AAS1" s="472" t="s">
         <v>251</v>
       </c>
-      <c r="AAT1" s="341"/>
-      <c r="AAU1" s="341"/>
-      <c r="AAV1" s="435" t="s">
+      <c r="AAT1" s="472"/>
+      <c r="AAU1" s="472"/>
+      <c r="AAV1" s="353" t="s">
         <v>225</v>
       </c>
-      <c r="AAW1" s="435"/>
-      <c r="AAX1" s="435"/>
-      <c r="AAY1" s="413" t="s">
+      <c r="AAW1" s="353"/>
+      <c r="AAX1" s="353"/>
+      <c r="AAY1" s="431" t="s">
         <v>216</v>
       </c>
-      <c r="AAZ1" s="413"/>
-      <c r="ABA1" s="413"/>
-      <c r="ABB1" s="398" t="s">
+      <c r="AAZ1" s="431"/>
+      <c r="ABA1" s="431"/>
+      <c r="ABB1" s="401" t="s">
         <v>181</v>
       </c>
-      <c r="ABC1" s="398"/>
-      <c r="ABD1" s="398"/>
-      <c r="ABE1" s="398"/>
-      <c r="ABF1" s="407" t="s">
+      <c r="ABC1" s="401"/>
+      <c r="ABD1" s="401"/>
+      <c r="ABE1" s="401"/>
+      <c r="ABF1" s="430" t="s">
         <v>121</v>
       </c>
-      <c r="ABG1" s="407"/>
-      <c r="ABH1" s="407"/>
-      <c r="ABI1" s="397" t="s">
+      <c r="ABG1" s="430"/>
+      <c r="ABH1" s="430"/>
+      <c r="ABI1" s="425" t="s">
         <v>124</v>
       </c>
-      <c r="ABJ1" s="397"/>
-      <c r="ABK1" s="397"/>
-      <c r="ABL1" s="397"/>
-      <c r="ABM1" s="396" t="s">
+      <c r="ABJ1" s="425"/>
+      <c r="ABK1" s="425"/>
+      <c r="ABL1" s="425"/>
+      <c r="ABM1" s="547" t="s">
         <v>205</v>
       </c>
-      <c r="ABN1" s="396"/>
-      <c r="ABO1" s="396"/>
-      <c r="ABP1" s="358" t="s">
+      <c r="ABN1" s="547"/>
+      <c r="ABO1" s="547"/>
+      <c r="ABP1" s="461" t="s">
         <v>47</v>
       </c>
-      <c r="ABQ1" s="358" t="s">
+      <c r="ABQ1" s="461" t="s">
         <v>48</v>
       </c>
-      <c r="ABR1" s="358" t="s">
+      <c r="ABR1" s="461" t="s">
         <v>49</v>
       </c>
-      <c r="ABS1" s="355" t="s">
+      <c r="ABS1" s="468" t="s">
         <v>50</v>
       </c>
-      <c r="ABT1" s="379" t="s">
+      <c r="ABT1" s="467" t="s">
         <v>51</v>
       </c>
-      <c r="ABU1" s="379" t="s">
+      <c r="ABU1" s="467" t="s">
         <v>52</v>
       </c>
-      <c r="ABV1" s="378" t="s">
+      <c r="ABV1" s="457" t="s">
         <v>78</v>
       </c>
-      <c r="ABW1" s="378" t="s">
+      <c r="ABW1" s="457" t="s">
         <v>79</v>
       </c>
-      <c r="ABX1" s="378" t="s">
+      <c r="ABX1" s="457" t="s">
         <v>80</v>
       </c>
-      <c r="ABY1" s="411" t="s">
+      <c r="ABY1" s="429" t="s">
         <v>61</v>
       </c>
-      <c r="ABZ1" s="411" t="s">
+      <c r="ABZ1" s="429" t="s">
         <v>62</v>
       </c>
-      <c r="ACA1" s="411" t="s">
+      <c r="ACA1" s="429" t="s">
         <v>54</v>
       </c>
-      <c r="ACB1" s="416" t="s">
+      <c r="ACB1" s="434" t="s">
         <v>1384</v>
       </c>
-      <c r="ACC1" s="417"/>
-      <c r="ACD1" s="432" t="s">
+      <c r="ACC1" s="435"/>
+      <c r="ACD1" s="336" t="s">
         <v>1377</v>
       </c>
-      <c r="ACE1" s="432" t="s">
+      <c r="ACE1" s="336" t="s">
         <v>1385</v>
       </c>
-      <c r="ACF1" s="429" t="s">
+      <c r="ACF1" s="447" t="s">
         <v>27</v>
       </c>
-      <c r="ACG1" s="426" t="s">
+      <c r="ACG1" s="444" t="s">
         <v>1386</v>
       </c>
-      <c r="ACH1" s="426" t="s">
+      <c r="ACH1" s="444" t="s">
         <v>1387</v>
       </c>
-      <c r="ACI1" s="423" t="s">
+      <c r="ACI1" s="441" t="s">
         <v>1388</v>
       </c>
-      <c r="ACJ1" s="423" t="s">
+      <c r="ACJ1" s="441" t="s">
         <v>1389</v>
       </c>
-      <c r="ACK1" s="423" t="s">
+      <c r="ACK1" s="441" t="s">
         <v>1390</v>
       </c>
-      <c r="ACL1" s="420" t="s">
+      <c r="ACL1" s="438" t="s">
         <v>80</v>
       </c>
-      <c r="ACM1" s="412" t="s">
+      <c r="ACM1" s="423" t="s">
         <v>53</v>
       </c>
-      <c r="ACN1" s="412" t="s">
+      <c r="ACN1" s="423" t="s">
         <v>54</v>
       </c>
-      <c r="ACO1" s="412" t="s">
+      <c r="ACO1" s="423" t="s">
         <v>55</v>
       </c>
-      <c r="ACP1" s="377" t="s">
+      <c r="ACP1" s="466" t="s">
         <v>89</v>
       </c>
-      <c r="ACQ1" s="441" t="s">
+      <c r="ACQ1" s="424" t="s">
         <v>56</v>
       </c>
-      <c r="ACR1" s="406" t="s">
+      <c r="ACR1" s="452" t="s">
         <v>136</v>
       </c>
       <c r="ACT1" s="298"/>
       <c r="ACU1" s="298"/>
       <c r="ACV1" s="298"/>
-      <c r="ACW1" s="478" t="s">
+      <c r="ACW1" s="339" t="s">
         <v>1384</v>
       </c>
-      <c r="ACX1" s="479"/>
+      <c r="ACX1" s="340"/>
       <c r="ACY1" s="298"/>
     </row>
     <row r="2" spans="1:779" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="355"/>
-      <c r="B2" s="356"/>
-      <c r="C2" s="355"/>
-      <c r="D2" s="357"/>
-      <c r="E2" s="357"/>
-      <c r="F2" s="355"/>
-      <c r="G2" s="355"/>
-      <c r="H2" s="355"/>
-      <c r="I2" s="355"/>
-      <c r="J2" s="355"/>
-      <c r="K2" s="355"/>
-      <c r="L2" s="355"/>
-      <c r="M2" s="355"/>
-      <c r="N2" s="355"/>
-      <c r="O2" s="355"/>
-      <c r="P2" s="355"/>
-      <c r="Q2" s="355"/>
-      <c r="R2" s="355"/>
-      <c r="S2" s="355"/>
-      <c r="T2" s="355"/>
-      <c r="U2" s="355"/>
-      <c r="V2" s="358"/>
-      <c r="W2" s="355"/>
-      <c r="X2" s="355"/>
-      <c r="Y2" s="355"/>
+      <c r="A2" s="468"/>
+      <c r="B2" s="478"/>
+      <c r="C2" s="468"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="479"/>
+      <c r="F2" s="468"/>
+      <c r="G2" s="468"/>
+      <c r="H2" s="468"/>
+      <c r="I2" s="468"/>
+      <c r="J2" s="468"/>
+      <c r="K2" s="468"/>
+      <c r="L2" s="468"/>
+      <c r="M2" s="468"/>
+      <c r="N2" s="468"/>
+      <c r="O2" s="468"/>
+      <c r="P2" s="468"/>
+      <c r="Q2" s="468"/>
+      <c r="R2" s="468"/>
+      <c r="S2" s="468"/>
+      <c r="T2" s="468"/>
+      <c r="U2" s="468"/>
+      <c r="V2" s="461"/>
+      <c r="W2" s="468"/>
+      <c r="X2" s="468"/>
+      <c r="Y2" s="468"/>
       <c r="Z2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AA2" s="456" t="s">
+      <c r="AA2" s="394" t="s">
         <v>100</v>
       </c>
-      <c r="AB2" s="456"/>
-      <c r="AC2" s="456"/>
-      <c r="AD2" s="456" t="s">
+      <c r="AB2" s="394"/>
+      <c r="AC2" s="394"/>
+      <c r="AD2" s="394" t="s">
         <v>101</v>
       </c>
-      <c r="AE2" s="456"/>
-      <c r="AF2" s="456"/>
-      <c r="AG2" s="351" t="s">
+      <c r="AE2" s="394"/>
+      <c r="AF2" s="394"/>
+      <c r="AG2" s="481" t="s">
         <v>101</v>
       </c>
-      <c r="AH2" s="351"/>
-      <c r="AI2" s="351"/>
-      <c r="AJ2" s="351" t="s">
+      <c r="AH2" s="481"/>
+      <c r="AI2" s="481"/>
+      <c r="AJ2" s="481" t="s">
         <v>100</v>
       </c>
-      <c r="AK2" s="351"/>
-      <c r="AL2" s="351"/>
-      <c r="AM2" s="342" t="s">
+      <c r="AK2" s="481"/>
+      <c r="AL2" s="481"/>
+      <c r="AM2" s="484" t="s">
         <v>101</v>
       </c>
-      <c r="AN2" s="342"/>
-      <c r="AO2" s="342"/>
-      <c r="AP2" s="342" t="s">
+      <c r="AN2" s="484"/>
+      <c r="AO2" s="484"/>
+      <c r="AP2" s="484" t="s">
         <v>100</v>
       </c>
-      <c r="AQ2" s="342"/>
-      <c r="AR2" s="342"/>
-      <c r="AS2" s="345" t="s">
+      <c r="AQ2" s="484"/>
+      <c r="AR2" s="484"/>
+      <c r="AS2" s="398" t="s">
         <v>264</v>
       </c>
-      <c r="AT2" s="345"/>
-      <c r="AU2" s="345"/>
-      <c r="AV2" s="346" t="s">
+      <c r="AT2" s="398"/>
+      <c r="AU2" s="398"/>
+      <c r="AV2" s="383" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="346"/>
-      <c r="AX2" s="346"/>
-      <c r="AY2" s="455" t="s">
+      <c r="AW2" s="383"/>
+      <c r="AX2" s="383"/>
+      <c r="AY2" s="342" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="455"/>
-      <c r="BA2" s="455"/>
-      <c r="BB2" s="455" t="s">
+      <c r="AZ2" s="342"/>
+      <c r="BA2" s="342"/>
+      <c r="BB2" s="342" t="s">
         <v>100</v>
       </c>
-      <c r="BC2" s="455"/>
-      <c r="BD2" s="455"/>
-      <c r="BE2" s="460" t="s">
+      <c r="BC2" s="342"/>
+      <c r="BD2" s="342"/>
+      <c r="BE2" s="355" t="s">
         <v>101</v>
       </c>
-      <c r="BF2" s="460"/>
-      <c r="BG2" s="460"/>
-      <c r="BH2" s="460" t="s">
+      <c r="BF2" s="355"/>
+      <c r="BG2" s="355"/>
+      <c r="BH2" s="355" t="s">
         <v>100</v>
       </c>
-      <c r="BI2" s="460"/>
-      <c r="BJ2" s="460"/>
-      <c r="BK2" s="453" t="s">
+      <c r="BI2" s="355"/>
+      <c r="BJ2" s="355"/>
+      <c r="BK2" s="344" t="s">
         <v>101</v>
       </c>
-      <c r="BL2" s="453"/>
-      <c r="BM2" s="453"/>
-      <c r="BN2" s="453" t="s">
+      <c r="BL2" s="344"/>
+      <c r="BM2" s="344"/>
+      <c r="BN2" s="344" t="s">
         <v>100</v>
       </c>
-      <c r="BO2" s="453"/>
-      <c r="BP2" s="453"/>
-      <c r="BQ2" s="387" t="s">
+      <c r="BO2" s="344"/>
+      <c r="BP2" s="344"/>
+      <c r="BQ2" s="463" t="s">
         <v>28</v>
       </c>
-      <c r="BR2" s="387"/>
-      <c r="BS2" s="387"/>
-      <c r="BT2" s="387"/>
-      <c r="BU2" s="387" t="s">
+      <c r="BR2" s="463"/>
+      <c r="BS2" s="463"/>
+      <c r="BT2" s="463"/>
+      <c r="BU2" s="463" t="s">
         <v>29</v>
       </c>
-      <c r="BV2" s="387"/>
-      <c r="BW2" s="387"/>
-      <c r="BX2" s="387"/>
-      <c r="BY2" s="387" t="s">
+      <c r="BV2" s="463"/>
+      <c r="BW2" s="463"/>
+      <c r="BX2" s="463"/>
+      <c r="BY2" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="BZ2" s="387"/>
-      <c r="CA2" s="387"/>
-      <c r="CB2" s="387"/>
-      <c r="CC2" s="387"/>
-      <c r="CD2" s="388" t="s">
+      <c r="BZ2" s="463"/>
+      <c r="CA2" s="463"/>
+      <c r="CB2" s="463"/>
+      <c r="CC2" s="463"/>
+      <c r="CD2" s="464" t="s">
         <v>31</v>
       </c>
-      <c r="CE2" s="388"/>
-      <c r="CF2" s="388"/>
-      <c r="CG2" s="388"/>
-      <c r="CH2" s="392" t="s">
+      <c r="CE2" s="464"/>
+      <c r="CF2" s="464"/>
+      <c r="CG2" s="464"/>
+      <c r="CH2" s="352" t="s">
         <v>114</v>
       </c>
-      <c r="CI2" s="392"/>
-      <c r="CJ2" s="392"/>
-      <c r="CK2" s="392" t="s">
+      <c r="CI2" s="352"/>
+      <c r="CJ2" s="352"/>
+      <c r="CK2" s="352" t="s">
         <v>100</v>
       </c>
-      <c r="CL2" s="392"/>
-      <c r="CM2" s="392"/>
-      <c r="CN2" s="368" t="s">
+      <c r="CL2" s="352"/>
+      <c r="CM2" s="352"/>
+      <c r="CN2" s="404" t="s">
         <v>114</v>
       </c>
-      <c r="CO2" s="368"/>
-      <c r="CP2" s="368"/>
-      <c r="CQ2" s="368" t="s">
+      <c r="CO2" s="404"/>
+      <c r="CP2" s="404"/>
+      <c r="CQ2" s="404" t="s">
         <v>100</v>
       </c>
-      <c r="CR2" s="368"/>
-      <c r="CS2" s="368"/>
-      <c r="CT2" s="374" t="s">
+      <c r="CR2" s="404"/>
+      <c r="CS2" s="404"/>
+      <c r="CT2" s="351" t="s">
         <v>114</v>
       </c>
-      <c r="CU2" s="374"/>
-      <c r="CV2" s="374"/>
-      <c r="CW2" s="374" t="s">
+      <c r="CU2" s="351"/>
+      <c r="CV2" s="351"/>
+      <c r="CW2" s="351" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" s="374"/>
-      <c r="CY2" s="374"/>
-      <c r="CZ2" s="391" t="s">
+      <c r="CX2" s="351"/>
+      <c r="CY2" s="351"/>
+      <c r="CZ2" s="360" t="s">
         <v>63</v>
       </c>
-      <c r="DA2" s="391"/>
-      <c r="DB2" s="391"/>
-      <c r="DC2" s="391" t="s">
+      <c r="DA2" s="360"/>
+      <c r="DB2" s="360"/>
+      <c r="DC2" s="360" t="s">
         <v>64</v>
       </c>
-      <c r="DD2" s="391"/>
-      <c r="DE2" s="391"/>
-      <c r="DF2" s="391" t="s">
+      <c r="DD2" s="360"/>
+      <c r="DE2" s="360"/>
+      <c r="DF2" s="360" t="s">
         <v>65</v>
       </c>
-      <c r="DG2" s="391"/>
-      <c r="DH2" s="391"/>
-      <c r="DI2" s="391" t="s">
+      <c r="DG2" s="360"/>
+      <c r="DH2" s="360"/>
+      <c r="DI2" s="360" t="s">
         <v>66</v>
       </c>
-      <c r="DJ2" s="391"/>
-      <c r="DK2" s="391"/>
-      <c r="DL2" s="395" t="s">
+      <c r="DJ2" s="360"/>
+      <c r="DK2" s="360"/>
+      <c r="DL2" s="411" t="s">
         <v>140</v>
       </c>
-      <c r="DM2" s="395"/>
-      <c r="DN2" s="395"/>
-      <c r="DO2" s="395" t="s">
+      <c r="DM2" s="411"/>
+      <c r="DN2" s="411"/>
+      <c r="DO2" s="411" t="s">
         <v>141</v>
       </c>
-      <c r="DP2" s="395"/>
-      <c r="DQ2" s="395"/>
-      <c r="DR2" s="395" t="s">
+      <c r="DP2" s="411"/>
+      <c r="DQ2" s="411"/>
+      <c r="DR2" s="411" t="s">
         <v>66</v>
       </c>
-      <c r="DS2" s="395"/>
-      <c r="DT2" s="395"/>
-      <c r="DU2" s="371" t="s">
+      <c r="DS2" s="411"/>
+      <c r="DT2" s="411"/>
+      <c r="DU2" s="388" t="s">
         <v>63</v>
       </c>
-      <c r="DV2" s="371"/>
-      <c r="DW2" s="371"/>
-      <c r="DX2" s="371" t="s">
+      <c r="DV2" s="388"/>
+      <c r="DW2" s="388"/>
+      <c r="DX2" s="388" t="s">
         <v>141</v>
       </c>
-      <c r="DY2" s="371"/>
-      <c r="DZ2" s="371"/>
-      <c r="EA2" s="371" t="s">
+      <c r="DY2" s="388"/>
+      <c r="DZ2" s="388"/>
+      <c r="EA2" s="388" t="s">
         <v>66</v>
       </c>
-      <c r="EB2" s="371"/>
-      <c r="EC2" s="371"/>
-      <c r="ED2" s="335" t="s">
+      <c r="EB2" s="388"/>
+      <c r="EC2" s="388"/>
+      <c r="ED2" s="474" t="s">
         <v>101</v>
       </c>
-      <c r="EE2" s="335"/>
-      <c r="EF2" s="335"/>
-      <c r="EG2" s="335" t="s">
+      <c r="EE2" s="474"/>
+      <c r="EF2" s="474"/>
+      <c r="EG2" s="474" t="s">
         <v>100</v>
       </c>
-      <c r="EH2" s="335"/>
-      <c r="EI2" s="335"/>
-      <c r="EJ2" s="339" t="s">
+      <c r="EH2" s="474"/>
+      <c r="EI2" s="474"/>
+      <c r="EJ2" s="390" t="s">
         <v>81</v>
       </c>
-      <c r="EK2" s="339"/>
-      <c r="EL2" s="339"/>
-      <c r="EM2" s="339" t="s">
+      <c r="EK2" s="390"/>
+      <c r="EL2" s="390"/>
+      <c r="EM2" s="390" t="s">
         <v>82</v>
       </c>
-      <c r="EN2" s="339"/>
-      <c r="EO2" s="339"/>
-      <c r="EP2" s="339" t="s">
+      <c r="EN2" s="390"/>
+      <c r="EO2" s="390"/>
+      <c r="EP2" s="390" t="s">
         <v>83</v>
       </c>
-      <c r="EQ2" s="339"/>
-      <c r="ER2" s="339"/>
-      <c r="ES2" s="339" t="s">
+      <c r="EQ2" s="390"/>
+      <c r="ER2" s="390"/>
+      <c r="ES2" s="390" t="s">
         <v>84</v>
       </c>
-      <c r="ET2" s="339"/>
-      <c r="EU2" s="339"/>
-      <c r="EV2" s="339" t="s">
+      <c r="ET2" s="390"/>
+      <c r="EU2" s="390"/>
+      <c r="EV2" s="390" t="s">
         <v>66</v>
       </c>
-      <c r="EW2" s="339"/>
-      <c r="EX2" s="339"/>
-      <c r="EY2" s="402" t="s">
+      <c r="EW2" s="390"/>
+      <c r="EX2" s="390"/>
+      <c r="EY2" s="406" t="s">
         <v>154</v>
       </c>
-      <c r="EZ2" s="402"/>
-      <c r="FA2" s="402"/>
-      <c r="FB2" s="402" t="s">
+      <c r="EZ2" s="406"/>
+      <c r="FA2" s="406"/>
+      <c r="FB2" s="406" t="s">
         <v>82</v>
       </c>
-      <c r="FC2" s="402"/>
-      <c r="FD2" s="402"/>
-      <c r="FE2" s="404" t="s">
+      <c r="FC2" s="406"/>
+      <c r="FD2" s="406"/>
+      <c r="FE2" s="450" t="s">
         <v>155</v>
       </c>
-      <c r="FF2" s="404"/>
-      <c r="FG2" s="404"/>
-      <c r="FH2" s="346" t="s">
+      <c r="FF2" s="450"/>
+      <c r="FG2" s="450"/>
+      <c r="FH2" s="383" t="s">
         <v>154</v>
       </c>
-      <c r="FI2" s="346"/>
-      <c r="FJ2" s="346"/>
-      <c r="FK2" s="346" t="s">
+      <c r="FI2" s="383"/>
+      <c r="FJ2" s="383"/>
+      <c r="FK2" s="383" t="s">
         <v>82</v>
       </c>
-      <c r="FL2" s="346"/>
-      <c r="FM2" s="346"/>
-      <c r="FN2" s="346" t="s">
+      <c r="FL2" s="383"/>
+      <c r="FM2" s="383"/>
+      <c r="FN2" s="383" t="s">
         <v>66</v>
       </c>
-      <c r="FO2" s="346"/>
-      <c r="FP2" s="346"/>
-      <c r="FQ2" s="334" t="s">
+      <c r="FO2" s="383"/>
+      <c r="FP2" s="383"/>
+      <c r="FQ2" s="400" t="s">
         <v>290</v>
       </c>
-      <c r="FR2" s="334"/>
-      <c r="FS2" s="334"/>
-      <c r="FT2" s="334" t="s">
+      <c r="FR2" s="400"/>
+      <c r="FS2" s="400"/>
+      <c r="FT2" s="400" t="s">
         <v>291</v>
       </c>
-      <c r="FU2" s="334"/>
-      <c r="FV2" s="334"/>
-      <c r="FW2" s="334" t="s">
+      <c r="FU2" s="400"/>
+      <c r="FV2" s="400"/>
+      <c r="FW2" s="400" t="s">
         <v>66</v>
       </c>
-      <c r="FX2" s="334"/>
-      <c r="FY2" s="334"/>
-      <c r="FZ2" s="455" t="s">
+      <c r="FX2" s="400"/>
+      <c r="FY2" s="400"/>
+      <c r="FZ2" s="342" t="s">
         <v>227</v>
       </c>
-      <c r="GA2" s="455"/>
-      <c r="GB2" s="455"/>
-      <c r="GC2" s="455" t="s">
+      <c r="GA2" s="342"/>
+      <c r="GB2" s="342"/>
+      <c r="GC2" s="342" t="s">
         <v>228</v>
       </c>
-      <c r="GD2" s="455"/>
-      <c r="GE2" s="455"/>
-      <c r="GF2" s="455" t="s">
+      <c r="GD2" s="342"/>
+      <c r="GE2" s="342"/>
+      <c r="GF2" s="342" t="s">
         <v>229</v>
       </c>
-      <c r="GG2" s="455"/>
-      <c r="GH2" s="455"/>
-      <c r="GI2" s="455" t="s">
+      <c r="GG2" s="342"/>
+      <c r="GH2" s="342"/>
+      <c r="GI2" s="342" t="s">
         <v>230</v>
       </c>
-      <c r="GJ2" s="455"/>
-      <c r="GK2" s="455"/>
-      <c r="GL2" s="455" t="s">
+      <c r="GJ2" s="342"/>
+      <c r="GK2" s="342"/>
+      <c r="GL2" s="342" t="s">
         <v>231</v>
       </c>
-      <c r="GM2" s="455"/>
-      <c r="GN2" s="455"/>
-      <c r="GO2" s="455" t="s">
+      <c r="GM2" s="342"/>
+      <c r="GN2" s="342"/>
+      <c r="GO2" s="342" t="s">
         <v>232</v>
       </c>
-      <c r="GP2" s="455"/>
-      <c r="GQ2" s="455"/>
-      <c r="GR2" s="455" t="s">
+      <c r="GP2" s="342"/>
+      <c r="GQ2" s="342"/>
+      <c r="GR2" s="342" t="s">
         <v>233</v>
       </c>
-      <c r="GS2" s="455"/>
-      <c r="GT2" s="455"/>
-      <c r="GU2" s="455" t="s">
+      <c r="GS2" s="342"/>
+      <c r="GT2" s="342"/>
+      <c r="GU2" s="342" t="s">
         <v>234</v>
       </c>
-      <c r="GV2" s="455"/>
-      <c r="GW2" s="455"/>
-      <c r="GX2" s="351" t="s">
+      <c r="GV2" s="342"/>
+      <c r="GW2" s="342"/>
+      <c r="GX2" s="481" t="s">
         <v>237</v>
       </c>
-      <c r="GY2" s="351"/>
-      <c r="GZ2" s="351"/>
-      <c r="HA2" s="351" t="s">
+      <c r="GY2" s="481"/>
+      <c r="GZ2" s="481"/>
+      <c r="HA2" s="481" t="s">
         <v>238</v>
       </c>
-      <c r="HB2" s="351"/>
-      <c r="HC2" s="351"/>
-      <c r="HD2" s="351" t="s">
+      <c r="HB2" s="481"/>
+      <c r="HC2" s="481"/>
+      <c r="HD2" s="481" t="s">
         <v>239</v>
       </c>
-      <c r="HE2" s="351"/>
-      <c r="HF2" s="351"/>
-      <c r="HG2" s="351" t="s">
+      <c r="HE2" s="481"/>
+      <c r="HF2" s="481"/>
+      <c r="HG2" s="481" t="s">
         <v>240</v>
       </c>
-      <c r="HH2" s="351"/>
-      <c r="HI2" s="351"/>
-      <c r="HJ2" s="351" t="s">
+      <c r="HH2" s="481"/>
+      <c r="HI2" s="481"/>
+      <c r="HJ2" s="481" t="s">
         <v>241</v>
       </c>
-      <c r="HK2" s="351"/>
-      <c r="HL2" s="351"/>
-      <c r="HM2" s="351" t="s">
+      <c r="HK2" s="481"/>
+      <c r="HL2" s="481"/>
+      <c r="HM2" s="481" t="s">
         <v>242</v>
       </c>
-      <c r="HN2" s="351"/>
-      <c r="HO2" s="351"/>
-      <c r="HP2" s="351" t="s">
+      <c r="HN2" s="481"/>
+      <c r="HO2" s="481"/>
+      <c r="HP2" s="481" t="s">
         <v>243</v>
       </c>
-      <c r="HQ2" s="351"/>
-      <c r="HR2" s="351"/>
-      <c r="HS2" s="351" t="s">
+      <c r="HQ2" s="481"/>
+      <c r="HR2" s="481"/>
+      <c r="HS2" s="481" t="s">
         <v>244</v>
       </c>
-      <c r="HT2" s="351"/>
-      <c r="HU2" s="351"/>
-      <c r="HV2" s="354" t="s">
+      <c r="HT2" s="481"/>
+      <c r="HU2" s="481"/>
+      <c r="HV2" s="459" t="s">
         <v>237</v>
       </c>
-      <c r="HW2" s="354"/>
-      <c r="HX2" s="354"/>
-      <c r="HY2" s="354" t="s">
+      <c r="HW2" s="459"/>
+      <c r="HX2" s="459"/>
+      <c r="HY2" s="459" t="s">
         <v>245</v>
       </c>
-      <c r="HZ2" s="354"/>
-      <c r="IA2" s="354"/>
-      <c r="IB2" s="354" t="s">
+      <c r="HZ2" s="459"/>
+      <c r="IA2" s="459"/>
+      <c r="IB2" s="459" t="s">
         <v>246</v>
       </c>
-      <c r="IC2" s="354"/>
-      <c r="ID2" s="354"/>
-      <c r="IE2" s="354" t="s">
+      <c r="IC2" s="459"/>
+      <c r="ID2" s="459"/>
+      <c r="IE2" s="459" t="s">
         <v>247</v>
       </c>
-      <c r="IF2" s="354"/>
-      <c r="IG2" s="354"/>
-      <c r="IH2" s="354" t="s">
+      <c r="IF2" s="459"/>
+      <c r="IG2" s="459"/>
+      <c r="IH2" s="459" t="s">
         <v>248</v>
       </c>
-      <c r="II2" s="354"/>
-      <c r="IJ2" s="354"/>
-      <c r="IK2" s="354" t="s">
+      <c r="II2" s="459"/>
+      <c r="IJ2" s="459"/>
+      <c r="IK2" s="459" t="s">
         <v>249</v>
       </c>
-      <c r="IL2" s="354"/>
-      <c r="IM2" s="354"/>
-      <c r="IN2" s="345" t="s">
+      <c r="IL2" s="459"/>
+      <c r="IM2" s="459"/>
+      <c r="IN2" s="398" t="s">
         <v>267</v>
       </c>
-      <c r="IO2" s="345"/>
-      <c r="IP2" s="345"/>
-      <c r="IQ2" s="345" t="s">
+      <c r="IO2" s="398"/>
+      <c r="IP2" s="398"/>
+      <c r="IQ2" s="398" t="s">
         <v>268</v>
       </c>
-      <c r="IR2" s="345"/>
-      <c r="IS2" s="345"/>
-      <c r="IT2" s="345" t="s">
+      <c r="IR2" s="398"/>
+      <c r="IS2" s="398"/>
+      <c r="IT2" s="398" t="s">
         <v>269</v>
       </c>
-      <c r="IU2" s="345"/>
-      <c r="IV2" s="345"/>
-      <c r="IW2" s="345" t="s">
+      <c r="IU2" s="398"/>
+      <c r="IV2" s="398"/>
+      <c r="IW2" s="398" t="s">
         <v>270</v>
       </c>
-      <c r="IX2" s="345"/>
-      <c r="IY2" s="345"/>
-      <c r="IZ2" s="345" t="s">
+      <c r="IX2" s="398"/>
+      <c r="IY2" s="398"/>
+      <c r="IZ2" s="398" t="s">
         <v>271</v>
       </c>
-      <c r="JA2" s="345"/>
-      <c r="JB2" s="345"/>
-      <c r="JC2" s="345" t="s">
+      <c r="JA2" s="398"/>
+      <c r="JB2" s="398"/>
+      <c r="JC2" s="398" t="s">
         <v>272</v>
       </c>
-      <c r="JD2" s="345"/>
-      <c r="JE2" s="345"/>
-      <c r="JF2" s="345" t="s">
+      <c r="JD2" s="398"/>
+      <c r="JE2" s="398"/>
+      <c r="JF2" s="398" t="s">
         <v>273</v>
       </c>
-      <c r="JG2" s="345"/>
-      <c r="JH2" s="345"/>
-      <c r="JI2" s="345" t="s">
+      <c r="JG2" s="398"/>
+      <c r="JH2" s="398"/>
+      <c r="JI2" s="398" t="s">
         <v>274</v>
       </c>
-      <c r="JJ2" s="345"/>
-      <c r="JK2" s="345"/>
-      <c r="JL2" s="342" t="s">
+      <c r="JJ2" s="398"/>
+      <c r="JK2" s="398"/>
+      <c r="JL2" s="484" t="s">
         <v>258</v>
       </c>
-      <c r="JM2" s="342"/>
-      <c r="JN2" s="342"/>
-      <c r="JO2" s="342" t="s">
+      <c r="JM2" s="484"/>
+      <c r="JN2" s="484"/>
+      <c r="JO2" s="484" t="s">
         <v>259</v>
       </c>
-      <c r="JP2" s="342"/>
-      <c r="JQ2" s="342"/>
-      <c r="JR2" s="342" t="s">
+      <c r="JP2" s="484"/>
+      <c r="JQ2" s="484"/>
+      <c r="JR2" s="484" t="s">
         <v>260</v>
       </c>
-      <c r="JS2" s="342"/>
-      <c r="JT2" s="342"/>
-      <c r="JU2" s="342" t="s">
+      <c r="JS2" s="484"/>
+      <c r="JT2" s="484"/>
+      <c r="JU2" s="484" t="s">
         <v>261</v>
       </c>
-      <c r="JV2" s="342"/>
-      <c r="JW2" s="342"/>
-      <c r="JX2" s="342" t="s">
+      <c r="JV2" s="484"/>
+      <c r="JW2" s="484"/>
+      <c r="JX2" s="484" t="s">
         <v>262</v>
       </c>
-      <c r="JY2" s="342"/>
-      <c r="JZ2" s="342"/>
-      <c r="KA2" s="342" t="s">
+      <c r="JY2" s="484"/>
+      <c r="JZ2" s="484"/>
+      <c r="KA2" s="484" t="s">
         <v>263</v>
       </c>
-      <c r="KB2" s="342"/>
-      <c r="KC2" s="342"/>
-      <c r="KD2" s="458" t="s">
+      <c r="KB2" s="484"/>
+      <c r="KC2" s="484"/>
+      <c r="KD2" s="396" t="s">
         <v>102</v>
       </c>
-      <c r="KE2" s="458"/>
-      <c r="KF2" s="458"/>
-      <c r="KG2" s="458" t="s">
+      <c r="KE2" s="396"/>
+      <c r="KF2" s="396"/>
+      <c r="KG2" s="396" t="s">
         <v>103</v>
       </c>
-      <c r="KH2" s="458"/>
-      <c r="KI2" s="458"/>
-      <c r="KJ2" s="400" t="s">
+      <c r="KH2" s="396"/>
+      <c r="KI2" s="396"/>
+      <c r="KJ2" s="348" t="s">
         <v>92</v>
       </c>
-      <c r="KK2" s="400"/>
-      <c r="KL2" s="400"/>
-      <c r="KM2" s="400" t="s">
+      <c r="KK2" s="348"/>
+      <c r="KL2" s="348"/>
+      <c r="KM2" s="348" t="s">
         <v>104</v>
       </c>
-      <c r="KN2" s="400"/>
-      <c r="KO2" s="400"/>
-      <c r="KP2" s="400" t="s">
+      <c r="KN2" s="348"/>
+      <c r="KO2" s="348"/>
+      <c r="KP2" s="348" t="s">
         <v>90</v>
       </c>
-      <c r="KQ2" s="400"/>
-      <c r="KR2" s="400"/>
-      <c r="KS2" s="400" t="s">
+      <c r="KQ2" s="348"/>
+      <c r="KR2" s="348"/>
+      <c r="KS2" s="348" t="s">
         <v>105</v>
       </c>
-      <c r="KT2" s="400"/>
-      <c r="KU2" s="400"/>
-      <c r="KV2" s="400" t="s">
+      <c r="KT2" s="348"/>
+      <c r="KU2" s="348"/>
+      <c r="KV2" s="348" t="s">
         <v>106</v>
       </c>
-      <c r="KW2" s="400"/>
-      <c r="KX2" s="400"/>
-      <c r="KY2" s="400" t="s">
+      <c r="KW2" s="348"/>
+      <c r="KX2" s="348"/>
+      <c r="KY2" s="348" t="s">
         <v>104</v>
       </c>
-      <c r="KZ2" s="400"/>
-      <c r="LA2" s="400"/>
-      <c r="LB2" s="400" t="s">
+      <c r="KZ2" s="348"/>
+      <c r="LA2" s="348"/>
+      <c r="LB2" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="LC2" s="400"/>
-      <c r="LD2" s="400"/>
-      <c r="LE2" s="460" t="s">
+      <c r="LC2" s="348"/>
+      <c r="LD2" s="348"/>
+      <c r="LE2" s="355" t="s">
         <v>210</v>
       </c>
-      <c r="LF2" s="460"/>
-      <c r="LG2" s="460"/>
-      <c r="LH2" s="460" t="s">
+      <c r="LF2" s="356"/>
+      <c r="LG2" s="356"/>
+      <c r="LH2" s="355" t="s">
         <v>211</v>
       </c>
-      <c r="LI2" s="460"/>
-      <c r="LJ2" s="460"/>
-      <c r="LK2" s="460" t="s">
+      <c r="LI2" s="356"/>
+      <c r="LJ2" s="356"/>
+      <c r="LK2" s="355" t="s">
         <v>212</v>
       </c>
-      <c r="LL2" s="460"/>
-      <c r="LM2" s="460"/>
-      <c r="LN2" s="460" t="s">
+      <c r="LL2" s="356"/>
+      <c r="LM2" s="356"/>
+      <c r="LN2" s="355" t="s">
         <v>213</v>
       </c>
-      <c r="LO2" s="460"/>
-      <c r="LP2" s="460"/>
-      <c r="LQ2" s="460" t="s">
+      <c r="LO2" s="356"/>
+      <c r="LP2" s="356"/>
+      <c r="LQ2" s="355" t="s">
         <v>214</v>
       </c>
-      <c r="LR2" s="460"/>
-      <c r="LS2" s="460"/>
-      <c r="LT2" s="460" t="s">
+      <c r="LR2" s="356"/>
+      <c r="LS2" s="356"/>
+      <c r="LT2" s="355" t="s">
         <v>215</v>
       </c>
-      <c r="LU2" s="460"/>
-      <c r="LV2" s="460"/>
-      <c r="LW2" s="453" t="s">
+      <c r="LU2" s="356"/>
+      <c r="LV2" s="356"/>
+      <c r="LW2" s="344" t="s">
         <v>217</v>
       </c>
-      <c r="LX2" s="453"/>
-      <c r="LY2" s="453"/>
-      <c r="LZ2" s="480" t="s">
+      <c r="LX2" s="344"/>
+      <c r="LY2" s="344"/>
+      <c r="LZ2" s="345" t="s">
         <v>218</v>
       </c>
-      <c r="MA2" s="480"/>
-      <c r="MB2" s="480"/>
-      <c r="MC2" s="453" t="s">
+      <c r="MA2" s="345"/>
+      <c r="MB2" s="345"/>
+      <c r="MC2" s="344" t="s">
         <v>219</v>
       </c>
-      <c r="MD2" s="453"/>
-      <c r="ME2" s="453"/>
-      <c r="MF2" s="453" t="s">
+      <c r="MD2" s="344"/>
+      <c r="ME2" s="344"/>
+      <c r="MF2" s="344" t="s">
         <v>220</v>
       </c>
-      <c r="MG2" s="453"/>
-      <c r="MH2" s="453"/>
-      <c r="MI2" s="453" t="s">
+      <c r="MG2" s="344"/>
+      <c r="MH2" s="344"/>
+      <c r="MI2" s="344" t="s">
         <v>221</v>
       </c>
-      <c r="MJ2" s="453"/>
-      <c r="MK2" s="453"/>
-      <c r="ML2" s="453" t="s">
+      <c r="MJ2" s="344"/>
+      <c r="MK2" s="344"/>
+      <c r="ML2" s="344" t="s">
         <v>184</v>
       </c>
-      <c r="MM2" s="453"/>
-      <c r="MN2" s="453"/>
-      <c r="MO2" s="453" t="s">
+      <c r="MM2" s="344"/>
+      <c r="MN2" s="344"/>
+      <c r="MO2" s="344" t="s">
         <v>222</v>
       </c>
-      <c r="MP2" s="453"/>
-      <c r="MQ2" s="453"/>
-      <c r="MR2" s="453" t="s">
+      <c r="MP2" s="344"/>
+      <c r="MQ2" s="344"/>
+      <c r="MR2" s="344" t="s">
         <v>223</v>
       </c>
-      <c r="MS2" s="453"/>
-      <c r="MT2" s="453"/>
-      <c r="MU2" s="453" t="s">
+      <c r="MS2" s="344"/>
+      <c r="MT2" s="344"/>
+      <c r="MU2" s="344" t="s">
         <v>224</v>
       </c>
-      <c r="MV2" s="453"/>
-      <c r="MW2" s="453"/>
-      <c r="MX2" s="382" t="s">
+      <c r="MV2" s="344"/>
+      <c r="MW2" s="344"/>
+      <c r="MX2" s="458" t="s">
         <v>32</v>
       </c>
-      <c r="MY2" s="382"/>
-      <c r="MZ2" s="382"/>
-      <c r="NA2" s="382"/>
-      <c r="NB2" s="389" t="s">
+      <c r="MY2" s="458"/>
+      <c r="MZ2" s="458"/>
+      <c r="NA2" s="458"/>
+      <c r="NB2" s="465" t="s">
         <v>33</v>
       </c>
-      <c r="NC2" s="389"/>
-      <c r="ND2" s="389"/>
-      <c r="NE2" s="389"/>
-      <c r="NF2" s="382" t="s">
+      <c r="NC2" s="465"/>
+      <c r="ND2" s="465"/>
+      <c r="NE2" s="465"/>
+      <c r="NF2" s="458" t="s">
         <v>34</v>
       </c>
-      <c r="NG2" s="382"/>
-      <c r="NH2" s="382"/>
-      <c r="NI2" s="382"/>
-      <c r="NJ2" s="382" t="s">
+      <c r="NG2" s="458"/>
+      <c r="NH2" s="458"/>
+      <c r="NI2" s="458"/>
+      <c r="NJ2" s="458" t="s">
         <v>35</v>
       </c>
-      <c r="NK2" s="382"/>
-      <c r="NL2" s="382"/>
-      <c r="NM2" s="382"/>
-      <c r="NN2" s="382"/>
-      <c r="NO2" s="382" t="s">
+      <c r="NK2" s="458"/>
+      <c r="NL2" s="458"/>
+      <c r="NM2" s="458"/>
+      <c r="NN2" s="458"/>
+      <c r="NO2" s="458" t="s">
         <v>36</v>
       </c>
-      <c r="NP2" s="382"/>
-      <c r="NQ2" s="382"/>
-      <c r="NR2" s="382"/>
-      <c r="NS2" s="392" t="s">
+      <c r="NP2" s="458"/>
+      <c r="NQ2" s="458"/>
+      <c r="NR2" s="458"/>
+      <c r="NS2" s="352" t="s">
         <v>33</v>
       </c>
-      <c r="NT2" s="392"/>
-      <c r="NU2" s="392"/>
-      <c r="NV2" s="392"/>
-      <c r="NW2" s="392" t="s">
+      <c r="NT2" s="352"/>
+      <c r="NU2" s="352"/>
+      <c r="NV2" s="352"/>
+      <c r="NW2" s="352" t="s">
         <v>115</v>
       </c>
-      <c r="NX2" s="392"/>
-      <c r="NY2" s="392"/>
-      <c r="NZ2" s="392" t="s">
+      <c r="NX2" s="352"/>
+      <c r="NY2" s="352"/>
+      <c r="NZ2" s="352" t="s">
         <v>116</v>
       </c>
-      <c r="OA2" s="392"/>
-      <c r="OB2" s="392"/>
-      <c r="OC2" s="392" t="s">
+      <c r="OA2" s="352"/>
+      <c r="OB2" s="352"/>
+      <c r="OC2" s="352" t="s">
         <v>117</v>
       </c>
-      <c r="OD2" s="392"/>
-      <c r="OE2" s="392"/>
-      <c r="OF2" s="392" t="s">
+      <c r="OD2" s="352"/>
+      <c r="OE2" s="352"/>
+      <c r="OF2" s="352" t="s">
         <v>118</v>
       </c>
-      <c r="OG2" s="392"/>
-      <c r="OH2" s="392"/>
-      <c r="OI2" s="392" t="s">
+      <c r="OG2" s="352"/>
+      <c r="OH2" s="352"/>
+      <c r="OI2" s="352" t="s">
         <v>119</v>
       </c>
-      <c r="OJ2" s="392"/>
-      <c r="OK2" s="392"/>
-      <c r="OL2" s="392"/>
-      <c r="OM2" s="392" t="s">
+      <c r="OJ2" s="352"/>
+      <c r="OK2" s="352"/>
+      <c r="OL2" s="352"/>
+      <c r="OM2" s="352" t="s">
         <v>120</v>
       </c>
-      <c r="ON2" s="392"/>
-      <c r="OO2" s="392"/>
-      <c r="OP2" s="368" t="s">
+      <c r="ON2" s="352"/>
+      <c r="OO2" s="352"/>
+      <c r="OP2" s="404" t="s">
         <v>167</v>
       </c>
-      <c r="OQ2" s="368"/>
-      <c r="OR2" s="368"/>
-      <c r="OS2" s="368" t="s">
+      <c r="OQ2" s="404"/>
+      <c r="OR2" s="404"/>
+      <c r="OS2" s="404" t="s">
         <v>168</v>
       </c>
-      <c r="OT2" s="368"/>
-      <c r="OU2" s="368"/>
-      <c r="OV2" s="368" t="s">
+      <c r="OT2" s="404"/>
+      <c r="OU2" s="404"/>
+      <c r="OV2" s="404" t="s">
         <v>170</v>
       </c>
-      <c r="OW2" s="368"/>
-      <c r="OX2" s="368"/>
-      <c r="OY2" s="368" t="s">
+      <c r="OW2" s="404"/>
+      <c r="OX2" s="404"/>
+      <c r="OY2" s="404" t="s">
         <v>171</v>
       </c>
-      <c r="OZ2" s="368"/>
-      <c r="PA2" s="368"/>
-      <c r="PB2" s="368" t="s">
+      <c r="OZ2" s="404"/>
+      <c r="PA2" s="404"/>
+      <c r="PB2" s="404" t="s">
         <v>172</v>
       </c>
-      <c r="PC2" s="368"/>
-      <c r="PD2" s="368"/>
-      <c r="PE2" s="368" t="s">
+      <c r="PC2" s="404"/>
+      <c r="PD2" s="404"/>
+      <c r="PE2" s="404" t="s">
         <v>173</v>
       </c>
-      <c r="PF2" s="368"/>
-      <c r="PG2" s="368"/>
-      <c r="PH2" s="368" t="s">
+      <c r="PF2" s="404"/>
+      <c r="PG2" s="404"/>
+      <c r="PH2" s="404" t="s">
         <v>174</v>
       </c>
-      <c r="PI2" s="368"/>
-      <c r="PJ2" s="368"/>
-      <c r="PK2" s="374" t="s">
+      <c r="PI2" s="404"/>
+      <c r="PJ2" s="404"/>
+      <c r="PK2" s="351" t="s">
         <v>107</v>
       </c>
-      <c r="PL2" s="374"/>
-      <c r="PM2" s="374"/>
-      <c r="PN2" s="374" t="s">
+      <c r="PL2" s="351"/>
+      <c r="PM2" s="351"/>
+      <c r="PN2" s="351" t="s">
         <v>108</v>
       </c>
-      <c r="PO2" s="374"/>
-      <c r="PP2" s="374"/>
-      <c r="PQ2" s="374" t="s">
+      <c r="PO2" s="351"/>
+      <c r="PP2" s="351"/>
+      <c r="PQ2" s="351" t="s">
         <v>109</v>
       </c>
-      <c r="PR2" s="374"/>
-      <c r="PS2" s="374"/>
-      <c r="PT2" s="374" t="s">
+      <c r="PR2" s="351"/>
+      <c r="PS2" s="351"/>
+      <c r="PT2" s="351" t="s">
         <v>110</v>
       </c>
-      <c r="PU2" s="374"/>
-      <c r="PV2" s="374"/>
-      <c r="PW2" s="374" t="s">
+      <c r="PU2" s="351"/>
+      <c r="PV2" s="351"/>
+      <c r="PW2" s="351" t="s">
         <v>111</v>
       </c>
-      <c r="PX2" s="374"/>
-      <c r="PY2" s="374"/>
-      <c r="PZ2" s="374" t="s">
+      <c r="PX2" s="351"/>
+      <c r="PY2" s="351"/>
+      <c r="PZ2" s="351" t="s">
         <v>112</v>
       </c>
-      <c r="QA2" s="374"/>
-      <c r="QB2" s="374"/>
-      <c r="QC2" s="374" t="s">
+      <c r="QA2" s="351"/>
+      <c r="QB2" s="351"/>
+      <c r="QC2" s="351" t="s">
         <v>113</v>
       </c>
-      <c r="QD2" s="374"/>
-      <c r="QE2" s="374"/>
-      <c r="QF2" s="374" t="s">
+      <c r="QD2" s="351"/>
+      <c r="QE2" s="351"/>
+      <c r="QF2" s="351" t="s">
         <v>38</v>
       </c>
-      <c r="QG2" s="374"/>
-      <c r="QH2" s="374"/>
-      <c r="QI2" s="391" t="s">
+      <c r="QG2" s="351"/>
+      <c r="QH2" s="351"/>
+      <c r="QI2" s="360" t="s">
         <v>67</v>
       </c>
-      <c r="QJ2" s="391"/>
-      <c r="QK2" s="391"/>
-      <c r="QL2" s="391" t="s">
+      <c r="QJ2" s="360"/>
+      <c r="QK2" s="360"/>
+      <c r="QL2" s="360" t="s">
         <v>68</v>
       </c>
-      <c r="QM2" s="391"/>
-      <c r="QN2" s="391"/>
-      <c r="QO2" s="391" t="s">
+      <c r="QM2" s="360"/>
+      <c r="QN2" s="360"/>
+      <c r="QO2" s="360" t="s">
         <v>69</v>
       </c>
-      <c r="QP2" s="391"/>
-      <c r="QQ2" s="391"/>
-      <c r="QR2" s="408" t="s">
+      <c r="QP2" s="360"/>
+      <c r="QQ2" s="360"/>
+      <c r="QR2" s="454" t="s">
         <v>70</v>
       </c>
-      <c r="QS2" s="408"/>
-      <c r="QT2" s="408"/>
-      <c r="QU2" s="445" t="s">
+      <c r="QS2" s="454"/>
+      <c r="QT2" s="454"/>
+      <c r="QU2" s="412" t="s">
         <v>71</v>
       </c>
-      <c r="QV2" s="446"/>
-      <c r="QW2" s="446"/>
-      <c r="QX2" s="447"/>
-      <c r="QY2" s="408" t="s">
+      <c r="QV2" s="413"/>
+      <c r="QW2" s="413"/>
+      <c r="QX2" s="414"/>
+      <c r="QY2" s="454" t="s">
         <v>72</v>
       </c>
-      <c r="QZ2" s="408"/>
-      <c r="RA2" s="408"/>
-      <c r="RB2" s="395" t="s">
+      <c r="QZ2" s="454"/>
+      <c r="RA2" s="454"/>
+      <c r="RB2" s="411" t="s">
         <v>143</v>
       </c>
-      <c r="RC2" s="395"/>
-      <c r="RD2" s="395"/>
-      <c r="RE2" s="395" t="s">
+      <c r="RC2" s="411"/>
+      <c r="RD2" s="411"/>
+      <c r="RE2" s="411" t="s">
         <v>144</v>
       </c>
-      <c r="RF2" s="395"/>
-      <c r="RG2" s="395"/>
-      <c r="RH2" s="395" t="s">
+      <c r="RF2" s="411"/>
+      <c r="RG2" s="411"/>
+      <c r="RH2" s="411" t="s">
         <v>145</v>
       </c>
-      <c r="RI2" s="395"/>
-      <c r="RJ2" s="395"/>
-      <c r="RK2" s="395" t="s">
+      <c r="RI2" s="411"/>
+      <c r="RJ2" s="411"/>
+      <c r="RK2" s="411" t="s">
         <v>146</v>
       </c>
-      <c r="RL2" s="395"/>
-      <c r="RM2" s="395"/>
-      <c r="RN2" s="395" t="s">
+      <c r="RL2" s="411"/>
+      <c r="RM2" s="411"/>
+      <c r="RN2" s="411" t="s">
         <v>147</v>
       </c>
-      <c r="RO2" s="395"/>
-      <c r="RP2" s="395"/>
-      <c r="RQ2" s="395" t="s">
+      <c r="RO2" s="411"/>
+      <c r="RP2" s="411"/>
+      <c r="RQ2" s="411" t="s">
         <v>148</v>
       </c>
-      <c r="RR2" s="395"/>
-      <c r="RS2" s="395"/>
-      <c r="RT2" s="395" t="s">
+      <c r="RR2" s="411"/>
+      <c r="RS2" s="411"/>
+      <c r="RT2" s="411" t="s">
         <v>149</v>
       </c>
-      <c r="RU2" s="395"/>
-      <c r="RV2" s="395"/>
-      <c r="RW2" s="444" t="s">
+      <c r="RU2" s="411"/>
+      <c r="RV2" s="411"/>
+      <c r="RW2" s="410" t="s">
         <v>183</v>
       </c>
-      <c r="RX2" s="444"/>
-      <c r="RY2" s="444"/>
-      <c r="RZ2" s="463" t="s">
+      <c r="RX2" s="410"/>
+      <c r="RY2" s="410"/>
+      <c r="RZ2" s="391" t="s">
         <v>171</v>
       </c>
-      <c r="SA2" s="463"/>
-      <c r="SB2" s="463"/>
-      <c r="SC2" s="463" t="s">
+      <c r="SA2" s="391"/>
+      <c r="SB2" s="391"/>
+      <c r="SC2" s="391" t="s">
         <v>184</v>
       </c>
-      <c r="SD2" s="463"/>
-      <c r="SE2" s="463"/>
-      <c r="SF2" s="371" t="s">
+      <c r="SD2" s="391"/>
+      <c r="SE2" s="391"/>
+      <c r="SF2" s="388" t="s">
         <v>185</v>
       </c>
-      <c r="SG2" s="371"/>
-      <c r="SH2" s="371"/>
-      <c r="SI2" s="371" t="s">
+      <c r="SG2" s="388"/>
+      <c r="SH2" s="388"/>
+      <c r="SI2" s="388" t="s">
         <v>186</v>
       </c>
-      <c r="SJ2" s="371"/>
-      <c r="SK2" s="371"/>
-      <c r="SL2" s="371" t="s">
+      <c r="SJ2" s="388"/>
+      <c r="SK2" s="388"/>
+      <c r="SL2" s="388" t="s">
         <v>187</v>
       </c>
-      <c r="SM2" s="371"/>
-      <c r="SN2" s="371"/>
-      <c r="SO2" s="371" t="s">
+      <c r="SM2" s="388"/>
+      <c r="SN2" s="388"/>
+      <c r="SO2" s="388" t="s">
         <v>188</v>
       </c>
-      <c r="SP2" s="371"/>
-      <c r="SQ2" s="371"/>
-      <c r="SR2" s="371" t="s">
+      <c r="SP2" s="388"/>
+      <c r="SQ2" s="388"/>
+      <c r="SR2" s="388" t="s">
         <v>189</v>
       </c>
-      <c r="SS2" s="371"/>
-      <c r="ST2" s="371"/>
-      <c r="SU2" s="371" t="s">
+      <c r="SS2" s="388"/>
+      <c r="ST2" s="388"/>
+      <c r="SU2" s="388" t="s">
         <v>83</v>
       </c>
-      <c r="SV2" s="371"/>
-      <c r="SW2" s="371"/>
-      <c r="SX2" s="335" t="s">
+      <c r="SV2" s="388"/>
+      <c r="SW2" s="388"/>
+      <c r="SX2" s="474" t="s">
         <v>278</v>
       </c>
-      <c r="SY2" s="335"/>
-      <c r="SZ2" s="335"/>
-      <c r="TA2" s="335" t="s">
+      <c r="SY2" s="474"/>
+      <c r="SZ2" s="474"/>
+      <c r="TA2" s="474" t="s">
         <v>279</v>
       </c>
-      <c r="TB2" s="335"/>
-      <c r="TC2" s="335"/>
-      <c r="TD2" s="335" t="s">
+      <c r="TB2" s="474"/>
+      <c r="TC2" s="474"/>
+      <c r="TD2" s="474" t="s">
         <v>280</v>
       </c>
-      <c r="TE2" s="335"/>
-      <c r="TF2" s="335"/>
-      <c r="TG2" s="335" t="s">
+      <c r="TE2" s="474"/>
+      <c r="TF2" s="474"/>
+      <c r="TG2" s="474" t="s">
         <v>281</v>
       </c>
-      <c r="TH2" s="335"/>
-      <c r="TI2" s="335"/>
-      <c r="TJ2" s="335" t="s">
+      <c r="TH2" s="474"/>
+      <c r="TI2" s="474"/>
+      <c r="TJ2" s="474" t="s">
         <v>282</v>
       </c>
-      <c r="TK2" s="335"/>
-      <c r="TL2" s="335"/>
-      <c r="TM2" s="335" t="s">
+      <c r="TK2" s="474"/>
+      <c r="TL2" s="474"/>
+      <c r="TM2" s="474" t="s">
         <v>283</v>
       </c>
-      <c r="TN2" s="335"/>
-      <c r="TO2" s="335"/>
-      <c r="TP2" s="335" t="s">
+      <c r="TN2" s="474"/>
+      <c r="TO2" s="474"/>
+      <c r="TP2" s="474" t="s">
         <v>284</v>
       </c>
-      <c r="TQ2" s="335"/>
-      <c r="TR2" s="335"/>
-      <c r="TS2" s="339" t="s">
+      <c r="TQ2" s="474"/>
+      <c r="TR2" s="474"/>
+      <c r="TS2" s="390" t="s">
         <v>67</v>
       </c>
-      <c r="TT2" s="339"/>
-      <c r="TU2" s="339"/>
-      <c r="TV2" s="339"/>
-      <c r="TW2" s="339" t="s">
+      <c r="TT2" s="390"/>
+      <c r="TU2" s="390"/>
+      <c r="TV2" s="390"/>
+      <c r="TW2" s="390" t="s">
         <v>68</v>
       </c>
-      <c r="TX2" s="339"/>
-      <c r="TY2" s="339"/>
-      <c r="TZ2" s="339" t="s">
+      <c r="TX2" s="390"/>
+      <c r="TY2" s="390"/>
+      <c r="TZ2" s="390" t="s">
         <v>69</v>
       </c>
-      <c r="UA2" s="339"/>
-      <c r="UB2" s="339"/>
-      <c r="UC2" s="339" t="s">
+      <c r="UA2" s="390"/>
+      <c r="UB2" s="390"/>
+      <c r="UC2" s="390" t="s">
         <v>70</v>
       </c>
-      <c r="UD2" s="339"/>
-      <c r="UE2" s="339"/>
-      <c r="UF2" s="339" t="s">
+      <c r="UD2" s="390"/>
+      <c r="UE2" s="390"/>
+      <c r="UF2" s="390" t="s">
         <v>85</v>
       </c>
-      <c r="UG2" s="339"/>
-      <c r="UH2" s="339"/>
-      <c r="UI2" s="339" t="s">
+      <c r="UG2" s="390"/>
+      <c r="UH2" s="390"/>
+      <c r="UI2" s="390" t="s">
         <v>86</v>
       </c>
-      <c r="UJ2" s="339"/>
-      <c r="UK2" s="339"/>
-      <c r="UL2" s="339" t="s">
+      <c r="UJ2" s="390"/>
+      <c r="UK2" s="390"/>
+      <c r="UL2" s="390" t="s">
         <v>87</v>
       </c>
-      <c r="UM2" s="339"/>
-      <c r="UN2" s="339"/>
-      <c r="UO2" s="402" t="s">
+      <c r="UM2" s="390"/>
+      <c r="UN2" s="390"/>
+      <c r="UO2" s="406" t="s">
         <v>158</v>
       </c>
-      <c r="UP2" s="402"/>
-      <c r="UQ2" s="402"/>
-      <c r="UR2" s="402" t="s">
+      <c r="UP2" s="406"/>
+      <c r="UQ2" s="406"/>
+      <c r="UR2" s="406" t="s">
         <v>159</v>
       </c>
-      <c r="US2" s="402"/>
-      <c r="UT2" s="402"/>
-      <c r="UU2" s="402" t="s">
+      <c r="US2" s="406"/>
+      <c r="UT2" s="406"/>
+      <c r="UU2" s="406" t="s">
         <v>160</v>
       </c>
-      <c r="UV2" s="402"/>
-      <c r="UW2" s="402"/>
-      <c r="UX2" s="402" t="s">
+      <c r="UV2" s="406"/>
+      <c r="UW2" s="406"/>
+      <c r="UX2" s="406" t="s">
         <v>161</v>
       </c>
-      <c r="UY2" s="402"/>
-      <c r="UZ2" s="402"/>
-      <c r="VA2" s="402" t="s">
+      <c r="UY2" s="406"/>
+      <c r="UZ2" s="406"/>
+      <c r="VA2" s="406" t="s">
         <v>162</v>
       </c>
-      <c r="VB2" s="402"/>
-      <c r="VC2" s="402"/>
-      <c r="VD2" s="402" t="s">
+      <c r="VB2" s="406"/>
+      <c r="VC2" s="406"/>
+      <c r="VD2" s="406" t="s">
         <v>163</v>
       </c>
-      <c r="VE2" s="402"/>
-      <c r="VF2" s="402"/>
-      <c r="VG2" s="402" t="s">
+      <c r="VE2" s="406"/>
+      <c r="VF2" s="406"/>
+      <c r="VG2" s="406" t="s">
         <v>164</v>
       </c>
-      <c r="VH2" s="402"/>
-      <c r="VI2" s="402"/>
-      <c r="VJ2" s="402" t="s">
+      <c r="VH2" s="406"/>
+      <c r="VI2" s="406"/>
+      <c r="VJ2" s="406" t="s">
         <v>165</v>
       </c>
-      <c r="VK2" s="402"/>
-      <c r="VL2" s="402"/>
-      <c r="VM2" s="402" t="s">
+      <c r="VK2" s="406"/>
+      <c r="VL2" s="406"/>
+      <c r="VM2" s="406" t="s">
         <v>149</v>
       </c>
-      <c r="VN2" s="402"/>
-      <c r="VO2" s="402"/>
-      <c r="VP2" s="346" t="s">
+      <c r="VN2" s="406"/>
+      <c r="VO2" s="406"/>
+      <c r="VP2" s="383" t="s">
         <v>192</v>
       </c>
-      <c r="VQ2" s="346"/>
-      <c r="VR2" s="346"/>
-      <c r="VS2" s="346" t="s">
+      <c r="VQ2" s="383"/>
+      <c r="VR2" s="383"/>
+      <c r="VS2" s="383" t="s">
         <v>193</v>
       </c>
-      <c r="VT2" s="346"/>
-      <c r="VU2" s="346"/>
-      <c r="VV2" s="346" t="s">
+      <c r="VT2" s="383"/>
+      <c r="VU2" s="383"/>
+      <c r="VV2" s="383" t="s">
         <v>194</v>
       </c>
-      <c r="VW2" s="346"/>
-      <c r="VX2" s="346"/>
-      <c r="VY2" s="346" t="s">
+      <c r="VW2" s="383"/>
+      <c r="VX2" s="383"/>
+      <c r="VY2" s="383" t="s">
         <v>83</v>
       </c>
-      <c r="VZ2" s="346"/>
-      <c r="WA2" s="346"/>
-      <c r="WB2" s="346" t="s">
+      <c r="VZ2" s="383"/>
+      <c r="WA2" s="383"/>
+      <c r="WB2" s="383" t="s">
         <v>195</v>
       </c>
-      <c r="WC2" s="346"/>
-      <c r="WD2" s="346"/>
-      <c r="WE2" s="346" t="s">
+      <c r="WC2" s="383"/>
+      <c r="WD2" s="383"/>
+      <c r="WE2" s="383" t="s">
         <v>196</v>
       </c>
-      <c r="WF2" s="346"/>
-      <c r="WG2" s="346"/>
-      <c r="WH2" s="346" t="s">
+      <c r="WF2" s="383"/>
+      <c r="WG2" s="383"/>
+      <c r="WH2" s="383" t="s">
         <v>197</v>
       </c>
-      <c r="WI2" s="346"/>
-      <c r="WJ2" s="346"/>
-      <c r="WK2" s="346" t="s">
+      <c r="WI2" s="383"/>
+      <c r="WJ2" s="383"/>
+      <c r="WK2" s="383" t="s">
         <v>198</v>
       </c>
-      <c r="WL2" s="346"/>
-      <c r="WM2" s="346"/>
-      <c r="WN2" s="346" t="s">
+      <c r="WL2" s="383"/>
+      <c r="WM2" s="383"/>
+      <c r="WN2" s="383" t="s">
         <v>199</v>
       </c>
-      <c r="WO2" s="346"/>
-      <c r="WP2" s="346"/>
-      <c r="WQ2" s="464" t="s">
+      <c r="WO2" s="383"/>
+      <c r="WP2" s="383"/>
+      <c r="WQ2" s="359" t="s">
         <v>90</v>
       </c>
-      <c r="WR2" s="464"/>
-      <c r="WS2" s="464"/>
-      <c r="WT2" s="464" t="s">
+      <c r="WR2" s="359"/>
+      <c r="WS2" s="359"/>
+      <c r="WT2" s="359" t="s">
         <v>91</v>
       </c>
-      <c r="WU2" s="464"/>
-      <c r="WV2" s="464"/>
-      <c r="WW2" s="464" t="s">
+      <c r="WU2" s="359"/>
+      <c r="WV2" s="359"/>
+      <c r="WW2" s="359" t="s">
         <v>92</v>
       </c>
-      <c r="WX2" s="464"/>
-      <c r="WY2" s="464"/>
-      <c r="WZ2" s="464" t="s">
+      <c r="WX2" s="359"/>
+      <c r="WY2" s="359"/>
+      <c r="WZ2" s="359" t="s">
         <v>73</v>
       </c>
-      <c r="XA2" s="464"/>
-      <c r="XB2" s="464"/>
-      <c r="XC2" s="464" t="s">
+      <c r="XA2" s="359"/>
+      <c r="XB2" s="359"/>
+      <c r="XC2" s="359" t="s">
         <v>93</v>
       </c>
-      <c r="XD2" s="464"/>
-      <c r="XE2" s="464"/>
-      <c r="XF2" s="464" t="s">
+      <c r="XD2" s="359"/>
+      <c r="XE2" s="359"/>
+      <c r="XF2" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="XG2" s="464"/>
-      <c r="XH2" s="464"/>
-      <c r="XI2" s="464" t="s">
+      <c r="XG2" s="359"/>
+      <c r="XH2" s="359"/>
+      <c r="XI2" s="359" t="s">
         <v>95</v>
       </c>
-      <c r="XJ2" s="464"/>
-      <c r="XK2" s="464"/>
-      <c r="XL2" s="465" t="s">
+      <c r="XJ2" s="359"/>
+      <c r="XK2" s="359"/>
+      <c r="XL2" s="386" t="s">
         <v>96</v>
       </c>
-      <c r="XM2" s="465"/>
-      <c r="XN2" s="465"/>
-      <c r="XO2" s="334" t="s">
+      <c r="XM2" s="386"/>
+      <c r="XN2" s="386"/>
+      <c r="XO2" s="400" t="s">
         <v>83</v>
       </c>
-      <c r="XP2" s="334"/>
-      <c r="XQ2" s="334"/>
-      <c r="XR2" s="334" t="s">
+      <c r="XP2" s="400"/>
+      <c r="XQ2" s="400"/>
+      <c r="XR2" s="400" t="s">
         <v>293</v>
       </c>
-      <c r="XS2" s="334"/>
-      <c r="XT2" s="334"/>
-      <c r="XU2" s="334" t="s">
+      <c r="XS2" s="400"/>
+      <c r="XT2" s="400"/>
+      <c r="XU2" s="400" t="s">
         <v>294</v>
       </c>
-      <c r="XV2" s="334"/>
-      <c r="XW2" s="334"/>
-      <c r="XX2" s="334" t="s">
+      <c r="XV2" s="400"/>
+      <c r="XW2" s="400"/>
+      <c r="XX2" s="400" t="s">
         <v>170</v>
       </c>
-      <c r="XY2" s="334"/>
-      <c r="XZ2" s="334"/>
-      <c r="YA2" s="334" t="s">
+      <c r="XY2" s="400"/>
+      <c r="XZ2" s="400"/>
+      <c r="YA2" s="400" t="s">
         <v>295</v>
       </c>
-      <c r="YB2" s="334"/>
-      <c r="YC2" s="334"/>
-      <c r="YD2" s="334" t="s">
+      <c r="YB2" s="400"/>
+      <c r="YC2" s="400"/>
+      <c r="YD2" s="400" t="s">
         <v>296</v>
       </c>
-      <c r="YE2" s="334"/>
-      <c r="YF2" s="334"/>
-      <c r="YG2" s="334" t="s">
+      <c r="YE2" s="400"/>
+      <c r="YF2" s="400"/>
+      <c r="YG2" s="400" t="s">
         <v>297</v>
       </c>
-      <c r="YH2" s="334"/>
-      <c r="YI2" s="334"/>
-      <c r="YJ2" s="334" t="s">
+      <c r="YH2" s="400"/>
+      <c r="YI2" s="400"/>
+      <c r="YJ2" s="400" t="s">
         <v>298</v>
       </c>
-      <c r="YK2" s="334"/>
-      <c r="YL2" s="334"/>
-      <c r="YM2" s="334" t="s">
+      <c r="YK2" s="400"/>
+      <c r="YL2" s="400"/>
+      <c r="YM2" s="400" t="s">
         <v>299</v>
       </c>
-      <c r="YN2" s="334"/>
-      <c r="YO2" s="334"/>
-      <c r="YP2" s="452" t="s">
+      <c r="YN2" s="400"/>
+      <c r="YO2" s="400"/>
+      <c r="YP2" s="368" t="s">
         <v>38</v>
       </c>
-      <c r="YQ2" s="452"/>
-      <c r="YR2" s="452"/>
-      <c r="YS2" s="452" t="s">
+      <c r="YQ2" s="368"/>
+      <c r="YR2" s="368"/>
+      <c r="YS2" s="368" t="s">
         <v>73</v>
       </c>
-      <c r="YT2" s="452"/>
-      <c r="YU2" s="452"/>
-      <c r="YV2" s="383" t="s">
+      <c r="YT2" s="368"/>
+      <c r="YU2" s="368"/>
+      <c r="YV2" s="470" t="s">
         <v>37</v>
       </c>
-      <c r="YW2" s="383"/>
-      <c r="YX2" s="383"/>
-      <c r="YY2" s="383"/>
-      <c r="YZ2" s="383" t="s">
+      <c r="YW2" s="470"/>
+      <c r="YX2" s="470"/>
+      <c r="YY2" s="470"/>
+      <c r="YZ2" s="470" t="s">
         <v>38</v>
       </c>
-      <c r="ZA2" s="383"/>
-      <c r="ZB2" s="383"/>
-      <c r="ZC2" s="436" t="s">
+      <c r="ZA2" s="470"/>
+      <c r="ZB2" s="470"/>
+      <c r="ZC2" s="373" t="s">
         <v>1342</v>
       </c>
-      <c r="ZD2" s="437"/>
-      <c r="ZE2" s="438"/>
-      <c r="ZF2" s="443"/>
-      <c r="ZG2" s="443"/>
-      <c r="ZH2" s="443"/>
-      <c r="ZI2" s="442"/>
-      <c r="ZJ2" s="442"/>
-      <c r="ZK2" s="442"/>
-      <c r="ZL2" s="442"/>
-      <c r="ZM2" s="439"/>
-      <c r="ZN2" s="439"/>
-      <c r="ZO2" s="439"/>
-      <c r="ZP2" s="347"/>
-      <c r="ZQ2" s="347"/>
-      <c r="ZR2" s="347"/>
-      <c r="ZS2" s="386"/>
-      <c r="ZT2" s="386"/>
-      <c r="ZU2" s="386"/>
-      <c r="ZV2" s="467"/>
-      <c r="ZW2" s="467"/>
-      <c r="ZX2" s="467"/>
-      <c r="ZY2" s="470"/>
-      <c r="ZZ2" s="471"/>
-      <c r="AAA2" s="471"/>
-      <c r="AAB2" s="471"/>
-      <c r="AAC2" s="471"/>
-      <c r="AAD2" s="474"/>
-      <c r="AAE2" s="474"/>
-      <c r="AAF2" s="474"/>
-      <c r="AAG2" s="440"/>
-      <c r="AAH2" s="440"/>
-      <c r="AAI2" s="440"/>
-      <c r="AAJ2" s="472"/>
-      <c r="AAK2" s="472"/>
-      <c r="AAL2" s="472"/>
-      <c r="AAM2" s="539"/>
-      <c r="AAN2" s="539"/>
-      <c r="AAO2" s="539"/>
-      <c r="AAP2" s="384"/>
-      <c r="AAQ2" s="384"/>
-      <c r="AAR2" s="384"/>
-      <c r="AAS2" s="341"/>
-      <c r="AAT2" s="341"/>
-      <c r="AAU2" s="341"/>
-      <c r="AAV2" s="435"/>
-      <c r="AAW2" s="435"/>
-      <c r="AAX2" s="435"/>
-      <c r="AAY2" s="413"/>
-      <c r="AAZ2" s="413"/>
-      <c r="ABA2" s="413"/>
-      <c r="ABB2" s="398"/>
-      <c r="ABC2" s="398"/>
-      <c r="ABD2" s="398"/>
-      <c r="ABE2" s="398"/>
-      <c r="ABF2" s="407"/>
-      <c r="ABG2" s="407"/>
-      <c r="ABH2" s="407"/>
-      <c r="ABI2" s="397"/>
-      <c r="ABJ2" s="397"/>
-      <c r="ABK2" s="397"/>
-      <c r="ABL2" s="397"/>
-      <c r="ABM2" s="396"/>
-      <c r="ABN2" s="396"/>
-      <c r="ABO2" s="396"/>
-      <c r="ABP2" s="358"/>
-      <c r="ABQ2" s="358"/>
-      <c r="ABR2" s="358"/>
-      <c r="ABS2" s="355"/>
-      <c r="ABT2" s="379"/>
-      <c r="ABU2" s="379"/>
-      <c r="ABV2" s="378"/>
-      <c r="ABW2" s="378"/>
-      <c r="ABX2" s="378"/>
-      <c r="ABY2" s="411"/>
-      <c r="ABZ2" s="411"/>
-      <c r="ACA2" s="411"/>
-      <c r="ACB2" s="418"/>
-      <c r="ACC2" s="419"/>
-      <c r="ACD2" s="433"/>
-      <c r="ACE2" s="433"/>
-      <c r="ACF2" s="430"/>
-      <c r="ACG2" s="427"/>
-      <c r="ACH2" s="427"/>
-      <c r="ACI2" s="424"/>
-      <c r="ACJ2" s="424"/>
-      <c r="ACK2" s="424"/>
-      <c r="ACL2" s="421"/>
-      <c r="ACM2" s="412"/>
-      <c r="ACN2" s="412"/>
-      <c r="ACO2" s="412"/>
-      <c r="ACP2" s="377"/>
-      <c r="ACQ2" s="441"/>
-      <c r="ACR2" s="406"/>
+      <c r="ZD2" s="374"/>
+      <c r="ZE2" s="375"/>
+      <c r="ZF2" s="372"/>
+      <c r="ZG2" s="372"/>
+      <c r="ZH2" s="372"/>
+      <c r="ZI2" s="371"/>
+      <c r="ZJ2" s="371"/>
+      <c r="ZK2" s="371"/>
+      <c r="ZL2" s="371"/>
+      <c r="ZM2" s="381"/>
+      <c r="ZN2" s="381"/>
+      <c r="ZO2" s="381"/>
+      <c r="ZP2" s="384"/>
+      <c r="ZQ2" s="384"/>
+      <c r="ZR2" s="384"/>
+      <c r="ZS2" s="419"/>
+      <c r="ZT2" s="419"/>
+      <c r="ZU2" s="419"/>
+      <c r="ZV2" s="369"/>
+      <c r="ZW2" s="369"/>
+      <c r="ZX2" s="369"/>
+      <c r="ZY2" s="379"/>
+      <c r="ZZ2" s="380"/>
+      <c r="AAA2" s="380"/>
+      <c r="AAB2" s="380"/>
+      <c r="AAC2" s="380"/>
+      <c r="AAD2" s="367"/>
+      <c r="AAE2" s="367"/>
+      <c r="AAF2" s="367"/>
+      <c r="AAG2" s="426"/>
+      <c r="AAH2" s="426"/>
+      <c r="AAI2" s="426"/>
+      <c r="AAJ2" s="341"/>
+      <c r="AAK2" s="341"/>
+      <c r="AAL2" s="341"/>
+      <c r="AAM2" s="427"/>
+      <c r="AAN2" s="427"/>
+      <c r="AAO2" s="427"/>
+      <c r="AAP2" s="471"/>
+      <c r="AAQ2" s="471"/>
+      <c r="AAR2" s="471"/>
+      <c r="AAS2" s="472"/>
+      <c r="AAT2" s="472"/>
+      <c r="AAU2" s="472"/>
+      <c r="AAV2" s="353"/>
+      <c r="AAW2" s="353"/>
+      <c r="AAX2" s="353"/>
+      <c r="AAY2" s="431"/>
+      <c r="AAZ2" s="431"/>
+      <c r="ABA2" s="431"/>
+      <c r="ABB2" s="401"/>
+      <c r="ABC2" s="401"/>
+      <c r="ABD2" s="401"/>
+      <c r="ABE2" s="401"/>
+      <c r="ABF2" s="430"/>
+      <c r="ABG2" s="430"/>
+      <c r="ABH2" s="430"/>
+      <c r="ABI2" s="425"/>
+      <c r="ABJ2" s="425"/>
+      <c r="ABK2" s="425"/>
+      <c r="ABL2" s="425"/>
+      <c r="ABM2" s="547"/>
+      <c r="ABN2" s="547"/>
+      <c r="ABO2" s="547"/>
+      <c r="ABP2" s="461"/>
+      <c r="ABQ2" s="461"/>
+      <c r="ABR2" s="461"/>
+      <c r="ABS2" s="468"/>
+      <c r="ABT2" s="467"/>
+      <c r="ABU2" s="467"/>
+      <c r="ABV2" s="457"/>
+      <c r="ABW2" s="457"/>
+      <c r="ABX2" s="457"/>
+      <c r="ABY2" s="429"/>
+      <c r="ABZ2" s="429"/>
+      <c r="ACA2" s="429"/>
+      <c r="ACB2" s="436"/>
+      <c r="ACC2" s="437"/>
+      <c r="ACD2" s="337"/>
+      <c r="ACE2" s="337"/>
+      <c r="ACF2" s="448"/>
+      <c r="ACG2" s="445"/>
+      <c r="ACH2" s="445"/>
+      <c r="ACI2" s="442"/>
+      <c r="ACJ2" s="442"/>
+      <c r="ACK2" s="442"/>
+      <c r="ACL2" s="439"/>
+      <c r="ACM2" s="423"/>
+      <c r="ACN2" s="423"/>
+      <c r="ACO2" s="423"/>
+      <c r="ACP2" s="466"/>
+      <c r="ACQ2" s="424"/>
+      <c r="ACR2" s="452"/>
       <c r="ACT2" s="292"/>
       <c r="ACU2" s="293"/>
       <c r="ACV2" s="168" t="s">
@@ -11256,1334 +11300,1334 @@
       <c r="ACY2" s="298"/>
     </row>
     <row r="3" spans="1:779" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="355"/>
-      <c r="B3" s="356"/>
-      <c r="C3" s="355"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="355"/>
-      <c r="G3" s="355"/>
-      <c r="H3" s="355"/>
-      <c r="I3" s="355"/>
-      <c r="J3" s="355"/>
-      <c r="K3" s="355"/>
-      <c r="L3" s="355"/>
-      <c r="M3" s="355"/>
-      <c r="N3" s="355"/>
-      <c r="O3" s="355"/>
-      <c r="P3" s="355"/>
-      <c r="Q3" s="355"/>
-      <c r="R3" s="355"/>
-      <c r="S3" s="355"/>
-      <c r="T3" s="355"/>
-      <c r="U3" s="355"/>
-      <c r="V3" s="358"/>
-      <c r="W3" s="355"/>
-      <c r="X3" s="355"/>
-      <c r="Y3" s="355"/>
+      <c r="A3" s="468"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="468"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
+      <c r="I3" s="468"/>
+      <c r="J3" s="468"/>
+      <c r="K3" s="468"/>
+      <c r="L3" s="468"/>
+      <c r="M3" s="468"/>
+      <c r="N3" s="468"/>
+      <c r="O3" s="468"/>
+      <c r="P3" s="468"/>
+      <c r="Q3" s="468"/>
+      <c r="R3" s="468"/>
+      <c r="S3" s="468"/>
+      <c r="T3" s="468"/>
+      <c r="U3" s="468"/>
+      <c r="V3" s="461"/>
+      <c r="W3" s="468"/>
+      <c r="X3" s="468"/>
+      <c r="Y3" s="468"/>
       <c r="Z3" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="AA3" s="457">
+      <c r="AA3" s="395">
         <v>0.15</v>
       </c>
-      <c r="AB3" s="457"/>
-      <c r="AC3" s="457"/>
-      <c r="AD3" s="457">
+      <c r="AB3" s="395"/>
+      <c r="AC3" s="395"/>
+      <c r="AD3" s="395">
         <v>0.15</v>
       </c>
-      <c r="AE3" s="457"/>
-      <c r="AF3" s="457"/>
-      <c r="AG3" s="352">
+      <c r="AE3" s="395"/>
+      <c r="AF3" s="395"/>
+      <c r="AG3" s="482">
         <v>0.15</v>
       </c>
-      <c r="AH3" s="352"/>
-      <c r="AI3" s="352"/>
-      <c r="AJ3" s="352">
+      <c r="AH3" s="482"/>
+      <c r="AI3" s="482"/>
+      <c r="AJ3" s="482">
         <v>0.15</v>
       </c>
-      <c r="AK3" s="352"/>
-      <c r="AL3" s="352"/>
-      <c r="AM3" s="343">
+      <c r="AK3" s="482"/>
+      <c r="AL3" s="482"/>
+      <c r="AM3" s="485">
         <v>0.1</v>
       </c>
-      <c r="AN3" s="343"/>
-      <c r="AO3" s="343"/>
-      <c r="AP3" s="343">
+      <c r="AN3" s="485"/>
+      <c r="AO3" s="485"/>
+      <c r="AP3" s="485">
         <v>0.1</v>
       </c>
-      <c r="AQ3" s="343"/>
-      <c r="AR3" s="343"/>
-      <c r="AS3" s="348">
+      <c r="AQ3" s="485"/>
+      <c r="AR3" s="485"/>
+      <c r="AS3" s="382">
         <v>0.15</v>
       </c>
-      <c r="AT3" s="348"/>
-      <c r="AU3" s="348"/>
-      <c r="AV3" s="348">
+      <c r="AT3" s="382"/>
+      <c r="AU3" s="382"/>
+      <c r="AV3" s="382">
         <v>0.15</v>
       </c>
-      <c r="AW3" s="348"/>
-      <c r="AX3" s="348"/>
-      <c r="AY3" s="454">
+      <c r="AW3" s="382"/>
+      <c r="AX3" s="382"/>
+      <c r="AY3" s="335">
         <v>0.15</v>
       </c>
-      <c r="AZ3" s="454"/>
-      <c r="BA3" s="454"/>
-      <c r="BB3" s="454">
+      <c r="AZ3" s="335"/>
+      <c r="BA3" s="335"/>
+      <c r="BB3" s="335">
         <v>0.15</v>
       </c>
-      <c r="BC3" s="454"/>
-      <c r="BD3" s="454"/>
-      <c r="BE3" s="461">
+      <c r="BC3" s="335"/>
+      <c r="BD3" s="335"/>
+      <c r="BE3" s="357">
         <v>0.1</v>
       </c>
-      <c r="BF3" s="461"/>
-      <c r="BG3" s="461"/>
-      <c r="BH3" s="461">
+      <c r="BF3" s="357"/>
+      <c r="BG3" s="357"/>
+      <c r="BH3" s="357">
         <v>0.15</v>
       </c>
-      <c r="BI3" s="461"/>
-      <c r="BJ3" s="461"/>
-      <c r="BK3" s="399">
+      <c r="BI3" s="357"/>
+      <c r="BJ3" s="357"/>
+      <c r="BK3" s="343">
         <v>0.1</v>
       </c>
-      <c r="BL3" s="399"/>
-      <c r="BM3" s="399"/>
-      <c r="BN3" s="399">
+      <c r="BL3" s="343"/>
+      <c r="BM3" s="343"/>
+      <c r="BN3" s="343">
         <v>0.1</v>
       </c>
-      <c r="BO3" s="399"/>
-      <c r="BP3" s="399"/>
-      <c r="BQ3" s="366">
+      <c r="BO3" s="343"/>
+      <c r="BP3" s="343"/>
+      <c r="BQ3" s="462">
         <v>0.1</v>
       </c>
-      <c r="BR3" s="366"/>
-      <c r="BS3" s="366"/>
-      <c r="BT3" s="366"/>
-      <c r="BU3" s="366">
+      <c r="BR3" s="462"/>
+      <c r="BS3" s="462"/>
+      <c r="BT3" s="462"/>
+      <c r="BU3" s="462">
         <v>0.15</v>
       </c>
-      <c r="BV3" s="366"/>
-      <c r="BW3" s="366"/>
-      <c r="BX3" s="366"/>
-      <c r="BY3" s="366">
+      <c r="BV3" s="462"/>
+      <c r="BW3" s="462"/>
+      <c r="BX3" s="462"/>
+      <c r="BY3" s="462">
         <v>0.1</v>
       </c>
-      <c r="BZ3" s="366"/>
-      <c r="CA3" s="366"/>
-      <c r="CB3" s="366"/>
-      <c r="CC3" s="366"/>
-      <c r="CD3" s="366">
+      <c r="BZ3" s="462"/>
+      <c r="CA3" s="462"/>
+      <c r="CB3" s="462"/>
+      <c r="CC3" s="462"/>
+      <c r="CD3" s="462">
         <v>0.15</v>
       </c>
-      <c r="CE3" s="366"/>
-      <c r="CF3" s="366"/>
-      <c r="CG3" s="366"/>
-      <c r="CH3" s="359">
+      <c r="CE3" s="462"/>
+      <c r="CF3" s="462"/>
+      <c r="CG3" s="462"/>
+      <c r="CH3" s="365">
         <v>0.2</v>
       </c>
-      <c r="CI3" s="359"/>
-      <c r="CJ3" s="359"/>
-      <c r="CK3" s="359">
+      <c r="CI3" s="365"/>
+      <c r="CJ3" s="365"/>
+      <c r="CK3" s="365">
         <v>0.2</v>
       </c>
-      <c r="CL3" s="359"/>
-      <c r="CM3" s="359"/>
-      <c r="CN3" s="369">
+      <c r="CL3" s="365"/>
+      <c r="CM3" s="365"/>
+      <c r="CN3" s="405">
         <v>0.2</v>
       </c>
-      <c r="CO3" s="369"/>
-      <c r="CP3" s="369"/>
-      <c r="CQ3" s="369">
+      <c r="CO3" s="405"/>
+      <c r="CP3" s="405"/>
+      <c r="CQ3" s="405">
         <v>0.2</v>
       </c>
-      <c r="CR3" s="369"/>
-      <c r="CS3" s="369"/>
-      <c r="CT3" s="375">
+      <c r="CR3" s="405"/>
+      <c r="CS3" s="405"/>
+      <c r="CT3" s="363">
         <v>0.1</v>
       </c>
-      <c r="CU3" s="375"/>
-      <c r="CV3" s="375"/>
-      <c r="CW3" s="375">
+      <c r="CU3" s="363"/>
+      <c r="CV3" s="363"/>
+      <c r="CW3" s="363">
         <v>0.1</v>
       </c>
-      <c r="CX3" s="375"/>
-      <c r="CY3" s="375"/>
-      <c r="CZ3" s="362">
+      <c r="CX3" s="363"/>
+      <c r="CY3" s="363"/>
+      <c r="CZ3" s="453">
         <v>0.11</v>
       </c>
-      <c r="DA3" s="362"/>
-      <c r="DB3" s="362"/>
-      <c r="DC3" s="362">
+      <c r="DA3" s="453"/>
+      <c r="DB3" s="453"/>
+      <c r="DC3" s="453">
         <v>0.08</v>
       </c>
-      <c r="DD3" s="362"/>
-      <c r="DE3" s="362"/>
-      <c r="DF3" s="362">
+      <c r="DD3" s="453"/>
+      <c r="DE3" s="453"/>
+      <c r="DF3" s="453">
         <v>0.11</v>
       </c>
-      <c r="DG3" s="362"/>
-      <c r="DH3" s="362"/>
-      <c r="DI3" s="363">
+      <c r="DG3" s="453"/>
+      <c r="DH3" s="453"/>
+      <c r="DI3" s="476">
         <v>0.1</v>
       </c>
-      <c r="DJ3" s="363"/>
-      <c r="DK3" s="363"/>
-      <c r="DL3" s="364">
+      <c r="DJ3" s="476"/>
+      <c r="DK3" s="476"/>
+      <c r="DL3" s="418">
         <v>0.1</v>
       </c>
-      <c r="DM3" s="364"/>
-      <c r="DN3" s="364"/>
-      <c r="DO3" s="364">
+      <c r="DM3" s="418"/>
+      <c r="DN3" s="418"/>
+      <c r="DO3" s="418">
         <v>0.1</v>
       </c>
-      <c r="DP3" s="364"/>
-      <c r="DQ3" s="364"/>
-      <c r="DR3" s="364">
+      <c r="DP3" s="418"/>
+      <c r="DQ3" s="418"/>
+      <c r="DR3" s="418">
         <v>0.1</v>
       </c>
-      <c r="DS3" s="364"/>
-      <c r="DT3" s="364"/>
-      <c r="DU3" s="372">
+      <c r="DS3" s="418"/>
+      <c r="DT3" s="418"/>
+      <c r="DU3" s="389">
         <v>0.1</v>
       </c>
-      <c r="DV3" s="372"/>
-      <c r="DW3" s="372"/>
-      <c r="DX3" s="372">
+      <c r="DV3" s="389"/>
+      <c r="DW3" s="389"/>
+      <c r="DX3" s="389">
         <v>0.1</v>
       </c>
-      <c r="DY3" s="372"/>
-      <c r="DZ3" s="372"/>
-      <c r="EA3" s="372">
+      <c r="DY3" s="389"/>
+      <c r="DZ3" s="389"/>
+      <c r="EA3" s="389">
         <v>0.1</v>
       </c>
-      <c r="EB3" s="372"/>
-      <c r="EC3" s="372"/>
-      <c r="ED3" s="336">
+      <c r="EB3" s="389"/>
+      <c r="EC3" s="389"/>
+      <c r="ED3" s="487">
         <v>0.1</v>
       </c>
-      <c r="EE3" s="336"/>
-      <c r="EF3" s="336"/>
-      <c r="EG3" s="336">
+      <c r="EE3" s="487"/>
+      <c r="EF3" s="487"/>
+      <c r="EG3" s="487">
         <v>0.15</v>
       </c>
-      <c r="EH3" s="336"/>
-      <c r="EI3" s="336"/>
-      <c r="EJ3" s="338">
+      <c r="EH3" s="487"/>
+      <c r="EI3" s="487"/>
+      <c r="EJ3" s="392">
         <v>0.1</v>
       </c>
-      <c r="EK3" s="338"/>
-      <c r="EL3" s="338"/>
-      <c r="EM3" s="338">
+      <c r="EK3" s="392"/>
+      <c r="EL3" s="392"/>
+      <c r="EM3" s="392">
         <v>0.1</v>
       </c>
-      <c r="EN3" s="338"/>
-      <c r="EO3" s="338"/>
-      <c r="EP3" s="338">
+      <c r="EN3" s="392"/>
+      <c r="EO3" s="392"/>
+      <c r="EP3" s="392">
         <v>0.1</v>
       </c>
-      <c r="EQ3" s="338"/>
-      <c r="ER3" s="338"/>
-      <c r="ES3" s="340">
+      <c r="EQ3" s="392"/>
+      <c r="ER3" s="392"/>
+      <c r="ES3" s="488">
         <v>0.1</v>
       </c>
-      <c r="ET3" s="340"/>
-      <c r="EU3" s="340"/>
-      <c r="EV3" s="340">
+      <c r="ET3" s="488"/>
+      <c r="EU3" s="488"/>
+      <c r="EV3" s="488">
         <v>0.1</v>
       </c>
-      <c r="EW3" s="340"/>
-      <c r="EX3" s="340"/>
-      <c r="EY3" s="403">
+      <c r="EW3" s="488"/>
+      <c r="EX3" s="488"/>
+      <c r="EY3" s="407">
         <v>0.1</v>
       </c>
-      <c r="EZ3" s="403"/>
-      <c r="FA3" s="403"/>
-      <c r="FB3" s="403">
+      <c r="EZ3" s="407"/>
+      <c r="FA3" s="407"/>
+      <c r="FB3" s="407">
         <v>0.1</v>
       </c>
-      <c r="FC3" s="403"/>
-      <c r="FD3" s="403"/>
-      <c r="FE3" s="405">
+      <c r="FC3" s="407"/>
+      <c r="FD3" s="407"/>
+      <c r="FE3" s="451">
         <v>0.1</v>
       </c>
-      <c r="FF3" s="405"/>
-      <c r="FG3" s="405"/>
-      <c r="FH3" s="348">
+      <c r="FF3" s="451"/>
+      <c r="FG3" s="451"/>
+      <c r="FH3" s="382">
         <v>0.1</v>
       </c>
-      <c r="FI3" s="348"/>
-      <c r="FJ3" s="348"/>
-      <c r="FK3" s="348">
+      <c r="FI3" s="382"/>
+      <c r="FJ3" s="382"/>
+      <c r="FK3" s="382">
         <v>0.1</v>
       </c>
-      <c r="FL3" s="348"/>
-      <c r="FM3" s="348"/>
-      <c r="FN3" s="348">
+      <c r="FL3" s="382"/>
+      <c r="FM3" s="382"/>
+      <c r="FN3" s="382">
         <v>0.1</v>
       </c>
-      <c r="FO3" s="348"/>
-      <c r="FP3" s="348"/>
-      <c r="FQ3" s="332">
+      <c r="FO3" s="382"/>
+      <c r="FP3" s="382"/>
+      <c r="FQ3" s="421">
         <v>0.1</v>
       </c>
-      <c r="FR3" s="332"/>
-      <c r="FS3" s="332"/>
-      <c r="FT3" s="332">
+      <c r="FR3" s="421"/>
+      <c r="FS3" s="421"/>
+      <c r="FT3" s="421">
         <v>0.1</v>
       </c>
-      <c r="FU3" s="332"/>
-      <c r="FV3" s="332"/>
-      <c r="FW3" s="332">
+      <c r="FU3" s="421"/>
+      <c r="FV3" s="421"/>
+      <c r="FW3" s="421">
         <v>0.1</v>
       </c>
-      <c r="FX3" s="332"/>
-      <c r="FY3" s="332"/>
-      <c r="FZ3" s="454">
+      <c r="FX3" s="421"/>
+      <c r="FY3" s="421"/>
+      <c r="FZ3" s="335">
         <v>0.1</v>
       </c>
-      <c r="GA3" s="454"/>
-      <c r="GB3" s="454"/>
-      <c r="GC3" s="454">
+      <c r="GA3" s="335"/>
+      <c r="GB3" s="335"/>
+      <c r="GC3" s="335">
         <v>0.1</v>
       </c>
-      <c r="GD3" s="454"/>
-      <c r="GE3" s="454"/>
-      <c r="GF3" s="454">
+      <c r="GD3" s="335"/>
+      <c r="GE3" s="335"/>
+      <c r="GF3" s="335">
         <v>0.1</v>
       </c>
-      <c r="GG3" s="454"/>
-      <c r="GH3" s="454"/>
-      <c r="GI3" s="454">
+      <c r="GG3" s="335"/>
+      <c r="GH3" s="335"/>
+      <c r="GI3" s="335">
         <v>0.1</v>
       </c>
-      <c r="GJ3" s="454"/>
-      <c r="GK3" s="454"/>
-      <c r="GL3" s="454">
+      <c r="GJ3" s="335"/>
+      <c r="GK3" s="335"/>
+      <c r="GL3" s="335">
         <v>0.1</v>
       </c>
-      <c r="GM3" s="454"/>
-      <c r="GN3" s="454"/>
-      <c r="GO3" s="454">
+      <c r="GM3" s="335"/>
+      <c r="GN3" s="335"/>
+      <c r="GO3" s="335">
         <v>0.1</v>
       </c>
-      <c r="GP3" s="454"/>
-      <c r="GQ3" s="454"/>
-      <c r="GR3" s="454">
+      <c r="GP3" s="335"/>
+      <c r="GQ3" s="335"/>
+      <c r="GR3" s="335">
         <v>0.05</v>
       </c>
-      <c r="GS3" s="454"/>
-      <c r="GT3" s="454"/>
-      <c r="GU3" s="454">
+      <c r="GS3" s="335"/>
+      <c r="GT3" s="335"/>
+      <c r="GU3" s="335">
         <v>0.05</v>
       </c>
-      <c r="GV3" s="454"/>
-      <c r="GW3" s="454"/>
-      <c r="GX3" s="352">
+      <c r="GV3" s="335"/>
+      <c r="GW3" s="335"/>
+      <c r="GX3" s="482">
         <v>0.1</v>
       </c>
-      <c r="GY3" s="352"/>
-      <c r="GZ3" s="352"/>
-      <c r="HA3" s="352">
+      <c r="GY3" s="482"/>
+      <c r="GZ3" s="482"/>
+      <c r="HA3" s="482">
         <v>0.1</v>
       </c>
-      <c r="HB3" s="352"/>
-      <c r="HC3" s="352"/>
-      <c r="HD3" s="352">
+      <c r="HB3" s="482"/>
+      <c r="HC3" s="482"/>
+      <c r="HD3" s="482">
         <v>0.05</v>
       </c>
-      <c r="HE3" s="352"/>
-      <c r="HF3" s="352"/>
-      <c r="HG3" s="352">
+      <c r="HE3" s="482"/>
+      <c r="HF3" s="482"/>
+      <c r="HG3" s="482">
         <v>0.1</v>
       </c>
-      <c r="HH3" s="352"/>
-      <c r="HI3" s="352"/>
-      <c r="HJ3" s="352">
+      <c r="HH3" s="482"/>
+      <c r="HI3" s="482"/>
+      <c r="HJ3" s="482">
         <v>0.1</v>
       </c>
-      <c r="HK3" s="352"/>
-      <c r="HL3" s="352"/>
-      <c r="HM3" s="352">
+      <c r="HK3" s="482"/>
+      <c r="HL3" s="482"/>
+      <c r="HM3" s="482">
         <v>0.1</v>
       </c>
-      <c r="HN3" s="352"/>
-      <c r="HO3" s="352"/>
-      <c r="HP3" s="352">
+      <c r="HN3" s="482"/>
+      <c r="HO3" s="482"/>
+      <c r="HP3" s="482">
         <v>0.05</v>
       </c>
-      <c r="HQ3" s="352"/>
-      <c r="HR3" s="352"/>
-      <c r="HS3" s="352">
+      <c r="HQ3" s="482"/>
+      <c r="HR3" s="482"/>
+      <c r="HS3" s="482">
         <v>0.1</v>
       </c>
-      <c r="HT3" s="352"/>
-      <c r="HU3" s="352"/>
-      <c r="HV3" s="361">
+      <c r="HT3" s="482"/>
+      <c r="HU3" s="482"/>
+      <c r="HV3" s="460">
         <v>0.1</v>
       </c>
-      <c r="HW3" s="361"/>
-      <c r="HX3" s="361"/>
-      <c r="HY3" s="361">
+      <c r="HW3" s="460"/>
+      <c r="HX3" s="460"/>
+      <c r="HY3" s="460">
         <v>0.1</v>
       </c>
-      <c r="HZ3" s="361"/>
-      <c r="IA3" s="361"/>
-      <c r="IB3" s="361">
+      <c r="HZ3" s="460"/>
+      <c r="IA3" s="460"/>
+      <c r="IB3" s="460">
         <v>0.15</v>
       </c>
-      <c r="IC3" s="361"/>
-      <c r="ID3" s="361"/>
-      <c r="IE3" s="361">
+      <c r="IC3" s="460"/>
+      <c r="ID3" s="460"/>
+      <c r="IE3" s="460">
         <v>0.15</v>
       </c>
-      <c r="IF3" s="361"/>
-      <c r="IG3" s="361"/>
-      <c r="IH3" s="361">
+      <c r="IF3" s="460"/>
+      <c r="IG3" s="460"/>
+      <c r="IH3" s="460">
         <v>0.15</v>
       </c>
-      <c r="II3" s="361"/>
-      <c r="IJ3" s="361"/>
-      <c r="IK3" s="361">
+      <c r="II3" s="460"/>
+      <c r="IJ3" s="460"/>
+      <c r="IK3" s="460">
         <v>0.05</v>
       </c>
-      <c r="IL3" s="361"/>
-      <c r="IM3" s="361"/>
-      <c r="IN3" s="365">
+      <c r="IL3" s="460"/>
+      <c r="IM3" s="460"/>
+      <c r="IN3" s="477">
         <v>0.1</v>
       </c>
-      <c r="IO3" s="365"/>
-      <c r="IP3" s="365"/>
-      <c r="IQ3" s="365">
+      <c r="IO3" s="477"/>
+      <c r="IP3" s="477"/>
+      <c r="IQ3" s="477">
         <v>0.1</v>
       </c>
-      <c r="IR3" s="365"/>
-      <c r="IS3" s="365"/>
-      <c r="IT3" s="365">
+      <c r="IR3" s="477"/>
+      <c r="IS3" s="477"/>
+      <c r="IT3" s="477">
         <v>0.1</v>
       </c>
-      <c r="IU3" s="365"/>
-      <c r="IV3" s="365"/>
-      <c r="IW3" s="365">
+      <c r="IU3" s="477"/>
+      <c r="IV3" s="477"/>
+      <c r="IW3" s="477">
         <v>0.1</v>
       </c>
-      <c r="IX3" s="365"/>
-      <c r="IY3" s="365"/>
-      <c r="IZ3" s="365">
+      <c r="IX3" s="477"/>
+      <c r="IY3" s="477"/>
+      <c r="IZ3" s="477">
         <v>0.05</v>
       </c>
-      <c r="JA3" s="365"/>
-      <c r="JB3" s="365"/>
-      <c r="JC3" s="365">
+      <c r="JA3" s="477"/>
+      <c r="JB3" s="477"/>
+      <c r="JC3" s="477">
         <v>0.05</v>
       </c>
-      <c r="JD3" s="365"/>
-      <c r="JE3" s="365"/>
-      <c r="JF3" s="365">
+      <c r="JD3" s="477"/>
+      <c r="JE3" s="477"/>
+      <c r="JF3" s="477">
         <v>0.1</v>
       </c>
-      <c r="JG3" s="365"/>
-      <c r="JH3" s="365"/>
-      <c r="JI3" s="365">
+      <c r="JG3" s="477"/>
+      <c r="JH3" s="477"/>
+      <c r="JI3" s="477">
         <v>0.1</v>
       </c>
-      <c r="JJ3" s="365"/>
-      <c r="JK3" s="365"/>
-      <c r="JL3" s="343">
+      <c r="JJ3" s="477"/>
+      <c r="JK3" s="477"/>
+      <c r="JL3" s="485">
         <v>0.15</v>
       </c>
-      <c r="JM3" s="343"/>
-      <c r="JN3" s="343"/>
-      <c r="JO3" s="343">
+      <c r="JM3" s="485"/>
+      <c r="JN3" s="485"/>
+      <c r="JO3" s="485">
         <v>0.2</v>
       </c>
-      <c r="JP3" s="343"/>
-      <c r="JQ3" s="343"/>
-      <c r="JR3" s="343">
+      <c r="JP3" s="485"/>
+      <c r="JQ3" s="485"/>
+      <c r="JR3" s="485">
         <v>0.1</v>
       </c>
-      <c r="JS3" s="343"/>
-      <c r="JT3" s="343"/>
-      <c r="JU3" s="343">
+      <c r="JS3" s="485"/>
+      <c r="JT3" s="485"/>
+      <c r="JU3" s="485">
         <v>0.05</v>
       </c>
-      <c r="JV3" s="343"/>
-      <c r="JW3" s="343"/>
-      <c r="JX3" s="343">
+      <c r="JV3" s="485"/>
+      <c r="JW3" s="485"/>
+      <c r="JX3" s="485">
         <v>0.15</v>
       </c>
-      <c r="JY3" s="343"/>
-      <c r="JZ3" s="343"/>
-      <c r="KA3" s="343">
+      <c r="JY3" s="485"/>
+      <c r="JZ3" s="485"/>
+      <c r="KA3" s="485">
         <v>0.15</v>
       </c>
-      <c r="KB3" s="343"/>
-      <c r="KC3" s="343"/>
-      <c r="KD3" s="360">
+      <c r="KB3" s="485"/>
+      <c r="KC3" s="485"/>
+      <c r="KD3" s="349">
         <v>0.2</v>
       </c>
-      <c r="KE3" s="360"/>
-      <c r="KF3" s="360"/>
-      <c r="KG3" s="360">
+      <c r="KE3" s="349"/>
+      <c r="KF3" s="349"/>
+      <c r="KG3" s="349">
         <v>0.2</v>
       </c>
-      <c r="KH3" s="360"/>
-      <c r="KI3" s="360"/>
-      <c r="KJ3" s="360">
+      <c r="KH3" s="349"/>
+      <c r="KI3" s="349"/>
+      <c r="KJ3" s="349">
         <v>0.15</v>
       </c>
-      <c r="KK3" s="360"/>
-      <c r="KL3" s="360"/>
-      <c r="KM3" s="360">
+      <c r="KK3" s="349"/>
+      <c r="KL3" s="349"/>
+      <c r="KM3" s="349">
         <v>0.15</v>
       </c>
-      <c r="KN3" s="360"/>
-      <c r="KO3" s="360"/>
-      <c r="KP3" s="360">
+      <c r="KN3" s="349"/>
+      <c r="KO3" s="349"/>
+      <c r="KP3" s="349">
         <v>0.2</v>
       </c>
-      <c r="KQ3" s="360"/>
-      <c r="KR3" s="360"/>
-      <c r="KS3" s="360">
+      <c r="KQ3" s="349"/>
+      <c r="KR3" s="349"/>
+      <c r="KS3" s="349">
         <v>0.2</v>
       </c>
-      <c r="KT3" s="360"/>
-      <c r="KU3" s="360"/>
-      <c r="KV3" s="360">
+      <c r="KT3" s="349"/>
+      <c r="KU3" s="349"/>
+      <c r="KV3" s="349">
         <v>0.1</v>
       </c>
-      <c r="KW3" s="360"/>
-      <c r="KX3" s="360"/>
-      <c r="KY3" s="360">
+      <c r="KW3" s="349"/>
+      <c r="KX3" s="349"/>
+      <c r="KY3" s="349">
         <v>0.1</v>
       </c>
-      <c r="KZ3" s="360"/>
-      <c r="LA3" s="360"/>
-      <c r="LB3" s="360">
+      <c r="KZ3" s="349"/>
+      <c r="LA3" s="349"/>
+      <c r="LB3" s="349">
         <v>0.1</v>
       </c>
-      <c r="LC3" s="360"/>
-      <c r="LD3" s="360"/>
-      <c r="LE3" s="461">
+      <c r="LC3" s="349"/>
+      <c r="LD3" s="349"/>
+      <c r="LE3" s="357">
         <v>0.15</v>
       </c>
-      <c r="LF3" s="461"/>
-      <c r="LG3" s="461"/>
-      <c r="LH3" s="461">
+      <c r="LF3" s="356"/>
+      <c r="LG3" s="356"/>
+      <c r="LH3" s="357">
         <v>0.15</v>
       </c>
-      <c r="LI3" s="461"/>
-      <c r="LJ3" s="461"/>
-      <c r="LK3" s="461">
+      <c r="LI3" s="356"/>
+      <c r="LJ3" s="356"/>
+      <c r="LK3" s="357">
         <v>0.15</v>
       </c>
-      <c r="LL3" s="461"/>
-      <c r="LM3" s="461"/>
-      <c r="LN3" s="461">
+      <c r="LL3" s="356"/>
+      <c r="LM3" s="356"/>
+      <c r="LN3" s="357">
         <v>0.15</v>
       </c>
-      <c r="LO3" s="461"/>
-      <c r="LP3" s="461"/>
-      <c r="LQ3" s="461">
+      <c r="LO3" s="356"/>
+      <c r="LP3" s="356"/>
+      <c r="LQ3" s="357">
         <v>0.1</v>
       </c>
-      <c r="LR3" s="461"/>
-      <c r="LS3" s="461"/>
-      <c r="LT3" s="461">
+      <c r="LR3" s="356"/>
+      <c r="LS3" s="356"/>
+      <c r="LT3" s="357">
         <v>0.05</v>
       </c>
-      <c r="LU3" s="461"/>
-      <c r="LV3" s="461"/>
-      <c r="LW3" s="399">
+      <c r="LU3" s="356"/>
+      <c r="LV3" s="356"/>
+      <c r="LW3" s="343">
         <v>0.1</v>
       </c>
-      <c r="LX3" s="399"/>
-      <c r="LY3" s="399"/>
-      <c r="LZ3" s="399">
+      <c r="LX3" s="343"/>
+      <c r="LY3" s="343"/>
+      <c r="LZ3" s="343">
         <v>0.05</v>
       </c>
-      <c r="MA3" s="399"/>
-      <c r="MB3" s="399"/>
-      <c r="MC3" s="399">
+      <c r="MA3" s="343"/>
+      <c r="MB3" s="343"/>
+      <c r="MC3" s="343">
         <v>0.05</v>
       </c>
-      <c r="MD3" s="399"/>
-      <c r="ME3" s="399"/>
-      <c r="MF3" s="399">
+      <c r="MD3" s="343"/>
+      <c r="ME3" s="343"/>
+      <c r="MF3" s="343">
         <v>0.1</v>
       </c>
-      <c r="MG3" s="399"/>
-      <c r="MH3" s="399"/>
-      <c r="MI3" s="399">
+      <c r="MG3" s="343"/>
+      <c r="MH3" s="343"/>
+      <c r="MI3" s="343">
         <v>0.05</v>
       </c>
-      <c r="MJ3" s="399"/>
-      <c r="MK3" s="399"/>
-      <c r="ML3" s="399">
+      <c r="MJ3" s="343"/>
+      <c r="MK3" s="343"/>
+      <c r="ML3" s="343">
         <v>0.1</v>
       </c>
-      <c r="MM3" s="399"/>
-      <c r="MN3" s="399"/>
-      <c r="MO3" s="399">
+      <c r="MM3" s="343"/>
+      <c r="MN3" s="343"/>
+      <c r="MO3" s="343">
         <v>0.15</v>
       </c>
-      <c r="MP3" s="399"/>
-      <c r="MQ3" s="399"/>
-      <c r="MR3" s="399">
+      <c r="MP3" s="343"/>
+      <c r="MQ3" s="343"/>
+      <c r="MR3" s="343">
         <v>0.1</v>
       </c>
-      <c r="MS3" s="399"/>
-      <c r="MT3" s="399"/>
-      <c r="MU3" s="399">
+      <c r="MS3" s="343"/>
+      <c r="MT3" s="343"/>
+      <c r="MU3" s="343">
         <v>0.1</v>
       </c>
-      <c r="MV3" s="399"/>
-      <c r="MW3" s="399"/>
-      <c r="MX3" s="380">
+      <c r="MV3" s="343"/>
+      <c r="MW3" s="343"/>
+      <c r="MX3" s="422">
         <v>0.1</v>
       </c>
-      <c r="MY3" s="380"/>
-      <c r="MZ3" s="380"/>
-      <c r="NA3" s="380"/>
-      <c r="NB3" s="380">
+      <c r="MY3" s="422"/>
+      <c r="MZ3" s="422"/>
+      <c r="NA3" s="422"/>
+      <c r="NB3" s="422">
         <v>0.1</v>
       </c>
-      <c r="NC3" s="380"/>
-      <c r="ND3" s="380"/>
-      <c r="NE3" s="380"/>
-      <c r="NF3" s="380">
+      <c r="NC3" s="422"/>
+      <c r="ND3" s="422"/>
+      <c r="NE3" s="422"/>
+      <c r="NF3" s="422">
         <v>0.08</v>
       </c>
-      <c r="NG3" s="380"/>
-      <c r="NH3" s="380"/>
-      <c r="NI3" s="380"/>
-      <c r="NJ3" s="380">
+      <c r="NG3" s="422"/>
+      <c r="NH3" s="422"/>
+      <c r="NI3" s="422"/>
+      <c r="NJ3" s="422">
         <v>0.06</v>
       </c>
-      <c r="NK3" s="380"/>
-      <c r="NL3" s="380"/>
-      <c r="NM3" s="380"/>
-      <c r="NN3" s="380"/>
-      <c r="NO3" s="380">
+      <c r="NK3" s="422"/>
+      <c r="NL3" s="422"/>
+      <c r="NM3" s="422"/>
+      <c r="NN3" s="422"/>
+      <c r="NO3" s="422">
         <v>0.06</v>
       </c>
-      <c r="NP3" s="380"/>
-      <c r="NQ3" s="380"/>
-      <c r="NR3" s="380"/>
-      <c r="NS3" s="359">
+      <c r="NP3" s="422"/>
+      <c r="NQ3" s="422"/>
+      <c r="NR3" s="422"/>
+      <c r="NS3" s="365">
         <v>0.15</v>
       </c>
-      <c r="NT3" s="359"/>
-      <c r="NU3" s="359"/>
-      <c r="NV3" s="359"/>
-      <c r="NW3" s="359">
+      <c r="NT3" s="365"/>
+      <c r="NU3" s="365"/>
+      <c r="NV3" s="365"/>
+      <c r="NW3" s="365">
         <v>0.05</v>
       </c>
-      <c r="NX3" s="359"/>
-      <c r="NY3" s="359"/>
-      <c r="NZ3" s="359">
+      <c r="NX3" s="365"/>
+      <c r="NY3" s="365"/>
+      <c r="NZ3" s="365">
         <v>0.1</v>
       </c>
-      <c r="OA3" s="359"/>
-      <c r="OB3" s="359"/>
-      <c r="OC3" s="359">
+      <c r="OA3" s="365"/>
+      <c r="OB3" s="365"/>
+      <c r="OC3" s="365">
         <v>0.1</v>
       </c>
-      <c r="OD3" s="359"/>
-      <c r="OE3" s="359"/>
-      <c r="OF3" s="359">
+      <c r="OD3" s="365"/>
+      <c r="OE3" s="365"/>
+      <c r="OF3" s="365">
         <v>0.1</v>
       </c>
-      <c r="OG3" s="359"/>
-      <c r="OH3" s="359"/>
-      <c r="OI3" s="359">
+      <c r="OG3" s="365"/>
+      <c r="OH3" s="365"/>
+      <c r="OI3" s="365">
         <v>0.05</v>
       </c>
-      <c r="OJ3" s="359"/>
-      <c r="OK3" s="359"/>
-      <c r="OL3" s="359"/>
-      <c r="OM3" s="359">
+      <c r="OJ3" s="365"/>
+      <c r="OK3" s="365"/>
+      <c r="OL3" s="365"/>
+      <c r="OM3" s="365">
         <v>0.05</v>
       </c>
-      <c r="ON3" s="359"/>
-      <c r="OO3" s="359"/>
-      <c r="OP3" s="369">
+      <c r="ON3" s="365"/>
+      <c r="OO3" s="365"/>
+      <c r="OP3" s="405">
         <v>0.05</v>
       </c>
-      <c r="OQ3" s="369"/>
-      <c r="OR3" s="369"/>
-      <c r="OS3" s="369">
+      <c r="OQ3" s="405"/>
+      <c r="OR3" s="405"/>
+      <c r="OS3" s="405">
         <v>0.08</v>
       </c>
-      <c r="OT3" s="369"/>
-      <c r="OU3" s="369"/>
-      <c r="OV3" s="369">
+      <c r="OT3" s="405"/>
+      <c r="OU3" s="405"/>
+      <c r="OV3" s="405">
         <v>0.1</v>
       </c>
-      <c r="OW3" s="369"/>
-      <c r="OX3" s="369"/>
-      <c r="OY3" s="369">
+      <c r="OW3" s="405"/>
+      <c r="OX3" s="405"/>
+      <c r="OY3" s="405">
         <v>0.1</v>
       </c>
-      <c r="OZ3" s="369"/>
-      <c r="PA3" s="369"/>
-      <c r="PB3" s="369">
+      <c r="OZ3" s="405"/>
+      <c r="PA3" s="405"/>
+      <c r="PB3" s="405">
         <v>0.05</v>
       </c>
-      <c r="PC3" s="369"/>
-      <c r="PD3" s="369"/>
-      <c r="PE3" s="369">
+      <c r="PC3" s="405"/>
+      <c r="PD3" s="405"/>
+      <c r="PE3" s="405">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="PF3" s="369"/>
-      <c r="PG3" s="369"/>
-      <c r="PH3" s="369">
+      <c r="PF3" s="405"/>
+      <c r="PG3" s="405"/>
+      <c r="PH3" s="405">
         <v>0.05</v>
       </c>
-      <c r="PI3" s="369"/>
-      <c r="PJ3" s="369"/>
-      <c r="PK3" s="375">
+      <c r="PI3" s="405"/>
+      <c r="PJ3" s="405"/>
+      <c r="PK3" s="363">
         <v>0.1</v>
       </c>
-      <c r="PL3" s="375"/>
-      <c r="PM3" s="375"/>
-      <c r="PN3" s="375">
+      <c r="PL3" s="363"/>
+      <c r="PM3" s="363"/>
+      <c r="PN3" s="363">
         <v>0.1</v>
       </c>
-      <c r="PO3" s="375"/>
-      <c r="PP3" s="375"/>
-      <c r="PQ3" s="375">
+      <c r="PO3" s="363"/>
+      <c r="PP3" s="363"/>
+      <c r="PQ3" s="363">
         <v>0.1</v>
       </c>
-      <c r="PR3" s="375"/>
-      <c r="PS3" s="375"/>
-      <c r="PT3" s="375">
+      <c r="PR3" s="363"/>
+      <c r="PS3" s="363"/>
+      <c r="PT3" s="363">
         <v>0.1</v>
       </c>
-      <c r="PU3" s="375"/>
-      <c r="PV3" s="375"/>
-      <c r="PW3" s="375">
+      <c r="PU3" s="363"/>
+      <c r="PV3" s="363"/>
+      <c r="PW3" s="363">
         <v>0.1</v>
       </c>
-      <c r="PX3" s="375"/>
-      <c r="PY3" s="375"/>
-      <c r="PZ3" s="375">
+      <c r="PX3" s="363"/>
+      <c r="PY3" s="363"/>
+      <c r="PZ3" s="363">
         <v>0.1</v>
       </c>
-      <c r="QA3" s="375"/>
-      <c r="QB3" s="375"/>
-      <c r="QC3" s="375">
+      <c r="QA3" s="363"/>
+      <c r="QB3" s="363"/>
+      <c r="QC3" s="363">
         <v>0.1</v>
       </c>
-      <c r="QD3" s="375"/>
-      <c r="QE3" s="375"/>
-      <c r="QF3" s="375">
+      <c r="QD3" s="363"/>
+      <c r="QE3" s="363"/>
+      <c r="QF3" s="363">
         <v>0.1</v>
       </c>
-      <c r="QG3" s="375"/>
-      <c r="QH3" s="375"/>
-      <c r="QI3" s="362">
+      <c r="QG3" s="363"/>
+      <c r="QH3" s="363"/>
+      <c r="QI3" s="453">
         <v>0.05</v>
       </c>
-      <c r="QJ3" s="362"/>
-      <c r="QK3" s="362"/>
-      <c r="QL3" s="362">
+      <c r="QJ3" s="453"/>
+      <c r="QK3" s="453"/>
+      <c r="QL3" s="453">
         <v>0.1</v>
       </c>
-      <c r="QM3" s="362"/>
-      <c r="QN3" s="362"/>
-      <c r="QO3" s="362">
+      <c r="QM3" s="453"/>
+      <c r="QN3" s="453"/>
+      <c r="QO3" s="453">
         <v>0.09</v>
       </c>
-      <c r="QP3" s="362"/>
-      <c r="QQ3" s="362"/>
-      <c r="QR3" s="409">
+      <c r="QP3" s="453"/>
+      <c r="QQ3" s="453"/>
+      <c r="QR3" s="455">
         <v>0.1</v>
       </c>
-      <c r="QS3" s="409"/>
-      <c r="QT3" s="409"/>
-      <c r="QU3" s="448">
+      <c r="QS3" s="455"/>
+      <c r="QT3" s="455"/>
+      <c r="QU3" s="415">
         <v>0.08</v>
       </c>
-      <c r="QV3" s="449"/>
-      <c r="QW3" s="449"/>
-      <c r="QX3" s="450"/>
-      <c r="QY3" s="409">
+      <c r="QV3" s="416"/>
+      <c r="QW3" s="416"/>
+      <c r="QX3" s="417"/>
+      <c r="QY3" s="455">
         <v>0.08</v>
       </c>
-      <c r="QZ3" s="409"/>
-      <c r="RA3" s="409"/>
-      <c r="RB3" s="364">
+      <c r="QZ3" s="455"/>
+      <c r="RA3" s="455"/>
+      <c r="RB3" s="418">
         <v>0.1</v>
       </c>
-      <c r="RC3" s="364"/>
-      <c r="RD3" s="364"/>
-      <c r="RE3" s="364">
+      <c r="RC3" s="418"/>
+      <c r="RD3" s="418"/>
+      <c r="RE3" s="418">
         <v>0.15</v>
       </c>
-      <c r="RF3" s="364"/>
-      <c r="RG3" s="364"/>
-      <c r="RH3" s="364">
+      <c r="RF3" s="418"/>
+      <c r="RG3" s="418"/>
+      <c r="RH3" s="418">
         <v>0.15</v>
       </c>
-      <c r="RI3" s="364"/>
-      <c r="RJ3" s="364"/>
-      <c r="RK3" s="364">
+      <c r="RI3" s="418"/>
+      <c r="RJ3" s="418"/>
+      <c r="RK3" s="418">
         <v>0.05</v>
       </c>
-      <c r="RL3" s="364"/>
-      <c r="RM3" s="364"/>
-      <c r="RN3" s="364">
+      <c r="RL3" s="418"/>
+      <c r="RM3" s="418"/>
+      <c r="RN3" s="418">
         <v>0.1</v>
       </c>
-      <c r="RO3" s="364"/>
-      <c r="RP3" s="364"/>
-      <c r="RQ3" s="364">
+      <c r="RO3" s="418"/>
+      <c r="RP3" s="418"/>
+      <c r="RQ3" s="418">
         <v>0.1</v>
       </c>
-      <c r="RR3" s="364"/>
-      <c r="RS3" s="364"/>
-      <c r="RT3" s="364">
+      <c r="RR3" s="418"/>
+      <c r="RS3" s="418"/>
+      <c r="RT3" s="418">
         <v>0.05</v>
       </c>
-      <c r="RU3" s="364"/>
-      <c r="RV3" s="364"/>
-      <c r="RW3" s="462">
+      <c r="RU3" s="418"/>
+      <c r="RV3" s="418"/>
+      <c r="RW3" s="387">
         <v>0.1</v>
       </c>
-      <c r="RX3" s="462"/>
-      <c r="RY3" s="462"/>
-      <c r="RZ3" s="462">
+      <c r="RX3" s="387"/>
+      <c r="RY3" s="387"/>
+      <c r="RZ3" s="387">
         <v>0.1</v>
       </c>
-      <c r="SA3" s="462"/>
-      <c r="SB3" s="462"/>
-      <c r="SC3" s="462">
+      <c r="SA3" s="387"/>
+      <c r="SB3" s="387"/>
+      <c r="SC3" s="387">
         <v>0.1</v>
       </c>
-      <c r="SD3" s="462"/>
-      <c r="SE3" s="462"/>
-      <c r="SF3" s="372">
+      <c r="SD3" s="387"/>
+      <c r="SE3" s="387"/>
+      <c r="SF3" s="389">
         <v>0.05</v>
       </c>
-      <c r="SG3" s="372"/>
-      <c r="SH3" s="372"/>
-      <c r="SI3" s="372">
+      <c r="SG3" s="389"/>
+      <c r="SH3" s="389"/>
+      <c r="SI3" s="389">
         <v>0.05</v>
       </c>
-      <c r="SJ3" s="372"/>
-      <c r="SK3" s="372"/>
-      <c r="SL3" s="372">
+      <c r="SJ3" s="389"/>
+      <c r="SK3" s="389"/>
+      <c r="SL3" s="389">
         <v>0.1</v>
       </c>
-      <c r="SM3" s="372"/>
-      <c r="SN3" s="372"/>
-      <c r="SO3" s="372">
+      <c r="SM3" s="389"/>
+      <c r="SN3" s="389"/>
+      <c r="SO3" s="389">
         <v>0.1</v>
       </c>
-      <c r="SP3" s="372"/>
-      <c r="SQ3" s="372"/>
-      <c r="SR3" s="372">
+      <c r="SP3" s="389"/>
+      <c r="SQ3" s="389"/>
+      <c r="SR3" s="389">
         <v>0.05</v>
       </c>
-      <c r="SS3" s="372"/>
-      <c r="ST3" s="372"/>
-      <c r="SU3" s="372">
+      <c r="SS3" s="389"/>
+      <c r="ST3" s="389"/>
+      <c r="SU3" s="389">
         <v>0.05</v>
       </c>
-      <c r="SV3" s="372"/>
-      <c r="SW3" s="372"/>
-      <c r="SX3" s="336">
+      <c r="SV3" s="389"/>
+      <c r="SW3" s="389"/>
+      <c r="SX3" s="487">
         <v>0.1</v>
       </c>
-      <c r="SY3" s="336"/>
-      <c r="SZ3" s="336"/>
-      <c r="TA3" s="336">
+      <c r="SY3" s="487"/>
+      <c r="SZ3" s="487"/>
+      <c r="TA3" s="487">
         <v>0.2</v>
       </c>
-      <c r="TB3" s="336"/>
-      <c r="TC3" s="336"/>
-      <c r="TD3" s="336">
+      <c r="TB3" s="487"/>
+      <c r="TC3" s="487"/>
+      <c r="TD3" s="487">
         <v>0.1</v>
       </c>
-      <c r="TE3" s="336"/>
-      <c r="TF3" s="336"/>
-      <c r="TG3" s="336">
+      <c r="TE3" s="487"/>
+      <c r="TF3" s="487"/>
+      <c r="TG3" s="487">
         <v>0.15</v>
       </c>
-      <c r="TH3" s="336"/>
-      <c r="TI3" s="336"/>
-      <c r="TJ3" s="336">
+      <c r="TH3" s="487"/>
+      <c r="TI3" s="487"/>
+      <c r="TJ3" s="487">
         <v>0.05</v>
       </c>
-      <c r="TK3" s="336"/>
-      <c r="TL3" s="336"/>
-      <c r="TM3" s="336">
+      <c r="TK3" s="487"/>
+      <c r="TL3" s="487"/>
+      <c r="TM3" s="487">
         <v>0.1</v>
       </c>
-      <c r="TN3" s="336"/>
-      <c r="TO3" s="336"/>
-      <c r="TP3" s="336">
+      <c r="TN3" s="487"/>
+      <c r="TO3" s="487"/>
+      <c r="TP3" s="487">
         <v>0.05</v>
       </c>
-      <c r="TQ3" s="336"/>
-      <c r="TR3" s="336"/>
-      <c r="TS3" s="338">
+      <c r="TQ3" s="487"/>
+      <c r="TR3" s="487"/>
+      <c r="TS3" s="392">
         <v>0.08</v>
       </c>
-      <c r="TT3" s="338"/>
-      <c r="TU3" s="338"/>
-      <c r="TV3" s="338"/>
-      <c r="TW3" s="338">
+      <c r="TT3" s="392"/>
+      <c r="TU3" s="392"/>
+      <c r="TV3" s="392"/>
+      <c r="TW3" s="392">
         <v>0.08</v>
       </c>
-      <c r="TX3" s="338"/>
-      <c r="TY3" s="338"/>
-      <c r="TZ3" s="338">
+      <c r="TX3" s="392"/>
+      <c r="TY3" s="392"/>
+      <c r="TZ3" s="392">
         <v>0.06</v>
       </c>
-      <c r="UA3" s="338"/>
-      <c r="UB3" s="338"/>
-      <c r="UC3" s="338">
+      <c r="UA3" s="392"/>
+      <c r="UB3" s="392"/>
+      <c r="UC3" s="392">
         <v>0.08</v>
       </c>
-      <c r="UD3" s="338"/>
-      <c r="UE3" s="338"/>
-      <c r="UF3" s="338">
+      <c r="UD3" s="392"/>
+      <c r="UE3" s="392"/>
+      <c r="UF3" s="392">
         <v>0.05</v>
       </c>
-      <c r="UG3" s="338"/>
-      <c r="UH3" s="338"/>
-      <c r="UI3" s="338">
+      <c r="UG3" s="392"/>
+      <c r="UH3" s="392"/>
+      <c r="UI3" s="392">
         <v>0.05</v>
       </c>
-      <c r="UJ3" s="338"/>
-      <c r="UK3" s="338"/>
-      <c r="UL3" s="338">
+      <c r="UJ3" s="392"/>
+      <c r="UK3" s="392"/>
+      <c r="UL3" s="392">
         <v>0.05</v>
       </c>
-      <c r="UM3" s="338"/>
-      <c r="UN3" s="338"/>
-      <c r="UO3" s="403">
+      <c r="UM3" s="392"/>
+      <c r="UN3" s="392"/>
+      <c r="UO3" s="407">
         <v>0.1</v>
       </c>
-      <c r="UP3" s="403"/>
-      <c r="UQ3" s="403"/>
-      <c r="UR3" s="403">
+      <c r="UP3" s="407"/>
+      <c r="UQ3" s="407"/>
+      <c r="UR3" s="407">
         <v>0.1</v>
       </c>
-      <c r="US3" s="403"/>
-      <c r="UT3" s="403"/>
-      <c r="UU3" s="403">
+      <c r="US3" s="407"/>
+      <c r="UT3" s="407"/>
+      <c r="UU3" s="407">
         <v>0.05</v>
       </c>
-      <c r="UV3" s="403"/>
-      <c r="UW3" s="403"/>
-      <c r="UX3" s="403">
+      <c r="UV3" s="407"/>
+      <c r="UW3" s="407"/>
+      <c r="UX3" s="407">
         <v>0.05</v>
       </c>
-      <c r="UY3" s="403"/>
-      <c r="UZ3" s="403"/>
-      <c r="VA3" s="403">
+      <c r="UY3" s="407"/>
+      <c r="UZ3" s="407"/>
+      <c r="VA3" s="407">
         <v>0.05</v>
       </c>
-      <c r="VB3" s="403"/>
-      <c r="VC3" s="403"/>
-      <c r="VD3" s="403">
+      <c r="VB3" s="407"/>
+      <c r="VC3" s="407"/>
+      <c r="VD3" s="407">
         <v>0.1</v>
       </c>
-      <c r="VE3" s="403"/>
-      <c r="VF3" s="403"/>
-      <c r="VG3" s="403">
+      <c r="VE3" s="407"/>
+      <c r="VF3" s="407"/>
+      <c r="VG3" s="407">
         <v>0.1</v>
       </c>
-      <c r="VH3" s="403"/>
-      <c r="VI3" s="403"/>
-      <c r="VJ3" s="403">
+      <c r="VH3" s="407"/>
+      <c r="VI3" s="407"/>
+      <c r="VJ3" s="407">
         <v>0.1</v>
       </c>
-      <c r="VK3" s="403"/>
-      <c r="VL3" s="403"/>
-      <c r="VM3" s="403">
+      <c r="VK3" s="407"/>
+      <c r="VL3" s="407"/>
+      <c r="VM3" s="407">
         <v>0.05</v>
       </c>
-      <c r="VN3" s="403"/>
-      <c r="VO3" s="403"/>
-      <c r="VP3" s="348">
+      <c r="VN3" s="407"/>
+      <c r="VO3" s="407"/>
+      <c r="VP3" s="382">
         <v>0.1</v>
       </c>
-      <c r="VQ3" s="348"/>
-      <c r="VR3" s="348"/>
-      <c r="VS3" s="348">
+      <c r="VQ3" s="382"/>
+      <c r="VR3" s="382"/>
+      <c r="VS3" s="382">
         <v>0.1</v>
       </c>
-      <c r="VT3" s="348"/>
-      <c r="VU3" s="348"/>
-      <c r="VV3" s="348">
+      <c r="VT3" s="382"/>
+      <c r="VU3" s="382"/>
+      <c r="VV3" s="382">
         <v>0.05</v>
       </c>
-      <c r="VW3" s="348"/>
-      <c r="VX3" s="348"/>
-      <c r="VY3" s="348">
+      <c r="VW3" s="382"/>
+      <c r="VX3" s="382"/>
+      <c r="VY3" s="382">
         <v>0.05</v>
       </c>
-      <c r="VZ3" s="348"/>
-      <c r="WA3" s="348"/>
-      <c r="WB3" s="348">
+      <c r="VZ3" s="382"/>
+      <c r="WA3" s="382"/>
+      <c r="WB3" s="382">
         <v>0.1</v>
       </c>
-      <c r="WC3" s="348"/>
-      <c r="WD3" s="348"/>
-      <c r="WE3" s="348">
+      <c r="WC3" s="382"/>
+      <c r="WD3" s="382"/>
+      <c r="WE3" s="382">
         <v>0.05</v>
       </c>
-      <c r="WF3" s="348"/>
-      <c r="WG3" s="348"/>
-      <c r="WH3" s="348">
+      <c r="WF3" s="382"/>
+      <c r="WG3" s="382"/>
+      <c r="WH3" s="382">
         <v>0.1</v>
       </c>
-      <c r="WI3" s="348"/>
-      <c r="WJ3" s="348"/>
-      <c r="WK3" s="348">
+      <c r="WI3" s="382"/>
+      <c r="WJ3" s="382"/>
+      <c r="WK3" s="382">
         <v>0.1</v>
       </c>
-      <c r="WL3" s="348"/>
-      <c r="WM3" s="348"/>
-      <c r="WN3" s="348">
+      <c r="WL3" s="382"/>
+      <c r="WM3" s="382"/>
+      <c r="WN3" s="382">
         <v>0.05</v>
       </c>
-      <c r="WO3" s="348"/>
-      <c r="WP3" s="348"/>
-      <c r="WQ3" s="464">
+      <c r="WO3" s="382"/>
+      <c r="WP3" s="382"/>
+      <c r="WQ3" s="359">
         <v>0.1</v>
       </c>
-      <c r="WR3" s="464"/>
-      <c r="WS3" s="464"/>
-      <c r="WT3" s="464">
+      <c r="WR3" s="359"/>
+      <c r="WS3" s="359"/>
+      <c r="WT3" s="359">
         <v>0.1</v>
       </c>
-      <c r="WU3" s="464"/>
-      <c r="WV3" s="464"/>
-      <c r="WW3" s="464">
+      <c r="WU3" s="359"/>
+      <c r="WV3" s="359"/>
+      <c r="WW3" s="359">
         <v>0.05</v>
       </c>
-      <c r="WX3" s="464"/>
-      <c r="WY3" s="464"/>
-      <c r="WZ3" s="464">
+      <c r="WX3" s="359"/>
+      <c r="WY3" s="359"/>
+      <c r="WZ3" s="359">
         <v>0.05</v>
       </c>
-      <c r="XA3" s="464"/>
-      <c r="XB3" s="464"/>
-      <c r="XC3" s="464">
+      <c r="XA3" s="359"/>
+      <c r="XB3" s="359"/>
+      <c r="XC3" s="359">
         <v>0.1</v>
       </c>
-      <c r="XD3" s="464"/>
-      <c r="XE3" s="464"/>
-      <c r="XF3" s="464">
+      <c r="XD3" s="359"/>
+      <c r="XE3" s="359"/>
+      <c r="XF3" s="359">
         <v>0.1</v>
       </c>
-      <c r="XG3" s="464"/>
-      <c r="XH3" s="464"/>
-      <c r="XI3" s="464">
+      <c r="XG3" s="359"/>
+      <c r="XH3" s="359"/>
+      <c r="XI3" s="359">
         <v>0.1</v>
       </c>
-      <c r="XJ3" s="464"/>
-      <c r="XK3" s="464"/>
-      <c r="XL3" s="464">
+      <c r="XJ3" s="359"/>
+      <c r="XK3" s="359"/>
+      <c r="XL3" s="359">
         <v>0.1</v>
       </c>
-      <c r="XM3" s="464"/>
-      <c r="XN3" s="464"/>
-      <c r="XO3" s="332">
+      <c r="XM3" s="359"/>
+      <c r="XN3" s="359"/>
+      <c r="XO3" s="421">
         <v>0.1</v>
       </c>
-      <c r="XP3" s="332"/>
-      <c r="XQ3" s="332"/>
-      <c r="XR3" s="332">
+      <c r="XP3" s="421"/>
+      <c r="XQ3" s="421"/>
+      <c r="XR3" s="421">
         <v>0.1</v>
       </c>
-      <c r="XS3" s="332"/>
-      <c r="XT3" s="332"/>
-      <c r="XU3" s="332">
+      <c r="XS3" s="421"/>
+      <c r="XT3" s="421"/>
+      <c r="XU3" s="421">
         <v>0.1</v>
       </c>
-      <c r="XV3" s="332"/>
-      <c r="XW3" s="332"/>
-      <c r="XX3" s="332">
+      <c r="XV3" s="421"/>
+      <c r="XW3" s="421"/>
+      <c r="XX3" s="421">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="XY3" s="332"/>
-      <c r="XZ3" s="332"/>
-      <c r="YA3" s="332">
+      <c r="XY3" s="421"/>
+      <c r="XZ3" s="421"/>
+      <c r="YA3" s="421">
         <v>0.05</v>
       </c>
-      <c r="YB3" s="332"/>
-      <c r="YC3" s="332"/>
-      <c r="YD3" s="332">
+      <c r="YB3" s="421"/>
+      <c r="YC3" s="421"/>
+      <c r="YD3" s="421">
         <v>0.09</v>
       </c>
-      <c r="YE3" s="332"/>
-      <c r="YF3" s="332"/>
-      <c r="YG3" s="332">
+      <c r="YE3" s="421"/>
+      <c r="YF3" s="421"/>
+      <c r="YG3" s="421">
         <v>0.09</v>
       </c>
-      <c r="YH3" s="332"/>
-      <c r="YI3" s="332"/>
-      <c r="YJ3" s="332">
+      <c r="YH3" s="421"/>
+      <c r="YI3" s="421"/>
+      <c r="YJ3" s="421">
         <v>0.05</v>
       </c>
-      <c r="YK3" s="332"/>
-      <c r="YL3" s="332"/>
-      <c r="YM3" s="332">
+      <c r="YK3" s="421"/>
+      <c r="YL3" s="421"/>
+      <c r="YM3" s="421">
         <v>0.05</v>
       </c>
-      <c r="YN3" s="332"/>
-      <c r="YO3" s="332"/>
-      <c r="YP3" s="451">
+      <c r="YN3" s="421"/>
+      <c r="YO3" s="421"/>
+      <c r="YP3" s="403">
         <v>0.05</v>
       </c>
-      <c r="YQ3" s="451"/>
-      <c r="YR3" s="451"/>
-      <c r="YS3" s="451">
+      <c r="YQ3" s="403"/>
+      <c r="YR3" s="403"/>
+      <c r="YS3" s="403">
         <v>0.05</v>
       </c>
-      <c r="YT3" s="451"/>
-      <c r="YU3" s="451"/>
-      <c r="YV3" s="381">
+      <c r="YT3" s="403"/>
+      <c r="YU3" s="403"/>
+      <c r="YV3" s="469">
         <v>0.05</v>
       </c>
-      <c r="YW3" s="381"/>
-      <c r="YX3" s="381"/>
-      <c r="YY3" s="381"/>
-      <c r="YZ3" s="381">
+      <c r="YW3" s="469"/>
+      <c r="YX3" s="469"/>
+      <c r="YY3" s="469"/>
+      <c r="YZ3" s="469">
         <v>0.05</v>
       </c>
-      <c r="ZA3" s="381"/>
-      <c r="ZB3" s="381"/>
-      <c r="ZC3" s="466">
+      <c r="ZA3" s="469"/>
+      <c r="ZB3" s="469"/>
+      <c r="ZC3" s="376">
         <v>0.05</v>
       </c>
-      <c r="ZD3" s="466"/>
-      <c r="ZE3" s="466"/>
-      <c r="ZF3" s="443" t="s">
+      <c r="ZD3" s="376"/>
+      <c r="ZE3" s="376"/>
+      <c r="ZF3" s="372" t="s">
         <v>150</v>
       </c>
-      <c r="ZG3" s="443" t="s">
+      <c r="ZG3" s="372" t="s">
         <v>152</v>
       </c>
-      <c r="ZH3" s="443" t="s">
+      <c r="ZH3" s="372" t="s">
         <v>60</v>
       </c>
-      <c r="ZI3" s="442" t="s">
+      <c r="ZI3" s="371" t="s">
         <v>75</v>
       </c>
-      <c r="ZJ3" s="442" t="s">
+      <c r="ZJ3" s="371" t="s">
         <v>76</v>
       </c>
-      <c r="ZK3" s="442" t="s">
+      <c r="ZK3" s="371" t="s">
         <v>77</v>
       </c>
-      <c r="ZL3" s="442" t="s">
+      <c r="ZL3" s="371" t="s">
         <v>60</v>
       </c>
-      <c r="ZM3" s="439" t="s">
+      <c r="ZM3" s="381" t="s">
         <v>150</v>
       </c>
-      <c r="ZN3" s="439" t="s">
+      <c r="ZN3" s="381" t="s">
         <v>152</v>
       </c>
-      <c r="ZO3" s="439" t="s">
+      <c r="ZO3" s="381" t="s">
         <v>60</v>
       </c>
-      <c r="ZP3" s="347" t="s">
+      <c r="ZP3" s="384" t="s">
         <v>150</v>
       </c>
-      <c r="ZQ3" s="347" t="s">
+      <c r="ZQ3" s="384" t="s">
         <v>152</v>
       </c>
-      <c r="ZR3" s="347" t="s">
+      <c r="ZR3" s="384" t="s">
         <v>60</v>
       </c>
-      <c r="ZS3" s="386" t="s">
+      <c r="ZS3" s="419" t="s">
         <v>254</v>
       </c>
-      <c r="ZT3" s="386" t="s">
+      <c r="ZT3" s="419" t="s">
         <v>255</v>
       </c>
-      <c r="ZU3" s="386" t="s">
+      <c r="ZU3" s="419" t="s">
         <v>60</v>
       </c>
-      <c r="ZV3" s="467" t="s">
+      <c r="ZV3" s="369" t="s">
         <v>252</v>
       </c>
-      <c r="ZW3" s="467" t="s">
+      <c r="ZW3" s="369" t="s">
         <v>253</v>
       </c>
-      <c r="ZX3" s="467" t="s">
+      <c r="ZX3" s="369" t="s">
         <v>27</v>
       </c>
-      <c r="ZY3" s="410" t="s">
+      <c r="ZY3" s="370" t="s">
         <v>57</v>
       </c>
-      <c r="ZZ3" s="410" t="s">
+      <c r="ZZ3" s="370" t="s">
         <v>58</v>
       </c>
-      <c r="AAA3" s="410" t="s">
+      <c r="AAA3" s="370" t="s">
         <v>59</v>
       </c>
-      <c r="AAB3" s="410" t="s">
+      <c r="AAB3" s="370" t="s">
         <v>1346</v>
       </c>
-      <c r="AAC3" s="410" t="s">
+      <c r="AAC3" s="370" t="s">
         <v>1347</v>
       </c>
-      <c r="AAD3" s="474" t="s">
+      <c r="AAD3" s="367" t="s">
         <v>150</v>
       </c>
-      <c r="AAE3" s="474" t="s">
+      <c r="AAE3" s="367" t="s">
         <v>152</v>
       </c>
-      <c r="AAF3" s="474" t="s">
+      <c r="AAF3" s="367" t="s">
         <v>60</v>
       </c>
-      <c r="AAG3" s="440" t="s">
+      <c r="AAG3" s="426" t="s">
         <v>150</v>
       </c>
-      <c r="AAH3" s="440" t="s">
+      <c r="AAH3" s="426" t="s">
         <v>152</v>
       </c>
-      <c r="AAI3" s="440" t="s">
+      <c r="AAI3" s="426" t="s">
         <v>60</v>
       </c>
-      <c r="AAJ3" s="473" t="s">
+      <c r="AAJ3" s="366" t="s">
         <v>150</v>
       </c>
-      <c r="AAK3" s="473" t="s">
+      <c r="AAK3" s="366" t="s">
         <v>152</v>
       </c>
-      <c r="AAL3" s="473" t="s">
+      <c r="AAL3" s="366" t="s">
         <v>27</v>
       </c>
-      <c r="AAM3" s="539" t="s">
+      <c r="AAM3" s="427" t="s">
         <v>150</v>
       </c>
-      <c r="AAN3" s="539" t="s">
+      <c r="AAN3" s="427" t="s">
         <v>152</v>
       </c>
-      <c r="AAO3" s="539" t="s">
+      <c r="AAO3" s="427" t="s">
         <v>27</v>
       </c>
-      <c r="AAP3" s="384" t="s">
+      <c r="AAP3" s="471" t="s">
         <v>150</v>
       </c>
-      <c r="AAQ3" s="384" t="s">
+      <c r="AAQ3" s="471" t="s">
         <v>152</v>
       </c>
-      <c r="AAR3" s="384" t="s">
+      <c r="AAR3" s="471" t="s">
         <v>27</v>
       </c>
-      <c r="AAS3" s="385" t="s">
+      <c r="AAS3" s="428" t="s">
         <v>252</v>
       </c>
-      <c r="AAT3" s="385" t="s">
+      <c r="AAT3" s="428" t="s">
         <v>253</v>
       </c>
-      <c r="AAU3" s="385" t="s">
+      <c r="AAU3" s="428" t="s">
         <v>27</v>
       </c>
-      <c r="AAV3" s="435" t="s">
+      <c r="AAV3" s="353" t="s">
         <v>252</v>
       </c>
-      <c r="AAW3" s="435" t="s">
+      <c r="AAW3" s="353" t="s">
         <v>253</v>
       </c>
-      <c r="AAX3" s="435" t="s">
+      <c r="AAX3" s="353" t="s">
         <v>27</v>
       </c>
-      <c r="AAY3" s="413" t="s">
+      <c r="AAY3" s="431" t="s">
         <v>254</v>
       </c>
-      <c r="AAZ3" s="413" t="s">
+      <c r="AAZ3" s="431" t="s">
         <v>255</v>
       </c>
-      <c r="ABA3" s="413" t="s">
+      <c r="ABA3" s="431" t="s">
         <v>27</v>
       </c>
-      <c r="ABB3" s="398" t="s">
+      <c r="ABB3" s="401" t="s">
         <v>175</v>
       </c>
-      <c r="ABC3" s="398" t="s">
+      <c r="ABC3" s="401" t="s">
         <v>176</v>
       </c>
-      <c r="ABD3" s="398" t="s">
+      <c r="ABD3" s="401" t="s">
         <v>177</v>
       </c>
-      <c r="ABE3" s="398" t="s">
+      <c r="ABE3" s="401" t="s">
         <v>27</v>
       </c>
-      <c r="ABF3" s="407" t="s">
+      <c r="ABF3" s="430" t="s">
         <v>175</v>
       </c>
-      <c r="ABG3" s="407" t="s">
+      <c r="ABG3" s="430" t="s">
         <v>301</v>
       </c>
-      <c r="ABH3" s="407" t="s">
+      <c r="ABH3" s="430" t="s">
         <v>60</v>
       </c>
-      <c r="ABI3" s="397" t="s">
+      <c r="ABI3" s="425" t="s">
         <v>24</v>
       </c>
-      <c r="ABJ3" s="397" t="s">
+      <c r="ABJ3" s="425" t="s">
         <v>25</v>
       </c>
-      <c r="ABK3" s="397" t="s">
+      <c r="ABK3" s="425" t="s">
         <v>26</v>
       </c>
-      <c r="ABL3" s="397" t="s">
+      <c r="ABL3" s="425" t="s">
         <v>27</v>
       </c>
-      <c r="ABM3" s="396" t="s">
+      <c r="ABM3" s="547" t="s">
         <v>150</v>
       </c>
-      <c r="ABN3" s="396" t="s">
+      <c r="ABN3" s="547" t="s">
         <v>152</v>
       </c>
-      <c r="ABO3" s="396" t="s">
+      <c r="ABO3" s="547" t="s">
         <v>27</v>
       </c>
-      <c r="ABP3" s="358"/>
-      <c r="ABQ3" s="358"/>
-      <c r="ABR3" s="358"/>
-      <c r="ABS3" s="355"/>
-      <c r="ABT3" s="379"/>
-      <c r="ABU3" s="379"/>
-      <c r="ABV3" s="378"/>
-      <c r="ABW3" s="378"/>
-      <c r="ABX3" s="378"/>
-      <c r="ABY3" s="411"/>
-      <c r="ABZ3" s="411"/>
-      <c r="ACA3" s="411"/>
-      <c r="ACB3" s="414" t="s">
+      <c r="ABP3" s="461"/>
+      <c r="ABQ3" s="461"/>
+      <c r="ABR3" s="461"/>
+      <c r="ABS3" s="468"/>
+      <c r="ABT3" s="467"/>
+      <c r="ABU3" s="467"/>
+      <c r="ABV3" s="457"/>
+      <c r="ABW3" s="457"/>
+      <c r="ABX3" s="457"/>
+      <c r="ABY3" s="429"/>
+      <c r="ABZ3" s="429"/>
+      <c r="ACA3" s="429"/>
+      <c r="ACB3" s="432" t="s">
         <v>1382</v>
       </c>
-      <c r="ACC3" s="414" t="s">
+      <c r="ACC3" s="432" t="s">
         <v>1375</v>
       </c>
-      <c r="ACD3" s="433"/>
-      <c r="ACE3" s="433"/>
-      <c r="ACF3" s="430"/>
-      <c r="ACG3" s="427"/>
-      <c r="ACH3" s="427"/>
-      <c r="ACI3" s="424"/>
-      <c r="ACJ3" s="424"/>
-      <c r="ACK3" s="424"/>
-      <c r="ACL3" s="421"/>
-      <c r="ACM3" s="412"/>
-      <c r="ACN3" s="412"/>
-      <c r="ACO3" s="412"/>
-      <c r="ACP3" s="377"/>
-      <c r="ACQ3" s="441"/>
-      <c r="ACR3" s="406"/>
+      <c r="ACD3" s="337"/>
+      <c r="ACE3" s="337"/>
+      <c r="ACF3" s="448"/>
+      <c r="ACG3" s="445"/>
+      <c r="ACH3" s="445"/>
+      <c r="ACI3" s="442"/>
+      <c r="ACJ3" s="442"/>
+      <c r="ACK3" s="442"/>
+      <c r="ACL3" s="439"/>
+      <c r="ACM3" s="423"/>
+      <c r="ACN3" s="423"/>
+      <c r="ACO3" s="423"/>
+      <c r="ACP3" s="466"/>
+      <c r="ACQ3" s="424"/>
+      <c r="ACR3" s="452"/>
       <c r="ACT3" s="294" t="s">
         <v>1383</v>
       </c>
@@ -12608,50 +12652,50 @@
       </c>
     </row>
     <row r="4" spans="1:779" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="355"/>
-      <c r="B4" s="356"/>
-      <c r="C4" s="355"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="355"/>
-      <c r="G4" s="355"/>
-      <c r="H4" s="355"/>
-      <c r="I4" s="355"/>
-      <c r="J4" s="355"/>
-      <c r="K4" s="355"/>
-      <c r="L4" s="355"/>
-      <c r="M4" s="355"/>
-      <c r="N4" s="355"/>
-      <c r="O4" s="355"/>
-      <c r="P4" s="355"/>
-      <c r="Q4" s="355"/>
-      <c r="R4" s="355"/>
-      <c r="S4" s="355"/>
-      <c r="T4" s="355"/>
-      <c r="U4" s="355"/>
-      <c r="V4" s="358"/>
-      <c r="W4" s="355"/>
-      <c r="X4" s="355"/>
-      <c r="Y4" s="355"/>
+      <c r="A4" s="468"/>
+      <c r="B4" s="478"/>
+      <c r="C4" s="468"/>
+      <c r="D4" s="479"/>
+      <c r="E4" s="479"/>
+      <c r="F4" s="468"/>
+      <c r="G4" s="468"/>
+      <c r="H4" s="468"/>
+      <c r="I4" s="468"/>
+      <c r="J4" s="468"/>
+      <c r="K4" s="468"/>
+      <c r="L4" s="468"/>
+      <c r="M4" s="468"/>
+      <c r="N4" s="468"/>
+      <c r="O4" s="468"/>
+      <c r="P4" s="468"/>
+      <c r="Q4" s="468"/>
+      <c r="R4" s="468"/>
+      <c r="S4" s="468"/>
+      <c r="T4" s="468"/>
+      <c r="U4" s="468"/>
+      <c r="V4" s="461"/>
+      <c r="W4" s="468"/>
+      <c r="X4" s="468"/>
+      <c r="Y4" s="468"/>
       <c r="Z4" s="14" t="s">
         <v>130</v>
       </c>
       <c r="AA4" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AB4" s="546" t="s">
         <v>98</v>
       </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AC4" s="546" t="s">
         <v>99</v>
       </c>
       <c r="AD4" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AE4" s="546" t="s">
         <v>98</v>
       </c>
-      <c r="AF4" s="27" t="s">
+      <c r="AF4" s="546" t="s">
         <v>99</v>
       </c>
       <c r="AG4" s="34" t="s">
@@ -12693,19 +12737,19 @@
       <c r="AS4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="AT4" s="538" t="s">
+      <c r="AT4" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="AU4" s="538" t="s">
+      <c r="AU4" s="332" t="s">
         <v>98</v>
       </c>
       <c r="AV4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="AW4" s="538" t="s">
+      <c r="AW4" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="AX4" s="538" t="s">
+      <c r="AX4" s="332" t="s">
         <v>98</v>
       </c>
       <c r="AY4" s="33" t="s">
@@ -12729,19 +12773,19 @@
       <c r="BE4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="BF4" s="30" t="s">
+      <c r="BF4" s="334" t="s">
         <v>98</v>
       </c>
-      <c r="BG4" s="30" t="s">
+      <c r="BG4" s="334" t="s">
         <v>99</v>
       </c>
       <c r="BH4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="BI4" s="30" t="s">
+      <c r="BI4" s="334" t="s">
         <v>98</v>
       </c>
-      <c r="BJ4" s="30" t="s">
+      <c r="BJ4" s="334" t="s">
         <v>99</v>
       </c>
       <c r="BK4" s="32" t="s">
@@ -13302,73 +13346,73 @@
       <c r="IN4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="IO4" s="538" t="s">
+      <c r="IO4" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="IP4" s="538" t="s">
+      <c r="IP4" s="332" t="s">
         <v>98</v>
       </c>
       <c r="IQ4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="IR4" s="538" t="s">
+      <c r="IR4" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="IS4" s="538" t="s">
+      <c r="IS4" s="332" t="s">
         <v>98</v>
       </c>
       <c r="IT4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="IU4" s="538" t="s">
+      <c r="IU4" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="IV4" s="538" t="s">
+      <c r="IV4" s="332" t="s">
         <v>98</v>
       </c>
       <c r="IW4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="IX4" s="538" t="s">
+      <c r="IX4" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="IY4" s="538" t="s">
+      <c r="IY4" s="332" t="s">
         <v>98</v>
       </c>
       <c r="IZ4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="JA4" s="538" t="s">
+      <c r="JA4" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="JB4" s="538" t="s">
+      <c r="JB4" s="332" t="s">
         <v>98</v>
       </c>
       <c r="JC4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="JD4" s="538" t="s">
+      <c r="JD4" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="JE4" s="538" t="s">
+      <c r="JE4" s="332" t="s">
         <v>98</v>
       </c>
       <c r="JF4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="JG4" s="538" t="s">
+      <c r="JG4" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="JH4" s="538" t="s">
+      <c r="JH4" s="332" t="s">
         <v>98</v>
       </c>
       <c r="JI4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="JJ4" s="538" t="s">
+      <c r="JJ4" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="JK4" s="538" t="s">
+      <c r="JK4" s="332" t="s">
         <v>98</v>
       </c>
       <c r="JL4" s="36" t="s">
@@ -13428,37 +13472,37 @@
       <c r="KD4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="KE4" s="26" t="s">
+      <c r="KE4" s="545" t="s">
         <v>98</v>
       </c>
-      <c r="KF4" s="26" t="s">
+      <c r="KF4" s="545" t="s">
         <v>99</v>
       </c>
       <c r="KG4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="KH4" s="26" t="s">
+      <c r="KH4" s="545" t="s">
         <v>98</v>
       </c>
-      <c r="KI4" s="26" t="s">
+      <c r="KI4" s="545" t="s">
         <v>99</v>
       </c>
       <c r="KJ4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="KK4" s="26" t="s">
+      <c r="KK4" s="545" t="s">
         <v>98</v>
       </c>
-      <c r="KL4" s="26" t="s">
+      <c r="KL4" s="545" t="s">
         <v>99</v>
       </c>
       <c r="KM4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="KN4" s="26" t="s">
+      <c r="KN4" s="545" t="s">
         <v>98</v>
       </c>
-      <c r="KO4" s="26" t="s">
+      <c r="KO4" s="545" t="s">
         <v>99</v>
       </c>
       <c r="KP4" s="26" t="s">
@@ -13509,55 +13553,55 @@
       <c r="LE4" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="LF4" s="31" t="s">
+      <c r="LF4" s="333" t="s">
         <v>98</v>
       </c>
-      <c r="LG4" s="31" t="s">
+      <c r="LG4" s="333" t="s">
         <v>99</v>
       </c>
       <c r="LH4" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="LI4" s="31" t="s">
+      <c r="LI4" s="333" t="s">
         <v>98</v>
       </c>
-      <c r="LJ4" s="31" t="s">
+      <c r="LJ4" s="333" t="s">
         <v>99</v>
       </c>
       <c r="LK4" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="LL4" s="31" t="s">
+      <c r="LL4" s="333" t="s">
         <v>98</v>
       </c>
-      <c r="LM4" s="31" t="s">
+      <c r="LM4" s="333" t="s">
         <v>99</v>
       </c>
       <c r="LN4" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="LO4" s="31" t="s">
+      <c r="LO4" s="333" t="s">
         <v>98</v>
       </c>
-      <c r="LP4" s="31" t="s">
+      <c r="LP4" s="333" t="s">
         <v>99</v>
       </c>
       <c r="LQ4" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="LR4" s="31" t="s">
+      <c r="LR4" s="333" t="s">
         <v>98</v>
       </c>
-      <c r="LS4" s="31" t="s">
+      <c r="LS4" s="333" t="s">
         <v>99</v>
       </c>
       <c r="LT4" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="LU4" s="31" t="s">
+      <c r="LU4" s="333" t="s">
         <v>98</v>
       </c>
-      <c r="LV4" s="31" t="s">
+      <c r="LV4" s="333" t="s">
         <v>99</v>
       </c>
       <c r="LW4" s="32" t="s">
@@ -14601,106 +14645,692 @@
       <c r="ZE4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="ZF4" s="443"/>
-      <c r="ZG4" s="443"/>
-      <c r="ZH4" s="443"/>
-      <c r="ZI4" s="442"/>
-      <c r="ZJ4" s="442"/>
-      <c r="ZK4" s="442"/>
-      <c r="ZL4" s="442"/>
-      <c r="ZM4" s="439"/>
-      <c r="ZN4" s="439"/>
-      <c r="ZO4" s="439"/>
-      <c r="ZP4" s="347"/>
-      <c r="ZQ4" s="347"/>
-      <c r="ZR4" s="347"/>
-      <c r="ZS4" s="386"/>
-      <c r="ZT4" s="386"/>
-      <c r="ZU4" s="386"/>
-      <c r="ZV4" s="467"/>
-      <c r="ZW4" s="467"/>
-      <c r="ZX4" s="467"/>
-      <c r="ZY4" s="410"/>
-      <c r="ZZ4" s="410"/>
-      <c r="AAA4" s="410"/>
-      <c r="AAB4" s="410"/>
-      <c r="AAC4" s="410"/>
-      <c r="AAD4" s="474"/>
-      <c r="AAE4" s="474"/>
-      <c r="AAF4" s="474"/>
-      <c r="AAG4" s="440"/>
-      <c r="AAH4" s="440"/>
-      <c r="AAI4" s="440"/>
-      <c r="AAJ4" s="473"/>
-      <c r="AAK4" s="473"/>
-      <c r="AAL4" s="473"/>
-      <c r="AAM4" s="539"/>
-      <c r="AAN4" s="539"/>
-      <c r="AAO4" s="539"/>
-      <c r="AAP4" s="384"/>
-      <c r="AAQ4" s="384"/>
-      <c r="AAR4" s="384"/>
-      <c r="AAS4" s="385"/>
-      <c r="AAT4" s="385"/>
-      <c r="AAU4" s="385"/>
-      <c r="AAV4" s="435"/>
-      <c r="AAW4" s="435"/>
-      <c r="AAX4" s="435"/>
-      <c r="AAY4" s="413"/>
-      <c r="AAZ4" s="413"/>
-      <c r="ABA4" s="413"/>
-      <c r="ABB4" s="398"/>
-      <c r="ABC4" s="398"/>
-      <c r="ABD4" s="398"/>
-      <c r="ABE4" s="398"/>
-      <c r="ABF4" s="407"/>
-      <c r="ABG4" s="407"/>
-      <c r="ABH4" s="407"/>
-      <c r="ABI4" s="397"/>
-      <c r="ABJ4" s="397"/>
-      <c r="ABK4" s="397"/>
-      <c r="ABL4" s="397"/>
-      <c r="ABM4" s="396"/>
-      <c r="ABN4" s="396"/>
-      <c r="ABO4" s="396"/>
-      <c r="ABP4" s="358"/>
-      <c r="ABQ4" s="358"/>
-      <c r="ABR4" s="358"/>
-      <c r="ABS4" s="355"/>
-      <c r="ABT4" s="379"/>
-      <c r="ABU4" s="379"/>
-      <c r="ABV4" s="378"/>
-      <c r="ABW4" s="378"/>
-      <c r="ABX4" s="378"/>
-      <c r="ABY4" s="411"/>
-      <c r="ABZ4" s="411"/>
-      <c r="ACA4" s="411"/>
-      <c r="ACB4" s="415"/>
-      <c r="ACC4" s="415"/>
-      <c r="ACD4" s="434"/>
-      <c r="ACE4" s="434"/>
-      <c r="ACF4" s="431"/>
-      <c r="ACG4" s="428"/>
-      <c r="ACH4" s="428"/>
-      <c r="ACI4" s="425"/>
-      <c r="ACJ4" s="425"/>
-      <c r="ACK4" s="425"/>
-      <c r="ACL4" s="422"/>
-      <c r="ACM4" s="412"/>
-      <c r="ACN4" s="412"/>
-      <c r="ACO4" s="412"/>
-      <c r="ACP4" s="377"/>
-      <c r="ACQ4" s="441"/>
-      <c r="ACR4" s="406"/>
+      <c r="ZF4" s="372"/>
+      <c r="ZG4" s="372"/>
+      <c r="ZH4" s="372"/>
+      <c r="ZI4" s="371"/>
+      <c r="ZJ4" s="371"/>
+      <c r="ZK4" s="371"/>
+      <c r="ZL4" s="371"/>
+      <c r="ZM4" s="381"/>
+      <c r="ZN4" s="381"/>
+      <c r="ZO4" s="381"/>
+      <c r="ZP4" s="384"/>
+      <c r="ZQ4" s="384"/>
+      <c r="ZR4" s="384"/>
+      <c r="ZS4" s="419"/>
+      <c r="ZT4" s="419"/>
+      <c r="ZU4" s="419"/>
+      <c r="ZV4" s="369"/>
+      <c r="ZW4" s="369"/>
+      <c r="ZX4" s="369"/>
+      <c r="ZY4" s="370"/>
+      <c r="ZZ4" s="370"/>
+      <c r="AAA4" s="370"/>
+      <c r="AAB4" s="370"/>
+      <c r="AAC4" s="370"/>
+      <c r="AAD4" s="367"/>
+      <c r="AAE4" s="367"/>
+      <c r="AAF4" s="367"/>
+      <c r="AAG4" s="426"/>
+      <c r="AAH4" s="426"/>
+      <c r="AAI4" s="426"/>
+      <c r="AAJ4" s="366"/>
+      <c r="AAK4" s="366"/>
+      <c r="AAL4" s="366"/>
+      <c r="AAM4" s="427"/>
+      <c r="AAN4" s="427"/>
+      <c r="AAO4" s="427"/>
+      <c r="AAP4" s="471"/>
+      <c r="AAQ4" s="471"/>
+      <c r="AAR4" s="471"/>
+      <c r="AAS4" s="428"/>
+      <c r="AAT4" s="428"/>
+      <c r="AAU4" s="428"/>
+      <c r="AAV4" s="353"/>
+      <c r="AAW4" s="353"/>
+      <c r="AAX4" s="353"/>
+      <c r="AAY4" s="431"/>
+      <c r="AAZ4" s="431"/>
+      <c r="ABA4" s="431"/>
+      <c r="ABB4" s="401"/>
+      <c r="ABC4" s="401"/>
+      <c r="ABD4" s="401"/>
+      <c r="ABE4" s="401"/>
+      <c r="ABF4" s="430"/>
+      <c r="ABG4" s="430"/>
+      <c r="ABH4" s="430"/>
+      <c r="ABI4" s="425"/>
+      <c r="ABJ4" s="425"/>
+      <c r="ABK4" s="425"/>
+      <c r="ABL4" s="425"/>
+      <c r="ABM4" s="547"/>
+      <c r="ABN4" s="547"/>
+      <c r="ABO4" s="547"/>
+      <c r="ABP4" s="461"/>
+      <c r="ABQ4" s="461"/>
+      <c r="ABR4" s="461"/>
+      <c r="ABS4" s="468"/>
+      <c r="ABT4" s="467"/>
+      <c r="ABU4" s="467"/>
+      <c r="ABV4" s="457"/>
+      <c r="ABW4" s="457"/>
+      <c r="ABX4" s="457"/>
+      <c r="ABY4" s="429"/>
+      <c r="ABZ4" s="429"/>
+      <c r="ACA4" s="429"/>
+      <c r="ACB4" s="433"/>
+      <c r="ACC4" s="433"/>
+      <c r="ACD4" s="338"/>
+      <c r="ACE4" s="338"/>
+      <c r="ACF4" s="449"/>
+      <c r="ACG4" s="446"/>
+      <c r="ACH4" s="446"/>
+      <c r="ACI4" s="443"/>
+      <c r="ACJ4" s="443"/>
+      <c r="ACK4" s="443"/>
+      <c r="ACL4" s="440"/>
+      <c r="ACM4" s="423"/>
+      <c r="ACN4" s="423"/>
+      <c r="ACO4" s="423"/>
+      <c r="ACP4" s="466"/>
+      <c r="ACQ4" s="424"/>
+      <c r="ACR4" s="452"/>
       <c r="ACU4" s="300"/>
       <c r="ACV4" s="301"/>
       <c r="ACW4" s="301"/>
       <c r="ACX4" s="301"/>
       <c r="ACY4" s="301"/>
     </row>
+    <row r="16" spans="1:779" x14ac:dyDescent="0.25">
+      <c r="AAX16" s="307"/>
+    </row>
   </sheetData>
   <autoFilter ref="A4:ACR4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="607">
+    <mergeCell ref="XO3:XQ3"/>
+    <mergeCell ref="XR3:XT3"/>
+    <mergeCell ref="XU3:XW3"/>
+    <mergeCell ref="XX3:XZ3"/>
+    <mergeCell ref="YA3:YC3"/>
+    <mergeCell ref="YD3:YF3"/>
+    <mergeCell ref="XO1:YO1"/>
+    <mergeCell ref="XO2:XQ2"/>
+    <mergeCell ref="XR2:XT2"/>
+    <mergeCell ref="XU2:XW2"/>
+    <mergeCell ref="XX2:XZ2"/>
+    <mergeCell ref="YA2:YC2"/>
+    <mergeCell ref="YD2:YF2"/>
+    <mergeCell ref="YG2:YI2"/>
+    <mergeCell ref="YJ2:YL2"/>
+    <mergeCell ref="YM2:YO2"/>
+    <mergeCell ref="YG3:YI3"/>
+    <mergeCell ref="EG2:EI2"/>
+    <mergeCell ref="ED3:EF3"/>
+    <mergeCell ref="EG3:EI3"/>
+    <mergeCell ref="SX1:TR1"/>
+    <mergeCell ref="SX2:SZ2"/>
+    <mergeCell ref="TA2:TC2"/>
+    <mergeCell ref="TD2:TF2"/>
+    <mergeCell ref="TG2:TI2"/>
+    <mergeCell ref="TJ2:TL2"/>
+    <mergeCell ref="TM2:TO2"/>
+    <mergeCell ref="TP2:TR2"/>
+    <mergeCell ref="SX3:SZ3"/>
+    <mergeCell ref="TA3:TC3"/>
+    <mergeCell ref="TD3:TF3"/>
+    <mergeCell ref="TG3:TI3"/>
+    <mergeCell ref="TJ3:TL3"/>
+    <mergeCell ref="TM3:TO3"/>
+    <mergeCell ref="TP3:TR3"/>
+    <mergeCell ref="EP3:ER3"/>
+    <mergeCell ref="EM2:EO2"/>
+    <mergeCell ref="EP2:ER2"/>
+    <mergeCell ref="ES3:EU3"/>
+    <mergeCell ref="EV2:EX2"/>
+    <mergeCell ref="EV3:EX3"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="JL1:KC1"/>
+    <mergeCell ref="JL2:JN2"/>
+    <mergeCell ref="JO2:JQ2"/>
+    <mergeCell ref="JR2:JT2"/>
+    <mergeCell ref="JU2:JW2"/>
+    <mergeCell ref="JX2:JZ2"/>
+    <mergeCell ref="KA2:KC2"/>
+    <mergeCell ref="JL3:JN3"/>
+    <mergeCell ref="JO3:JQ3"/>
+    <mergeCell ref="JR3:JT3"/>
+    <mergeCell ref="JU3:JW3"/>
+    <mergeCell ref="JX3:JZ3"/>
+    <mergeCell ref="KA3:KC3"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="IN1:JK1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="HV1:IM1"/>
+    <mergeCell ref="GX1:HU1"/>
+    <mergeCell ref="GX2:GZ2"/>
+    <mergeCell ref="HA2:HC2"/>
+    <mergeCell ref="HD2:HF2"/>
+    <mergeCell ref="HG2:HI2"/>
+    <mergeCell ref="HJ2:HL2"/>
+    <mergeCell ref="HM2:HO2"/>
+    <mergeCell ref="HP2:HR2"/>
+    <mergeCell ref="HS2:HU2"/>
+    <mergeCell ref="GX3:GZ3"/>
+    <mergeCell ref="HA3:HC3"/>
+    <mergeCell ref="HD3:HF3"/>
+    <mergeCell ref="HG3:HI3"/>
+    <mergeCell ref="HJ3:HL3"/>
+    <mergeCell ref="HM3:HO3"/>
+    <mergeCell ref="HP3:HR3"/>
+    <mergeCell ref="HS3:HU3"/>
+    <mergeCell ref="HV2:HX2"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="T1:T4"/>
+    <mergeCell ref="U1:U4"/>
+    <mergeCell ref="V1:V4"/>
+    <mergeCell ref="W1:W4"/>
+    <mergeCell ref="X1:X4"/>
+    <mergeCell ref="Y1:Y4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="S1:S4"/>
+    <mergeCell ref="CK3:CM3"/>
+    <mergeCell ref="KD3:KF3"/>
+    <mergeCell ref="IH3:IJ3"/>
+    <mergeCell ref="IK3:IM3"/>
+    <mergeCell ref="CZ3:DB3"/>
+    <mergeCell ref="DC3:DE3"/>
+    <mergeCell ref="CH3:CJ3"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="DI3:DK3"/>
+    <mergeCell ref="DL3:DN3"/>
+    <mergeCell ref="DO3:DQ3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="IN3:IP3"/>
+    <mergeCell ref="IQ3:IS3"/>
+    <mergeCell ref="IT3:IV3"/>
+    <mergeCell ref="IW3:IY3"/>
+    <mergeCell ref="IZ3:JB3"/>
+    <mergeCell ref="JC3:JE3"/>
+    <mergeCell ref="JF3:JH3"/>
+    <mergeCell ref="JI3:JK3"/>
+    <mergeCell ref="FQ3:FS3"/>
+    <mergeCell ref="FT3:FV3"/>
+    <mergeCell ref="FW3:FY3"/>
+    <mergeCell ref="EJ3:EL3"/>
+    <mergeCell ref="BY3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="EM3:EO3"/>
+    <mergeCell ref="CN1:CS1"/>
+    <mergeCell ref="CN2:CP2"/>
+    <mergeCell ref="CQ2:CS2"/>
+    <mergeCell ref="CN3:CP3"/>
+    <mergeCell ref="CQ3:CS3"/>
+    <mergeCell ref="DU1:EC1"/>
+    <mergeCell ref="DU2:DW2"/>
+    <mergeCell ref="DX2:DZ2"/>
+    <mergeCell ref="EA2:EC2"/>
+    <mergeCell ref="DU3:DW3"/>
+    <mergeCell ref="DX3:DZ3"/>
+    <mergeCell ref="EA3:EC3"/>
+    <mergeCell ref="CT1:CY1"/>
+    <mergeCell ref="CT2:CV2"/>
+    <mergeCell ref="CW2:CY2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CY3"/>
+    <mergeCell ref="ED1:EI1"/>
+    <mergeCell ref="ED2:EF2"/>
+    <mergeCell ref="EJ1:EX1"/>
+    <mergeCell ref="ES2:EU2"/>
+    <mergeCell ref="ACP1:ACP4"/>
+    <mergeCell ref="ABV1:ABV4"/>
+    <mergeCell ref="ABU1:ABU4"/>
+    <mergeCell ref="ABS1:ABS4"/>
+    <mergeCell ref="ABT1:ABT4"/>
+    <mergeCell ref="NO3:NR3"/>
+    <mergeCell ref="YV3:YY3"/>
+    <mergeCell ref="YZ3:ZB3"/>
+    <mergeCell ref="NO2:NR2"/>
+    <mergeCell ref="YV1:ZB1"/>
+    <mergeCell ref="YV2:YY2"/>
+    <mergeCell ref="YZ2:ZB2"/>
+    <mergeCell ref="AAP1:AAR2"/>
+    <mergeCell ref="AAR3:AAR4"/>
+    <mergeCell ref="AAQ3:AAQ4"/>
+    <mergeCell ref="AAP3:AAP4"/>
+    <mergeCell ref="AAS1:AAU2"/>
+    <mergeCell ref="AAU3:AAU4"/>
+    <mergeCell ref="AAT3:AAT4"/>
+    <mergeCell ref="MX1:NR1"/>
+    <mergeCell ref="MX3:NA3"/>
+    <mergeCell ref="NB3:NE3"/>
+    <mergeCell ref="NF3:NI3"/>
+    <mergeCell ref="ZS1:ZU2"/>
+    <mergeCell ref="BQ3:BT3"/>
+    <mergeCell ref="BU3:BX3"/>
+    <mergeCell ref="ABP1:ABP4"/>
+    <mergeCell ref="BQ2:BT2"/>
+    <mergeCell ref="BU2:BX2"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="CD2:CG2"/>
+    <mergeCell ref="MX2:NA2"/>
+    <mergeCell ref="NB2:NE2"/>
+    <mergeCell ref="NF2:NI2"/>
+    <mergeCell ref="BQ1:CG1"/>
+    <mergeCell ref="CZ1:DK1"/>
+    <mergeCell ref="CZ2:DB2"/>
+    <mergeCell ref="DC2:DE2"/>
+    <mergeCell ref="CH2:CJ2"/>
+    <mergeCell ref="CK2:CM2"/>
+    <mergeCell ref="CH1:CM1"/>
+    <mergeCell ref="DF2:DH2"/>
+    <mergeCell ref="DI2:DK2"/>
+    <mergeCell ref="DL1:DT1"/>
+    <mergeCell ref="DL2:DN2"/>
+    <mergeCell ref="DO2:DQ2"/>
+    <mergeCell ref="DR2:DT2"/>
+    <mergeCell ref="EJ2:EL2"/>
+    <mergeCell ref="ABO3:ABO4"/>
+    <mergeCell ref="ABQ1:ABQ4"/>
+    <mergeCell ref="ABR1:ABR4"/>
+    <mergeCell ref="ABK3:ABK4"/>
+    <mergeCell ref="ABJ3:ABJ4"/>
+    <mergeCell ref="ABI3:ABI4"/>
+    <mergeCell ref="ABI1:ABL2"/>
+    <mergeCell ref="ABB3:ABB4"/>
+    <mergeCell ref="ABC3:ABC4"/>
+    <mergeCell ref="NJ2:NN2"/>
+    <mergeCell ref="HY2:IA2"/>
+    <mergeCell ref="IB2:ID2"/>
+    <mergeCell ref="IE2:IG2"/>
+    <mergeCell ref="IH2:IJ2"/>
+    <mergeCell ref="IK2:IM2"/>
+    <mergeCell ref="HV3:HX3"/>
+    <mergeCell ref="HY3:IA3"/>
+    <mergeCell ref="IB3:ID3"/>
+    <mergeCell ref="IE3:IG3"/>
+    <mergeCell ref="LZ3:MB3"/>
+    <mergeCell ref="IN2:IP2"/>
+    <mergeCell ref="IQ2:IS2"/>
+    <mergeCell ref="IT2:IV2"/>
+    <mergeCell ref="IW2:IY2"/>
+    <mergeCell ref="MC3:ME3"/>
+    <mergeCell ref="KS3:KU3"/>
+    <mergeCell ref="KP3:KR3"/>
+    <mergeCell ref="KS2:KU2"/>
+    <mergeCell ref="EY1:FG1"/>
+    <mergeCell ref="EY2:FA2"/>
+    <mergeCell ref="FB2:FD2"/>
+    <mergeCell ref="EY3:FA3"/>
+    <mergeCell ref="FB3:FD3"/>
+    <mergeCell ref="FE2:FG2"/>
+    <mergeCell ref="FE3:FG3"/>
+    <mergeCell ref="ACR1:ACR4"/>
+    <mergeCell ref="ABF1:ABH2"/>
+    <mergeCell ref="ABF3:ABF4"/>
+    <mergeCell ref="ABH3:ABH4"/>
+    <mergeCell ref="QI3:QK3"/>
+    <mergeCell ref="QL3:QN3"/>
+    <mergeCell ref="QO3:QQ3"/>
+    <mergeCell ref="QR2:QT2"/>
+    <mergeCell ref="QY2:RA2"/>
+    <mergeCell ref="QR3:QT3"/>
+    <mergeCell ref="QY3:RA3"/>
+    <mergeCell ref="ZY3:ZY4"/>
+    <mergeCell ref="QI1:RA1"/>
+    <mergeCell ref="ABW1:ABW4"/>
+    <mergeCell ref="ABX1:ABX4"/>
+    <mergeCell ref="ABY1:ABY4"/>
+    <mergeCell ref="ABZ1:ABZ4"/>
+    <mergeCell ref="ACA1:ACA4"/>
+    <mergeCell ref="ACM1:ACM4"/>
+    <mergeCell ref="ACN1:ACN4"/>
+    <mergeCell ref="ABG3:ABG4"/>
+    <mergeCell ref="ABM1:ABO2"/>
+    <mergeCell ref="ABM3:ABM4"/>
+    <mergeCell ref="ABN3:ABN4"/>
+    <mergeCell ref="AAM1:AAO2"/>
+    <mergeCell ref="ABB1:ABE2"/>
+    <mergeCell ref="AAY1:ABA2"/>
+    <mergeCell ref="ABA3:ABA4"/>
+    <mergeCell ref="AAZ3:AAZ4"/>
+    <mergeCell ref="AAY3:AAY4"/>
+    <mergeCell ref="ACC3:ACC4"/>
+    <mergeCell ref="ACB3:ACB4"/>
+    <mergeCell ref="ACB1:ACC2"/>
+    <mergeCell ref="ACL1:ACL4"/>
+    <mergeCell ref="ACK1:ACK4"/>
+    <mergeCell ref="ACJ1:ACJ4"/>
+    <mergeCell ref="ACI1:ACI4"/>
+    <mergeCell ref="ACH1:ACH4"/>
+    <mergeCell ref="ACG1:ACG4"/>
+    <mergeCell ref="ACF1:ACF4"/>
+    <mergeCell ref="ACE1:ACE4"/>
+    <mergeCell ref="AAV1:AAX2"/>
+    <mergeCell ref="AAX3:AAX4"/>
+    <mergeCell ref="AAW3:AAW4"/>
+    <mergeCell ref="AAV3:AAV4"/>
+    <mergeCell ref="UI2:UK2"/>
+    <mergeCell ref="UF2:UH2"/>
+    <mergeCell ref="UL3:UN3"/>
+    <mergeCell ref="UI3:UK3"/>
+    <mergeCell ref="TS2:TV2"/>
+    <mergeCell ref="TS3:TV3"/>
+    <mergeCell ref="TW2:TY2"/>
+    <mergeCell ref="TW3:TY3"/>
+    <mergeCell ref="TZ3:UB3"/>
+    <mergeCell ref="TS1:UN1"/>
+    <mergeCell ref="AAM3:AAM4"/>
+    <mergeCell ref="AAN3:AAN4"/>
+    <mergeCell ref="AAO3:AAO4"/>
+    <mergeCell ref="ZM3:ZM4"/>
+    <mergeCell ref="ZN3:ZN4"/>
+    <mergeCell ref="AAS3:AAS4"/>
+    <mergeCell ref="AAI3:AAI4"/>
+    <mergeCell ref="AAG1:AAI2"/>
+    <mergeCell ref="VS2:VU2"/>
+    <mergeCell ref="VV2:VX2"/>
+    <mergeCell ref="RQ3:RS3"/>
+    <mergeCell ref="RT3:RV3"/>
+    <mergeCell ref="NJ3:NN3"/>
+    <mergeCell ref="ACO1:ACO4"/>
+    <mergeCell ref="ACQ1:ACQ4"/>
+    <mergeCell ref="ABL3:ABL4"/>
+    <mergeCell ref="OM2:OO2"/>
+    <mergeCell ref="OF3:OH3"/>
+    <mergeCell ref="OI3:OL3"/>
+    <mergeCell ref="OM3:OO3"/>
+    <mergeCell ref="RE2:RG2"/>
+    <mergeCell ref="RB3:RD3"/>
+    <mergeCell ref="RE3:RG3"/>
+    <mergeCell ref="QC3:QE3"/>
+    <mergeCell ref="QF3:QH3"/>
+    <mergeCell ref="PN2:PP2"/>
+    <mergeCell ref="PQ2:PS2"/>
+    <mergeCell ref="PT2:PV2"/>
+    <mergeCell ref="PW2:PY2"/>
+    <mergeCell ref="PZ2:QB2"/>
+    <mergeCell ref="QC2:QE2"/>
+    <mergeCell ref="AAG3:AAG4"/>
+    <mergeCell ref="AAH3:AAH4"/>
+    <mergeCell ref="ZM1:ZO2"/>
+    <mergeCell ref="RH2:RJ2"/>
+    <mergeCell ref="RK2:RM2"/>
+    <mergeCell ref="RN2:RP2"/>
+    <mergeCell ref="RH3:RJ3"/>
+    <mergeCell ref="RK3:RM3"/>
+    <mergeCell ref="RN3:RP3"/>
+    <mergeCell ref="AAB3:AAB4"/>
+    <mergeCell ref="ZI3:ZI4"/>
+    <mergeCell ref="ZL3:ZL4"/>
+    <mergeCell ref="ZI1:ZL2"/>
+    <mergeCell ref="ZS3:ZS4"/>
+    <mergeCell ref="ZT3:ZT4"/>
+    <mergeCell ref="ZU3:ZU4"/>
+    <mergeCell ref="RB1:RV1"/>
+    <mergeCell ref="RB2:RD2"/>
+    <mergeCell ref="TZ2:UB2"/>
+    <mergeCell ref="UC3:UE3"/>
+    <mergeCell ref="UC2:UE2"/>
+    <mergeCell ref="YJ3:YL3"/>
+    <mergeCell ref="YM3:YO3"/>
+    <mergeCell ref="ZF1:ZH2"/>
+    <mergeCell ref="ZF3:ZF4"/>
+    <mergeCell ref="VG3:VI3"/>
+    <mergeCell ref="VJ2:VL2"/>
+    <mergeCell ref="OP1:PJ1"/>
+    <mergeCell ref="OP2:OR2"/>
+    <mergeCell ref="VA3:VC3"/>
+    <mergeCell ref="VD2:VF2"/>
+    <mergeCell ref="VD3:VF3"/>
+    <mergeCell ref="UO1:VO1"/>
+    <mergeCell ref="UO2:UQ2"/>
+    <mergeCell ref="UR2:UT2"/>
+    <mergeCell ref="UU2:UW2"/>
+    <mergeCell ref="UO3:UQ3"/>
+    <mergeCell ref="UR3:UT3"/>
+    <mergeCell ref="UU3:UW3"/>
+    <mergeCell ref="UX2:UZ2"/>
+    <mergeCell ref="VA2:VC2"/>
+    <mergeCell ref="UX3:UZ3"/>
+    <mergeCell ref="RW1:SW1"/>
+    <mergeCell ref="RW2:RY2"/>
+    <mergeCell ref="OS2:OU2"/>
+    <mergeCell ref="OP3:OR3"/>
+    <mergeCell ref="OS3:OU3"/>
+    <mergeCell ref="RQ2:RS2"/>
+    <mergeCell ref="RT2:RV2"/>
+    <mergeCell ref="QU2:QX2"/>
+    <mergeCell ref="QU3:QX3"/>
+    <mergeCell ref="FQ1:FY1"/>
+    <mergeCell ref="FQ2:FS2"/>
+    <mergeCell ref="FT2:FV2"/>
+    <mergeCell ref="FW2:FY2"/>
+    <mergeCell ref="ABD3:ABD4"/>
+    <mergeCell ref="ABE3:ABE4"/>
+    <mergeCell ref="YP1:YU1"/>
+    <mergeCell ref="YP3:YR3"/>
+    <mergeCell ref="YS3:YU3"/>
+    <mergeCell ref="YP2:YR2"/>
+    <mergeCell ref="PE2:PG2"/>
+    <mergeCell ref="PH2:PJ2"/>
+    <mergeCell ref="OV3:OX3"/>
+    <mergeCell ref="OY3:PA3"/>
+    <mergeCell ref="PB3:PD3"/>
+    <mergeCell ref="PE3:PG3"/>
+    <mergeCell ref="PH3:PJ3"/>
+    <mergeCell ref="OV2:OX2"/>
+    <mergeCell ref="OY2:PA2"/>
+    <mergeCell ref="PB2:PD2"/>
+    <mergeCell ref="VM2:VO2"/>
+    <mergeCell ref="VJ3:VL3"/>
+    <mergeCell ref="VM3:VO3"/>
+    <mergeCell ref="VG2:VI2"/>
+    <mergeCell ref="FN3:FP3"/>
+    <mergeCell ref="MO3:MQ3"/>
+    <mergeCell ref="MR3:MT3"/>
+    <mergeCell ref="MO2:MQ2"/>
+    <mergeCell ref="MR2:MT2"/>
+    <mergeCell ref="IZ2:JB2"/>
+    <mergeCell ref="JC2:JE2"/>
+    <mergeCell ref="JF2:JH2"/>
+    <mergeCell ref="JI2:JK2"/>
+    <mergeCell ref="LB2:LD2"/>
+    <mergeCell ref="LB3:LD3"/>
+    <mergeCell ref="GR3:GT3"/>
+    <mergeCell ref="GU3:GW3"/>
+    <mergeCell ref="GC2:GE2"/>
+    <mergeCell ref="GF2:GH2"/>
+    <mergeCell ref="GI2:GK2"/>
+    <mergeCell ref="GL2:GN2"/>
+    <mergeCell ref="GO2:GQ2"/>
+    <mergeCell ref="GR2:GT2"/>
+    <mergeCell ref="GO3:GQ3"/>
+    <mergeCell ref="KV2:KX2"/>
+    <mergeCell ref="KY2:LA2"/>
+    <mergeCell ref="MC2:ME2"/>
+    <mergeCell ref="LW3:LY3"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="KG2:KI2"/>
+    <mergeCell ref="KJ2:KL2"/>
+    <mergeCell ref="KM2:KO2"/>
+    <mergeCell ref="KM3:KO3"/>
+    <mergeCell ref="KJ3:KL3"/>
+    <mergeCell ref="KG3:KI3"/>
+    <mergeCell ref="KD1:KO1"/>
+    <mergeCell ref="KD2:KF2"/>
+    <mergeCell ref="BE1:BJ1"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="FH1:FP1"/>
+    <mergeCell ref="FH2:FJ2"/>
+    <mergeCell ref="FK2:FM2"/>
+    <mergeCell ref="FN2:FP2"/>
+    <mergeCell ref="FH3:FJ3"/>
+    <mergeCell ref="FK3:FM3"/>
+    <mergeCell ref="VP3:VR3"/>
+    <mergeCell ref="RW3:RY3"/>
+    <mergeCell ref="RZ3:SB3"/>
+    <mergeCell ref="SC3:SE3"/>
+    <mergeCell ref="SF2:SH2"/>
+    <mergeCell ref="SF3:SH3"/>
+    <mergeCell ref="SR2:ST2"/>
+    <mergeCell ref="UL2:UN2"/>
+    <mergeCell ref="RZ2:SB2"/>
+    <mergeCell ref="SC2:SE2"/>
+    <mergeCell ref="SU2:SW2"/>
+    <mergeCell ref="SO3:SQ3"/>
+    <mergeCell ref="SR3:ST3"/>
+    <mergeCell ref="SU3:SW3"/>
+    <mergeCell ref="SI2:SK2"/>
+    <mergeCell ref="SL2:SN2"/>
+    <mergeCell ref="SI3:SK3"/>
+    <mergeCell ref="SL3:SN3"/>
+    <mergeCell ref="SO2:SQ2"/>
+    <mergeCell ref="UF3:UH3"/>
+    <mergeCell ref="WK2:WM2"/>
+    <mergeCell ref="WN2:WP2"/>
+    <mergeCell ref="VY3:WA3"/>
+    <mergeCell ref="WB3:WD3"/>
+    <mergeCell ref="WE3:WG3"/>
+    <mergeCell ref="WH3:WJ3"/>
+    <mergeCell ref="WK3:WM3"/>
+    <mergeCell ref="WN3:WP3"/>
+    <mergeCell ref="WZ3:XB3"/>
+    <mergeCell ref="WQ2:WS2"/>
+    <mergeCell ref="XI3:XK3"/>
+    <mergeCell ref="XL3:XN3"/>
+    <mergeCell ref="WT2:WV2"/>
+    <mergeCell ref="WW2:WY2"/>
+    <mergeCell ref="WZ2:XB2"/>
+    <mergeCell ref="XC2:XE2"/>
+    <mergeCell ref="XF2:XH2"/>
+    <mergeCell ref="XI2:XK2"/>
+    <mergeCell ref="XC3:XE3"/>
+    <mergeCell ref="XL2:XN2"/>
+    <mergeCell ref="NS3:NV3"/>
+    <mergeCell ref="NW3:NY3"/>
+    <mergeCell ref="NZ2:OB2"/>
+    <mergeCell ref="ZC1:ZE1"/>
+    <mergeCell ref="ZC2:ZE2"/>
+    <mergeCell ref="ZC3:ZE3"/>
+    <mergeCell ref="ZV1:ZX2"/>
+    <mergeCell ref="AAC3:AAC4"/>
+    <mergeCell ref="ZY1:AAC2"/>
+    <mergeCell ref="ZG3:ZG4"/>
+    <mergeCell ref="ZO3:ZO4"/>
+    <mergeCell ref="VS3:VU3"/>
+    <mergeCell ref="VV3:VX3"/>
+    <mergeCell ref="VY2:WA2"/>
+    <mergeCell ref="WB2:WD2"/>
+    <mergeCell ref="WE2:WG2"/>
+    <mergeCell ref="WH2:WJ2"/>
+    <mergeCell ref="ZP1:ZR2"/>
+    <mergeCell ref="ZR3:ZR4"/>
+    <mergeCell ref="ZQ3:ZQ4"/>
+    <mergeCell ref="ZP3:ZP4"/>
+    <mergeCell ref="VP1:WP1"/>
+    <mergeCell ref="VP2:VR2"/>
+    <mergeCell ref="XF3:XH3"/>
+    <mergeCell ref="AAJ1:AAL2"/>
+    <mergeCell ref="AAL3:AAL4"/>
+    <mergeCell ref="AAK3:AAK4"/>
+    <mergeCell ref="AAJ3:AAJ4"/>
+    <mergeCell ref="AAF3:AAF4"/>
+    <mergeCell ref="AAE3:AAE4"/>
+    <mergeCell ref="AAD3:AAD4"/>
+    <mergeCell ref="AAD1:AAF2"/>
+    <mergeCell ref="YS2:YU2"/>
+    <mergeCell ref="ZW3:ZW4"/>
+    <mergeCell ref="ZV3:ZV4"/>
+    <mergeCell ref="ZX3:ZX4"/>
+    <mergeCell ref="ZZ3:ZZ4"/>
+    <mergeCell ref="AAA3:AAA4"/>
+    <mergeCell ref="ZJ3:ZJ4"/>
+    <mergeCell ref="ZK3:ZK4"/>
+    <mergeCell ref="ZH3:ZH4"/>
+    <mergeCell ref="WQ1:XN1"/>
+    <mergeCell ref="WQ3:WS3"/>
+    <mergeCell ref="WT3:WV3"/>
+    <mergeCell ref="WW3:WY3"/>
+    <mergeCell ref="GL3:GN3"/>
+    <mergeCell ref="QI2:QK2"/>
+    <mergeCell ref="QL2:QN2"/>
+    <mergeCell ref="QO2:QQ2"/>
+    <mergeCell ref="LE1:LV1"/>
+    <mergeCell ref="QF2:QH2"/>
+    <mergeCell ref="PK3:PM3"/>
+    <mergeCell ref="PN3:PP3"/>
+    <mergeCell ref="PQ3:PS3"/>
+    <mergeCell ref="PT3:PV3"/>
+    <mergeCell ref="PW3:PY3"/>
+    <mergeCell ref="PZ3:QB3"/>
+    <mergeCell ref="NS2:NV2"/>
+    <mergeCell ref="NW2:NY2"/>
+    <mergeCell ref="MU3:MW3"/>
+    <mergeCell ref="MU2:MW2"/>
+    <mergeCell ref="NS1:OO1"/>
+    <mergeCell ref="OC2:OE2"/>
+    <mergeCell ref="NZ3:OB3"/>
+    <mergeCell ref="OC3:OE3"/>
+    <mergeCell ref="PK1:QH1"/>
+    <mergeCell ref="PK2:PM2"/>
+    <mergeCell ref="OF2:OH2"/>
+    <mergeCell ref="OI2:OL2"/>
+    <mergeCell ref="GU2:GW2"/>
+    <mergeCell ref="FZ3:GB3"/>
+    <mergeCell ref="BK1:BP1"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="LW1:MW1"/>
+    <mergeCell ref="LN2:LP2"/>
+    <mergeCell ref="LQ2:LS2"/>
+    <mergeCell ref="LT2:LV2"/>
+    <mergeCell ref="LN3:LP3"/>
+    <mergeCell ref="LQ3:LS3"/>
+    <mergeCell ref="LT3:LV3"/>
+    <mergeCell ref="LE2:LG2"/>
+    <mergeCell ref="LH2:LJ2"/>
+    <mergeCell ref="LK2:LM2"/>
+    <mergeCell ref="LE3:LG3"/>
+    <mergeCell ref="LH3:LJ3"/>
+    <mergeCell ref="LK3:LM3"/>
     <mergeCell ref="GC3:GE3"/>
     <mergeCell ref="GF3:GH3"/>
     <mergeCell ref="GI3:GK3"/>
@@ -14725,589 +15355,6 @@
     <mergeCell ref="KP2:KR2"/>
     <mergeCell ref="KY3:LA3"/>
     <mergeCell ref="KV3:KX3"/>
-    <mergeCell ref="PK1:QH1"/>
-    <mergeCell ref="PK2:PM2"/>
-    <mergeCell ref="OF2:OH2"/>
-    <mergeCell ref="OI2:OL2"/>
-    <mergeCell ref="GU2:GW2"/>
-    <mergeCell ref="FZ3:GB3"/>
-    <mergeCell ref="BK1:BP1"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="BN2:BP2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="LW1:MW1"/>
-    <mergeCell ref="LN2:LP2"/>
-    <mergeCell ref="LQ2:LS2"/>
-    <mergeCell ref="LT2:LV2"/>
-    <mergeCell ref="LN3:LP3"/>
-    <mergeCell ref="LQ3:LS3"/>
-    <mergeCell ref="LT3:LV3"/>
-    <mergeCell ref="LE2:LG2"/>
-    <mergeCell ref="LH2:LJ2"/>
-    <mergeCell ref="LK2:LM2"/>
-    <mergeCell ref="LE3:LG3"/>
-    <mergeCell ref="LH3:LJ3"/>
-    <mergeCell ref="LK3:LM3"/>
-    <mergeCell ref="WQ1:XN1"/>
-    <mergeCell ref="WQ3:WS3"/>
-    <mergeCell ref="WT3:WV3"/>
-    <mergeCell ref="WW3:WY3"/>
-    <mergeCell ref="GL3:GN3"/>
-    <mergeCell ref="QI2:QK2"/>
-    <mergeCell ref="QL2:QN2"/>
-    <mergeCell ref="QO2:QQ2"/>
-    <mergeCell ref="LE1:LV1"/>
-    <mergeCell ref="QF2:QH2"/>
-    <mergeCell ref="PK3:PM3"/>
-    <mergeCell ref="PN3:PP3"/>
-    <mergeCell ref="PQ3:PS3"/>
-    <mergeCell ref="PT3:PV3"/>
-    <mergeCell ref="PW3:PY3"/>
-    <mergeCell ref="PZ3:QB3"/>
-    <mergeCell ref="NS2:NV2"/>
-    <mergeCell ref="NW2:NY2"/>
-    <mergeCell ref="MU3:MW3"/>
-    <mergeCell ref="MU2:MW2"/>
-    <mergeCell ref="NS1:OO1"/>
-    <mergeCell ref="OC2:OE2"/>
-    <mergeCell ref="NZ3:OB3"/>
-    <mergeCell ref="OC3:OE3"/>
-    <mergeCell ref="AAJ1:AAL2"/>
-    <mergeCell ref="AAL3:AAL4"/>
-    <mergeCell ref="AAK3:AAK4"/>
-    <mergeCell ref="AAJ3:AAJ4"/>
-    <mergeCell ref="AAF3:AAF4"/>
-    <mergeCell ref="AAE3:AAE4"/>
-    <mergeCell ref="AAD3:AAD4"/>
-    <mergeCell ref="AAD1:AAF2"/>
-    <mergeCell ref="YS2:YU2"/>
-    <mergeCell ref="ZW3:ZW4"/>
-    <mergeCell ref="ZV3:ZV4"/>
-    <mergeCell ref="ZX3:ZX4"/>
-    <mergeCell ref="ZZ3:ZZ4"/>
-    <mergeCell ref="AAA3:AAA4"/>
-    <mergeCell ref="ZJ3:ZJ4"/>
-    <mergeCell ref="ZK3:ZK4"/>
-    <mergeCell ref="ZH3:ZH4"/>
-    <mergeCell ref="NS3:NV3"/>
-    <mergeCell ref="NW3:NY3"/>
-    <mergeCell ref="NZ2:OB2"/>
-    <mergeCell ref="ZC1:ZE1"/>
-    <mergeCell ref="ZC2:ZE2"/>
-    <mergeCell ref="ZC3:ZE3"/>
-    <mergeCell ref="ZV1:ZX2"/>
-    <mergeCell ref="AAC3:AAC4"/>
-    <mergeCell ref="ZY1:AAC2"/>
-    <mergeCell ref="ZG3:ZG4"/>
-    <mergeCell ref="ZO3:ZO4"/>
-    <mergeCell ref="VS3:VU3"/>
-    <mergeCell ref="VV3:VX3"/>
-    <mergeCell ref="VY2:WA2"/>
-    <mergeCell ref="WB2:WD2"/>
-    <mergeCell ref="WE2:WG2"/>
-    <mergeCell ref="WH2:WJ2"/>
-    <mergeCell ref="ZP1:ZR2"/>
-    <mergeCell ref="ZR3:ZR4"/>
-    <mergeCell ref="ZQ3:ZQ4"/>
-    <mergeCell ref="ZP3:ZP4"/>
-    <mergeCell ref="VP1:WP1"/>
-    <mergeCell ref="VP2:VR2"/>
-    <mergeCell ref="XF3:XH3"/>
-    <mergeCell ref="XI3:XK3"/>
-    <mergeCell ref="XL3:XN3"/>
-    <mergeCell ref="WT2:WV2"/>
-    <mergeCell ref="WW2:WY2"/>
-    <mergeCell ref="WZ2:XB2"/>
-    <mergeCell ref="XC2:XE2"/>
-    <mergeCell ref="XF2:XH2"/>
-    <mergeCell ref="XI2:XK2"/>
-    <mergeCell ref="XC3:XE3"/>
-    <mergeCell ref="XL2:XN2"/>
-    <mergeCell ref="WK2:WM2"/>
-    <mergeCell ref="WN2:WP2"/>
-    <mergeCell ref="VY3:WA3"/>
-    <mergeCell ref="WB3:WD3"/>
-    <mergeCell ref="WE3:WG3"/>
-    <mergeCell ref="WH3:WJ3"/>
-    <mergeCell ref="WK3:WM3"/>
-    <mergeCell ref="WN3:WP3"/>
-    <mergeCell ref="WZ3:XB3"/>
-    <mergeCell ref="WQ2:WS2"/>
-    <mergeCell ref="VP3:VR3"/>
-    <mergeCell ref="RW3:RY3"/>
-    <mergeCell ref="RZ3:SB3"/>
-    <mergeCell ref="SC3:SE3"/>
-    <mergeCell ref="SF2:SH2"/>
-    <mergeCell ref="SF3:SH3"/>
-    <mergeCell ref="SR2:ST2"/>
-    <mergeCell ref="UL2:UN2"/>
-    <mergeCell ref="RZ2:SB2"/>
-    <mergeCell ref="SC2:SE2"/>
-    <mergeCell ref="SU2:SW2"/>
-    <mergeCell ref="SO3:SQ3"/>
-    <mergeCell ref="SR3:ST3"/>
-    <mergeCell ref="SU3:SW3"/>
-    <mergeCell ref="SI2:SK2"/>
-    <mergeCell ref="SL2:SN2"/>
-    <mergeCell ref="SI3:SK3"/>
-    <mergeCell ref="SL3:SN3"/>
-    <mergeCell ref="SO2:SQ2"/>
-    <mergeCell ref="UF3:UH3"/>
-    <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="KG2:KI2"/>
-    <mergeCell ref="KJ2:KL2"/>
-    <mergeCell ref="KM2:KO2"/>
-    <mergeCell ref="KM3:KO3"/>
-    <mergeCell ref="KJ3:KL3"/>
-    <mergeCell ref="KG3:KI3"/>
-    <mergeCell ref="KD1:KO1"/>
-    <mergeCell ref="KD2:KF2"/>
-    <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="FH1:FP1"/>
-    <mergeCell ref="FH2:FJ2"/>
-    <mergeCell ref="FK2:FM2"/>
-    <mergeCell ref="FN2:FP2"/>
-    <mergeCell ref="FH3:FJ3"/>
-    <mergeCell ref="FK3:FM3"/>
-    <mergeCell ref="FN3:FP3"/>
-    <mergeCell ref="MO3:MQ3"/>
-    <mergeCell ref="MR3:MT3"/>
-    <mergeCell ref="MO2:MQ2"/>
-    <mergeCell ref="MR2:MT2"/>
-    <mergeCell ref="IZ2:JB2"/>
-    <mergeCell ref="JC2:JE2"/>
-    <mergeCell ref="JF2:JH2"/>
-    <mergeCell ref="JI2:JK2"/>
-    <mergeCell ref="LB2:LD2"/>
-    <mergeCell ref="LB3:LD3"/>
-    <mergeCell ref="GR3:GT3"/>
-    <mergeCell ref="GU3:GW3"/>
-    <mergeCell ref="GC2:GE2"/>
-    <mergeCell ref="GF2:GH2"/>
-    <mergeCell ref="GI2:GK2"/>
-    <mergeCell ref="GL2:GN2"/>
-    <mergeCell ref="GO2:GQ2"/>
-    <mergeCell ref="GR2:GT2"/>
-    <mergeCell ref="GO3:GQ3"/>
-    <mergeCell ref="KV2:KX2"/>
-    <mergeCell ref="KY2:LA2"/>
-    <mergeCell ref="MC2:ME2"/>
-    <mergeCell ref="LW3:LY3"/>
-    <mergeCell ref="FQ1:FY1"/>
-    <mergeCell ref="FQ2:FS2"/>
-    <mergeCell ref="FT2:FV2"/>
-    <mergeCell ref="FW2:FY2"/>
-    <mergeCell ref="ABD3:ABD4"/>
-    <mergeCell ref="ABE3:ABE4"/>
-    <mergeCell ref="YP1:YU1"/>
-    <mergeCell ref="YP3:YR3"/>
-    <mergeCell ref="YS3:YU3"/>
-    <mergeCell ref="YP2:YR2"/>
-    <mergeCell ref="PE2:PG2"/>
-    <mergeCell ref="PH2:PJ2"/>
-    <mergeCell ref="OV3:OX3"/>
-    <mergeCell ref="OY3:PA3"/>
-    <mergeCell ref="PB3:PD3"/>
-    <mergeCell ref="PE3:PG3"/>
-    <mergeCell ref="PH3:PJ3"/>
-    <mergeCell ref="OV2:OX2"/>
-    <mergeCell ref="OY2:PA2"/>
-    <mergeCell ref="PB2:PD2"/>
-    <mergeCell ref="VM2:VO2"/>
-    <mergeCell ref="VJ3:VL3"/>
-    <mergeCell ref="VM3:VO3"/>
-    <mergeCell ref="VG2:VI2"/>
-    <mergeCell ref="OP1:PJ1"/>
-    <mergeCell ref="OP2:OR2"/>
-    <mergeCell ref="VA3:VC3"/>
-    <mergeCell ref="VD2:VF2"/>
-    <mergeCell ref="VD3:VF3"/>
-    <mergeCell ref="UO1:VO1"/>
-    <mergeCell ref="UO2:UQ2"/>
-    <mergeCell ref="UR2:UT2"/>
-    <mergeCell ref="UU2:UW2"/>
-    <mergeCell ref="UO3:UQ3"/>
-    <mergeCell ref="UR3:UT3"/>
-    <mergeCell ref="UU3:UW3"/>
-    <mergeCell ref="UX2:UZ2"/>
-    <mergeCell ref="VA2:VC2"/>
-    <mergeCell ref="UX3:UZ3"/>
-    <mergeCell ref="RW1:SW1"/>
-    <mergeCell ref="RW2:RY2"/>
-    <mergeCell ref="OS2:OU2"/>
-    <mergeCell ref="OP3:OR3"/>
-    <mergeCell ref="OS3:OU3"/>
-    <mergeCell ref="RQ2:RS2"/>
-    <mergeCell ref="RT2:RV2"/>
-    <mergeCell ref="QU2:QX2"/>
-    <mergeCell ref="QU3:QX3"/>
-    <mergeCell ref="RH2:RJ2"/>
-    <mergeCell ref="RK2:RM2"/>
-    <mergeCell ref="RN2:RP2"/>
-    <mergeCell ref="RH3:RJ3"/>
-    <mergeCell ref="RK3:RM3"/>
-    <mergeCell ref="RN3:RP3"/>
-    <mergeCell ref="AAB3:AAB4"/>
-    <mergeCell ref="ZI3:ZI4"/>
-    <mergeCell ref="ZL3:ZL4"/>
-    <mergeCell ref="ZI1:ZL2"/>
-    <mergeCell ref="ZS3:ZS4"/>
-    <mergeCell ref="ZT3:ZT4"/>
-    <mergeCell ref="ZU3:ZU4"/>
-    <mergeCell ref="RB1:RV1"/>
-    <mergeCell ref="RB2:RD2"/>
-    <mergeCell ref="TZ2:UB2"/>
-    <mergeCell ref="UC3:UE3"/>
-    <mergeCell ref="UC2:UE2"/>
-    <mergeCell ref="YJ3:YL3"/>
-    <mergeCell ref="YM3:YO3"/>
-    <mergeCell ref="ZF1:ZH2"/>
-    <mergeCell ref="ZF3:ZF4"/>
-    <mergeCell ref="VG3:VI3"/>
-    <mergeCell ref="VJ2:VL2"/>
-    <mergeCell ref="RQ3:RS3"/>
-    <mergeCell ref="RT3:RV3"/>
-    <mergeCell ref="NJ3:NN3"/>
-    <mergeCell ref="ACO1:ACO4"/>
-    <mergeCell ref="ACQ1:ACQ4"/>
-    <mergeCell ref="ABL3:ABL4"/>
-    <mergeCell ref="OM2:OO2"/>
-    <mergeCell ref="OF3:OH3"/>
-    <mergeCell ref="OI3:OL3"/>
-    <mergeCell ref="OM3:OO3"/>
-    <mergeCell ref="RE2:RG2"/>
-    <mergeCell ref="RB3:RD3"/>
-    <mergeCell ref="RE3:RG3"/>
-    <mergeCell ref="QC3:QE3"/>
-    <mergeCell ref="QF3:QH3"/>
-    <mergeCell ref="PN2:PP2"/>
-    <mergeCell ref="PQ2:PS2"/>
-    <mergeCell ref="PT2:PV2"/>
-    <mergeCell ref="PW2:PY2"/>
-    <mergeCell ref="PZ2:QB2"/>
-    <mergeCell ref="QC2:QE2"/>
-    <mergeCell ref="AAG3:AAG4"/>
-    <mergeCell ref="AAH3:AAH4"/>
-    <mergeCell ref="ZM1:ZO2"/>
-    <mergeCell ref="AAV1:AAX2"/>
-    <mergeCell ref="AAX3:AAX4"/>
-    <mergeCell ref="AAW3:AAW4"/>
-    <mergeCell ref="AAV3:AAV4"/>
-    <mergeCell ref="UI2:UK2"/>
-    <mergeCell ref="UF2:UH2"/>
-    <mergeCell ref="UL3:UN3"/>
-    <mergeCell ref="UI3:UK3"/>
-    <mergeCell ref="TS2:TV2"/>
-    <mergeCell ref="TS3:TV3"/>
-    <mergeCell ref="TW2:TY2"/>
-    <mergeCell ref="TW3:TY3"/>
-    <mergeCell ref="TZ3:UB3"/>
-    <mergeCell ref="TS1:UN1"/>
-    <mergeCell ref="AAM3:AAM4"/>
-    <mergeCell ref="AAN3:AAN4"/>
-    <mergeCell ref="AAO3:AAO4"/>
-    <mergeCell ref="ZM3:ZM4"/>
-    <mergeCell ref="ZN3:ZN4"/>
-    <mergeCell ref="AAS3:AAS4"/>
-    <mergeCell ref="AAI3:AAI4"/>
-    <mergeCell ref="AAG1:AAI2"/>
-    <mergeCell ref="VS2:VU2"/>
-    <mergeCell ref="VV2:VX2"/>
-    <mergeCell ref="ACA1:ACA4"/>
-    <mergeCell ref="ACM1:ACM4"/>
-    <mergeCell ref="ACN1:ACN4"/>
-    <mergeCell ref="ABG3:ABG4"/>
-    <mergeCell ref="ABM1:ABO2"/>
-    <mergeCell ref="ABM3:ABM4"/>
-    <mergeCell ref="ABN3:ABN4"/>
-    <mergeCell ref="AAM1:AAO2"/>
-    <mergeCell ref="ABB1:ABE2"/>
-    <mergeCell ref="AAY1:ABA2"/>
-    <mergeCell ref="ABA3:ABA4"/>
-    <mergeCell ref="AAZ3:AAZ4"/>
-    <mergeCell ref="AAY3:AAY4"/>
-    <mergeCell ref="ACC3:ACC4"/>
-    <mergeCell ref="ACB3:ACB4"/>
-    <mergeCell ref="ACB1:ACC2"/>
-    <mergeCell ref="ACL1:ACL4"/>
-    <mergeCell ref="ACK1:ACK4"/>
-    <mergeCell ref="ACJ1:ACJ4"/>
-    <mergeCell ref="ACI1:ACI4"/>
-    <mergeCell ref="ACH1:ACH4"/>
-    <mergeCell ref="ACG1:ACG4"/>
-    <mergeCell ref="ACF1:ACF4"/>
-    <mergeCell ref="ACE1:ACE4"/>
-    <mergeCell ref="EY1:FG1"/>
-    <mergeCell ref="EY2:FA2"/>
-    <mergeCell ref="FB2:FD2"/>
-    <mergeCell ref="EY3:FA3"/>
-    <mergeCell ref="FB3:FD3"/>
-    <mergeCell ref="FE2:FG2"/>
-    <mergeCell ref="FE3:FG3"/>
-    <mergeCell ref="ACR1:ACR4"/>
-    <mergeCell ref="ABF1:ABH2"/>
-    <mergeCell ref="ABF3:ABF4"/>
-    <mergeCell ref="ABH3:ABH4"/>
-    <mergeCell ref="QI3:QK3"/>
-    <mergeCell ref="QL3:QN3"/>
-    <mergeCell ref="QO3:QQ3"/>
-    <mergeCell ref="QR2:QT2"/>
-    <mergeCell ref="QY2:RA2"/>
-    <mergeCell ref="QR3:QT3"/>
-    <mergeCell ref="QY3:RA3"/>
-    <mergeCell ref="ZY3:ZY4"/>
-    <mergeCell ref="QI1:RA1"/>
-    <mergeCell ref="ABW1:ABW4"/>
-    <mergeCell ref="ABX1:ABX4"/>
-    <mergeCell ref="ABY1:ABY4"/>
-    <mergeCell ref="ABZ1:ABZ4"/>
-    <mergeCell ref="NJ2:NN2"/>
-    <mergeCell ref="HY2:IA2"/>
-    <mergeCell ref="IB2:ID2"/>
-    <mergeCell ref="IE2:IG2"/>
-    <mergeCell ref="IH2:IJ2"/>
-    <mergeCell ref="IK2:IM2"/>
-    <mergeCell ref="HV3:HX3"/>
-    <mergeCell ref="HY3:IA3"/>
-    <mergeCell ref="IB3:ID3"/>
-    <mergeCell ref="IE3:IG3"/>
-    <mergeCell ref="LZ3:MB3"/>
-    <mergeCell ref="IN2:IP2"/>
-    <mergeCell ref="IQ2:IS2"/>
-    <mergeCell ref="IT2:IV2"/>
-    <mergeCell ref="IW2:IY2"/>
-    <mergeCell ref="MC3:ME3"/>
-    <mergeCell ref="KS3:KU3"/>
-    <mergeCell ref="KP3:KR3"/>
-    <mergeCell ref="KS2:KU2"/>
-    <mergeCell ref="ABO3:ABO4"/>
-    <mergeCell ref="ABQ1:ABQ4"/>
-    <mergeCell ref="ABR1:ABR4"/>
-    <mergeCell ref="ABK3:ABK4"/>
-    <mergeCell ref="ABJ3:ABJ4"/>
-    <mergeCell ref="ABI3:ABI4"/>
-    <mergeCell ref="ABI1:ABL2"/>
-    <mergeCell ref="ABB3:ABB4"/>
-    <mergeCell ref="ABC3:ABC4"/>
-    <mergeCell ref="BQ3:BT3"/>
-    <mergeCell ref="BU3:BX3"/>
-    <mergeCell ref="ABP1:ABP4"/>
-    <mergeCell ref="BQ2:BT2"/>
-    <mergeCell ref="BU2:BX2"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="CD2:CG2"/>
-    <mergeCell ref="MX2:NA2"/>
-    <mergeCell ref="NB2:NE2"/>
-    <mergeCell ref="NF2:NI2"/>
-    <mergeCell ref="BQ1:CG1"/>
-    <mergeCell ref="CZ1:DK1"/>
-    <mergeCell ref="CZ2:DB2"/>
-    <mergeCell ref="DC2:DE2"/>
-    <mergeCell ref="CH2:CJ2"/>
-    <mergeCell ref="CK2:CM2"/>
-    <mergeCell ref="CH1:CM1"/>
-    <mergeCell ref="DF2:DH2"/>
-    <mergeCell ref="DI2:DK2"/>
-    <mergeCell ref="DL1:DT1"/>
-    <mergeCell ref="DL2:DN2"/>
-    <mergeCell ref="DO2:DQ2"/>
-    <mergeCell ref="DR2:DT2"/>
-    <mergeCell ref="EJ2:EL2"/>
-    <mergeCell ref="ACP1:ACP4"/>
-    <mergeCell ref="ABV1:ABV4"/>
-    <mergeCell ref="ABU1:ABU4"/>
-    <mergeCell ref="ABS1:ABS4"/>
-    <mergeCell ref="ABT1:ABT4"/>
-    <mergeCell ref="NO3:NR3"/>
-    <mergeCell ref="YV3:YY3"/>
-    <mergeCell ref="YZ3:ZB3"/>
-    <mergeCell ref="NO2:NR2"/>
-    <mergeCell ref="YV1:ZB1"/>
-    <mergeCell ref="YV2:YY2"/>
-    <mergeCell ref="YZ2:ZB2"/>
-    <mergeCell ref="AAP1:AAR2"/>
-    <mergeCell ref="AAR3:AAR4"/>
-    <mergeCell ref="AAQ3:AAQ4"/>
-    <mergeCell ref="AAP3:AAP4"/>
-    <mergeCell ref="AAS1:AAU2"/>
-    <mergeCell ref="AAU3:AAU4"/>
-    <mergeCell ref="AAT3:AAT4"/>
-    <mergeCell ref="MX1:NR1"/>
-    <mergeCell ref="MX3:NA3"/>
-    <mergeCell ref="NB3:NE3"/>
-    <mergeCell ref="NF3:NI3"/>
-    <mergeCell ref="ZS1:ZU2"/>
-    <mergeCell ref="BY3:CC3"/>
-    <mergeCell ref="CD3:CG3"/>
-    <mergeCell ref="EM3:EO3"/>
-    <mergeCell ref="CN1:CS1"/>
-    <mergeCell ref="CN2:CP2"/>
-    <mergeCell ref="CQ2:CS2"/>
-    <mergeCell ref="CN3:CP3"/>
-    <mergeCell ref="CQ3:CS3"/>
-    <mergeCell ref="DU1:EC1"/>
-    <mergeCell ref="DU2:DW2"/>
-    <mergeCell ref="DX2:DZ2"/>
-    <mergeCell ref="EA2:EC2"/>
-    <mergeCell ref="DU3:DW3"/>
-    <mergeCell ref="DX3:DZ3"/>
-    <mergeCell ref="EA3:EC3"/>
-    <mergeCell ref="CT1:CY1"/>
-    <mergeCell ref="CT2:CV2"/>
-    <mergeCell ref="CW2:CY2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CY3"/>
-    <mergeCell ref="ED1:EI1"/>
-    <mergeCell ref="ED2:EF2"/>
-    <mergeCell ref="EJ1:EX1"/>
-    <mergeCell ref="ES2:EU2"/>
-    <mergeCell ref="CK3:CM3"/>
-    <mergeCell ref="KD3:KF3"/>
-    <mergeCell ref="IH3:IJ3"/>
-    <mergeCell ref="IK3:IM3"/>
-    <mergeCell ref="CZ3:DB3"/>
-    <mergeCell ref="DC3:DE3"/>
-    <mergeCell ref="CH3:CJ3"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="DI3:DK3"/>
-    <mergeCell ref="DL3:DN3"/>
-    <mergeCell ref="DO3:DQ3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="IN3:IP3"/>
-    <mergeCell ref="IQ3:IS3"/>
-    <mergeCell ref="IT3:IV3"/>
-    <mergeCell ref="IW3:IY3"/>
-    <mergeCell ref="IZ3:JB3"/>
-    <mergeCell ref="JC3:JE3"/>
-    <mergeCell ref="JF3:JH3"/>
-    <mergeCell ref="JI3:JK3"/>
-    <mergeCell ref="FQ3:FS3"/>
-    <mergeCell ref="FT3:FV3"/>
-    <mergeCell ref="FW3:FY3"/>
-    <mergeCell ref="EJ3:EL3"/>
-    <mergeCell ref="T1:T4"/>
-    <mergeCell ref="U1:U4"/>
-    <mergeCell ref="V1:V4"/>
-    <mergeCell ref="W1:W4"/>
-    <mergeCell ref="X1:X4"/>
-    <mergeCell ref="Y1:Y4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="S1:S4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="HV1:IM1"/>
-    <mergeCell ref="GX1:HU1"/>
-    <mergeCell ref="GX2:GZ2"/>
-    <mergeCell ref="HA2:HC2"/>
-    <mergeCell ref="HD2:HF2"/>
-    <mergeCell ref="HG2:HI2"/>
-    <mergeCell ref="HJ2:HL2"/>
-    <mergeCell ref="HM2:HO2"/>
-    <mergeCell ref="HP2:HR2"/>
-    <mergeCell ref="HS2:HU2"/>
-    <mergeCell ref="GX3:GZ3"/>
-    <mergeCell ref="HA3:HC3"/>
-    <mergeCell ref="HD3:HF3"/>
-    <mergeCell ref="HG3:HI3"/>
-    <mergeCell ref="HJ3:HL3"/>
-    <mergeCell ref="HM3:HO3"/>
-    <mergeCell ref="HP3:HR3"/>
-    <mergeCell ref="HS3:HU3"/>
-    <mergeCell ref="HV2:HX2"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="JL1:KC1"/>
-    <mergeCell ref="JL2:JN2"/>
-    <mergeCell ref="JO2:JQ2"/>
-    <mergeCell ref="JR2:JT2"/>
-    <mergeCell ref="JU2:JW2"/>
-    <mergeCell ref="JX2:JZ2"/>
-    <mergeCell ref="KA2:KC2"/>
-    <mergeCell ref="JL3:JN3"/>
-    <mergeCell ref="JO3:JQ3"/>
-    <mergeCell ref="JR3:JT3"/>
-    <mergeCell ref="JU3:JW3"/>
-    <mergeCell ref="JX3:JZ3"/>
-    <mergeCell ref="KA3:KC3"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="AS1:AX1"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="IN1:JK1"/>
-    <mergeCell ref="EG2:EI2"/>
-    <mergeCell ref="ED3:EF3"/>
-    <mergeCell ref="EG3:EI3"/>
-    <mergeCell ref="SX1:TR1"/>
-    <mergeCell ref="SX2:SZ2"/>
-    <mergeCell ref="TA2:TC2"/>
-    <mergeCell ref="TD2:TF2"/>
-    <mergeCell ref="TG2:TI2"/>
-    <mergeCell ref="TJ2:TL2"/>
-    <mergeCell ref="TM2:TO2"/>
-    <mergeCell ref="TP2:TR2"/>
-    <mergeCell ref="SX3:SZ3"/>
-    <mergeCell ref="TA3:TC3"/>
-    <mergeCell ref="TD3:TF3"/>
-    <mergeCell ref="TG3:TI3"/>
-    <mergeCell ref="TJ3:TL3"/>
-    <mergeCell ref="TM3:TO3"/>
-    <mergeCell ref="TP3:TR3"/>
-    <mergeCell ref="EP3:ER3"/>
-    <mergeCell ref="EM2:EO2"/>
-    <mergeCell ref="EP2:ER2"/>
-    <mergeCell ref="ES3:EU3"/>
-    <mergeCell ref="EV2:EX2"/>
-    <mergeCell ref="EV3:EX3"/>
-    <mergeCell ref="XO3:XQ3"/>
-    <mergeCell ref="XR3:XT3"/>
-    <mergeCell ref="XU3:XW3"/>
-    <mergeCell ref="XX3:XZ3"/>
-    <mergeCell ref="YA3:YC3"/>
-    <mergeCell ref="YD3:YF3"/>
-    <mergeCell ref="XO1:YO1"/>
-    <mergeCell ref="XO2:XQ2"/>
-    <mergeCell ref="XR2:XT2"/>
-    <mergeCell ref="XU2:XW2"/>
-    <mergeCell ref="XX2:XZ2"/>
-    <mergeCell ref="YA2:YC2"/>
-    <mergeCell ref="YD2:YF2"/>
-    <mergeCell ref="YG2:YI2"/>
-    <mergeCell ref="YJ2:YL2"/>
-    <mergeCell ref="YM2:YO2"/>
-    <mergeCell ref="YG3:YI3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C4">
     <cfRule type="duplicateValues" dxfId="219" priority="30"/>
@@ -15476,122 +15523,122 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="482" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="482" t="s">
+      <c r="A2" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="492" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="482" t="s">
+      <c r="C2" s="492" t="s">
         <v>305</v>
       </c>
-      <c r="D2" s="484" t="s">
+      <c r="D2" s="491" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="482" t="s">
+      <c r="E2" s="492" t="s">
         <v>307</v>
       </c>
-      <c r="F2" s="485" t="s">
+      <c r="F2" s="489" t="s">
         <v>308</v>
       </c>
-      <c r="G2" s="484" t="s">
+      <c r="G2" s="491" t="s">
         <v>309</v>
       </c>
-      <c r="H2" s="482" t="s">
+      <c r="H2" s="492" t="s">
         <v>310</v>
       </c>
-      <c r="I2" s="485" t="s">
+      <c r="I2" s="489" t="s">
         <v>311</v>
       </c>
-      <c r="J2" s="487" t="s">
+      <c r="J2" s="499" t="s">
         <v>312</v>
       </c>
-      <c r="K2" s="488"/>
-      <c r="L2" s="482" t="s">
+      <c r="K2" s="500"/>
+      <c r="L2" s="492" t="s">
         <v>313</v>
       </c>
-      <c r="M2" s="482" t="s">
+      <c r="M2" s="492" t="s">
         <v>314</v>
       </c>
-      <c r="N2" s="482" t="s">
+      <c r="N2" s="492" t="s">
         <v>315</v>
       </c>
-      <c r="O2" s="482" t="s">
+      <c r="O2" s="492" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="482" t="s">
+      <c r="P2" s="492" t="s">
         <v>316</v>
       </c>
-      <c r="Q2" s="482" t="s">
+      <c r="Q2" s="492" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="484" t="s">
+      <c r="R2" s="491" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="484" t="s">
+      <c r="S2" s="491" t="s">
         <v>317</v>
       </c>
-      <c r="T2" s="482" t="s">
+      <c r="T2" s="492" t="s">
         <v>318</v>
       </c>
-      <c r="U2" s="489" t="s">
+      <c r="U2" s="494" t="s">
         <v>319</v>
       </c>
-      <c r="V2" s="491" t="s">
+      <c r="V2" s="496" t="s">
         <v>320</v>
       </c>
-      <c r="W2" s="482" t="s">
+      <c r="W2" s="492" t="s">
         <v>321</v>
       </c>
-      <c r="X2" s="492" t="s">
+      <c r="X2" s="497" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="482" t="s">
+      <c r="Y2" s="492" t="s">
         <v>322</v>
       </c>
-      <c r="Z2" s="485" t="s">
+      <c r="Z2" s="489" t="s">
         <v>323</v>
       </c>
-      <c r="AA2" s="484" t="s">
+      <c r="AA2" s="491" t="s">
         <v>324</v>
       </c>
-      <c r="AB2" s="482" t="s">
+      <c r="AB2" s="492" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="483"/>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
-      <c r="D3" s="484"/>
-      <c r="E3" s="483"/>
-      <c r="F3" s="486"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="483"/>
-      <c r="I3" s="486"/>
+      <c r="A3" s="493"/>
+      <c r="B3" s="493"/>
+      <c r="C3" s="493"/>
+      <c r="D3" s="491"/>
+      <c r="E3" s="493"/>
+      <c r="F3" s="490"/>
+      <c r="G3" s="491"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="490"/>
       <c r="J3" s="174" t="s">
         <v>325</v>
       </c>
       <c r="K3" s="174" t="s">
         <v>326</v>
       </c>
-      <c r="L3" s="483"/>
-      <c r="M3" s="483"/>
-      <c r="N3" s="483"/>
-      <c r="O3" s="483"/>
-      <c r="P3" s="483"/>
-      <c r="Q3" s="483"/>
-      <c r="R3" s="484"/>
-      <c r="S3" s="484"/>
-      <c r="T3" s="483"/>
-      <c r="U3" s="490"/>
-      <c r="V3" s="490"/>
-      <c r="W3" s="483"/>
-      <c r="X3" s="493"/>
-      <c r="Y3" s="483"/>
-      <c r="Z3" s="486"/>
-      <c r="AA3" s="484"/>
-      <c r="AB3" s="483"/>
+      <c r="L3" s="493"/>
+      <c r="M3" s="493"/>
+      <c r="N3" s="493"/>
+      <c r="O3" s="493"/>
+      <c r="P3" s="493"/>
+      <c r="Q3" s="493"/>
+      <c r="R3" s="491"/>
+      <c r="S3" s="491"/>
+      <c r="T3" s="493"/>
+      <c r="U3" s="495"/>
+      <c r="V3" s="495"/>
+      <c r="W3" s="493"/>
+      <c r="X3" s="498"/>
+      <c r="Y3" s="493"/>
+      <c r="Z3" s="490"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="493"/>
     </row>
     <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
@@ -47478,15 +47525,11 @@
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
   <mergeCells count="27">
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="H2:H3"/>
@@ -47500,11 +47543,15 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
   </mergeCells>
   <conditionalFormatting sqref="F407">
     <cfRule type="duplicateValues" dxfId="203" priority="99"/>
@@ -47861,170 +47908,170 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="355" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="355" t="s">
+      <c r="A2" s="468" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="468" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="356" t="s">
+      <c r="C2" s="478" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="355" t="s">
+      <c r="D2" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="355" t="s">
+      <c r="E2" s="468" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="355" t="s">
+      <c r="F2" s="468" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="355" t="s">
+      <c r="G2" s="468" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="355" t="s">
+      <c r="H2" s="468" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="355" t="s">
+      <c r="I2" s="468" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="355" t="s">
+      <c r="J2" s="468" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="358" t="s">
+      <c r="K2" s="461" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="355" t="s">
+      <c r="L2" s="468" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="355" t="s">
+      <c r="M2" s="468" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="355" t="s">
+      <c r="N2" s="468" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="355" t="s">
+      <c r="O2" s="468" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="383" t="s">
+      <c r="P2" s="470" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="495" t="s">
+      <c r="Q2" s="506" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="494" t="s">
+      <c r="R2" s="505" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="382" t="s">
+      <c r="S2" s="458" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="497" t="s">
+      <c r="T2" s="501" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="389" t="s">
+      <c r="U2" s="465" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="382" t="s">
+      <c r="V2" s="458" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="382"/>
-      <c r="X2" s="499" t="s">
+      <c r="W2" s="458"/>
+      <c r="X2" s="503" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="383" t="s">
+      <c r="Y2" s="470" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="355" t="s">
+      <c r="Z2" s="468" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="355"/>
-      <c r="B3" s="355"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="355"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="355"/>
-      <c r="G3" s="355"/>
-      <c r="H3" s="355"/>
-      <c r="I3" s="355"/>
-      <c r="J3" s="355"/>
-      <c r="K3" s="358"/>
-      <c r="L3" s="355"/>
-      <c r="M3" s="355"/>
-      <c r="N3" s="355"/>
-      <c r="O3" s="355"/>
-      <c r="P3" s="383"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="494"/>
-      <c r="S3" s="382"/>
-      <c r="T3" s="498"/>
-      <c r="U3" s="389"/>
-      <c r="V3" s="382"/>
-      <c r="W3" s="382"/>
-      <c r="X3" s="500"/>
-      <c r="Y3" s="383"/>
-      <c r="Z3" s="355"/>
+      <c r="A3" s="468"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="468"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
+      <c r="I3" s="468"/>
+      <c r="J3" s="468"/>
+      <c r="K3" s="461"/>
+      <c r="L3" s="468"/>
+      <c r="M3" s="468"/>
+      <c r="N3" s="468"/>
+      <c r="O3" s="468"/>
+      <c r="P3" s="470"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="505"/>
+      <c r="S3" s="458"/>
+      <c r="T3" s="502"/>
+      <c r="U3" s="465"/>
+      <c r="V3" s="458"/>
+      <c r="W3" s="458"/>
+      <c r="X3" s="504"/>
+      <c r="Y3" s="470"/>
+      <c r="Z3" s="468"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="355"/>
-      <c r="B4" s="355"/>
-      <c r="C4" s="356"/>
-      <c r="D4" s="355"/>
-      <c r="E4" s="355"/>
-      <c r="F4" s="355"/>
-      <c r="G4" s="355"/>
-      <c r="H4" s="355"/>
-      <c r="I4" s="355"/>
-      <c r="J4" s="355"/>
-      <c r="K4" s="358"/>
-      <c r="L4" s="355"/>
-      <c r="M4" s="355"/>
-      <c r="N4" s="355"/>
-      <c r="O4" s="355"/>
-      <c r="P4" s="383"/>
-      <c r="Q4" s="496"/>
-      <c r="R4" s="494"/>
-      <c r="S4" s="382"/>
-      <c r="T4" s="498"/>
-      <c r="U4" s="389"/>
-      <c r="V4" s="382"/>
-      <c r="W4" s="382"/>
-      <c r="X4" s="500"/>
-      <c r="Y4" s="383"/>
-      <c r="Z4" s="355"/>
+      <c r="A4" s="468"/>
+      <c r="B4" s="468"/>
+      <c r="C4" s="478"/>
+      <c r="D4" s="468"/>
+      <c r="E4" s="468"/>
+      <c r="F4" s="468"/>
+      <c r="G4" s="468"/>
+      <c r="H4" s="468"/>
+      <c r="I4" s="468"/>
+      <c r="J4" s="468"/>
+      <c r="K4" s="461"/>
+      <c r="L4" s="468"/>
+      <c r="M4" s="468"/>
+      <c r="N4" s="468"/>
+      <c r="O4" s="468"/>
+      <c r="P4" s="470"/>
+      <c r="Q4" s="507"/>
+      <c r="R4" s="505"/>
+      <c r="S4" s="458"/>
+      <c r="T4" s="502"/>
+      <c r="U4" s="465"/>
+      <c r="V4" s="458"/>
+      <c r="W4" s="458"/>
+      <c r="X4" s="504"/>
+      <c r="Y4" s="470"/>
+      <c r="Z4" s="468"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="355"/>
-      <c r="B5" s="355"/>
-      <c r="C5" s="356"/>
-      <c r="D5" s="355"/>
-      <c r="E5" s="355"/>
-      <c r="F5" s="355"/>
-      <c r="G5" s="355"/>
-      <c r="H5" s="355"/>
-      <c r="I5" s="355"/>
-      <c r="J5" s="355"/>
-      <c r="K5" s="358"/>
-      <c r="L5" s="355"/>
-      <c r="M5" s="355"/>
-      <c r="N5" s="355"/>
-      <c r="O5" s="355"/>
-      <c r="P5" s="383"/>
-      <c r="Q5" s="496"/>
-      <c r="R5" s="494"/>
-      <c r="S5" s="382"/>
-      <c r="T5" s="498"/>
-      <c r="U5" s="389"/>
+      <c r="A5" s="468"/>
+      <c r="B5" s="468"/>
+      <c r="C5" s="478"/>
+      <c r="D5" s="468"/>
+      <c r="E5" s="468"/>
+      <c r="F5" s="468"/>
+      <c r="G5" s="468"/>
+      <c r="H5" s="468"/>
+      <c r="I5" s="468"/>
+      <c r="J5" s="468"/>
+      <c r="K5" s="461"/>
+      <c r="L5" s="468"/>
+      <c r="M5" s="468"/>
+      <c r="N5" s="468"/>
+      <c r="O5" s="468"/>
+      <c r="P5" s="470"/>
+      <c r="Q5" s="507"/>
+      <c r="R5" s="505"/>
+      <c r="S5" s="458"/>
+      <c r="T5" s="502"/>
+      <c r="U5" s="465"/>
       <c r="V5" s="209" t="s">
         <v>35</v>
       </c>
       <c r="W5" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="500"/>
-      <c r="Y5" s="383"/>
-      <c r="Z5" s="355"/>
+      <c r="X5" s="504"/>
+      <c r="Y5" s="470"/>
+      <c r="Z5" s="468"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="211">
@@ -66475,13 +66522,12 @@
   </sheetData>
   <autoFilter ref="B2:D5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="25">
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:W4"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
     <mergeCell ref="R2:R5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
@@ -66494,12 +66540,13 @@
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="P2:P5"/>
     <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:W4"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="Y2:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B5">
     <cfRule type="duplicateValues" dxfId="109" priority="102"/>
@@ -66935,155 +66982,155 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="504" t="s">
+      <c r="A2" s="527" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="507" t="s">
+      <c r="B2" s="530" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="507" t="s">
+      <c r="C2" s="530" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="507" t="s">
+      <c r="D2" s="530" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="507" t="s">
+      <c r="E2" s="530" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="510" t="s">
+      <c r="F2" s="533" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="510" t="s">
+      <c r="G2" s="533" t="s">
         <v>1373</v>
       </c>
-      <c r="H2" s="510" t="s">
+      <c r="H2" s="533" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="510" t="s">
+      <c r="I2" s="533" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="510" t="s">
+      <c r="J2" s="533" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="501" t="s">
+      <c r="K2" s="524" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="501" t="s">
+      <c r="L2" s="524" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="501" t="s">
+      <c r="M2" s="524" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="501" t="s">
+      <c r="N2" s="524" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="501" t="s">
+      <c r="O2" s="524" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="501" t="s">
+      <c r="P2" s="524" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="501" t="s">
+      <c r="Q2" s="524" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="513" t="s">
+      <c r="R2" s="521" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="513" t="s">
+      <c r="S2" s="521" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="519" t="s">
+      <c r="T2" s="511" t="s">
         <v>1374</v>
       </c>
-      <c r="U2" s="520"/>
-      <c r="V2" s="520"/>
-      <c r="W2" s="520"/>
-      <c r="X2" s="523" t="s">
+      <c r="U2" s="512"/>
+      <c r="V2" s="512"/>
+      <c r="W2" s="512"/>
+      <c r="X2" s="515" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="524" t="s">
+      <c r="Y2" s="516" t="s">
         <v>1375</v>
       </c>
-      <c r="Z2" s="524"/>
-      <c r="AA2" s="524"/>
-      <c r="AB2" s="524"/>
-      <c r="AC2" s="524"/>
-      <c r="AD2" s="524"/>
-      <c r="AE2" s="525" t="s">
+      <c r="Z2" s="516"/>
+      <c r="AA2" s="516"/>
+      <c r="AB2" s="516"/>
+      <c r="AC2" s="516"/>
+      <c r="AD2" s="516"/>
+      <c r="AE2" s="517" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="528" t="s">
+      <c r="AF2" s="520" t="s">
         <v>1376</v>
       </c>
-      <c r="AG2" s="528"/>
-      <c r="AH2" s="523" t="s">
+      <c r="AG2" s="520"/>
+      <c r="AH2" s="515" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="523" t="s">
+      <c r="AI2" s="515" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="516" t="s">
+      <c r="AJ2" s="508" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="505"/>
-      <c r="B3" s="508"/>
-      <c r="C3" s="508"/>
-      <c r="D3" s="508"/>
-      <c r="E3" s="508"/>
-      <c r="F3" s="511"/>
-      <c r="G3" s="511"/>
-      <c r="H3" s="511"/>
-      <c r="I3" s="511"/>
-      <c r="J3" s="511"/>
-      <c r="K3" s="502"/>
-      <c r="L3" s="502"/>
-      <c r="M3" s="502"/>
-      <c r="N3" s="502"/>
-      <c r="O3" s="502"/>
-      <c r="P3" s="502"/>
-      <c r="Q3" s="502"/>
-      <c r="R3" s="514"/>
-      <c r="S3" s="514"/>
-      <c r="T3" s="521"/>
-      <c r="U3" s="522"/>
-      <c r="V3" s="522"/>
-      <c r="W3" s="522"/>
-      <c r="X3" s="523"/>
-      <c r="Y3" s="524"/>
-      <c r="Z3" s="524"/>
-      <c r="AA3" s="524"/>
-      <c r="AB3" s="524"/>
-      <c r="AC3" s="524"/>
-      <c r="AD3" s="524"/>
-      <c r="AE3" s="526"/>
-      <c r="AF3" s="528"/>
-      <c r="AG3" s="528"/>
-      <c r="AH3" s="523"/>
-      <c r="AI3" s="523"/>
-      <c r="AJ3" s="516"/>
+      <c r="A3" s="528"/>
+      <c r="B3" s="531"/>
+      <c r="C3" s="531"/>
+      <c r="D3" s="531"/>
+      <c r="E3" s="531"/>
+      <c r="F3" s="534"/>
+      <c r="G3" s="534"/>
+      <c r="H3" s="534"/>
+      <c r="I3" s="534"/>
+      <c r="J3" s="534"/>
+      <c r="K3" s="525"/>
+      <c r="L3" s="525"/>
+      <c r="M3" s="525"/>
+      <c r="N3" s="525"/>
+      <c r="O3" s="525"/>
+      <c r="P3" s="525"/>
+      <c r="Q3" s="525"/>
+      <c r="R3" s="522"/>
+      <c r="S3" s="522"/>
+      <c r="T3" s="513"/>
+      <c r="U3" s="514"/>
+      <c r="V3" s="514"/>
+      <c r="W3" s="514"/>
+      <c r="X3" s="515"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="516"/>
+      <c r="AA3" s="516"/>
+      <c r="AB3" s="516"/>
+      <c r="AC3" s="516"/>
+      <c r="AD3" s="516"/>
+      <c r="AE3" s="518"/>
+      <c r="AF3" s="520"/>
+      <c r="AG3" s="520"/>
+      <c r="AH3" s="515"/>
+      <c r="AI3" s="515"/>
+      <c r="AJ3" s="508"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="505"/>
-      <c r="B4" s="508"/>
-      <c r="C4" s="508"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
-      <c r="H4" s="511"/>
-      <c r="I4" s="511"/>
-      <c r="J4" s="511"/>
-      <c r="K4" s="502"/>
-      <c r="L4" s="502"/>
-      <c r="M4" s="502"/>
-      <c r="N4" s="502"/>
-      <c r="O4" s="502"/>
-      <c r="P4" s="502"/>
-      <c r="Q4" s="502"/>
-      <c r="R4" s="514"/>
-      <c r="S4" s="514"/>
+      <c r="A4" s="528"/>
+      <c r="B4" s="531"/>
+      <c r="C4" s="531"/>
+      <c r="D4" s="531"/>
+      <c r="E4" s="531"/>
+      <c r="F4" s="534"/>
+      <c r="G4" s="534"/>
+      <c r="H4" s="534"/>
+      <c r="I4" s="534"/>
+      <c r="J4" s="534"/>
+      <c r="K4" s="525"/>
+      <c r="L4" s="525"/>
+      <c r="M4" s="525"/>
+      <c r="N4" s="525"/>
+      <c r="O4" s="525"/>
+      <c r="P4" s="525"/>
+      <c r="Q4" s="525"/>
+      <c r="R4" s="522"/>
+      <c r="S4" s="522"/>
       <c r="T4" s="279">
         <v>0.11</v>
       </c>
@@ -67096,7 +67143,7 @@
       <c r="W4" s="281">
         <v>0.1</v>
       </c>
-      <c r="X4" s="523"/>
+      <c r="X4" s="515"/>
       <c r="Y4" s="282">
         <v>0.05</v>
       </c>
@@ -67109,41 +67156,41 @@
       <c r="AB4" s="283">
         <v>0.1</v>
       </c>
-      <c r="AC4" s="518"/>
+      <c r="AC4" s="510"/>
       <c r="AD4" s="279">
         <v>0.08</v>
       </c>
-      <c r="AE4" s="526"/>
+      <c r="AE4" s="518"/>
       <c r="AF4" s="284">
         <v>0.05</v>
       </c>
       <c r="AG4" s="284">
         <v>0.05</v>
       </c>
-      <c r="AH4" s="523"/>
-      <c r="AI4" s="523"/>
-      <c r="AJ4" s="516"/>
+      <c r="AH4" s="515"/>
+      <c r="AI4" s="515"/>
+      <c r="AJ4" s="508"/>
     </row>
     <row r="5" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="505"/>
-      <c r="B5" s="508"/>
-      <c r="C5" s="508"/>
-      <c r="D5" s="508"/>
-      <c r="E5" s="508"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="511"/>
-      <c r="J5" s="511"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="502"/>
-      <c r="M5" s="502"/>
-      <c r="N5" s="502"/>
-      <c r="O5" s="502"/>
-      <c r="P5" s="502"/>
-      <c r="Q5" s="502"/>
-      <c r="R5" s="514"/>
-      <c r="S5" s="514"/>
+      <c r="A5" s="528"/>
+      <c r="B5" s="531"/>
+      <c r="C5" s="531"/>
+      <c r="D5" s="531"/>
+      <c r="E5" s="531"/>
+      <c r="F5" s="534"/>
+      <c r="G5" s="534"/>
+      <c r="H5" s="534"/>
+      <c r="I5" s="534"/>
+      <c r="J5" s="534"/>
+      <c r="K5" s="525"/>
+      <c r="L5" s="525"/>
+      <c r="M5" s="525"/>
+      <c r="N5" s="525"/>
+      <c r="O5" s="525"/>
+      <c r="P5" s="525"/>
+      <c r="Q5" s="525"/>
+      <c r="R5" s="522"/>
+      <c r="S5" s="522"/>
       <c r="T5" s="254" t="s">
         <v>63</v>
       </c>
@@ -67156,7 +67203,7 @@
       <c r="W5" s="254" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="523"/>
+      <c r="X5" s="515"/>
       <c r="Y5" s="286" t="s">
         <v>67</v>
       </c>
@@ -67169,43 +67216,43 @@
       <c r="AB5" s="286" t="s">
         <v>70</v>
       </c>
-      <c r="AC5" s="517" t="s">
+      <c r="AC5" s="509" t="s">
         <v>1380</v>
       </c>
       <c r="AD5" s="254" t="s">
         <v>72</v>
       </c>
-      <c r="AE5" s="526"/>
+      <c r="AE5" s="518"/>
       <c r="AF5" s="287" t="s">
         <v>1378</v>
       </c>
       <c r="AG5" s="287" t="s">
         <v>73</v>
       </c>
-      <c r="AH5" s="523"/>
-      <c r="AI5" s="523"/>
-      <c r="AJ5" s="516"/>
+      <c r="AH5" s="515"/>
+      <c r="AI5" s="515"/>
+      <c r="AJ5" s="508"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="506"/>
-      <c r="B6" s="509"/>
-      <c r="C6" s="509"/>
-      <c r="D6" s="509"/>
-      <c r="E6" s="509"/>
-      <c r="F6" s="512"/>
-      <c r="G6" s="512"/>
-      <c r="H6" s="512"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="512"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="503"/>
-      <c r="M6" s="503"/>
-      <c r="N6" s="503"/>
-      <c r="O6" s="503"/>
-      <c r="P6" s="503"/>
-      <c r="Q6" s="503"/>
-      <c r="R6" s="515"/>
-      <c r="S6" s="515"/>
+      <c r="A6" s="529"/>
+      <c r="B6" s="532"/>
+      <c r="C6" s="532"/>
+      <c r="D6" s="532"/>
+      <c r="E6" s="532"/>
+      <c r="F6" s="535"/>
+      <c r="G6" s="535"/>
+      <c r="H6" s="535"/>
+      <c r="I6" s="535"/>
+      <c r="J6" s="535"/>
+      <c r="K6" s="526"/>
+      <c r="L6" s="526"/>
+      <c r="M6" s="526"/>
+      <c r="N6" s="526"/>
+      <c r="O6" s="526"/>
+      <c r="P6" s="526"/>
+      <c r="Q6" s="526"/>
+      <c r="R6" s="523"/>
+      <c r="S6" s="523"/>
       <c r="T6" s="253" t="s">
         <v>39</v>
       </c>
@@ -67218,7 +67265,7 @@
       <c r="W6" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="X6" s="523"/>
+      <c r="X6" s="515"/>
       <c r="Y6" s="255" t="s">
         <v>39</v>
       </c>
@@ -67237,16 +67284,16 @@
       <c r="AD6" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="AE6" s="527"/>
+      <c r="AE6" s="519"/>
       <c r="AF6" s="255" t="s">
         <v>39</v>
       </c>
       <c r="AG6" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="AH6" s="523"/>
-      <c r="AI6" s="523"/>
-      <c r="AJ6" s="516"/>
+      <c r="AH6" s="515"/>
+      <c r="AI6" s="515"/>
+      <c r="AJ6" s="508"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="256" t="s">
@@ -69371,23 +69418,6 @@
   </sheetData>
   <autoFilter ref="AF6:AG26" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="29">
-    <mergeCell ref="AJ2:AJ6"/>
-    <mergeCell ref="AC5"/>
-    <mergeCell ref="AC4"/>
-    <mergeCell ref="T2:W3"/>
-    <mergeCell ref="X2:X6"/>
-    <mergeCell ref="Y2:AD3"/>
-    <mergeCell ref="AE2:AE6"/>
-    <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="AH2:AH6"/>
-    <mergeCell ref="AI2:AI6"/>
-    <mergeCell ref="S2:S6"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="N2:N6"/>
-    <mergeCell ref="O2:O6"/>
-    <mergeCell ref="P2:P6"/>
-    <mergeCell ref="Q2:Q6"/>
-    <mergeCell ref="R2:R6"/>
     <mergeCell ref="L2:L6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
@@ -69400,6 +69430,23 @@
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="K2:K6"/>
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="N2:N6"/>
+    <mergeCell ref="O2:O6"/>
+    <mergeCell ref="P2:P6"/>
+    <mergeCell ref="Q2:Q6"/>
+    <mergeCell ref="R2:R6"/>
+    <mergeCell ref="AJ2:AJ6"/>
+    <mergeCell ref="AC5"/>
+    <mergeCell ref="AC4"/>
+    <mergeCell ref="T2:W3"/>
+    <mergeCell ref="X2:X6"/>
+    <mergeCell ref="Y2:AD3"/>
+    <mergeCell ref="AE2:AE6"/>
+    <mergeCell ref="AF2:AG3"/>
+    <mergeCell ref="AH2:AH6"/>
+    <mergeCell ref="AI2:AI6"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A6">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
@@ -69466,62 +69513,62 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="530" t="s">
+      <c r="A2" s="537" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="530" t="s">
+      <c r="B2" s="537" t="s">
         <v>1373</v>
       </c>
-      <c r="C2" s="531" t="s">
+      <c r="C2" s="538" t="s">
         <v>1384</v>
       </c>
-      <c r="D2" s="532"/>
-      <c r="E2" s="533" t="s">
+      <c r="D2" s="539"/>
+      <c r="E2" s="540" t="s">
         <v>1377</v>
       </c>
-      <c r="F2" s="533" t="s">
+      <c r="F2" s="540" t="s">
         <v>1385</v>
       </c>
-      <c r="G2" s="535" t="s">
+      <c r="G2" s="542" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="536" t="s">
+      <c r="H2" s="543" t="s">
         <v>1386</v>
       </c>
-      <c r="I2" s="536" t="s">
+      <c r="I2" s="543" t="s">
         <v>1387</v>
       </c>
-      <c r="J2" s="537" t="s">
+      <c r="J2" s="544" t="s">
         <v>1388</v>
       </c>
-      <c r="K2" s="537" t="s">
+      <c r="K2" s="544" t="s">
         <v>1389</v>
       </c>
-      <c r="L2" s="537" t="s">
+      <c r="L2" s="544" t="s">
         <v>1390</v>
       </c>
-      <c r="M2" s="529" t="s">
+      <c r="M2" s="536" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="530"/>
-      <c r="B3" s="530"/>
+      <c r="A3" s="537"/>
+      <c r="B3" s="537"/>
       <c r="C3" s="302" t="s">
         <v>1382</v>
       </c>
       <c r="D3" s="302" t="s">
         <v>1375</v>
       </c>
-      <c r="E3" s="534"/>
-      <c r="F3" s="534"/>
-      <c r="G3" s="535"/>
-      <c r="H3" s="536"/>
-      <c r="I3" s="536"/>
-      <c r="J3" s="537"/>
-      <c r="K3" s="537"/>
-      <c r="L3" s="537"/>
-      <c r="M3" s="529"/>
+      <c r="E3" s="541"/>
+      <c r="F3" s="541"/>
+      <c r="G3" s="542"/>
+      <c r="H3" s="543"/>
+      <c r="I3" s="543"/>
+      <c r="J3" s="544"/>
+      <c r="K3" s="544"/>
+      <c r="L3" s="544"/>
+      <c r="M3" s="536"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="289" t="s">
